--- a/financial_models/templates/Stock_Valuation.xlsx
+++ b/financial_models/templates/Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b10873df2abd437/文档/Company_Investment/Opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{81CC1E11-8769-7346-B8E7-77899CF1825C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA17CFBE-0FB0-2F40-BAB2-AABC2674FE78}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8926F09-F6BB-450E-9923-7D3D870E08E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -45,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="228">
   <si>
     <t>Company Info:</t>
   </si>
   <si>
-    <t>Ticker:</t>
-  </si>
-  <si>
-    <t>Ticker Name:</t>
-  </si>
-  <si>
     <t>Current Price:</t>
   </si>
   <si>
@@ -156,9 +139,6 @@
   </si>
   <si>
     <t>Book Figure</t>
-  </si>
-  <si>
-    <t>Valued @</t>
   </si>
   <si>
     <t>Ajusted Valuation</t>
@@ -726,9 +706,6 @@
     <t>Normalized E/P</t>
   </si>
   <si>
-    <t>Normalized D/P:</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -786,25 +763,38 @@
     <t>Others</t>
   </si>
   <si>
-    <t>SAMSONITE INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>1910.HK</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>Watchlist:</t>
-  </si>
-  <si>
     <t>Market Yields</t>
   </si>
   <si>
     <t>Non-controlling Interests</t>
+  </si>
+  <si>
+    <t>Watchlist &amp; Comp_Group:</t>
+  </si>
+  <si>
+    <t>Normalized D/P</t>
+  </si>
+  <si>
+    <t>Symbol:</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Valued @</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>六福珠宝</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>0590.HK</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0003</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -812,18 +802,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -995,6 +985,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Microsoft YaHei"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1276,10 +1273,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1332,8 +1329,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1356,14 +1353,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1388,7 +1385,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1405,7 +1402,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1413,7 +1410,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1460,7 +1457,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1534,7 +1531,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1613,10 +1610,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1627,16 +1624,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1700,71 +1697,74 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -1884,10 +1884,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2095,23 +2091,23 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2120,14 +2116,14 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="25" t="str">
         <f>C3&amp;" : "&amp;C4</f>
-        <v>1910.HK : SAMSONITE INTERNATIONAL</v>
+        <v>0590.HK : 六福珠宝</v>
       </c>
       <c r="D2" s="94"/>
       <c r="E2" s="7"/>
@@ -2135,71 +2131,71 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="191" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="192"/>
+        <v>222</v>
+      </c>
+      <c r="C3" s="199" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="200"/>
       <c r="E3" s="94"/>
       <c r="F3" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>19.04</v>
+        <v>14.72</v>
       </c>
       <c r="H3" s="173" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="203" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" s="204"/>
+        <v>223</v>
+      </c>
+      <c r="C4" s="212" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="201"/>
       <c r="E4" s="94"/>
       <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="200">
-        <v>1462217799</v>
-      </c>
-      <c r="H4" s="200"/>
+        <v>3</v>
+      </c>
+      <c r="G4" s="204">
+        <v>587107850</v>
+      </c>
+      <c r="H4" s="204"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C5" s="202">
         <v>45591</v>
       </c>
-      <c r="D5" s="193"/>
+      <c r="D5" s="203"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="190">
+        <v>102</v>
+      </c>
+      <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>27840.626892959997</v>
-      </c>
-      <c r="H5" s="190"/>
+        <v>8642.2275520000003</v>
+      </c>
+      <c r="H5" s="197"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="205">
+        <v>4</v>
+      </c>
+      <c r="C6" s="191">
         <v>8</v>
       </c>
-      <c r="D6" s="206">
+      <c r="D6" s="192">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -2208,1193 +2204,1192 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="207" t="s">
-        <v>224</v>
-      </c>
-      <c r="H6" s="207"/>
+        <v>5</v>
+      </c>
+      <c r="G6" s="198" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="198"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="203" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="204"/>
+        <v>220</v>
+      </c>
+      <c r="C7" s="190" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="196" t="s">
+        <v>227</v>
+      </c>
       <c r="E7" s="94"/>
       <c r="F7" s="35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G7" s="172">
-        <v>7.8</v>
+        <v>1</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
-        <v>USD/HKD</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>HKD</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="180" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F9" s="186" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="170">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="147" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="170">
-        <v>4.0899999999999999E-2</v>
-      </c>
-      <c r="F10" s="125" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="147" t="s">
-        <v>207</v>
-      </c>
       <c r="C11" s="184">
-        <v>5.1499999999999997E-2</v>
+        <v>5.2900000000000003E-2</v>
       </c>
       <c r="D11" s="177" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="208">
+        <v>142</v>
+      </c>
+      <c r="C12" s="193">
         <v>0.08</v>
       </c>
-      <c r="D12" s="209">
-        <f>(C12+C17)/2</f>
+      <c r="D12" s="170">
         <v>9.6250000000000002E-2</v>
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C14" s="170">
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="F14" s="125" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C15" s="170">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="125" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="147" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C16" s="184">
         <v>0.16</v>
       </c>
-      <c r="D16" s="211" t="s">
-        <v>221</v>
+      <c r="D16" s="195" t="s">
+        <v>217</v>
       </c>
       <c r="F16" s="125" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="194">
+        <v>0.1125</v>
+      </c>
+      <c r="D17" s="189"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="185" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="210">
-        <f>(C15+C16)/2</f>
-        <v>0.1125</v>
-      </c>
-      <c r="D17" s="189"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="185" t="s">
-        <v>213</v>
-      </c>
       <c r="C19" s="175" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D19" s="94"/>
       <c r="E19" s="94"/>
       <c r="F19" s="185" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" s="178">
+        <v>187</v>
+      </c>
+      <c r="C20" s="178" t="e">
         <f>Fin_Analysis!F75</f>
-        <v>0.40723441233977836</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="181" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="178">
+        <v>195</v>
+      </c>
+      <c r="G20" s="178" t="e">
         <f>Fin_Analysis!F91</f>
-        <v>0.10118575838478229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="177" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="178">
+        <v>188</v>
+      </c>
+      <c r="C21" s="178" t="e">
         <f>Fin_Analysis!F77</f>
-        <v>0.41258418422767756</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="181" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G21" s="178">
         <f>Fin_Analysis!F92</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="177" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="178">
+        <v>189</v>
+      </c>
+      <c r="C22" s="178" t="e">
         <f>Fin_Analysis!F79</f>
-        <v>4.6980230284597004E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="185" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="177" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="178" t="e">
+        <f>Fin_Analysis!F80</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" s="181" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="177" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="178">
-        <f>Fin_Analysis!F80</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="181" t="s">
-        <v>218</v>
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>2.2211021407113107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.3573200339104732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="177" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="178">
+        <v>191</v>
+      </c>
+      <c r="C24" s="178" t="e">
+        <f>Fin_Analysis!F81</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="181" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="182" t="e">
+        <f>(Fin_Analysis!E86*G7)/G3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="177" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="178" t="e">
         <f>Fin_Analysis!F82</f>
-        <v>9.0430154247230065E-3</v>
-      </c>
-      <c r="F24" s="181" t="s">
-        <v>201</v>
-      </c>
-      <c r="G24" s="182">
-        <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>9.7859218848585991E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="177" t="s">
-        <v>228</v>
-      </c>
-      <c r="C25" s="178">
-        <f>Fin_Analysis!F82</f>
-        <v>9.0430154247230065E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F25" s="181" t="s">
-        <v>200</v>
-      </c>
-      <c r="G25" s="178">
+        <v>197</v>
+      </c>
+      <c r="G25" s="178" t="e">
         <f>Fin_Analysis!F87</f>
-        <v>0.42950999506828114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="179" t="s">
-        <v>196</v>
-      </c>
-      <c r="C26" s="178">
+        <v>193</v>
+      </c>
+      <c r="C26" s="178" t="e">
         <f>Fin_Analysis!F83</f>
-        <v>0.12160756362907141</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F26" s="183" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>4.2031512605042017E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0747282608695652E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" s="98" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E28" s="62"/>
       <c r="F28" s="53" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
-        <v>189</v>
-      </c>
-      <c r="C29" s="168">
+        <v>186</v>
+      </c>
+      <c r="C29" s="168" t="e">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
-        <v>15.531756975966085</v>
-      </c>
-      <c r="D29" s="167">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="167" t="e">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
-        <v>25.886261626610143</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E29" s="94"/>
-      <c r="F29" s="169">
+      <c r="F29" s="169" t="e">
         <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
-        <v>20.709009301288113</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -3421,7 +3416,7 @@
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
       <formula1>"Y, N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3444,13 +3439,13 @@
   </sheetPr>
   <dimension ref="A1:N928"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="137" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D14" sqref="D14"/>
+      <selection pane="topRight" activeCell="D34" sqref="D34:H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3458,7 +3453,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3466,10 +3461,10 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
@@ -3483,23 +3478,23 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="96">
         <v>45291</v>
       </c>
       <c r="D3" s="116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="92">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>Dashboard!G6</f>
-        <v>USD</v>
+        <v>HKD</v>
       </c>
       <c r="G3" s="94"/>
       <c r="H3" s="3"/>
@@ -3509,16 +3504,16 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -3565,17 +3560,13 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="58">
-        <v>3682.4</v>
-      </c>
-      <c r="D6" s="58">
-        <v>2879.6</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="58"/>
       <c r="F6" s="58"/>
       <c r="G6" s="58"/>
@@ -3587,14 +3578,14 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="103">
+        <v>13</v>
+      </c>
+      <c r="C7" s="103" t="str">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
-        <v>0.27878872065564675</v>
+        <v/>
       </c>
       <c r="D7" s="103" t="str">
         <f t="shared" si="1"/>
@@ -3638,17 +3629,13 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="92">
-        <v>1499.6</v>
-      </c>
-      <c r="D8" s="92">
-        <v>1274.2</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="92"/>
       <c r="F8" s="92"/>
       <c r="G8" s="92"/>
@@ -3660,18 +3647,18 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="101">
+        <v>105</v>
+      </c>
+      <c r="C9" s="101" t="str">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
-        <v>2182.8000000000002</v>
-      </c>
-      <c r="D9" s="101">
+        <v/>
+      </c>
+      <c r="D9" s="101" t="str">
         <f t="shared" si="2"/>
-        <v>1605.3999999999999</v>
+        <v/>
       </c>
       <c r="E9" s="101" t="str">
         <f t="shared" si="2"/>
@@ -3711,17 +3698,13 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="92">
-        <v>1519.3</v>
-      </c>
-      <c r="D10" s="92">
-        <v>1185.2</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="92"/>
       <c r="F10" s="92"/>
       <c r="G10" s="92"/>
@@ -3733,18 +3716,18 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="97">
+        <v>100</v>
+      </c>
+      <c r="C11" s="97" t="str">
         <f t="shared" ref="C11:M11" si="3">IF(C6="","",(C12/C6))</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="97">
+        <v/>
+      </c>
+      <c r="D11" s="97" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="E11" s="97" t="str">
         <f t="shared" si="3"/>
@@ -3784,10 +3767,10 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C12" s="92"/>
       <c r="D12" s="92"/>
@@ -3802,18 +3785,18 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="101">
+        <v>106</v>
+      </c>
+      <c r="C13" s="101" t="str">
         <f>IF(C6="","",(C9-C10+C12))</f>
-        <v>663.50000000000023</v>
-      </c>
-      <c r="D13" s="101">
+        <v/>
+      </c>
+      <c r="D13" s="101" t="str">
         <f t="shared" ref="D13:M13" si="4">IF(D6="","",(D9-D10+D12))</f>
-        <v>420.19999999999982</v>
+        <v/>
       </c>
       <c r="E13" s="101" t="str">
         <f t="shared" si="4"/>
@@ -3853,10 +3836,10 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C14" s="92"/>
       <c r="D14" s="92"/>
@@ -3871,10 +3854,10 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C15" s="92"/>
       <c r="D15" s="92"/>
@@ -3889,10 +3872,10 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C16" s="92"/>
       <c r="D16" s="92"/>
@@ -3907,17 +3890,13 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="92">
-        <v>173</v>
-      </c>
-      <c r="D17" s="92">
-        <v>138.30000000000001</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="92"/>
       <c r="F17" s="92"/>
       <c r="G17" s="92"/>
@@ -3929,17 +3908,13 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="92">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="D18" s="92">
-        <v>25.6</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="92"/>
       <c r="F18" s="92"/>
       <c r="G18" s="92"/>
@@ -3951,18 +3926,18 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="95">
+        <v>115</v>
+      </c>
+      <c r="C19" s="95" t="str">
         <f>IF(C6="","",C13-C14-MAX(C15,0)-MAX(C16,0)-C17-MAX(C18/(1-Fin_Analysis!$F$84),0))</f>
-        <v>447.80769230769255</v>
-      </c>
-      <c r="D19" s="95">
+        <v/>
+      </c>
+      <c r="D19" s="95" t="str">
         <f>IF(D6="","",D13-D14-MAX(D15,0)-MAX(D16,0)-D17-MAX(D18/(1-Fin_Analysis!$F$84),0))</f>
-        <v>249.07948717948699</v>
+        <v/>
       </c>
       <c r="E19" s="95" t="str">
         <f>IF(E6="","",E13-E14-MAX(E15,0)-MAX(E16,0)-E17-MAX(E18/(1-Fin_Analysis!$F$84),0))</f>
@@ -4002,14 +3977,14 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="57">
+        <v>116</v>
+      </c>
+      <c r="C20" s="57" t="str">
         <f>IF(D19="","",IF(ABS(C19+D19)=ABS(C19)+ABS(D19),IF(C19&lt;0,-1,1)*(C19-D19)/D19,"Turn"))</f>
-        <v>0.79785054714281534</v>
+        <v/>
       </c>
       <c r="D20" s="57" t="str">
         <f t="shared" ref="D20:M20" si="5">IF(E19="","",IF(ABS(D19+E19)=ABS(D19)+ABS(E19),IF(D19&lt;0,-1,1)*(D19-E19)/E19,"Turn"))</f>
@@ -4053,18 +4028,18 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="56">
+        <v>117</v>
+      </c>
+      <c r="C21" s="56" t="str">
         <f t="shared" ref="C21:M21" si="6">IF(C6="","",C22/C6)</f>
-        <v>9.4853899630675698E-2</v>
-      </c>
-      <c r="D21" s="56">
+        <v/>
+      </c>
+      <c r="D21" s="56" t="str">
         <f t="shared" si="6"/>
-        <v>6.7468398388665043E-2</v>
+        <v/>
       </c>
       <c r="E21" s="56" t="str">
         <f t="shared" si="6"/>
@@ -4104,18 +4079,18 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="102">
+        <v>118</v>
+      </c>
+      <c r="C22" s="102" t="str">
         <f>IF(C6="","",C19*(1-Fin_Analysis!$F$84))</f>
-        <v>349.29000000000019</v>
-      </c>
-      <c r="D22" s="95">
+        <v/>
+      </c>
+      <c r="D22" s="95" t="str">
         <f>IF(D6="","",D19*(1-Fin_Analysis!$F$84))</f>
-        <v>194.28199999999987</v>
+        <v/>
       </c>
       <c r="E22" s="95" t="str">
         <f>IF(E6="","",E19*(1-Fin_Analysis!$F$84))</f>
@@ -4155,14 +4130,14 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="80">
+        <v>138</v>
+      </c>
+      <c r="C23" s="80" t="str">
         <f>IF(D22="","",IF(ABS(C22+D22)=ABS(C22)+ABS(D22),IF(C22&lt;0,-1,1)*(C22-D22)/D22,"Turn"))</f>
-        <v>0.79785054714281523</v>
+        <v/>
       </c>
       <c r="D23" s="80" t="str">
         <f t="shared" ref="D23:M23" si="7">IF(E22="","",IF(ABS(D22+E22)=ABS(D22)+ABS(E22),IF(D22&lt;0,-1,1)*(D22-E22)/E22,"Turn"))</f>
@@ -4206,10 +4181,10 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C24" s="48">
         <f>Fin_Analysis!D9</f>
@@ -4257,18 +4232,18 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="41">
+        <v>14</v>
+      </c>
+      <c r="C25" s="41" t="str">
         <f t="shared" ref="C25:M25" si="17">IF(C6="","",C34+C29+C30)</f>
-        <v>5241.1000000000004</v>
-      </c>
-      <c r="D25" s="41">
+        <v/>
+      </c>
+      <c r="D25" s="41" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="E25" s="41" t="str">
         <f t="shared" si="17"/>
@@ -4308,14 +4283,14 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C26" s="41">
         <f>Fin_Analysis!C28</f>
-        <v>1895.1</v>
+        <v>2422539</v>
       </c>
       <c r="D26" s="92"/>
       <c r="E26" s="92"/>
@@ -4329,14 +4304,14 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C27" s="41">
         <f>Fin_Analysis!C13</f>
-        <v>346.1</v>
+        <v>422018</v>
       </c>
       <c r="D27" s="92"/>
       <c r="E27" s="92"/>
@@ -4350,14 +4325,14 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C28" s="41">
         <f>Fin_Analysis!C18</f>
-        <v>637.70000000000005</v>
+        <v>370793</v>
       </c>
       <c r="D28" s="92"/>
       <c r="E28" s="92"/>
@@ -4371,14 +4346,14 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" s="41">
         <f>Fin_Analysis!I28</f>
-        <v>1180.4000000000001</v>
+        <v>803015</v>
       </c>
       <c r="D29" s="92"/>
       <c r="E29" s="92"/>
@@ -4392,14 +4367,14 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C30" s="41">
         <f>Fin_Analysis!I48</f>
-        <v>2453.6999999999998</v>
+        <v>100207</v>
       </c>
       <c r="D30" s="92"/>
       <c r="E30" s="92"/>
@@ -4413,14 +4388,14 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31" s="41">
         <f>Fin_Analysis!I15</f>
-        <v>218.8</v>
+        <v>5523</v>
       </c>
       <c r="D31" s="92"/>
       <c r="E31" s="92"/>
@@ -4434,14 +4409,14 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" s="41">
         <f>Fin_Analysis!I34</f>
-        <v>2234.7999999999997</v>
+        <v>2115</v>
       </c>
       <c r="D32" s="92"/>
       <c r="E32" s="92"/>
@@ -4455,18 +4430,18 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="95">
+        <v>19</v>
+      </c>
+      <c r="C33" s="95" t="str">
         <f t="shared" ref="C33:M33" si="18">IF(C6="","",C31+C32)</f>
-        <v>2453.6</v>
-      </c>
-      <c r="D33" s="95">
+        <v/>
+      </c>
+      <c r="D33" s="95" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="E33" s="95" t="str">
         <f t="shared" si="18"/>
@@ -4506,14 +4481,14 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C34" s="41">
         <f>Fin_Analysis!D3</f>
-        <v>1607.0000000000005</v>
+        <v>3666124</v>
       </c>
       <c r="D34" s="92"/>
       <c r="E34" s="92"/>
@@ -4527,14 +4502,14 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C35" s="41">
         <f>Fin_Analysis!D4</f>
-        <v>128.10000000000036</v>
+        <v>45613</v>
       </c>
       <c r="D35" s="92"/>
       <c r="E35" s="92"/>
@@ -4548,14 +4523,14 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C36" s="41">
         <f>Fin_Analysis!C63</f>
-        <v>815.5</v>
+        <v>1668632</v>
       </c>
       <c r="D36" s="92"/>
       <c r="E36" s="92"/>
@@ -4569,18 +4544,18 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C37" s="41">
         <f>Fin_Analysis!C68</f>
-        <v>4425.6000000000004</v>
-      </c>
-      <c r="D37" s="41">
+        <v>2900714</v>
+      </c>
+      <c r="D37" s="41" t="str">
         <f t="shared" ref="D37:M37" si="19">IF(D6="","",D25-D36)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="E37" s="41" t="str">
         <f t="shared" si="19"/>
@@ -4620,18 +4595,18 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" s="104">
+        <v>173</v>
+      </c>
+      <c r="C38" s="104" t="str">
         <f>IF(C6="","",C19/C37)</f>
-        <v>0.10118575838478229</v>
-      </c>
-      <c r="D38" s="104" t="e">
+        <v/>
+      </c>
+      <c r="D38" s="104" t="str">
         <f t="shared" ref="D38:M38" si="20">IF(D6="","",D19/D37)</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
       <c r="E38" s="104" t="str">
         <f t="shared" si="20"/>
@@ -4671,10 +4646,10 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -4689,18 +4664,18 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="61">
+        <v>99</v>
+      </c>
+      <c r="C40" s="61" t="str">
         <f t="shared" ref="C40:M40" si="21">IF(C6="","",C8/C6)</f>
-        <v>0.40723441233977836</v>
-      </c>
-      <c r="D40" s="61">
+        <v/>
+      </c>
+      <c r="D40" s="61" t="str">
         <f t="shared" si="21"/>
-        <v>0.44249201277955275</v>
+        <v/>
       </c>
       <c r="E40" s="61" t="str">
         <f t="shared" si="21"/>
@@ -4740,18 +4715,18 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="56">
+        <v>126</v>
+      </c>
+      <c r="C41" s="56" t="str">
         <f t="shared" ref="C41:M41" si="22">IF(C6="","",(C10-C12)/C6)</f>
-        <v>0.41258418422767756</v>
-      </c>
-      <c r="D41" s="56">
+        <v/>
+      </c>
+      <c r="D41" s="56" t="str">
         <f t="shared" si="22"/>
-        <v>0.41158494235310461</v>
+        <v/>
       </c>
       <c r="E41" s="56" t="str">
         <f t="shared" si="22"/>
@@ -4791,18 +4766,18 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="56">
+        <v>101</v>
+      </c>
+      <c r="C42" s="56" t="str">
         <f t="shared" ref="C42:M42" si="23">IF(C6="","",(C14+MAX(C15,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="56">
+        <v/>
+      </c>
+      <c r="D42" s="56" t="str">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="E42" s="56" t="str">
         <f t="shared" si="23"/>
@@ -4842,18 +4817,18 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="56">
+        <v>112</v>
+      </c>
+      <c r="C43" s="56" t="str">
         <f t="shared" ref="C43:M43" si="24">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="56">
+        <v/>
+      </c>
+      <c r="D43" s="56" t="str">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="E43" s="56" t="str">
         <f t="shared" si="24"/>
@@ -4893,18 +4868,18 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="56">
+        <v>127</v>
+      </c>
+      <c r="C44" s="56" t="str">
         <f t="shared" ref="C44:M44" si="25">IF(C6="","",C17/C6)</f>
-        <v>4.6980230284597004E-2</v>
-      </c>
-      <c r="D44" s="56">
+        <v/>
+      </c>
+      <c r="D44" s="56" t="str">
         <f t="shared" si="25"/>
-        <v>4.8027503819975004E-2</v>
+        <v/>
       </c>
       <c r="E44" s="56" t="str">
         <f t="shared" si="25"/>
@@ -4944,18 +4919,18 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="56">
+        <v>139</v>
+      </c>
+      <c r="C45" s="56" t="str">
         <f>IF(C6="","",MAX(C18,0)/(1-Fin_Analysis!$F$84)/C6)</f>
-        <v>1.1593609518875649E-2</v>
-      </c>
-      <c r="D45" s="56">
+        <v/>
+      </c>
+      <c r="D45" s="56" t="str">
         <f>IF(D6="","",MAX(D18,0)/(1-Fin_Analysis!$F$84)/D6)</f>
-        <v>1.1397594395232958E-2</v>
+        <v/>
       </c>
       <c r="E45" s="56" t="str">
         <f>IF(E6="","",MAX(E18,0)/(1-Fin_Analysis!$F$84)/E6)</f>
@@ -4995,18 +4970,18 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" s="56">
+        <v>130</v>
+      </c>
+      <c r="C46" s="56" t="str">
         <f t="shared" ref="C46:M46" si="26">IF(C6="","",C19/C6)</f>
-        <v>0.12160756362907141</v>
-      </c>
-      <c r="D46" s="56">
+        <v/>
+      </c>
+      <c r="D46" s="56" t="str">
         <f t="shared" si="26"/>
-        <v>8.6497946652134672E-2</v>
+        <v/>
       </c>
       <c r="E46" s="56" t="str">
         <f t="shared" si="26"/>
@@ -5046,10 +5021,10 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
@@ -5064,18 +5039,18 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48" s="61">
+        <v>159</v>
+      </c>
+      <c r="C48" s="61" t="str">
         <f t="shared" ref="C48:M48" si="27">IF(C6="","",C27/C6)</f>
-        <v>9.3987616771670654E-2</v>
-      </c>
-      <c r="D48" s="61">
+        <v/>
+      </c>
+      <c r="D48" s="61" t="str">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="E48" s="61" t="str">
         <f t="shared" si="27"/>
@@ -5115,18 +5090,18 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
-        <v>163</v>
-      </c>
-      <c r="C49" s="56">
+        <v>160</v>
+      </c>
+      <c r="C49" s="56" t="str">
         <f t="shared" ref="C49:M49" si="28">IF(C6="","",C28/C6)</f>
-        <v>0.17317510319356941</v>
-      </c>
-      <c r="D49" s="56">
+        <v/>
+      </c>
+      <c r="D49" s="56" t="str">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="E49" s="56" t="str">
         <f t="shared" si="28"/>
@@ -5166,10 +5141,10 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
@@ -5183,14 +5158,14 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="61">
+        <v>20</v>
+      </c>
+      <c r="C51" s="61" t="e">
         <f>IF(C34="","",(C25-C34)/C25)</f>
-        <v>0.69338497643624419</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D51" s="61" t="str">
         <f t="shared" ref="D51:M51" si="29">IF(D34="","",(D25-D34)/D25)</f>
@@ -5233,18 +5208,18 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="60">
+        <v>125</v>
+      </c>
+      <c r="C52" s="60" t="str">
         <f t="shared" ref="C52:M52" si="30">IF(C19="","",IF(C33&lt;=0,"-",C19/C33))</f>
-        <v>0.18251047126984535</v>
+        <v/>
       </c>
       <c r="D52" s="60" t="str">
         <f t="shared" si="30"/>
-        <v>-</v>
+        <v/>
       </c>
       <c r="E52" s="60" t="str">
         <f t="shared" si="30"/>
@@ -5283,18 +5258,18 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="C53" s="56">
+        <v>128</v>
+      </c>
+      <c r="C53" s="56" t="str">
         <f t="shared" ref="C53:M53" si="31">IF(C19="","",IF(C17&lt;=0,"-",C17/C19))</f>
-        <v>0.38632654814051343</v>
-      </c>
-      <c r="D53" s="56">
+        <v/>
+      </c>
+      <c r="D53" s="56" t="str">
         <f t="shared" si="31"/>
-        <v>0.55524443849661875</v>
+        <v/>
       </c>
       <c r="E53" s="56" t="str">
         <f t="shared" si="31"/>
@@ -5333,14 +5308,14 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C54" s="62">
         <f t="shared" ref="C54:M54" si="32">IF(C26="","",C26/C29)</f>
-        <v>1.6054727211114874</v>
+        <v>3.0168041692869996</v>
       </c>
       <c r="D54" s="62" t="str">
         <f t="shared" si="32"/>
@@ -5383,1260 +5358,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6654,7 +6629,7 @@
       <formula>LEN(TRIM(D22))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6671,27 +6646,27 @@
   </sheetPr>
   <dimension ref="A2:K103"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F75" activeCellId="2" sqref="F79:F83 F77 F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
     <col min="3" max="6" width="15.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="68"/>
@@ -6701,17 +6676,17 @@
       <c r="H2" s="7"/>
       <c r="I2" s="94"/>
       <c r="K2" s="50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="94"/>
       <c r="D3" s="141">
         <f>C49-I49</f>
-        <v>1607.0000000000005</v>
+        <v>3666124</v>
       </c>
       <c r="E3" s="73" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
@@ -6720,21 +6695,21 @@
       <c r="F3" s="94"/>
       <c r="G3" s="94"/>
       <c r="H3" s="47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" s="59">
-        <v>1478.9</v>
+        <v>3620511</v>
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="94"/>
       <c r="D4" s="69">
         <f>D3-I3</f>
-        <v>128.10000000000036</v>
+        <v>45613</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="94"/>
@@ -6743,79 +6718,79 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="I5" s="67">
         <f>C28/I28</f>
-        <v>1.6054727211114874</v>
+        <v>3.0168041692869996</v>
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>-2190.5331842251198</v>
+        <v>1212256.4612932415</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>2.3631195919260231</v>
+        <v>0.66933566314362491</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I6" s="67">
         <f>(C24+C25)/I28</f>
-        <v>1.0652321247034902</v>
+        <v>2.527144573887163</v>
       </c>
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>0</v>
+        <v>2.0647934809477366</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I7" s="67">
         <f>C24/I28</f>
-        <v>0.98407319552693984</v>
+        <v>2.447959253563134</v>
       </c>
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="93"/>
       <c r="D9" s="71">
@@ -6831,60 +6806,57 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="F10" s="126" t="s">
         <v>36</v>
-      </c>
-      <c r="D10" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="126" t="s">
-        <v>39</v>
       </c>
       <c r="G10" s="94"/>
       <c r="H10" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I10" s="81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="63">
-        <v>815.5</v>
+        <v>1322113</v>
       </c>
       <c r="D11" s="64">
         <v>1</v>
       </c>
       <c r="E11" s="95">
         <f t="shared" ref="E11:E21" si="0">C11*D11</f>
-        <v>815.5</v>
+        <v>1322113</v>
       </c>
       <c r="F11" s="127"/>
       <c r="G11" s="94"/>
       <c r="H11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="63">
-        <f>67.8+25</f>
-        <v>92.8</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I11" s="63"/>
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C12" s="63"/>
       <c r="D12" s="64">
@@ -6897,61 +6869,63 @@
       <c r="F12" s="127"/>
       <c r="G12" s="94"/>
       <c r="H12" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I12" s="63">
-        <v>126</v>
+        <v>5523</v>
       </c>
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C13" s="63">
-        <v>346.1</v>
+        <v>422018</v>
       </c>
       <c r="D13" s="64">
         <v>0.8</v>
       </c>
       <c r="E13" s="95">
         <f t="shared" si="0"/>
-        <v>276.88000000000005</v>
+        <v>337614.4</v>
       </c>
       <c r="F13" s="127"/>
       <c r="G13" s="94"/>
       <c r="H13" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I13" s="63"/>
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="63"/>
+        <v>42</v>
+      </c>
+      <c r="C14" s="63">
+        <v>221617</v>
+      </c>
       <c r="D14" s="64">
         <v>0.3</v>
       </c>
       <c r="E14" s="95">
         <f>C14*D14</f>
-        <v>0</v>
+        <v>66485.099999999991</v>
       </c>
       <c r="F14" s="127"/>
       <c r="G14" s="94"/>
       <c r="H14" s="93" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I14" s="145"/>
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="63"/>
       <c r="D15" s="64">
@@ -6964,17 +6938,17 @@
       <c r="F15" s="127"/>
       <c r="G15" s="94"/>
       <c r="H15" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I15" s="91">
         <f>SUM(I11:I14)</f>
-        <v>218.8</v>
+        <v>5523</v>
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C16" s="63"/>
       <c r="D16" s="64">
@@ -6990,19 +6964,19 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C17" s="63">
-        <v>95.8</v>
+        <v>63587</v>
       </c>
       <c r="D17" s="64">
         <v>0.1</v>
       </c>
       <c r="E17" s="95">
         <f t="shared" si="0"/>
-        <v>9.58</v>
+        <v>6358.7000000000007</v>
       </c>
       <c r="F17" s="127"/>
       <c r="G17" s="94"/>
@@ -7010,28 +6984,28 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" s="63">
-        <v>637.70000000000005</v>
+        <v>370793</v>
       </c>
       <c r="D18" s="64">
         <v>0.5</v>
       </c>
       <c r="E18" s="95">
         <f t="shared" si="0"/>
-        <v>318.85000000000002</v>
+        <v>185396.5</v>
       </c>
       <c r="F18" s="127"/>
       <c r="G18" s="94"/>
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C19" s="63"/>
       <c r="D19" s="64">
@@ -7042,16 +7016,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="128" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G19" s="30">
         <f>IF(F19="Y",0,1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C20" s="63"/>
       <c r="D20" s="64">
@@ -7062,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="128" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G20" s="30">
         <f>IF(F20="Y",0,1)</f>
@@ -7071,26 +7045,28 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="63"/>
+        <v>50</v>
+      </c>
+      <c r="C21" s="63">
+        <v>22411</v>
+      </c>
       <c r="D21" s="64">
         <v>0.95</v>
       </c>
       <c r="E21" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21290.45</v>
       </c>
       <c r="F21" s="127"/>
       <c r="G21" s="94"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C22" s="63"/>
       <c r="D22" s="64">
@@ -7103,51 +7079,51 @@
       <c r="F22" s="127"/>
       <c r="G22" s="94"/>
       <c r="H22" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
-        <v>961.60000000000014</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>797492</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
       <c r="F23" s="126" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C24" s="65">
         <f>SUM(C11:C14)</f>
-        <v>1161.5999999999999</v>
+        <v>1965748</v>
       </c>
       <c r="D24" s="66">
         <f>IF(E24=0,0,E24/C24)</f>
-        <v>0.94040977961432526</v>
+        <v>0.87814536756491679</v>
       </c>
       <c r="E24" s="95">
         <f>SUM(E11:E14)</f>
-        <v>1092.3800000000001</v>
+        <v>1726212.5</v>
       </c>
       <c r="F24" s="129">
         <f>E24/$E$28</f>
-        <v>0.76884312469647609</v>
+        <v>0.89014064476150334</v>
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C25" s="65">
         <f>SUM(C15:C17)</f>
-        <v>95.8</v>
+        <v>63587</v>
       </c>
       <c r="D25" s="66">
         <f>IF(E25=0,0,E25/C25)</f>
@@ -7155,28 +7131,28 @@
       </c>
       <c r="E25" s="95">
         <f>SUM(E15:E17)</f>
-        <v>9.58</v>
+        <v>6358.7000000000007</v>
       </c>
       <c r="F25" s="129">
         <f t="shared" ref="F25:F27" si="2">E25/$E$28</f>
-        <v>6.7426327235872502E-3</v>
+        <v>3.2789342666936843E-3</v>
       </c>
       <c r="G25" s="94"/>
       <c r="H25" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I25" s="67">
         <f>E28/I28</f>
-        <v>1.2036682480515077</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.4149712645467392</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26" s="65">
         <f>C18+C19+C20</f>
-        <v>637.70000000000005</v>
+        <v>370793</v>
       </c>
       <c r="D26" s="66">
         <f t="shared" ref="D26:D27" si="3">IF(E26=0,0,E26/C26)</f>
@@ -7184,102 +7160,102 @@
       </c>
       <c r="E26" s="95">
         <f>E18+E19+E20</f>
-        <v>318.85000000000002</v>
+        <v>185396.5</v>
       </c>
       <c r="F26" s="129">
         <f t="shared" si="2"/>
-        <v>0.22441424257993683</v>
+        <v>9.5601764004446754E-2</v>
       </c>
       <c r="G26" s="94"/>
       <c r="H26" s="23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I26" s="67">
         <f>E24/($I$28-I22)</f>
-        <v>4.9925959780621589</v>
+        <v>312.54979177982977</v>
       </c>
       <c r="J26" s="8" t="str">
         <f>IF(I26&lt;1,"Liquidity Problem!","")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C27" s="84">
         <f>C21+C22</f>
-        <v>0</v>
+        <v>22411</v>
       </c>
       <c r="D27" s="66">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="E27" s="95">
         <f>E21+E22</f>
-        <v>0</v>
+        <v>21290.45</v>
       </c>
       <c r="F27" s="129">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.0978656967356306E-2</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I27" s="67">
         <f>(E25+E24)/$I$28</f>
-        <v>0.93354794984750933</v>
+        <v>2.1575826105365405</v>
       </c>
       <c r="J27" s="8" t="str">
         <f>IF(OR(I27&lt;0.75,C28&lt;I28),"Liquidity Problem!","")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28" s="86">
         <f>SUM(C11:C22)</f>
-        <v>1895.1</v>
+        <v>2422539</v>
       </c>
       <c r="D28" s="61">
         <f t="shared" ref="D28" si="4">E28/C28</f>
-        <v>0.74972824653052605</v>
+        <v>0.80050647275441178</v>
       </c>
       <c r="E28" s="76">
         <f>SUM(E24:E27)</f>
-        <v>1420.81</v>
+        <v>1939258.15</v>
       </c>
       <c r="F28" s="127"/>
       <c r="G28" s="94"/>
       <c r="H28" s="85" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" s="72">
-        <v>1180.4000000000001</v>
+        <v>803015</v>
       </c>
       <c r="J28" s="32">
         <f>IF(J26="",1,0)+IF(J27="",1,0)+IF(J46="",1,0)+IF(J47="",1,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
       <c r="F29" s="127" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G29" s="94"/>
       <c r="H29" s="94"/>
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C30" s="63"/>
       <c r="D30" s="64">
@@ -7291,38 +7267,38 @@
       <c r="F30" s="127"/>
       <c r="G30" s="94"/>
       <c r="H30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="63">
-        <v>1721</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="63"/>
+        <v>63</v>
+      </c>
+      <c r="C31" s="63">
+        <v>39731</v>
+      </c>
       <c r="D31" s="64">
         <v>0.5</v>
       </c>
       <c r="E31" s="95">
         <f t="shared" ref="E31:E42" si="5">C31*D31</f>
-        <v>0</v>
+        <v>19865.5</v>
       </c>
       <c r="F31" s="127"/>
       <c r="G31" s="94"/>
       <c r="H31" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I31" s="63">
-        <v>392.6</v>
+        <v>2115</v>
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C32" s="63"/>
       <c r="D32" s="64">
@@ -7335,14 +7311,14 @@
       <c r="F32" s="127"/>
       <c r="G32" s="94"/>
       <c r="H32" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C33" s="63"/>
       <c r="D33" s="64">
@@ -7358,17 +7334,14 @@
         <v>1</v>
       </c>
       <c r="H33" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="I33" s="145">
-        <f>121+0.2</f>
-        <v>121.2</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="I33" s="145"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C34" s="63"/>
       <c r="D34" s="64">
@@ -7381,28 +7354,30 @@
       <c r="F34" s="127"/>
       <c r="G34" s="94"/>
       <c r="H34" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I34" s="91">
         <f>SUM(I30:I33)</f>
-        <v>2234.7999999999997</v>
+        <v>2115</v>
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="63"/>
+        <v>70</v>
+      </c>
+      <c r="C35" s="63">
+        <v>85171</v>
+      </c>
       <c r="D35" s="64">
         <v>0.1</v>
       </c>
       <c r="E35" s="95">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8517.1</v>
       </c>
       <c r="F35" s="128" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G35" s="30">
         <f>IF(F35="Y",0,1)</f>
@@ -7410,9 +7385,9 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C36" s="63"/>
       <c r="D36" s="64">
@@ -7423,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="128" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G36" s="30">
         <f>IF(F36="Y",0,1)</f>
@@ -7432,9 +7407,9 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C37" s="63"/>
       <c r="D37" s="64">
@@ -7445,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="128" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G37" s="30">
         <f>IF(F37="Y",0,1)</f>
@@ -7454,29 +7429,28 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C38" s="63">
-        <f>231.7+470.1</f>
-        <v>701.8</v>
+        <v>1863998</v>
       </c>
       <c r="D38" s="64">
         <v>0.1</v>
       </c>
       <c r="E38" s="95">
         <f>C38*D38</f>
-        <v>70.179999999999993</v>
+        <v>186399.80000000002</v>
       </c>
       <c r="F38" s="127"/>
       <c r="G38" s="94"/>
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C39" s="63"/>
       <c r="D39" s="64">
@@ -7491,51 +7465,50 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C40" s="63">
-        <v>1525.3</v>
+        <v>23958</v>
       </c>
       <c r="D40" s="64">
         <v>0.05</v>
       </c>
       <c r="E40" s="95">
         <f t="shared" si="5"/>
-        <v>76.265000000000001</v>
+        <v>1197.9000000000001</v>
       </c>
       <c r="F40" s="127"/>
       <c r="G40" s="94"/>
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C41" s="63">
-        <v>169.3</v>
+        <v>71331</v>
       </c>
       <c r="D41" s="64">
         <v>0.95</v>
       </c>
       <c r="E41" s="95">
         <f t="shared" si="5"/>
-        <v>160.83500000000001</v>
+        <v>67764.45</v>
       </c>
       <c r="F41" s="127"/>
       <c r="G41" s="94"/>
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C42" s="63">
-        <f>882.1+67.5</f>
-        <v>949.6</v>
+        <v>62618</v>
       </c>
       <c r="D42" s="64">
         <v>0</v>
@@ -7547,14 +7520,14 @@
       <c r="F42" s="127"/>
       <c r="G42" s="94"/>
       <c r="H42" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
-        <v>218.90000000000009</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>98092</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7563,173 +7536,173 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C44" s="65">
         <f>SUM(C30:C31)</f>
-        <v>0</v>
+        <v>39731</v>
       </c>
       <c r="D44" s="66">
         <f>IF(E44=0,0,E44/C44)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E44" s="95">
         <f>SUM(E30:E31)</f>
-        <v>0</v>
+        <v>19865.5</v>
       </c>
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C45" s="65">
         <f>SUM(C32:C35)</f>
-        <v>0</v>
+        <v>85171</v>
       </c>
       <c r="D45" s="66">
         <f>IF(E45=0,0,E45/C45)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E45" s="95">
         <f>SUM(E32:E35)</f>
-        <v>0</v>
+        <v>8517.1</v>
       </c>
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C46" s="65">
         <f>C36+C37+C38+C39</f>
-        <v>701.8</v>
+        <v>1863998</v>
       </c>
       <c r="D46" s="66">
         <f t="shared" ref="D46:D47" si="6">IF(E46=0,0,E46/C46)</f>
-        <v>9.9999999999999992E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E46" s="95">
         <f>E36+E37+E38+E39</f>
-        <v>70.179999999999993</v>
+        <v>186399.80000000002</v>
       </c>
       <c r="F46" s="94"/>
       <c r="G46" s="94"/>
       <c r="H46" s="23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I46" s="67">
         <f>(E44+E24)/E64</f>
-        <v>0.44521519400065218</v>
+        <v>228.60408483896308</v>
       </c>
       <c r="J46" s="8" t="str">
         <f>IF(I46&lt;1,"Liquidity Problem!","")</f>
-        <v>Liquidity Problem!</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C47" s="65">
         <f>C40+C41+C42</f>
-        <v>2644.2</v>
+        <v>157907</v>
       </c>
       <c r="D47" s="66">
         <f t="shared" si="6"/>
-        <v>8.9667952499810924E-2</v>
+        <v>0.4367276308206729</v>
       </c>
       <c r="E47" s="95">
         <f>E40+E41+E42</f>
-        <v>237.10000000000002</v>
+        <v>68962.349999999991</v>
       </c>
       <c r="F47" s="94"/>
       <c r="G47" s="94"/>
       <c r="H47" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I47" s="67">
         <f>(E44+E45+E24+E25)/$I$49</f>
-        <v>0.30322775928015189</v>
+        <v>1.9496356377501878</v>
       </c>
       <c r="J47" s="8" t="str">
         <f>IF(OR(I47&lt;0.5,C49&lt;I49),"Liquidity Problem!","")</f>
-        <v>Liquidity Problem!</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C48" s="88">
         <f>SUM(C30:C42)</f>
-        <v>3346</v>
+        <v>2146807</v>
       </c>
       <c r="D48" s="89">
         <f>E48/C48</f>
-        <v>9.1835026897788399E-2</v>
+        <v>0.13217059102192233</v>
       </c>
       <c r="E48" s="83">
         <f>SUM(E30:E42)</f>
-        <v>307.27999999999997</v>
+        <v>283744.75</v>
       </c>
       <c r="F48" s="94"/>
       <c r="G48" s="94"/>
       <c r="H48" s="87" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I48" s="90">
-        <v>2453.6999999999998</v>
+        <v>100207</v>
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C49" s="65">
         <f>C28+C48</f>
-        <v>5241.1000000000004</v>
+        <v>4569346</v>
       </c>
       <c r="D49" s="56">
         <f>E49/C49</f>
-        <v>0.32971895212836994</v>
+        <v>0.48650351713352413</v>
       </c>
       <c r="E49" s="95">
         <f>E28+E48</f>
-        <v>1728.09</v>
+        <v>2223002.9</v>
       </c>
       <c r="F49" s="94"/>
       <c r="G49" s="94"/>
       <c r="H49" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
-        <v>3634.1</v>
+        <v>903222</v>
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C52" s="94"/>
       <c r="D52" s="81" t="str">
@@ -7740,32 +7713,32 @@
       <c r="F52" s="94"/>
       <c r="G52" s="94"/>
       <c r="H52" s="50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C53" s="95">
         <f>D4</f>
-        <v>128.10000000000036</v>
+        <v>45613</v>
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.2211021407113107</v>
+        <v>2.3573200339104732</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>284.52318422511973</v>
+        <v>107524.43870675842</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7774,9 +7747,9 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="159"/>
@@ -7785,51 +7758,51 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C56" s="94"/>
-      <c r="D56" s="198">
+      <c r="D56" s="209">
         <f>I15+I34</f>
-        <v>2453.6</v>
-      </c>
-      <c r="E56" s="199"/>
+        <v>7638</v>
+      </c>
+      <c r="E56" s="210"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C57" s="94"/>
-      <c r="D57" s="200">
+      <c r="D57" s="204">
         <v>0</v>
       </c>
-      <c r="E57" s="193"/>
+      <c r="E57" s="203"/>
       <c r="G57" s="94"/>
       <c r="H57" s="94" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C58" s="94"/>
-      <c r="D58" s="200">
+      <c r="D58" s="204">
         <v>0</v>
       </c>
-      <c r="E58" s="193"/>
+      <c r="E58" s="203"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7838,13 +7811,13 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="82" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E60" s="94"/>
       <c r="F60" s="9"/>
@@ -7852,34 +7825,34 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C61" s="74">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
-        <v>0</v>
+        <v>346519</v>
       </c>
       <c r="D61" s="56">
         <f t="shared" ref="D61:D70" si="7">IF(E61=0,0,E61/C61)</f>
-        <v>0</v>
+        <v>0.27377344388042213</v>
       </c>
       <c r="E61" s="52">
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
-        <v>0</v>
+        <v>94867.7</v>
       </c>
       <c r="F61" s="94"/>
       <c r="G61" s="94"/>
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C62" s="142">
         <f>C11+C30</f>
-        <v>815.5</v>
+        <v>1322113</v>
       </c>
       <c r="D62" s="122">
         <f t="shared" si="7"/>
@@ -7887,71 +7860,71 @@
       </c>
       <c r="E62" s="143">
         <f>E11+E30</f>
-        <v>815.5</v>
+        <v>1322113</v>
       </c>
       <c r="F62" s="94"/>
       <c r="G62" s="94"/>
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C63" s="74">
         <f>C61+C62</f>
-        <v>815.5</v>
+        <v>1668632</v>
       </c>
       <c r="D63" s="29">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.84918705862047472</v>
       </c>
       <c r="E63" s="65">
         <f>E61+E62</f>
-        <v>815.5</v>
+        <v>1416980.7</v>
       </c>
       <c r="F63" s="94"/>
       <c r="G63" s="94"/>
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="146" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C64" s="147"/>
       <c r="D64" s="148"/>
       <c r="E64" s="75">
         <f>D56+D57+D58</f>
-        <v>2453.6</v>
+        <v>7638</v>
       </c>
       <c r="F64" s="94"/>
       <c r="G64" s="94"/>
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C65" s="74">
         <f>C63-E64</f>
-        <v>-1638.1</v>
+        <v>1660994</v>
       </c>
       <c r="D65" s="29">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.84849355265581927</v>
       </c>
       <c r="E65" s="65">
         <f>E63-E64</f>
-        <v>-1638.1</v>
+        <v>1409342.7</v>
       </c>
       <c r="F65" s="94"/>
       <c r="G65" s="94"/>
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -7961,13 +7934,13 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="82" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E67" s="65"/>
       <c r="F67" s="94"/>
@@ -7975,288 +7948,289 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C68" s="74">
         <f>C49-C63</f>
-        <v>4425.6000000000004</v>
+        <v>2900714</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" si="7"/>
-        <v>0.20620706796818508</v>
+        <v>0.27787027607685555</v>
       </c>
       <c r="E68" s="74">
         <f>E49-E63</f>
-        <v>912.58999999999992</v>
+        <v>806022.2</v>
       </c>
       <c r="F68" s="94"/>
       <c r="G68" s="94"/>
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="146" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C69" s="147"/>
       <c r="D69" s="148"/>
       <c r="E69" s="160">
         <f>I49-E64</f>
-        <v>1180.5</v>
+        <v>895584</v>
       </c>
       <c r="F69" s="94"/>
       <c r="G69" s="94"/>
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C70" s="74">
         <f>C68-E69</f>
-        <v>3245.1000000000004</v>
+        <v>2005130</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="7"/>
-        <v>-8.2558318695879956E-2</v>
+        <v>-4.4666330861340683E-2</v>
       </c>
       <c r="E70" s="74">
         <f>E68-E69</f>
-        <v>-267.91000000000008</v>
+        <v>-89561.800000000047</v>
       </c>
       <c r="F70" s="94"/>
       <c r="G70" s="94"/>
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
-        <v>140</v>
-      </c>
-      <c r="C72" s="196">
+        <v>137</v>
+      </c>
+      <c r="C72" s="207">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="196"/>
+      <c r="D72" s="207"/>
       <c r="H72" s="50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
-        <v>(Numbers in 1000000USD)</v>
-      </c>
-      <c r="C73" s="195" t="s">
-        <v>106</v>
-      </c>
-      <c r="D73" s="195"/>
-      <c r="E73" s="197" t="s">
-        <v>107</v>
-      </c>
-      <c r="F73" s="195"/>
-    </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>(Numbers in 1000HKD)</v>
+      </c>
+      <c r="C73" s="206" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" s="206"/>
+      <c r="E73" s="208" t="s">
+        <v>104</v>
+      </c>
+      <c r="F73" s="206"/>
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C74" s="95">
         <f>Data!C6</f>
-        <v>3682.4</v>
+        <v>0</v>
       </c>
       <c r="D74" s="130"/>
       <c r="E74" s="149">
         <f>C74</f>
-        <v>3682.4</v>
+        <v>0</v>
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C75" s="95">
         <f>Data!C8</f>
-        <v>1499.6</v>
-      </c>
-      <c r="D75" s="131">
+        <v>0</v>
+      </c>
+      <c r="D75" s="131" t="e">
         <f>C75/$C$74</f>
-        <v>0.40723441233977836</v>
-      </c>
-      <c r="E75" s="149">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E75" s="149" t="e">
         <f>D75*E74</f>
-        <v>1499.6</v>
-      </c>
-      <c r="F75" s="150">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F75" s="150" t="e">
         <f>E75/$E$74</f>
-        <v>0.40723441233977836</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C76" s="118">
         <f>C74-C75</f>
-        <v>2182.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="D76" s="132"/>
-      <c r="E76" s="151">
+      <c r="E76" s="151" t="e">
         <f>E74-E75</f>
-        <v>2182.8000000000002</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C77" s="95">
         <f>Data!C10-Data!C12</f>
-        <v>1519.3</v>
-      </c>
-      <c r="D77" s="131">
+        <v>0</v>
+      </c>
+      <c r="D77" s="131" t="e">
         <f>C77/$C$74</f>
-        <v>0.41258418422767756</v>
-      </c>
-      <c r="E77" s="149">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E77" s="149" t="e">
         <f>D77*E74</f>
-        <v>1519.3</v>
-      </c>
-      <c r="F77" s="150">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F77" s="150" t="e">
         <f>E77/$E$74</f>
-        <v>0.41258418422767756</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C78" s="118">
         <f>C76-C77</f>
-        <v>663.50000000000023</v>
+        <v>0</v>
       </c>
       <c r="D78" s="132"/>
-      <c r="E78" s="151">
+      <c r="E78" s="151" t="e">
         <f>E76-E77</f>
-        <v>663.50000000000023</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C79" s="95">
         <f>Data!C17</f>
-        <v>173</v>
-      </c>
-      <c r="D79" s="131">
+        <v>0</v>
+      </c>
+      <c r="D79" s="131" t="e">
         <f>C79/$C$74</f>
-        <v>4.6980230284597004E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E79" s="149">
         <f>C79</f>
-        <v>173</v>
-      </c>
-      <c r="F79" s="150">
+        <v>0</v>
+      </c>
+      <c r="F79" s="150" t="e">
         <f>E79/$E$74</f>
-        <v>4.6980230284597004E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C80" s="95">
         <f>Data!C14+MAX(Data!C15,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="131">
+      <c r="D80" s="131" t="e">
         <f>C80/$C$74</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E80" s="149">
+        <f>4%*E74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="149">
-        <v>0</v>
-      </c>
-      <c r="F80" s="150">
+      <c r="F80" s="150" t="e">
         <f t="shared" ref="F80:F83" si="8">E80/$E$74</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C81" s="95">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D81" s="131">
+      <c r="D81" s="131" t="e">
         <f>C81/$C$74</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E81" s="149">
         <f>C81</f>
         <v>0</v>
       </c>
-      <c r="F81" s="150">
+      <c r="F81" s="150" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H81" s="125" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C82" s="95">
         <f>MAX(Data!C18,0)</f>
-        <v>33.299999999999997</v>
-      </c>
-      <c r="D82" s="131">
+        <v>0</v>
+      </c>
+      <c r="D82" s="131" t="e">
         <f>C82/$C$74</f>
-        <v>9.0430154247230065E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E82" s="149">
-        <f>E74*D82</f>
-        <v>33.299999999999997</v>
-      </c>
-      <c r="F82" s="150">
+        <f>E74*0.08%</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="150" t="e">
         <f t="shared" si="8"/>
-        <v>9.0430154247230065E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C83" s="100">
-        <f>C78-C79-C80-C81-C82/(1-F84)</f>
-        <v>447.80769230769255</v>
-      </c>
-      <c r="D83" s="133">
+        <f>C78-C79-C80-C81-C82</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="133" t="e">
         <f>C83/$C$74</f>
-        <v>0.12160756362907141</v>
-      </c>
-      <c r="E83" s="152">
-        <f>E78-E79-E80-E81-E82/(1-F84)</f>
-        <v>447.80769230769255</v>
-      </c>
-      <c r="F83" s="135">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E83" s="152" t="e">
+        <f>E78-E79-E80-E81-E82</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F83" s="135" t="e">
         <f t="shared" si="8"/>
-        <v>0.12160756362907141</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C84" s="121"/>
       <c r="D84" s="134"/>
@@ -8265,121 +8239,122 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C85" s="118">
         <f>C83*(1-F84)</f>
-        <v>349.29000000000019</v>
-      </c>
-      <c r="D85" s="135">
+        <v>0</v>
+      </c>
+      <c r="D85" s="135" t="e">
         <f>C85/$C$74</f>
-        <v>9.4853899630675698E-2</v>
-      </c>
-      <c r="E85" s="154">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E85" s="154" t="e">
         <f>E83*(1-F84)</f>
-        <v>349.29000000000019</v>
-      </c>
-      <c r="F85" s="135">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F85" s="135" t="e">
         <f>E85/$E$74</f>
-        <v>9.4853899630675698E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C86" s="161">
         <f>C85*Data!E3/Common_Shares</f>
-        <v>0.23887686242013811</v>
+        <v>0</v>
       </c>
       <c r="D86" s="130"/>
-      <c r="E86" s="163">
+      <c r="E86" s="163" t="e">
         <f>E85*Data!E3/Common_Shares</f>
-        <v>0.23887686242013811</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C87" s="164">
-        <v>0.1026</v>
-      </c>
-      <c r="D87" s="135">
+        <v>0.15820000000000001</v>
+      </c>
+      <c r="D87" s="135" t="e">
         <f>C87/C86</f>
-        <v>0.42950999506828114</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E87" s="162">
-        <v>0.1026</v>
-      </c>
-      <c r="F87" s="135">
+        <f>C87</f>
+        <v>0.15820000000000001</v>
+      </c>
+      <c r="F87" s="135" t="e">
         <f>E87/E86</f>
-        <v>0.42950999506828114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C89" s="21"/>
       <c r="H89" s="50" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D90" s="201" t="s">
-        <v>174</v>
-      </c>
-      <c r="E90" s="201"/>
+        <v>170</v>
+      </c>
+      <c r="D90" s="211" t="s">
+        <v>171</v>
+      </c>
+      <c r="E90" s="211"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C91" s="174" t="s">
-        <v>225</v>
-      </c>
-      <c r="D91" s="194" t="s">
-        <v>175</v>
-      </c>
-      <c r="E91" s="194"/>
-      <c r="F91" s="29">
+        <v>216</v>
+      </c>
+      <c r="D91" s="205" t="s">
+        <v>172</v>
+      </c>
+      <c r="E91" s="205"/>
+      <c r="F91" s="29" t="e">
         <f>E83/C68</f>
-        <v>0.10118575838478229</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
       </c>
       <c r="C92" s="176">
         <f>IF(C91="CN",Dashboard!C17,IF(C91="US",Dashboard!C12,IF(C91="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>0.08</v>
-      </c>
-      <c r="D92" s="194" t="s">
-        <v>171</v>
-      </c>
-      <c r="E92" s="194"/>
+        <v>9.6250000000000002E-2</v>
+      </c>
+      <c r="D92" s="205" t="s">
+        <v>168</v>
+      </c>
+      <c r="E92" s="205"/>
       <c r="F92" s="137">
         <v>0.02</v>
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8390,116 +8365,116 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C95" s="102">
+        <v>140</v>
+      </c>
+      <c r="C95" s="102" t="e">
         <f>E85/(C92-F92)*Exchange_Rate</f>
-        <v>45407.700000000026</v>
-      </c>
-      <c r="D95" s="155">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D95" s="155" t="e">
         <f>C95*Data!$E$3/Common_Shares</f>
-        <v>31.053992114617955</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C96" s="102">
         <f>E82*Exchange_Rate</f>
-        <v>259.73999999999995</v>
+        <v>0</v>
       </c>
       <c r="D96" s="155">
         <f>C96*Data!$E$3/Common_Shares</f>
-        <v>0.1776342759455084</v>
+        <v>0</v>
       </c>
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>-14866.877999999999</v>
+        <v>1319780.8999999999</v>
       </c>
       <c r="D97" s="156">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>-10.16734853738434</v>
+        <v>2.2479360478658221</v>
       </c>
       <c r="E97" s="157" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F97" s="158" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C98" s="102">
+        <v>119</v>
+      </c>
+      <c r="C98" s="102" t="e">
         <f>C95-C96+$C$97</f>
-        <v>30281.082000000031</v>
-      </c>
-      <c r="D98" s="124">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D98" s="124" t="e">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>20.709009301288113</v>
-      </c>
-      <c r="E98" s="124">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E98" s="124" t="e">
         <f>D98*(1-25%)</f>
-        <v>15.531756975966085</v>
-      </c>
-      <c r="F98" s="124">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F98" s="124" t="e">
         <f>D98*1.25</f>
-        <v>25.886261626610143</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D100" s="165" t="str">
         <f>D94</f>
         <v>HKD</v>
       </c>
       <c r="E100" s="157" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F100" s="158" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>19503.061003062001</v>
+        <v>1218104.4179672133</v>
       </c>
       <c r="D101" s="155">
         <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>13.337999999999999</v>
+        <v>2.0747540983606561</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>10.003499999999999</v>
+        <v>1.556065573770492</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>16.672499999999999</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.5934426229508203</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C103" s="166" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/financial_models/templates/Stock_Valuation.xlsx
+++ b/financial_models/templates/Stock_Valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8926F09-F6BB-450E-9923-7D3D870E08E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04940ABB-B6BE-4452-AB02-5121EFB131F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1734,6 +1734,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1757,9 +1760,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
@@ -2091,8 +2091,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2154,28 +2154,28 @@
       <c r="B4" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="212" t="s">
+      <c r="C4" s="201" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="201"/>
+      <c r="D4" s="202"/>
       <c r="E4" s="94"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="204">
+      <c r="G4" s="205">
         <v>587107850</v>
       </c>
-      <c r="H4" s="204"/>
+      <c r="H4" s="205"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="202">
+      <c r="C5" s="203">
         <v>45591</v>
       </c>
-      <c r="D5" s="203"/>
+      <c r="D5" s="204"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>102</v>
@@ -3439,7 +3439,7 @@
   </sheetPr>
   <dimension ref="A1:N928"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="D34" sqref="D34:H36"/>
@@ -6646,8 +6646,8 @@
   </sheetPr>
   <dimension ref="A2:K103"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F75" activeCellId="2" sqref="F79:F83 F77 F75"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7763,11 +7763,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="94"/>
-      <c r="D56" s="209">
+      <c r="D56" s="210">
         <f>I15+I34</f>
         <v>7638</v>
       </c>
-      <c r="E56" s="210"/>
+      <c r="E56" s="211"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="94"/>
@@ -7778,10 +7778,10 @@
         <v>91</v>
       </c>
       <c r="C57" s="94"/>
-      <c r="D57" s="204">
+      <c r="D57" s="205">
         <v>0</v>
       </c>
-      <c r="E57" s="203"/>
+      <c r="E57" s="204"/>
       <c r="G57" s="94"/>
       <c r="H57" s="94" t="s">
         <v>92</v>
@@ -7793,10 +7793,10 @@
         <v>93</v>
       </c>
       <c r="C58" s="94"/>
-      <c r="D58" s="204">
+      <c r="D58" s="205">
         <v>0</v>
       </c>
-      <c r="E58" s="203"/>
+      <c r="E58" s="204"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="94"/>
@@ -8010,11 +8010,11 @@
       <c r="B72" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="207">
+      <c r="C72" s="208">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="207"/>
+      <c r="D72" s="208"/>
       <c r="H72" s="50" t="s">
         <v>8</v>
       </c>
@@ -8024,14 +8024,14 @@
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="206" t="s">
+      <c r="C73" s="207" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="206"/>
-      <c r="E73" s="208" t="s">
+      <c r="D73" s="207"/>
+      <c r="E73" s="209" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="206"/>
+      <c r="F73" s="207"/>
     </row>
     <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
@@ -8236,7 +8236,7 @@
       <c r="D84" s="134"/>
       <c r="E84" s="153"/>
       <c r="F84" s="136">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8313,10 +8313,10 @@
       <c r="B90" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D90" s="211" t="s">
+      <c r="D90" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="E90" s="211"/>
+      <c r="E90" s="212"/>
       <c r="G90" s="94"/>
     </row>
     <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -8326,10 +8326,10 @@
       <c r="C91" s="174" t="s">
         <v>216</v>
       </c>
-      <c r="D91" s="205" t="s">
+      <c r="D91" s="206" t="s">
         <v>172</v>
       </c>
-      <c r="E91" s="205"/>
+      <c r="E91" s="206"/>
       <c r="F91" s="29" t="e">
         <f>E83/C68</f>
         <v>#DIV/0!</v>
@@ -8345,10 +8345,10 @@
         <f>IF(C91="CN",Dashboard!C17,IF(C91="US",Dashboard!C12,IF(C91="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>9.6250000000000002E-2</v>
       </c>
-      <c r="D92" s="205" t="s">
+      <c r="D92" s="206" t="s">
         <v>168</v>
       </c>
-      <c r="E92" s="205"/>
+      <c r="E92" s="206"/>
       <c r="F92" s="137">
         <v>0.02</v>
       </c>

--- a/financial_models/templates/Stock_Valuation.xlsx
+++ b/financial_models/templates/Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04940ABB-B6BE-4452-AB02-5121EFB131F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0B983C-A0FA-4081-BF66-25BD3956E38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="230">
   <si>
     <t>Company Info:</t>
   </si>
@@ -794,6 +794,14 @@
   </si>
   <si>
     <t>C0003</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg of E and D method</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg Valuation</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1276,7 +1284,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1760,6 +1768,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
@@ -2091,8 +2102,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2474,16 +2485,16 @@
         <v>186</v>
       </c>
       <c r="C29" s="168" t="e">
-        <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!E98,Fin_Analysis!E101)</f>
+        <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D29" s="167" t="e">
-        <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!F98,Fin_Analysis!F101)</f>
+        <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="169" t="e">
-        <f>IF(Fin_Analysis!C103="Profit",Fin_Analysis!D98,Fin_Analysis!D101)</f>
+        <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="94"/>
@@ -3412,7 +3423,7 @@
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -6644,10 +6655,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K103"/>
+  <dimension ref="A2:K106"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8357,8 +8368,8 @@
     <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
-        <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
-        <v>Valuation in HKD</v>
+        <f xml:space="preserve"> "Valuation in "&amp;Data!E3&amp;Dashboard!H3</f>
+        <v>Valuation in 1000HKD</v>
       </c>
       <c r="D94" s="165" t="str">
         <f>Dashboard!H3</f>
@@ -8471,9 +8482,45 @@
     </row>
     <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D103" s="213" t="str">
+        <f>D100</f>
+        <v>HKD</v>
+      </c>
+      <c r="E103" s="157" t="s">
+        <v>143</v>
+      </c>
+      <c r="F103" s="158" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B104" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C104" s="102" t="e">
+        <f>D104*Common_Shares/Data!E3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D104" s="155" t="e">
+        <f>(D98+D101)/2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E104" s="124" t="e">
+        <f>D104*(1-25%)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F104" s="124" t="e">
+        <f>D104*1.25</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B106" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C103" s="166" t="s">
+      <c r="C106" s="166" t="s">
         <v>215</v>
       </c>
     </row>
@@ -8495,9 +8542,9 @@
       <formula>LEN(TRIM(C86))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
+  <conditionalFormatting sqref="C106">
     <cfRule type="containsBlanks" dxfId="3" priority="2">
-      <formula>LEN(TRIM(C103))=0</formula>
+      <formula>LEN(TRIM(C106))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E82 F84">
@@ -8520,8 +8567,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F35:F37 F19:F20" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C103" xr:uid="{E383D7BB-5EEE-044F-801D-1E55C0035917}">
-      <formula1>"Profit, Dividend"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C106" xr:uid="{E383D7BB-5EEE-044F-801D-1E55C0035917}">
+      <formula1>"Profit, Dividend, Avg"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C91" xr:uid="{CA293681-B01E-459F-8C40-5799F5EB5C26}">
       <formula1>"US, CN, HK, Others"</formula1>

--- a/financial_models/templates/Stock_Valuation.xlsx
+++ b/financial_models/templates/Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0B983C-A0FA-4081-BF66-25BD3956E38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BB6CC3-62D5-41D1-9C04-34FB0CF2158A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
+  <calcPr calcId="191029" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="232">
   <si>
     <t>Company Info:</t>
   </si>
@@ -612,10 +612,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>After-Tax Profit Growth Rate =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Valuation Drivers</t>
   </si>
   <si>
@@ -625,9 +621,6 @@
     <t>Internal Drivers</t>
   </si>
   <si>
-    <t xml:space="preserve">Adj. Book Pre-tax ROA = </t>
-  </si>
-  <si>
     <t>Adj. Pre-tax ROA</t>
   </si>
   <si>
@@ -691,12 +684,6 @@
     <t xml:space="preserve">Pre-tax Profit </t>
   </si>
   <si>
-    <t>After-Tax Profit Growth Rate</t>
-  </si>
-  <si>
-    <t>Adj. Book Pre-tax ROA</t>
-  </si>
-  <si>
     <t>Choice of Required Return</t>
   </si>
   <si>
@@ -731,9 +718,6 @@
   </si>
   <si>
     <t>https://fred.stlouisfed.org/series/DGS10</t>
-  </si>
-  <si>
-    <t>Business Indicators</t>
   </si>
   <si>
     <t>Normalized Cost Structure</t>
@@ -797,19 +781,46 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>Initial Rate of Return (E/P)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future Value is</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gordon Growth Model with 2% growth rate</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Initial rate</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>@15% Target</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>Avg of E and D method</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Avg Valuation</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>CNY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="12">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
@@ -820,6 +831,7 @@
     <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -988,18 +1000,18 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Microsoft YaHei"/>
       <family val="1"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1070,7 +1082,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1227,15 +1239,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1284,7 +1287,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1576,9 +1579,6 @@
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1621,9 +1621,6 @@
     <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1671,9 +1668,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1697,14 +1691,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1720,18 +1713,31 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1742,7 +1748,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1753,6 +1759,11 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1763,12 +1774,7 @@
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1777,15 +1783,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2102,8 +2100,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2144,58 +2142,58 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="199" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="200"/>
+        <v>217</v>
+      </c>
+      <c r="C3" s="200" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="201"/>
       <c r="E3" s="94"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="171">
-        <v>14.72</v>
-      </c>
-      <c r="H3" s="173" t="s">
+      <c r="G3" s="169">
+        <v>15.039999961853027</v>
+      </c>
+      <c r="H3" s="171" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="201" t="s">
-        <v>225</v>
-      </c>
-      <c r="D4" s="202"/>
+        <v>218</v>
+      </c>
+      <c r="C4" s="202" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="203"/>
       <c r="E4" s="94"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="205">
+      <c r="G4" s="206">
         <v>587107850</v>
       </c>
-      <c r="H4" s="205"/>
+      <c r="H4" s="206"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="203">
-        <v>45591</v>
-      </c>
-      <c r="D5" s="204"/>
+        <v>178</v>
+      </c>
+      <c r="C5" s="204">
+        <v>45593</v>
+      </c>
+      <c r="D5" s="205"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="197">
+      <c r="G5" s="198">
         <f>G3*G4/1000000</f>
-        <v>8642.2275520000003</v>
-      </c>
-      <c r="H5" s="197"/>
+        <v>8830.1020416036135</v>
+      </c>
+      <c r="H5" s="198"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -2203,10 +2201,10 @@
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="191">
+      <c r="C6" s="187">
         <v>8</v>
       </c>
-      <c r="D6" s="192">
+      <c r="D6" s="188">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -2217,76 +2215,76 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="198" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="198"/>
+      <c r="G6" s="199" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" s="199"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="190" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="186" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="196" t="s">
-        <v>227</v>
+      <c r="D7" s="192" t="s">
+        <v>222</v>
       </c>
       <c r="E7" s="94"/>
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="172">
-        <v>1</v>
+      <c r="G7" s="170">
+        <v>1.1000000000000001</v>
       </c>
       <c r="H7" s="77" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
-        <v>HKD</v>
+        <v>CNY/HKD</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="180" t="s">
-        <v>218</v>
-      </c>
-      <c r="F9" s="186" t="s">
-        <v>211</v>
+      <c r="B9" s="177" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="183" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="168">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="170">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="F10" s="125" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="147" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="184">
-        <v>5.2900000000000003E-2</v>
-      </c>
-      <c r="D11" s="177" t="s">
-        <v>216</v>
+      <c r="C11" s="181">
+        <v>5.3099999999999994E-2</v>
+      </c>
+      <c r="D11" s="174" t="s">
+        <v>211</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="193">
+      <c r="C12" s="189">
         <v>0.08</v>
       </c>
-      <c r="D12" s="170">
+      <c r="D12" s="168">
         <v>9.6250000000000002E-2</v>
       </c>
       <c r="F12" s="125"/>
@@ -2294,171 +2292,159 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="170">
+        <v>196</v>
+      </c>
+      <c r="C14" s="168">
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="F14" s="125" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="168">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="125" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="146" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="181">
+        <v>0.16</v>
+      </c>
+      <c r="D16" s="191" t="s">
         <v>212</v>
       </c>
-      <c r="C15" s="170">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="125" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="147" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" s="184">
-        <v>0.16</v>
-      </c>
-      <c r="D16" s="195" t="s">
-        <v>217</v>
-      </c>
       <c r="F16" s="125" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="194">
+        <v>201</v>
+      </c>
+      <c r="C17" s="190">
         <v>0.1125</v>
       </c>
-      <c r="D17" s="189"/>
+      <c r="D17" s="185"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="185" t="s">
-        <v>209</v>
-      </c>
-      <c r="C19" s="175" t="s">
+      <c r="B19" s="182" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="172" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="94"/>
       <c r="E19" s="94"/>
-      <c r="F19" s="185" t="s">
-        <v>208</v>
-      </c>
+      <c r="F19" s="44"/>
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="177" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="178" t="e">
+      <c r="B20" s="174" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="175" t="e">
         <f>Fin_Analysis!F75</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="181" t="s">
-        <v>195</v>
-      </c>
-      <c r="G20" s="178" t="e">
-        <f>Fin_Analysis!F91</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F20" s="94"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="177" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="178" t="e">
+      <c r="B21" s="174" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="175" t="e">
         <f>Fin_Analysis!F77</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="181" t="s">
-        <v>194</v>
-      </c>
-      <c r="G21" s="178">
-        <f>Fin_Analysis!F92</f>
-        <v>0.02</v>
-      </c>
+      <c r="F21" s="94"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="177" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="178" t="e">
+      <c r="B22" s="174" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="175" t="e">
         <f>Fin_Analysis!F79</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="185" t="s">
-        <v>210</v>
+      <c r="F22" s="182" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="C23" s="178" t="e">
+      <c r="B23" s="174" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="175" t="e">
         <f>Fin_Analysis!F80</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="181" t="s">
-        <v>214</v>
-      </c>
-      <c r="G23" s="188">
+      <c r="F23" s="178" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="184">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>2.3573200339104732</v>
+        <v>0.62402278783358833</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="177" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="178" t="e">
+      <c r="B24" s="174" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="175" t="e">
         <f>Fin_Analysis!F81</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="181" t="s">
-        <v>198</v>
-      </c>
-      <c r="G24" s="182" t="e">
+      <c r="F24" s="178" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="179" t="e">
         <f>(Fin_Analysis!E86*G7)/G3</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="177" t="s">
-        <v>219</v>
-      </c>
-      <c r="C25" s="178" t="e">
+      <c r="B25" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="175" t="e">
         <f>Fin_Analysis!F82</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="181" t="s">
-        <v>197</v>
-      </c>
-      <c r="G25" s="178" t="e">
+      <c r="F25" s="178" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="175" t="e">
         <f>Fin_Analysis!F87</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="179" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="178" t="e">
+      <c r="B26" s="176" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="175" t="e">
         <f>Fin_Analysis!F83</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="183" t="s">
-        <v>221</v>
-      </c>
-      <c r="G26" s="182">
+      <c r="F26" s="180" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="179">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>1.0747282608695652E-2</v>
+        <v>9.9468085358670633E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2468,32 +2454,32 @@
         <v>7</v>
       </c>
       <c r="C28" s="98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E28" s="62"/>
       <c r="F28" s="53" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="168" t="e">
+        <v>184</v>
+      </c>
+      <c r="C29" s="166" t="e">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="167" t="e">
+      <c r="D29" s="165" t="e">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="94"/>
-      <c r="F29" s="169" t="e">
+      <c r="F29" s="167" t="e">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
         <v>#DIV/0!</v>
       </c>
@@ -3404,26 +3390,26 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="11" priority="4">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="10" priority="2">
+    <cfRule type="containsBlanks" dxfId="9" priority="2">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="9" priority="1">
+    <cfRule type="containsBlanks" dxfId="8" priority="1">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="8" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="40" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -3450,10 +3436,10 @@
   </sheetPr>
   <dimension ref="A1:N928"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D34" sqref="D34:H36"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3505,7 +3491,7 @@
       </c>
       <c r="F3" s="1" t="str">
         <f>Dashboard!G6</f>
-        <v>HKD</v>
+        <v>CNY</v>
       </c>
       <c r="G3" s="94"/>
       <c r="H3" s="3"/>
@@ -3523,7 +3509,7 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="139" t="s">
         <v>146</v>
       </c>
       <c r="C5" s="48">
@@ -4194,7 +4180,7 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
-      <c r="B24" s="139" t="s">
+      <c r="B24" s="138" t="s">
         <v>147</v>
       </c>
       <c r="C24" s="48">
@@ -4301,7 +4287,7 @@
       </c>
       <c r="C26" s="41">
         <f>Fin_Analysis!C28</f>
-        <v>2422539</v>
+        <v>12332308</v>
       </c>
       <c r="D26" s="92"/>
       <c r="E26" s="92"/>
@@ -4322,7 +4308,7 @@
       </c>
       <c r="C27" s="41">
         <f>Fin_Analysis!C13</f>
-        <v>422018</v>
+        <v>265773</v>
       </c>
       <c r="D27" s="92"/>
       <c r="E27" s="92"/>
@@ -4343,7 +4329,7 @@
       </c>
       <c r="C28" s="41">
         <f>Fin_Analysis!C18</f>
-        <v>370793</v>
+        <v>9672256</v>
       </c>
       <c r="D28" s="92"/>
       <c r="E28" s="92"/>
@@ -4364,7 +4350,7 @@
       </c>
       <c r="C29" s="41">
         <f>Fin_Analysis!I28</f>
-        <v>803015</v>
+        <v>3516809</v>
       </c>
       <c r="D29" s="92"/>
       <c r="E29" s="92"/>
@@ -4385,7 +4371,7 @@
       </c>
       <c r="C30" s="41">
         <f>Fin_Analysis!I48</f>
-        <v>100207</v>
+        <v>473357</v>
       </c>
       <c r="D30" s="92"/>
       <c r="E30" s="92"/>
@@ -4406,7 +4392,7 @@
       </c>
       <c r="C31" s="41">
         <f>Fin_Analysis!I15</f>
-        <v>5523</v>
+        <v>649697</v>
       </c>
       <c r="D31" s="92"/>
       <c r="E31" s="92"/>
@@ -4427,7 +4413,7 @@
       </c>
       <c r="C32" s="41">
         <f>Fin_Analysis!I34</f>
-        <v>2115</v>
+        <v>319420</v>
       </c>
       <c r="D32" s="92"/>
       <c r="E32" s="92"/>
@@ -4499,7 +4485,7 @@
       </c>
       <c r="C34" s="41">
         <f>Fin_Analysis!D3</f>
-        <v>3666124</v>
+        <v>12863898</v>
       </c>
       <c r="D34" s="92"/>
       <c r="E34" s="92"/>
@@ -4520,7 +4506,7 @@
       </c>
       <c r="C35" s="41">
         <f>Fin_Analysis!D4</f>
-        <v>45613</v>
+        <v>-26962</v>
       </c>
       <c r="D35" s="92"/>
       <c r="E35" s="92"/>
@@ -4541,7 +4527,7 @@
       </c>
       <c r="C36" s="41">
         <f>Fin_Analysis!C63</f>
-        <v>1668632</v>
+        <v>2923945</v>
       </c>
       <c r="D36" s="92"/>
       <c r="E36" s="92"/>
@@ -4562,7 +4548,7 @@
       </c>
       <c r="C37" s="41">
         <f>Fin_Analysis!C68</f>
-        <v>2900714</v>
+        <v>13930119</v>
       </c>
       <c r="D37" s="41" t="str">
         <f t="shared" ref="D37:M37" si="19">IF(D6="","",D25-D36)</f>
@@ -4609,7 +4595,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C38" s="104" t="str">
         <f>IF(C6="","",C19/C37)</f>
@@ -5326,7 +5312,7 @@
       </c>
       <c r="C54" s="62">
         <f t="shared" ref="C54:M54" si="32">IF(C26="","",C26/C29)</f>
-        <v>3.0168041692869996</v>
+        <v>3.5066755118062995</v>
       </c>
       <c r="D54" s="62" t="str">
         <f t="shared" si="32"/>
@@ -6626,17 +6612,17 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
-    <cfRule type="containsBlanks" dxfId="7" priority="3">
+    <cfRule type="containsBlanks" dxfId="6" priority="3">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:M23">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="5" priority="2">
       <formula>LEN(TRIM(C23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:M22">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(D22))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6657,14 +6643,14 @@
   </sheetPr>
   <dimension ref="A2:K106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" style="1" customWidth="1"/>
     <col min="3" max="6" width="15.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
@@ -6695,9 +6681,9 @@
         <v>23</v>
       </c>
       <c r="C3" s="94"/>
-      <c r="D3" s="141">
+      <c r="D3" s="140">
         <f>C49-I49</f>
-        <v>3666124</v>
+        <v>12863898</v>
       </c>
       <c r="E3" s="73" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
@@ -6709,7 +6695,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="59">
-        <v>3620511</v>
+        <v>12890860</v>
       </c>
       <c r="K3" s="24"/>
     </row>
@@ -6720,7 +6706,7 @@
       <c r="C4" s="94"/>
       <c r="D4" s="69">
         <f>D3-I3</f>
-        <v>45613</v>
+        <v>-26962</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="94"/>
@@ -6740,7 +6726,7 @@
       </c>
       <c r="I5" s="67">
         <f>C28/I28</f>
-        <v>3.0168041692869996</v>
+        <v>3.5066755118062995</v>
       </c>
       <c r="K5" s="24"/>
     </row>
@@ -6750,12 +6736,12 @@
       </c>
       <c r="C6" s="94"/>
       <c r="D6" s="75">
-        <f>E49-I49-E53</f>
-        <v>1212256.4612932415</v>
+        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <v>4105927.3200000008</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.66933566314362491</v>
+        <v>0.68081779566349165</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6764,7 +6750,7 @@
       </c>
       <c r="I6" s="67">
         <f>(C24+C25)/I28</f>
-        <v>2.527144573887163</v>
+        <v>0.74800394334750619</v>
       </c>
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
@@ -6776,7 +6762,7 @@
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>2.0647934809477366</v>
+        <v>7.6928285867749873</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -6787,7 +6773,7 @@
       </c>
       <c r="I7" s="67">
         <f>C24/I28</f>
-        <v>2.447959253563134</v>
+        <v>0.64376313868623514</v>
       </c>
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
@@ -6807,7 +6793,7 @@
       <c r="D9" s="71">
         <v>45473</v>
       </c>
-      <c r="E9" s="144" t="str">
+      <c r="E9" s="143" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -6825,7 +6811,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E10" s="81" t="s">
         <v>35</v>
@@ -6847,21 +6833,23 @@
         <v>38</v>
       </c>
       <c r="C11" s="63">
-        <v>1322113</v>
+        <v>1998219</v>
       </c>
       <c r="D11" s="64">
         <v>1</v>
       </c>
       <c r="E11" s="95">
         <f t="shared" ref="E11:E21" si="0">C11*D11</f>
-        <v>1322113</v>
+        <v>1998219</v>
       </c>
       <c r="F11" s="127"/>
       <c r="G11" s="94"/>
       <c r="H11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="63"/>
+      <c r="I11" s="63">
+        <v>362000</v>
+      </c>
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
@@ -6883,7 +6871,7 @@
         <v>40</v>
       </c>
       <c r="I12" s="63">
-        <v>5523</v>
+        <v>287697</v>
       </c>
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
@@ -6893,14 +6881,14 @@
         <v>121</v>
       </c>
       <c r="C13" s="63">
-        <v>422018</v>
+        <v>265773</v>
       </c>
       <c r="D13" s="64">
         <v>0.8</v>
       </c>
       <c r="E13" s="95">
         <f t="shared" si="0"/>
-        <v>337614.4</v>
+        <v>212618.40000000002</v>
       </c>
       <c r="F13" s="127"/>
       <c r="G13" s="94"/>
@@ -6915,22 +6903,20 @@
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="63">
-        <v>221617</v>
-      </c>
+      <c r="C14" s="63"/>
       <c r="D14" s="64">
         <v>0.3</v>
       </c>
       <c r="E14" s="95">
         <f>C14*D14</f>
-        <v>66485.099999999991</v>
+        <v>0</v>
       </c>
       <c r="F14" s="127"/>
       <c r="G14" s="94"/>
       <c r="H14" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="145"/>
+      <c r="I14" s="144"/>
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
@@ -6953,13 +6939,13 @@
       </c>
       <c r="I15" s="91">
         <f>SUM(I11:I14)</f>
-        <v>5523</v>
+        <v>649697</v>
       </c>
       <c r="J15" s="94"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C16" s="63"/>
       <c r="D16" s="64">
@@ -6980,14 +6966,14 @@
         <v>122</v>
       </c>
       <c r="C17" s="63">
-        <v>63587</v>
+        <v>366595</v>
       </c>
       <c r="D17" s="64">
         <v>0.1</v>
       </c>
       <c r="E17" s="95">
         <f t="shared" si="0"/>
-        <v>6358.7000000000007</v>
+        <v>36659.5</v>
       </c>
       <c r="F17" s="127"/>
       <c r="G17" s="94"/>
@@ -7000,14 +6986,14 @@
         <v>47</v>
       </c>
       <c r="C18" s="63">
-        <v>370793</v>
+        <v>9672256</v>
       </c>
       <c r="D18" s="64">
         <v>0.5</v>
       </c>
       <c r="E18" s="95">
         <f t="shared" si="0"/>
-        <v>185396.5</v>
+        <v>4836128</v>
       </c>
       <c r="F18" s="127"/>
       <c r="G18" s="94"/>
@@ -7061,14 +7047,14 @@
         <v>50</v>
       </c>
       <c r="C21" s="63">
-        <v>22411</v>
+        <v>29465</v>
       </c>
       <c r="D21" s="64">
         <v>0.95</v>
       </c>
       <c r="E21" s="95">
         <f t="shared" si="0"/>
-        <v>21290.45</v>
+        <v>27991.75</v>
       </c>
       <c r="F21" s="127"/>
       <c r="G21" s="94"/>
@@ -7094,7 +7080,7 @@
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
-        <v>797492</v>
+        <v>2867112</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7112,19 +7098,19 @@
       </c>
       <c r="C24" s="65">
         <f>SUM(C11:C14)</f>
-        <v>1965748</v>
+        <v>2263992</v>
       </c>
       <c r="D24" s="66">
         <f>IF(E24=0,0,E24/C24)</f>
-        <v>0.87814536756491679</v>
+        <v>0.97652173682592514</v>
       </c>
       <c r="E24" s="95">
         <f>SUM(E11:E14)</f>
-        <v>1726212.5</v>
+        <v>2210837.4</v>
       </c>
       <c r="F24" s="129">
         <f>E24/$E$28</f>
-        <v>0.89014064476150334</v>
+        <v>0.31087690869838996</v>
       </c>
       <c r="G24" s="94"/>
     </row>
@@ -7134,7 +7120,7 @@
       </c>
       <c r="C25" s="65">
         <f>SUM(C15:C17)</f>
-        <v>63587</v>
+        <v>366595</v>
       </c>
       <c r="D25" s="66">
         <f>IF(E25=0,0,E25/C25)</f>
@@ -7142,11 +7128,11 @@
       </c>
       <c r="E25" s="95">
         <f>SUM(E15:E17)</f>
-        <v>6358.7000000000007</v>
+        <v>36659.5</v>
       </c>
       <c r="F25" s="129">
         <f t="shared" ref="F25:F27" si="2">E25/$E$28</f>
-        <v>3.2789342666936843E-3</v>
+        <v>5.1548757201360113E-3</v>
       </c>
       <c r="G25" s="94"/>
       <c r="H25" s="23" t="s">
@@ -7154,7 +7140,7 @@
       </c>
       <c r="I25" s="67">
         <f>E28/I28</f>
-        <v>2.4149712645467392</v>
+        <v>2.0221788132366587</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7163,7 +7149,7 @@
       </c>
       <c r="C26" s="65">
         <f>C18+C19+C20</f>
-        <v>370793</v>
+        <v>9672256</v>
       </c>
       <c r="D26" s="66">
         <f t="shared" ref="D26:D27" si="3">IF(E26=0,0,E26/C26)</f>
@@ -7171,11 +7157,11 @@
       </c>
       <c r="E26" s="95">
         <f>E18+E19+E20</f>
-        <v>185396.5</v>
+        <v>4836128</v>
       </c>
       <c r="F26" s="129">
         <f t="shared" si="2"/>
-        <v>9.5601764004446754E-2</v>
+        <v>0.68003215555776619</v>
       </c>
       <c r="G26" s="94"/>
       <c r="H26" s="23" t="s">
@@ -7183,7 +7169,7 @@
       </c>
       <c r="I26" s="67">
         <f>E24/($I$28-I22)</f>
-        <v>312.54979177982977</v>
+        <v>3.4028745707614472</v>
       </c>
       <c r="J26" s="8" t="str">
         <f>IF(I26&lt;1,"Liquidity Problem!","")</f>
@@ -7196,19 +7182,19 @@
       </c>
       <c r="C27" s="84">
         <f>C21+C22</f>
-        <v>22411</v>
+        <v>29465</v>
       </c>
       <c r="D27" s="66">
         <f t="shared" si="3"/>
-        <v>0.95000000000000007</v>
+        <v>0.95</v>
       </c>
       <c r="E27" s="95">
         <f>E21+E22</f>
-        <v>21290.45</v>
+        <v>27991.75</v>
       </c>
       <c r="F27" s="129">
         <f t="shared" si="2"/>
-        <v>1.0978656967356306E-2</v>
+        <v>3.9360600237078299E-3</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="23" t="s">
@@ -7216,11 +7202,11 @@
       </c>
       <c r="I27" s="67">
         <f>(E25+E24)/$I$28</f>
-        <v>2.1575826105365405</v>
+        <v>0.63907277876051838</v>
       </c>
       <c r="J27" s="8" t="str">
         <f>IF(OR(I27&lt;0.75,C28&lt;I28),"Liquidity Problem!","")</f>
-        <v/>
+        <v>Liquidity Problem!</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7229,15 +7215,15 @@
       </c>
       <c r="C28" s="86">
         <f>SUM(C11:C22)</f>
-        <v>2422539</v>
+        <v>12332308</v>
       </c>
       <c r="D28" s="61">
         <f t="shared" ref="D28" si="4">E28/C28</f>
-        <v>0.80050647275441178</v>
+        <v>0.57666550738110012</v>
       </c>
       <c r="E28" s="76">
         <f>SUM(E24:E27)</f>
-        <v>1939258.15</v>
+        <v>7111616.6500000004</v>
       </c>
       <c r="F28" s="127"/>
       <c r="G28" s="94"/>
@@ -7245,11 +7231,11 @@
         <v>16</v>
       </c>
       <c r="I28" s="72">
-        <v>803015</v>
+        <v>3516809</v>
       </c>
       <c r="J28" s="32">
         <f>IF(J26="",1,0)+IF(J27="",1,0)+IF(J46="",1,0)+IF(J47="",1,0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7287,15 +7273,13 @@
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="63">
-        <v>39731</v>
-      </c>
+      <c r="C31" s="63"/>
       <c r="D31" s="64">
         <v>0.5</v>
       </c>
       <c r="E31" s="95">
         <f t="shared" ref="E31:E42" si="5">C31*D31</f>
-        <v>19865.5</v>
+        <v>0</v>
       </c>
       <c r="F31" s="127"/>
       <c r="G31" s="94"/>
@@ -7303,7 +7287,7 @@
         <v>64</v>
       </c>
       <c r="I31" s="63">
-        <v>2115</v>
+        <v>319420</v>
       </c>
       <c r="J31" s="94"/>
     </row>
@@ -7329,7 +7313,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C33" s="63"/>
       <c r="D33" s="64">
@@ -7347,14 +7331,16 @@
       <c r="H33" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="145"/>
+      <c r="I33" s="144"/>
       <c r="J33" s="94"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="63"/>
+      <c r="C34" s="63">
+        <v>103050</v>
+      </c>
       <c r="D34" s="64">
         <v>0</v>
       </c>
@@ -7369,7 +7355,7 @@
       </c>
       <c r="I34" s="91">
         <f>SUM(I30:I33)</f>
-        <v>2115</v>
+        <v>319420</v>
       </c>
       <c r="J34" s="94"/>
     </row>
@@ -7377,15 +7363,13 @@
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="63">
-        <v>85171</v>
-      </c>
+      <c r="C35" s="63"/>
       <c r="D35" s="64">
         <v>0.1</v>
       </c>
       <c r="E35" s="95">
         <f t="shared" si="5"/>
-        <v>8517.1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="128" t="s">
         <v>71</v>
@@ -7400,13 +7384,15 @@
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="63"/>
+      <c r="C36" s="63">
+        <v>925726</v>
+      </c>
       <c r="D36" s="64">
         <v>0.2</v>
       </c>
       <c r="E36" s="95">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>185145.2</v>
       </c>
       <c r="F36" s="128" t="s">
         <v>71</v>
@@ -7445,14 +7431,14 @@
         <v>123</v>
       </c>
       <c r="C38" s="63">
-        <v>1863998</v>
+        <v>2522337</v>
       </c>
       <c r="D38" s="64">
         <v>0.1</v>
       </c>
       <c r="E38" s="95">
         <f>C38*D38</f>
-        <v>186399.80000000002</v>
+        <v>252233.7</v>
       </c>
       <c r="F38" s="127"/>
       <c r="G38" s="94"/>
@@ -7481,14 +7467,14 @@
         <v>74</v>
       </c>
       <c r="C40" s="63">
-        <v>23958</v>
+        <v>538321</v>
       </c>
       <c r="D40" s="64">
         <v>0.05</v>
       </c>
       <c r="E40" s="95">
         <f t="shared" si="5"/>
-        <v>1197.9000000000001</v>
+        <v>26916.050000000003</v>
       </c>
       <c r="F40" s="127"/>
       <c r="G40" s="94"/>
@@ -7500,14 +7486,14 @@
         <v>75</v>
       </c>
       <c r="C41" s="63">
-        <v>71331</v>
+        <v>154648</v>
       </c>
       <c r="D41" s="64">
         <v>0.95</v>
       </c>
       <c r="E41" s="95">
         <f t="shared" si="5"/>
-        <v>67764.45</v>
+        <v>146915.6</v>
       </c>
       <c r="F41" s="127"/>
       <c r="G41" s="94"/>
@@ -7519,7 +7505,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="63">
-        <v>62618</v>
+        <v>277674</v>
       </c>
       <c r="D42" s="64">
         <v>0</v>
@@ -7535,7 +7521,7 @@
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
-        <v>98092</v>
+        <v>153937</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7553,15 +7539,15 @@
       </c>
       <c r="C44" s="65">
         <f>SUM(C30:C31)</f>
-        <v>39731</v>
+        <v>0</v>
       </c>
       <c r="D44" s="66">
         <f>IF(E44=0,0,E44/C44)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E44" s="95">
         <f>SUM(E30:E31)</f>
-        <v>19865.5</v>
+        <v>0</v>
       </c>
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
@@ -7572,15 +7558,15 @@
       </c>
       <c r="C45" s="65">
         <f>SUM(C32:C35)</f>
-        <v>85171</v>
+        <v>103050</v>
       </c>
       <c r="D45" s="66">
         <f>IF(E45=0,0,E45/C45)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="95">
         <f>SUM(E32:E35)</f>
-        <v>8517.1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
@@ -7591,15 +7577,15 @@
       </c>
       <c r="C46" s="65">
         <f>C36+C37+C38+C39</f>
-        <v>1863998</v>
+        <v>3448063</v>
       </c>
       <c r="D46" s="66">
         <f t="shared" ref="D46:D47" si="6">IF(E46=0,0,E46/C46)</f>
-        <v>0.1</v>
+        <v>0.12684771130921912</v>
       </c>
       <c r="E46" s="95">
         <f>E36+E37+E38+E39</f>
-        <v>186399.80000000002</v>
+        <v>437378.9</v>
       </c>
       <c r="F46" s="94"/>
       <c r="G46" s="94"/>
@@ -7608,7 +7594,7 @@
       </c>
       <c r="I46" s="67">
         <f>(E44+E24)/E64</f>
-        <v>228.60408483896308</v>
+        <v>2.2812904943365973</v>
       </c>
       <c r="J46" s="8" t="str">
         <f>IF(I46&lt;1,"Liquidity Problem!","")</f>
@@ -7621,15 +7607,15 @@
       </c>
       <c r="C47" s="65">
         <f>C40+C41+C42</f>
-        <v>157907</v>
+        <v>970643</v>
       </c>
       <c r="D47" s="66">
         <f t="shared" si="6"/>
-        <v>0.4367276308206729</v>
+        <v>0.17908917078678774</v>
       </c>
       <c r="E47" s="95">
         <f>E40+E41+E42</f>
-        <v>68962.349999999991</v>
+        <v>173831.65000000002</v>
       </c>
       <c r="F47" s="94"/>
       <c r="G47" s="94"/>
@@ -7638,7 +7624,7 @@
       </c>
       <c r="I47" s="67">
         <f>(E44+E45+E24+E25)/$I$49</f>
-        <v>1.9496356377501878</v>
+        <v>0.56325899724472617</v>
       </c>
       <c r="J47" s="8" t="str">
         <f>IF(OR(I47&lt;0.5,C49&lt;I49),"Liquidity Problem!","")</f>
@@ -7651,15 +7637,15 @@
       </c>
       <c r="C48" s="88">
         <f>SUM(C30:C42)</f>
-        <v>2146807</v>
+        <v>4521756</v>
       </c>
       <c r="D48" s="89">
         <f>E48/C48</f>
-        <v>0.13217059102192233</v>
+        <v>0.13517105965027748</v>
       </c>
       <c r="E48" s="83">
         <f>SUM(E30:E42)</f>
-        <v>283744.75</v>
+        <v>611210.55000000005</v>
       </c>
       <c r="F48" s="94"/>
       <c r="G48" s="94"/>
@@ -7667,7 +7653,7 @@
         <v>85</v>
       </c>
       <c r="I48" s="90">
-        <v>100207</v>
+        <v>473357</v>
       </c>
       <c r="J48" s="8"/>
     </row>
@@ -7677,15 +7663,15 @@
       </c>
       <c r="C49" s="65">
         <f>C28+C48</f>
-        <v>4569346</v>
+        <v>16854064</v>
       </c>
       <c r="D49" s="56">
         <f>E49/C49</f>
-        <v>0.48650351713352413</v>
+        <v>0.45821750765868696</v>
       </c>
       <c r="E49" s="95">
         <f>E28+E48</f>
-        <v>2223002.9</v>
+        <v>7722827.2000000002</v>
       </c>
       <c r="F49" s="94"/>
       <c r="G49" s="94"/>
@@ -7694,7 +7680,7 @@
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
-        <v>903222</v>
+        <v>3990166</v>
       </c>
       <c r="J49" s="94"/>
     </row>
@@ -7733,16 +7719,16 @@
         <v>89</v>
       </c>
       <c r="C53" s="95">
-        <f>D4</f>
-        <v>45613</v>
+        <f>MAX(D4,0)</f>
+        <v>0</v>
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.3573200339104732</v>
+        <v>0</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>107524.43870675842</v>
+        <v>0</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>
@@ -7763,7 +7749,7 @@
         <v>163</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="159"/>
+      <c r="E55" s="157"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="94"/>
@@ -7774,11 +7760,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="94"/>
-      <c r="D56" s="210">
+      <c r="D56" s="207">
         <f>I15+I34</f>
-        <v>7638</v>
-      </c>
-      <c r="E56" s="211"/>
+        <v>969117</v>
+      </c>
+      <c r="E56" s="208"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="94"/>
@@ -7789,10 +7775,10 @@
         <v>91</v>
       </c>
       <c r="C57" s="94"/>
-      <c r="D57" s="205">
+      <c r="D57" s="206">
         <v>0</v>
       </c>
-      <c r="E57" s="204"/>
+      <c r="E57" s="205"/>
       <c r="G57" s="94"/>
       <c r="H57" s="94" t="s">
         <v>92</v>
@@ -7804,10 +7790,10 @@
         <v>93</v>
       </c>
       <c r="C58" s="94"/>
-      <c r="D58" s="205">
+      <c r="D58" s="206">
         <v>0</v>
       </c>
-      <c r="E58" s="204"/>
+      <c r="E58" s="205"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="94"/>
@@ -7842,15 +7828,15 @@
       </c>
       <c r="C61" s="74">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
-        <v>346519</v>
+        <v>925726</v>
       </c>
       <c r="D61" s="56">
         <f t="shared" ref="D61:D70" si="7">IF(E61=0,0,E61/C61)</f>
-        <v>0.27377344388042213</v>
+        <v>0.2</v>
       </c>
       <c r="E61" s="52">
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
-        <v>94867.7</v>
+        <v>185145.2</v>
       </c>
       <c r="F61" s="94"/>
       <c r="G61" s="94"/>
@@ -7861,17 +7847,17 @@
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C62" s="142">
+      <c r="C62" s="141">
         <f>C11+C30</f>
-        <v>1322113</v>
+        <v>1998219</v>
       </c>
       <c r="D62" s="122">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E62" s="143">
+      <c r="E62" s="142">
         <f>E11+E30</f>
-        <v>1322113</v>
+        <v>1998219</v>
       </c>
       <c r="F62" s="94"/>
       <c r="G62" s="94"/>
@@ -7884,15 +7870,15 @@
       </c>
       <c r="C63" s="74">
         <f>C61+C62</f>
-        <v>1668632</v>
+        <v>2923945</v>
       </c>
       <c r="D63" s="29">
         <f t="shared" si="7"/>
-        <v>0.84918705862047472</v>
+        <v>0.74671862842837333</v>
       </c>
       <c r="E63" s="65">
         <f>E61+E62</f>
-        <v>1416980.7</v>
+        <v>2183364.2000000002</v>
       </c>
       <c r="F63" s="94"/>
       <c r="G63" s="94"/>
@@ -7900,14 +7886,14 @@
       <c r="I63" s="94"/>
     </row>
     <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="146" t="s">
+      <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="C64" s="147"/>
-      <c r="D64" s="148"/>
+      <c r="C64" s="146"/>
+      <c r="D64" s="147"/>
       <c r="E64" s="75">
         <f>D56+D57+D58</f>
-        <v>7638</v>
+        <v>969117</v>
       </c>
       <c r="F64" s="94"/>
       <c r="G64" s="94"/>
@@ -7920,15 +7906,15 @@
       </c>
       <c r="C65" s="74">
         <f>C63-E64</f>
-        <v>1660994</v>
+        <v>1954828</v>
       </c>
       <c r="D65" s="29">
         <f t="shared" si="7"/>
-        <v>0.84849355265581927</v>
+        <v>0.62115296077199644</v>
       </c>
       <c r="E65" s="65">
         <f>E63-E64</f>
-        <v>1409342.7</v>
+        <v>1214247.2000000002</v>
       </c>
       <c r="F65" s="94"/>
       <c r="G65" s="94"/>
@@ -7965,15 +7951,15 @@
       </c>
       <c r="C68" s="74">
         <f>C49-C63</f>
-        <v>2900714</v>
+        <v>13930119</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" si="7"/>
-        <v>0.27787027607685555</v>
+        <v>0.3976608527177693</v>
       </c>
       <c r="E68" s="74">
         <f>E49-E63</f>
-        <v>806022.2</v>
+        <v>5539463</v>
       </c>
       <c r="F68" s="94"/>
       <c r="G68" s="94"/>
@@ -7981,14 +7967,14 @@
       <c r="I68" s="94"/>
     </row>
     <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="146" t="s">
+      <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
-      <c r="C69" s="147"/>
-      <c r="D69" s="148"/>
-      <c r="E69" s="160">
+      <c r="C69" s="146"/>
+      <c r="D69" s="147"/>
+      <c r="E69" s="158">
         <f>I49-E64</f>
-        <v>895584</v>
+        <v>3021049</v>
       </c>
       <c r="F69" s="94"/>
       <c r="G69" s="94"/>
@@ -8001,15 +7987,15 @@
       </c>
       <c r="C70" s="74">
         <f>C68-E69</f>
-        <v>2005130</v>
+        <v>10909070</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="7"/>
-        <v>-4.4666330861340683E-2</v>
+        <v>0.23085505913886334</v>
       </c>
       <c r="E70" s="74">
         <f>E68-E69</f>
-        <v>-89561.800000000047</v>
+        <v>2518414</v>
       </c>
       <c r="F70" s="94"/>
       <c r="G70" s="94"/>
@@ -8021,11 +8007,11 @@
       <c r="B72" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="208">
+      <c r="C72" s="212">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="208"/>
+      <c r="D72" s="212"/>
       <c r="H72" s="50" t="s">
         <v>8</v>
       </c>
@@ -8033,16 +8019,16 @@
     <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
-        <v>(Numbers in 1000HKD)</v>
-      </c>
-      <c r="C73" s="207" t="s">
+        <v>(Numbers in 1000CNY)</v>
+      </c>
+      <c r="C73" s="211" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="207"/>
-      <c r="E73" s="209" t="s">
+      <c r="D73" s="211"/>
+      <c r="E73" s="213" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="207"/>
+      <c r="F73" s="211"/>
     </row>
     <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
@@ -8053,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="130"/>
-      <c r="E74" s="149">
+      <c r="E74" s="148">
         <f>C74</f>
         <v>0</v>
       </c>
@@ -8071,11 +8057,11 @@
         <f>C75/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E75" s="149" t="e">
+      <c r="E75" s="148" t="e">
         <f>D75*E74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F75" s="150" t="e">
+      <c r="F75" s="149" t="e">
         <f>E75/$E$74</f>
         <v>#DIV/0!</v>
       </c>
@@ -8089,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="132"/>
-      <c r="E76" s="151" t="e">
+      <c r="E76" s="150" t="e">
         <f>E74-E75</f>
         <v>#DIV/0!</v>
       </c>
@@ -8107,11 +8093,11 @@
         <f>C77/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E77" s="149" t="e">
+      <c r="E77" s="148" t="e">
         <f>D77*E74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F77" s="150" t="e">
+      <c r="F77" s="149" t="e">
         <f>E77/$E$74</f>
         <v>#DIV/0!</v>
       </c>
@@ -8125,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="D78" s="132"/>
-      <c r="E78" s="151" t="e">
+      <c r="E78" s="150" t="e">
         <f>E76-E77</f>
         <v>#DIV/0!</v>
       </c>
@@ -8143,11 +8129,11 @@
         <f>C79/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E79" s="149">
+      <c r="E79" s="148">
         <f>C79</f>
         <v>0</v>
       </c>
-      <c r="F79" s="150" t="e">
+      <c r="F79" s="149" t="e">
         <f>E79/$E$74</f>
         <v>#DIV/0!</v>
       </c>
@@ -8164,11 +8150,11 @@
         <f>C80/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E80" s="149">
-        <f>4%*E74</f>
+      <c r="E80" s="148">
+        <f>3%*E74</f>
         <v>0</v>
       </c>
-      <c r="F80" s="150" t="e">
+      <c r="F80" s="149" t="e">
         <f t="shared" ref="F80:F83" si="8">E80/$E$74</f>
         <v>#DIV/0!</v>
       </c>
@@ -8185,11 +8171,11 @@
         <f>C81/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E81" s="149">
+      <c r="E81" s="148">
         <f>C81</f>
         <v>0</v>
       </c>
-      <c r="F81" s="150" t="e">
+      <c r="F81" s="149" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -8199,7 +8185,7 @@
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C82" s="95">
         <f>MAX(Data!C18,0)</f>
@@ -8209,11 +8195,10 @@
         <f>C82/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E82" s="149">
-        <f>E74*0.08%</f>
+      <c r="E82" s="148">
         <v>0</v>
       </c>
-      <c r="F82" s="150" t="e">
+      <c r="F82" s="149" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -8230,7 +8215,7 @@
         <f>C83/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E83" s="152" t="e">
+      <c r="E83" s="151" t="e">
         <f>E78-E79-E80-E81-E82</f>
         <v>#DIV/0!</v>
       </c>
@@ -8245,14 +8230,14 @@
       </c>
       <c r="C84" s="121"/>
       <c r="D84" s="134"/>
-      <c r="E84" s="153"/>
+      <c r="E84" s="152"/>
       <c r="F84" s="136">
         <v>0.25</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C85" s="118">
         <f>C83*(1-F84)</f>
@@ -8262,7 +8247,7 @@
         <f>C85/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E85" s="154" t="e">
+      <c r="E85" s="153" t="e">
         <f>E83*(1-F84)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8273,14 +8258,14 @@
     </row>
     <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
-        <v>176</v>
-      </c>
-      <c r="C86" s="161">
+        <v>174</v>
+      </c>
+      <c r="C86" s="159">
         <f>C85*Data!E3/Common_Shares</f>
         <v>0</v>
       </c>
       <c r="D86" s="130"/>
-      <c r="E86" s="163" t="e">
+      <c r="E86" s="161" t="e">
         <f>E85*Data!E3/Common_Shares</f>
         <v>#DIV/0!</v>
       </c>
@@ -8288,18 +8273,19 @@
     </row>
     <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
-        <v>177</v>
-      </c>
-      <c r="C87" s="164">
-        <v>0.15820000000000001</v>
+        <v>175</v>
+      </c>
+      <c r="C87" s="162">
+        <f>0.72+0.64</f>
+        <v>1.3599999999999999</v>
       </c>
       <c r="D87" s="135" t="e">
         <f>C87/C86</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E87" s="162">
+      <c r="E87" s="160">
         <f>C87</f>
-        <v>0.15820000000000001</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="F87" s="135" t="e">
         <f>E87/E86</f>
@@ -8313,7 +8299,7 @@
     <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C89" s="21"/>
       <c r="H89" s="50" t="s">
@@ -8322,108 +8308,127 @@
     </row>
     <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D90" s="209" t="s">
         <v>170</v>
       </c>
-      <c r="D90" s="212" t="s">
-        <v>171</v>
-      </c>
-      <c r="E90" s="212"/>
+      <c r="E90" s="209"/>
       <c r="G90" s="94"/>
+      <c r="H90" s="24"/>
     </row>
     <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C91" s="174" t="s">
-        <v>216</v>
-      </c>
-      <c r="D91" s="206" t="s">
-        <v>172</v>
-      </c>
-      <c r="E91" s="206"/>
+        <v>192</v>
+      </c>
+      <c r="C91" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="D91" s="210" t="s">
+        <v>223</v>
+      </c>
+      <c r="E91" s="210"/>
       <c r="F91" s="29" t="e">
-        <f>E83/C68</f>
+        <f>E86*Exchange_Rate/Dashboard!G3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H91" s="187"/>
+      <c r="H91" s="195"/>
     </row>
     <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
-        <v>Required Return (US)</v>
-      </c>
-      <c r="C92" s="176">
+        <v>Required Return (CN)</v>
+      </c>
+      <c r="C92" s="173">
         <f>IF(C91="CN",Dashboard!C17,IF(C91="US",Dashboard!C12,IF(C91="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.6250000000000002E-2</v>
-      </c>
-      <c r="D92" s="206" t="s">
-        <v>168</v>
-      </c>
-      <c r="E92" s="206"/>
-      <c r="F92" s="137">
-        <v>0.02</v>
-      </c>
-      <c r="H92" s="187"/>
+        <v>0.1125</v>
+      </c>
+      <c r="D92" s="194">
+        <v>5</v>
+      </c>
+      <c r="E92" s="94" t="s">
+        <v>224</v>
+      </c>
+      <c r="F92" s="193" t="e">
+        <f>FV(F91,D92,0,-(E86/C92))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H92" s="195"/>
+    </row>
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H93" s="24"/>
     </row>
     <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
-        <f xml:space="preserve"> "Valuation in "&amp;Data!E3&amp;Dashboard!H3</f>
-        <v>Valuation in 1000HKD</v>
-      </c>
-      <c r="D94" s="165" t="str">
+        <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
+        <v>Valuation in HKD</v>
+      </c>
+      <c r="C94" s="163" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
+      <c r="D94" s="196" t="s">
+        <v>226</v>
+      </c>
+      <c r="E94" s="155" t="s">
+        <v>227</v>
+      </c>
+      <c r="H94" s="24"/>
     </row>
     <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102" t="e">
-        <f>E85/(C92-F92)*Exchange_Rate</f>
+        <f>D95*Common_Shares/Data!E3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D95" s="155" t="e">
-        <f>C95*Data!$E$3/Common_Shares</f>
+      <c r="D95" s="154" t="e">
+        <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="E95" s="154" t="e">
+        <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H95" s="24"/>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
       <c r="C96" s="102">
-        <f>E82*Exchange_Rate</f>
+        <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D96" s="155">
+      <c r="D96" s="154">
         <f>C96*Data!$E$3/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="E96" s="94"/>
-      <c r="F96" s="138"/>
-    </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E96" s="130"/>
+      <c r="F96" s="137"/>
+      <c r="H96" s="24"/>
+    </row>
+    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="123">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>1319780.8999999999</v>
-      </c>
-      <c r="D97" s="156">
+        <v>1335671.9200000004</v>
+      </c>
+      <c r="D97" s="197">
         <f>C97*Data!$E$3/Common_Shares</f>
-        <v>2.2479360478658221</v>
-      </c>
-      <c r="E97" s="157" t="s">
-        <v>143</v>
-      </c>
-      <c r="F97" s="158" t="s">
+        <v>2.2750026592218116</v>
+      </c>
+      <c r="E97" s="214"/>
+      <c r="F97" s="156" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="H97" s="24"/>
+    </row>
+    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
@@ -8436,66 +8441,80 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E98" s="124" t="e">
-        <f>D98*(1-25%)</f>
+        <f>E95*Exchange_Rate-D96+D97</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F98" s="124" t="e">
         <f>D98*1.25</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H98" s="24"/>
+    </row>
+    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H99" s="24"/>
+    </row>
+    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D100" s="165" t="str">
-        <f>D94</f>
+        <v>177</v>
+      </c>
+      <c r="C100" s="163" t="str">
+        <f>C94</f>
         <v>HKD</v>
       </c>
-      <c r="E100" s="157" t="s">
+      <c r="D100" s="196"/>
+      <c r="E100" s="155" t="s">
         <v>143</v>
       </c>
-      <c r="F100" s="158" t="s">
+      <c r="F100" s="156" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H100" s="24"/>
+    </row>
+    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C101" s="102">
         <f>D101*Common_Shares/Data!E3</f>
-        <v>1218104.4179672133</v>
-      </c>
-      <c r="D101" s="155">
-        <f>E87/(C92-F92)*Exchange_Rate</f>
-        <v>2.0747540983606561</v>
+        <v>9495279.3902702704</v>
+      </c>
+      <c r="D101" s="154">
+        <f>E87/(C92-2%)*Exchange_Rate</f>
+        <v>16.172972972972975</v>
       </c>
       <c r="E101" s="124">
         <f>D101*(1-25%)</f>
-        <v>1.556065573770492</v>
+        <v>12.129729729729732</v>
       </c>
       <c r="F101" s="124">
         <f>D101*1.25</f>
-        <v>2.5934426229508203</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>20.216216216216218</v>
+      </c>
+      <c r="H101" s="24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H102" s="24"/>
+    </row>
+    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D103" s="213" t="str">
-        <f>D100</f>
+      <c r="C103" s="163" t="str">
+        <f>C100</f>
         <v>HKD</v>
       </c>
-      <c r="E103" s="157" t="s">
+      <c r="D103" s="196"/>
+      <c r="E103" s="155" t="s">
         <v>143</v>
       </c>
-      <c r="F103" s="158" t="s">
+      <c r="F103" s="156" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="104" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H103" s="24"/>
+    </row>
+    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
         <v>229</v>
       </c>
@@ -8503,7 +8522,7 @@
         <f>D104*Common_Shares/Data!E3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D104" s="155" t="e">
+      <c r="D104" s="154" t="e">
         <f>(D98+D101)/2</f>
         <v>#DIV/0!</v>
       </c>
@@ -8516,17 +8535,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C106" s="166" t="s">
-        <v>215</v>
+        <v>180</v>
+      </c>
+      <c r="C106" s="164" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D92:E92"/>
+  <mergeCells count="8">
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="E73:F73"/>
@@ -8538,28 +8556,23 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C86:C87">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+    <cfRule type="containsBlanks" dxfId="3" priority="5">
       <formula>LEN(TRIM(C86))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(C106))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E82 F84">
-    <cfRule type="containsBlanks" dxfId="2" priority="9">
+    <cfRule type="containsBlanks" dxfId="1" priority="9">
       <formula>LEN(TRIM(E74))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="containsBlanks" dxfId="1" priority="4">
+    <cfRule type="containsBlanks" dxfId="0" priority="4">
       <formula>LEN(TRIM(E87))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92">
-    <cfRule type="containsBlanks" dxfId="0" priority="7">
-      <formula>LEN(TRIM(F92))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/financial_models/templates/Stock_Valuation.xlsx
+++ b/financial_models/templates/Stock_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BB6CC3-62D5-41D1-9C04-34FB0CF2158A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E649D1-0B8D-4021-A9E1-201E6E09F68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="238">
   <si>
     <t>Company Info:</t>
   </si>
@@ -738,9 +738,6 @@
     <t>PB Ratio</t>
   </si>
   <si>
-    <t>Profit</t>
-  </si>
-  <si>
     <t>HK</t>
   </si>
   <si>
@@ -789,10 +786,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Gordon Growth Model with 2% growth rate</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>@Initial rate</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -809,17 +802,50 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>CNY</t>
+    <t>Normalized Pre-tax Profit</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized Pre-tax Profit g</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAGR Calculator</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inputs =</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAGR =</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial Value (PV)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final Value (FV)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># of Years</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dividend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -832,8 +858,9 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;@ &quot;0.00%&quot; Growth&quot;"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1012,6 +1039,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1287,7 +1321,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1387,16 +1421,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1436,9 +1461,6 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1471,19 +1493,10 @@
     <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1523,19 +1536,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1559,24 +1567,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1600,24 +1590,6 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1629,18 +1601,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1656,9 +1616,6 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1677,9 +1634,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1687,23 +1641,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1713,12 +1655,6 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1732,11 +1668,146 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="27" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1772,9 +1843,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1783,7 +1851,15 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2101,7 +2177,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2117,13 +2193,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -2134,77 +2210,77 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0590.HK : 六福珠宝</v>
       </c>
-      <c r="D2" s="94"/>
+      <c r="D2" s="90"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="200" t="s">
-        <v>221</v>
-      </c>
-      <c r="D3" s="201"/>
-      <c r="E3" s="94"/>
+        <v>216</v>
+      </c>
+      <c r="C3" s="211" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="212"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="169">
-        <v>15.039999961853027</v>
-      </c>
-      <c r="H3" s="171" t="s">
+      <c r="G3" s="142">
+        <v>15.260000228881836</v>
+      </c>
+      <c r="H3" s="144" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="202" t="s">
-        <v>220</v>
-      </c>
-      <c r="D4" s="203"/>
-      <c r="E4" s="94"/>
+        <v>217</v>
+      </c>
+      <c r="C4" s="213" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="214"/>
+      <c r="E4" s="90"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="206">
+      <c r="G4" s="217">
         <v>587107850</v>
       </c>
-      <c r="H4" s="206"/>
+      <c r="H4" s="217"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="204">
+      <c r="C5" s="215">
         <v>45593</v>
       </c>
-      <c r="D5" s="205"/>
+      <c r="D5" s="216"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="198">
+      <c r="G5" s="209">
         <f>G3*G4/1000000</f>
-        <v>8830.1020416036135</v>
-      </c>
-      <c r="H5" s="198"/>
+        <v>8959.2659253783222</v>
+      </c>
+      <c r="H5" s="209"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="187">
+      <c r="C6" s="155">
         <v>8</v>
       </c>
-      <c r="D6" s="188">
+      <c r="D6" s="156">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -2215,40 +2291,40 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="199" t="s">
-        <v>231</v>
-      </c>
-      <c r="H6" s="199"/>
+      <c r="G6" s="210" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="210"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="93" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" s="186" t="s">
+      <c r="B7" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="192" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="94"/>
+      <c r="D7" s="158" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="90"/>
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="170">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H7" s="77" t="str">
+      <c r="G7" s="143">
+        <v>1</v>
+      </c>
+      <c r="H7" s="74" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
-        <v>CNY/HKD</v>
+        <v>HKD</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="177" t="s">
-        <v>213</v>
-      </c>
-      <c r="F9" s="183" t="s">
+      <c r="B9" s="149" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="153" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2256,48 +2332,48 @@
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="168">
+      <c r="C10" s="202">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="F10" s="125" t="s">
+      <c r="F10" s="115" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="130" t="s">
         <v>199</v>
       </c>
-      <c r="C11" s="181">
+      <c r="C11" s="203">
         <v>5.3099999999999994E-2</v>
       </c>
-      <c r="D11" s="174" t="s">
-        <v>211</v>
-      </c>
-      <c r="F11" s="125" t="s">
+      <c r="D11" s="147" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="115" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="189">
+      <c r="C12" s="204">
         <v>0.08</v>
       </c>
-      <c r="D12" s="168">
-        <v>9.6250000000000002E-2</v>
-      </c>
-      <c r="F12" s="125"/>
+      <c r="D12" s="202">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F12" s="115"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C14" s="168">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="F14" s="125" t="s">
+      <c r="C14" s="202">
+        <v>2.1309999999999999E-2</v>
+      </c>
+      <c r="F14" s="115" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2305,185 +2381,185 @@
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="168">
+      <c r="C15" s="202">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F15" s="125" t="s">
+      <c r="F15" s="115" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="146" t="s">
+      <c r="B16" s="130" t="s">
         <v>208</v>
       </c>
-      <c r="C16" s="181">
+      <c r="C16" s="203">
         <v>0.16</v>
       </c>
-      <c r="D16" s="191" t="s">
-        <v>212</v>
-      </c>
-      <c r="F16" s="125" t="s">
+      <c r="D16" s="157" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="115" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="C17" s="190">
-        <v>0.1125</v>
-      </c>
-      <c r="D17" s="185"/>
+      <c r="C17" s="205">
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="D17" s="206"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="182" t="s">
+      <c r="B19" s="152" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="172" t="s">
+      <c r="C19" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="174" t="s">
+      <c r="B20" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="175" t="e">
+      <c r="C20" s="201" t="e">
         <f>Fin_Analysis!F75</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="94"/>
+      <c r="F20" s="90"/>
       <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="174" t="s">
+      <c r="B21" s="147" t="s">
         <v>186</v>
       </c>
-      <c r="C21" s="175" t="e">
+      <c r="C21" s="201" t="e">
         <f>Fin_Analysis!F77</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="94"/>
+      <c r="F21" s="90"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="174" t="s">
+      <c r="B22" s="147" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="175" t="e">
+      <c r="C22" s="201" t="e">
         <f>Fin_Analysis!F79</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="182" t="s">
+      <c r="F22" s="152" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="174" t="s">
+      <c r="B23" s="147" t="s">
         <v>188</v>
       </c>
-      <c r="C23" s="175" t="e">
+      <c r="C23" s="201" t="e">
         <f>Fin_Analysis!F80</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="178" t="s">
+      <c r="F23" s="150" t="s">
         <v>209</v>
       </c>
-      <c r="G23" s="184">
-        <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.62402278783358833</v>
+      <c r="G23" s="207">
+        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>0.69646587102745394</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="174" t="s">
+      <c r="B24" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="175" t="e">
+      <c r="C24" s="201" t="e">
         <f>Fin_Analysis!F81</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="178" t="s">
+      <c r="F24" s="150" t="s">
         <v>194</v>
       </c>
-      <c r="G24" s="179" t="e">
+      <c r="G24" s="208" t="e">
         <f>(Fin_Analysis!E86*G7)/G3</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="174" t="s">
-        <v>214</v>
-      </c>
-      <c r="C25" s="175" t="e">
+      <c r="B25" s="147" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" s="201" t="e">
         <f>Fin_Analysis!F82</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="178" t="s">
+      <c r="F25" s="150" t="s">
         <v>193</v>
       </c>
-      <c r="G25" s="175" t="e">
+      <c r="G25" s="201" t="e">
         <f>Fin_Analysis!F87</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="176" t="s">
+      <c r="B26" s="148" t="s">
         <v>191</v>
       </c>
-      <c r="C26" s="175" t="e">
+      <c r="C26" s="201" t="e">
         <f>Fin_Analysis!F83</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="180" t="s">
-        <v>216</v>
-      </c>
-      <c r="G26" s="179">
+      <c r="F26" s="151" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" s="208">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>9.9468085358670633E-2</v>
+        <v>8.9121885950302682E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="98" t="s">
+      <c r="C28" s="93" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="E28" s="62"/>
+      <c r="E28" s="59"/>
       <c r="F28" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="90" t="s">
         <v>184</v>
       </c>
-      <c r="C29" s="166" t="e">
+      <c r="C29" s="140">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="165" t="e">
+        <v>15.937499999999996</v>
+      </c>
+      <c r="D29" s="139">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E29" s="94"/>
-      <c r="F29" s="167" t="e">
+        <v>26.562499999999996</v>
+      </c>
+      <c r="E29" s="90"/>
+      <c r="F29" s="141">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="94"/>
+        <v>21.249999999999996</v>
+      </c>
+      <c r="H29" s="90"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3390,22 +3466,22 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+    <cfRule type="containsBlanks" dxfId="11" priority="4">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="9" priority="2">
+    <cfRule type="containsBlanks" dxfId="10" priority="2">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="8" priority="1">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="7" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="40" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3434,7 +3510,7 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N928"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -3465,51 +3541,76 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="E2" s="166" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="127" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="166" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2" s="165" t="s">
+        <v>235</v>
+      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="94"/>
+      <c r="J2" s="90"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="96">
+      <c r="C3" s="92">
         <v>45291</v>
       </c>
-      <c r="D3" s="116" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="92">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <f>Dashboard!G6</f>
-        <v>CNY</v>
-      </c>
-      <c r="G3" s="94"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="94"/>
+      <c r="E3" s="164" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="88" t="str">
+        <f>H19</f>
+        <v/>
+      </c>
+      <c r="G3" s="88" t="str">
+        <f>C19</f>
+        <v/>
+      </c>
+      <c r="H3" s="88">
+        <v>6</v>
+      </c>
+      <c r="I3" s="90"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="C4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="J4" s="94"/>
+      <c r="B4" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="88">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>Dashboard!G6</f>
+        <v>HKD</v>
+      </c>
+      <c r="E4" s="164" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="97" t="e">
+        <f>(G3/F3)^(1/H3)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J4" s="90"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="123" t="s">
         <v>146</v>
       </c>
       <c r="C5" s="48">
@@ -3559,1809 +3660,1905 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="94"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="103" t="str">
+      <c r="C7" s="96" t="str">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v/>
       </c>
-      <c r="D7" s="103" t="str">
+      <c r="D7" s="96" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="103" t="str">
+      <c r="E7" s="96" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="103" t="str">
+      <c r="F7" s="96" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="103" t="str">
+      <c r="G7" s="96" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="103" t="str">
+      <c r="H7" s="96" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="103" t="str">
+      <c r="I7" s="96" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="103" t="str">
+      <c r="J7" s="96" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="103" t="str">
+      <c r="K7" s="96" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="103" t="str">
+      <c r="L7" s="96" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="103" t="str">
+      <c r="M7" s="96" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="94"/>
+      <c r="N7" s="90"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="94"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="90"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="101" t="str">
+      <c r="C9" s="171" t="str">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v/>
       </c>
-      <c r="D9" s="101" t="str">
+      <c r="D9" s="171" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E9" s="101" t="str">
+      <c r="E9" s="171" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="101" t="str">
+      <c r="F9" s="171" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="101" t="str">
+      <c r="G9" s="171" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="101" t="str">
+      <c r="H9" s="171" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="101" t="str">
+      <c r="I9" s="171" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="101" t="str">
+      <c r="J9" s="171" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="101" t="str">
+      <c r="K9" s="171" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="101" t="str">
+      <c r="L9" s="171" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="101" t="str">
+      <c r="M9" s="171" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="94"/>
+      <c r="N9" s="90"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="94"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="170"/>
+      <c r="N10" s="90"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="97" t="str">
+      <c r="C11" s="172" t="str">
         <f t="shared" ref="C11:M11" si="3">IF(C6="","",(C12/C6))</f>
         <v/>
       </c>
-      <c r="D11" s="97" t="str">
+      <c r="D11" s="172" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E11" s="97" t="str">
+      <c r="E11" s="172" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F11" s="97" t="str">
+      <c r="F11" s="172" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G11" s="97" t="str">
+      <c r="G11" s="172" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H11" s="97" t="str">
+      <c r="H11" s="172" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I11" s="97" t="str">
+      <c r="I11" s="172" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J11" s="97" t="str">
+      <c r="J11" s="172" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K11" s="97" t="str">
+      <c r="K11" s="172" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L11" s="97" t="str">
+      <c r="L11" s="172" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M11" s="97" t="str">
+      <c r="M11" s="172" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N11" s="94"/>
+      <c r="N11" s="90"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="94"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="170"/>
+      <c r="M12" s="170"/>
+      <c r="N12" s="90"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="101" t="str">
+      <c r="C13" s="171" t="str">
         <f>IF(C6="","",(C9-C10+C12))</f>
         <v/>
       </c>
-      <c r="D13" s="101" t="str">
+      <c r="D13" s="171" t="str">
         <f t="shared" ref="D13:M13" si="4">IF(D6="","",(D9-D10+D12))</f>
         <v/>
       </c>
-      <c r="E13" s="101" t="str">
+      <c r="E13" s="171" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F13" s="101" t="str">
+      <c r="F13" s="171" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G13" s="101" t="str">
+      <c r="G13" s="171" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H13" s="101" t="str">
+      <c r="H13" s="171" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I13" s="101" t="str">
+      <c r="I13" s="171" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J13" s="101" t="str">
+      <c r="J13" s="171" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K13" s="101" t="str">
+      <c r="K13" s="171" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L13" s="101" t="str">
+      <c r="L13" s="171" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M13" s="101" t="str">
+      <c r="M13" s="171" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N13" s="94"/>
+      <c r="N13" s="90"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="94"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="170"/>
+      <c r="M14" s="170"/>
+      <c r="N14" s="90"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="94"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="170"/>
+      <c r="M15" s="170"/>
+      <c r="N15" s="90"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="94"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="170"/>
+      <c r="L16" s="170"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="90"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="94"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="170"/>
+      <c r="M17" s="170"/>
+      <c r="N17" s="90"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="94"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="170"/>
+      <c r="L18" s="170"/>
+      <c r="M18" s="170"/>
+      <c r="N18" s="90"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="105" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="95" t="str">
-        <f>IF(C6="","",C13-C14-MAX(C15,0)-MAX(C16,0)-C17-MAX(C18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="D19" s="95" t="str">
-        <f>IF(D6="","",D13-D14-MAX(D15,0)-MAX(D16,0)-D17-MAX(D18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="E19" s="95" t="str">
-        <f>IF(E6="","",E13-E14-MAX(E15,0)-MAX(E16,0)-E17-MAX(E18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="F19" s="95" t="str">
-        <f>IF(F6="","",F13-F14-MAX(F15,0)-MAX(F16,0)-F17-MAX(F18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="G19" s="95" t="str">
-        <f>IF(G6="","",G13-G14-MAX(G15,0)-MAX(G16,0)-G17-MAX(G18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="H19" s="95" t="str">
-        <f>IF(H6="","",H13-H14-MAX(H15,0)-MAX(H16,0)-H17-MAX(H18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="I19" s="95" t="str">
-        <f>IF(I6="","",I13-I14-MAX(I15,0)-MAX(I16,0)-I17-MAX(I18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="J19" s="95" t="str">
-        <f>IF(J6="","",J13-J14-MAX(J15,0)-MAX(J16,0)-J17-MAX(J18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="K19" s="95" t="str">
-        <f>IF(K6="","",K13-K14-MAX(K15,0)-MAX(K16,0)-K17-MAX(K18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="L19" s="95" t="str">
-        <f>IF(L6="","",L13-L14-MAX(L15,0)-MAX(L16,0)-L17-MAX(L18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="M19" s="95" t="str">
-        <f>IF(M6="","",M13-M14-MAX(M15,0)-MAX(M16,0)-M17-MAX(M18/(1-Fin_Analysis!$F$84),0))</f>
-        <v/>
-      </c>
-      <c r="N19" s="94"/>
+      <c r="B19" s="103" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="80" t="str">
+        <f>IF(C6="","",C9-C10-C17-MAX(C18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="D19" s="80" t="str">
+        <f>IF(D6="","",D9-D10-D17-MAX(D18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="E19" s="80" t="str">
+        <f>IF(E6="","",E9-E10-E17-MAX(E18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="F19" s="80" t="str">
+        <f>IF(F6="","",F9-F10-F17-MAX(F18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="G19" s="80" t="str">
+        <f>IF(G6="","",G9-G10-G17-MAX(G18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="H19" s="80" t="str">
+        <f>IF(H6="","",H9-H10-H17-MAX(H18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="I19" s="80" t="str">
+        <f>IF(I6="","",I9-I10-I17-MAX(I18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="J19" s="80" t="str">
+        <f>IF(J6="","",J9-J10-J17-MAX(J18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="K19" s="80" t="str">
+        <f>IF(K6="","",K9-K10-K17-MAX(K18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="L19" s="80" t="str">
+        <f>IF(L6="","",L9-L10-L17-MAX(L18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="M19" s="80" t="str">
+        <f>IF(M6="","",M9-M10-M17-MAX(M18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="N19" s="90"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="57" t="str">
+      <c r="B20" s="103" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="173" t="str">
         <f>IF(D19="","",IF(ABS(C19+D19)=ABS(C19)+ABS(D19),IF(C19&lt;0,-1,1)*(C19-D19)/D19,"Turn"))</f>
         <v/>
       </c>
-      <c r="D20" s="57" t="str">
+      <c r="D20" s="173" t="str">
         <f t="shared" ref="D20:M20" si="5">IF(E19="","",IF(ABS(D19+E19)=ABS(D19)+ABS(E19),IF(D19&lt;0,-1,1)*(D19-E19)/E19,"Turn"))</f>
         <v/>
       </c>
-      <c r="E20" s="57" t="str">
+      <c r="E20" s="173" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F20" s="57" t="str">
+      <c r="F20" s="173" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G20" s="57" t="str">
+      <c r="G20" s="173" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H20" s="57" t="str">
+      <c r="H20" s="173" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I20" s="57" t="str">
+      <c r="I20" s="173" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J20" s="57" t="str">
+      <c r="J20" s="173" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K20" s="57" t="str">
+      <c r="K20" s="173" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L20" s="57" t="str">
+      <c r="L20" s="173" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M20" s="57" t="str">
+      <c r="M20" s="173" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N20" s="94"/>
+      <c r="N20" s="90"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="111" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="56" t="str">
-        <f t="shared" ref="C21:M21" si="6">IF(C6="","",C22/C6)</f>
-        <v/>
-      </c>
-      <c r="D21" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E21" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F21" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G21" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H21" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I21" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J21" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K21" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L21" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M21" s="56" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N21" s="94"/>
+      <c r="B21" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="80" t="str">
+        <f>IF(C6="","",C13-C14-MAX(C15,0)-MAX(C16,0)-C17-MAX(C18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="D21" s="80" t="str">
+        <f>IF(D6="","",D13-D14-MAX(D15,0)-MAX(D16,0)-D17-MAX(D18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="E21" s="80" t="str">
+        <f>IF(E6="","",E13-E14-MAX(E15,0)-MAX(E16,0)-E17-MAX(E18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="F21" s="80" t="str">
+        <f>IF(F6="","",F13-F14-MAX(F15,0)-MAX(F16,0)-F17-MAX(F18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="G21" s="80" t="str">
+        <f>IF(G6="","",G13-G14-MAX(G15,0)-MAX(G16,0)-G17-MAX(G18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="H21" s="80" t="str">
+        <f>IF(H6="","",H13-H14-MAX(H15,0)-MAX(H16,0)-H17-MAX(H18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="I21" s="80" t="str">
+        <f>IF(I6="","",I13-I14-MAX(I15,0)-MAX(I16,0)-I17-MAX(I18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="J21" s="80" t="str">
+        <f>IF(J6="","",J13-J14-MAX(J15,0)-MAX(J16,0)-J17-MAX(J18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="K21" s="80" t="str">
+        <f>IF(K6="","",K13-K14-MAX(K15,0)-MAX(K16,0)-K17-MAX(K18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="L21" s="80" t="str">
+        <f>IF(L6="","",L13-L14-MAX(L15,0)-MAX(L16,0)-L17-MAX(L18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="M21" s="80" t="str">
+        <f>IF(M6="","",M13-M14-MAX(M15,0)-MAX(M16,0)-M17-MAX(M18/(1-Fin_Analysis!$F$84),0))</f>
+        <v/>
+      </c>
+      <c r="N21" s="90"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="173" t="str">
+        <f>IF(D21="","",IF(ABS(C21+D21)=ABS(C21)+ABS(D21),IF(C21&lt;0,-1,1)*(C21-D21)/D21,"Turn"))</f>
+        <v/>
+      </c>
+      <c r="D22" s="173" t="str">
+        <f t="shared" ref="D22:M22" si="6">IF(E21="","",IF(ABS(D21+E21)=ABS(D21)+ABS(E21),IF(D21&lt;0,-1,1)*(D21-E21)/E21,"Turn"))</f>
+        <v/>
+      </c>
+      <c r="E22" s="173" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F22" s="173" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G22" s="173" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H22" s="173" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I22" s="173" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J22" s="173" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K22" s="173" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L22" s="173" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M22" s="173" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N22" s="90"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="4"/>
+      <c r="B23" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="174" t="str">
+        <f t="shared" ref="C23:M23" si="7">IF(C6="","",C24/C6)</f>
+        <v/>
+      </c>
+      <c r="D23" s="174" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E23" s="174" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F23" s="174" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G23" s="174" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H23" s="174" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I23" s="174" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J23" s="174" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K23" s="174" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L23" s="174" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M23" s="174" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N23" s="90"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="102" t="str">
-        <f>IF(C6="","",C19*(1-Fin_Analysis!$F$84))</f>
-        <v/>
-      </c>
-      <c r="D22" s="95" t="str">
-        <f>IF(D6="","",D19*(1-Fin_Analysis!$F$84))</f>
-        <v/>
-      </c>
-      <c r="E22" s="95" t="str">
-        <f>IF(E6="","",E19*(1-Fin_Analysis!$F$84))</f>
-        <v/>
-      </c>
-      <c r="F22" s="95" t="str">
-        <f>IF(F6="","",F19*(1-Fin_Analysis!$F$84))</f>
-        <v/>
-      </c>
-      <c r="G22" s="95" t="str">
-        <f>IF(G6="","",G19*(1-Fin_Analysis!$F$84))</f>
-        <v/>
-      </c>
-      <c r="H22" s="95" t="str">
-        <f>IF(H6="","",H19*(1-Fin_Analysis!$F$84))</f>
-        <v/>
-      </c>
-      <c r="I22" s="95" t="str">
-        <f>IF(I6="","",I19*(1-Fin_Analysis!$F$84))</f>
-        <v/>
-      </c>
-      <c r="J22" s="95" t="str">
-        <f>IF(J6="","",J19*(1-Fin_Analysis!$F$84))</f>
-        <v/>
-      </c>
-      <c r="K22" s="95" t="str">
-        <f>IF(K6="","",K19*(1-Fin_Analysis!$F$84))</f>
-        <v/>
-      </c>
-      <c r="L22" s="95" t="str">
-        <f>IF(L6="","",L19*(1-Fin_Analysis!$F$84))</f>
-        <v/>
-      </c>
-      <c r="M22" s="95" t="str">
-        <f>IF(M6="","",M19*(1-Fin_Analysis!$F$84))</f>
-        <v/>
-      </c>
-      <c r="N22" s="94"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="4"/>
-      <c r="B23" s="112" t="s">
+      <c r="C24" s="175" t="str">
+        <f>IF(C6="","",C21*(1-Fin_Analysis!$F$84))</f>
+        <v/>
+      </c>
+      <c r="D24" s="80" t="str">
+        <f>IF(D6="","",D21*(1-Fin_Analysis!$F$84))</f>
+        <v/>
+      </c>
+      <c r="E24" s="80" t="str">
+        <f>IF(E6="","",E21*(1-Fin_Analysis!$F$84))</f>
+        <v/>
+      </c>
+      <c r="F24" s="80" t="str">
+        <f>IF(F6="","",F21*(1-Fin_Analysis!$F$84))</f>
+        <v/>
+      </c>
+      <c r="G24" s="80" t="str">
+        <f>IF(G6="","",G21*(1-Fin_Analysis!$F$84))</f>
+        <v/>
+      </c>
+      <c r="H24" s="80" t="str">
+        <f>IF(H6="","",H21*(1-Fin_Analysis!$F$84))</f>
+        <v/>
+      </c>
+      <c r="I24" s="80" t="str">
+        <f>IF(I6="","",I21*(1-Fin_Analysis!$F$84))</f>
+        <v/>
+      </c>
+      <c r="J24" s="80" t="str">
+        <f>IF(J6="","",J21*(1-Fin_Analysis!$F$84))</f>
+        <v/>
+      </c>
+      <c r="K24" s="80" t="str">
+        <f>IF(K6="","",K21*(1-Fin_Analysis!$F$84))</f>
+        <v/>
+      </c>
+      <c r="L24" s="80" t="str">
+        <f>IF(L6="","",L21*(1-Fin_Analysis!$F$84))</f>
+        <v/>
+      </c>
+      <c r="M24" s="80" t="str">
+        <f>IF(M6="","",M21*(1-Fin_Analysis!$F$84))</f>
+        <v/>
+      </c>
+      <c r="N24" s="90"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="4"/>
+      <c r="B25" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="80" t="str">
-        <f>IF(D22="","",IF(ABS(C22+D22)=ABS(C22)+ABS(D22),IF(C22&lt;0,-1,1)*(C22-D22)/D22,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="D23" s="80" t="str">
-        <f t="shared" ref="D23:M23" si="7">IF(E22="","",IF(ABS(D22+E22)=ABS(D22)+ABS(E22),IF(D22&lt;0,-1,1)*(D22-E22)/E22,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="E23" s="80" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F23" s="80" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G23" s="80" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H23" s="80" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I23" s="80" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J23" s="80" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K23" s="80" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L23" s="80" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M23" s="80" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N23" s="94"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="16"/>
-      <c r="B24" s="138" t="s">
+      <c r="C25" s="176" t="str">
+        <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
+        <v/>
+      </c>
+      <c r="D25" s="176" t="str">
+        <f t="shared" ref="D25:M25" si="8">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
+        <v/>
+      </c>
+      <c r="E25" s="176" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F25" s="176" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G25" s="176" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H25" s="176" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I25" s="176" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J25" s="176" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K25" s="176" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L25" s="176" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M25" s="176" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N25" s="90"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="16"/>
+      <c r="B26" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
         <v>45473</v>
       </c>
-      <c r="D24" s="49">
+      <c r="D26" s="49">
         <f>D5</f>
         <v>44926</v>
       </c>
-      <c r="E24" s="49">
-        <f t="shared" ref="E24" si="8">EOMONTH(EDATE(D24,-12),0)</f>
+      <c r="E26" s="49">
+        <f t="shared" ref="E26" si="9">EOMONTH(EDATE(D26,-12),0)</f>
         <v>44561</v>
       </c>
-      <c r="F24" s="49">
-        <f t="shared" ref="F24" si="9">EOMONTH(EDATE(E24,-12),0)</f>
+      <c r="F26" s="49">
+        <f t="shared" ref="F26" si="10">EOMONTH(EDATE(E26,-12),0)</f>
         <v>44196</v>
       </c>
-      <c r="G24" s="49">
-        <f t="shared" ref="G24" si="10">EOMONTH(EDATE(F24,-12),0)</f>
+      <c r="G26" s="49">
+        <f t="shared" ref="G26" si="11">EOMONTH(EDATE(F26,-12),0)</f>
         <v>43830</v>
       </c>
-      <c r="H24" s="49">
-        <f t="shared" ref="H24" si="11">EOMONTH(EDATE(G24,-12),0)</f>
+      <c r="H26" s="49">
+        <f t="shared" ref="H26" si="12">EOMONTH(EDATE(G26,-12),0)</f>
         <v>43465</v>
       </c>
-      <c r="I24" s="49">
-        <f t="shared" ref="I24" si="12">EOMONTH(EDATE(H24,-12),0)</f>
+      <c r="I26" s="49">
+        <f t="shared" ref="I26" si="13">EOMONTH(EDATE(H26,-12),0)</f>
         <v>43100</v>
       </c>
-      <c r="J24" s="49">
-        <f t="shared" ref="J24" si="13">EOMONTH(EDATE(I24,-12),0)</f>
+      <c r="J26" s="49">
+        <f t="shared" ref="J26" si="14">EOMONTH(EDATE(I26,-12),0)</f>
         <v>42735</v>
       </c>
-      <c r="K24" s="49">
-        <f t="shared" ref="K24" si="14">EOMONTH(EDATE(J24,-12),0)</f>
+      <c r="K26" s="49">
+        <f t="shared" ref="K26" si="15">EOMONTH(EDATE(J26,-12),0)</f>
         <v>42369</v>
       </c>
-      <c r="L24" s="49">
-        <f t="shared" ref="L24" si="15">EOMONTH(EDATE(K24,-12),0)</f>
+      <c r="L26" s="49">
+        <f t="shared" ref="L26" si="16">EOMONTH(EDATE(K26,-12),0)</f>
         <v>42004</v>
       </c>
-      <c r="M24" s="49">
-        <f t="shared" ref="M24" si="16">EOMONTH(EDATE(L24,-12),0)</f>
+      <c r="M26" s="49">
+        <f t="shared" ref="M26" si="17">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N24" s="94"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="4"/>
-      <c r="B25" s="105" t="s">
+      <c r="N26" s="90"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="4"/>
+      <c r="B27" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="41" t="str">
-        <f t="shared" ref="C25:M25" si="17">IF(C6="","",C34+C29+C30)</f>
-        <v/>
-      </c>
-      <c r="D25" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="E25" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="F25" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="G25" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H25" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="I25" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="J25" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="K25" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L25" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M25" s="41" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="N25" s="94"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="4"/>
-      <c r="B26" s="105" t="s">
+      <c r="C27" s="66" t="str">
+        <f t="shared" ref="C27:M27" si="18">IF(C6="","",C36+C31+C32)</f>
+        <v/>
+      </c>
+      <c r="D27" s="66" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E27" s="66" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F27" s="66" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="G27" s="66" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H27" s="66" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I27" s="66" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="J27" s="66" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="K27" s="66" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="L27" s="66" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="M27" s="66" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="N27" s="90"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="4"/>
+      <c r="B28" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C28" s="66">
         <f>Fin_Analysis!C28</f>
         <v>12332308</v>
       </c>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="94"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="4"/>
-      <c r="B27" s="105" t="s">
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="170"/>
+      <c r="M28" s="170"/>
+      <c r="N28" s="90"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="4"/>
+      <c r="B29" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C29" s="66">
         <f>Fin_Analysis!C13</f>
         <v>265773</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="94"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="4"/>
-      <c r="B28" s="105" t="s">
+      <c r="D29" s="170"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="170"/>
+      <c r="L29" s="170"/>
+      <c r="M29" s="170"/>
+      <c r="N29" s="90"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="4"/>
+      <c r="B30" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C30" s="66">
         <f>Fin_Analysis!C18</f>
         <v>9672256</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="94"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="4"/>
-      <c r="B29" s="105" t="s">
+      <c r="D30" s="170"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="170"/>
+      <c r="L30" s="170"/>
+      <c r="M30" s="170"/>
+      <c r="N30" s="90"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="4"/>
+      <c r="B31" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C31" s="66">
         <f>Fin_Analysis!I28</f>
         <v>3516809</v>
       </c>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="94"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="4"/>
-      <c r="B30" s="105" t="s">
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="170"/>
+      <c r="K31" s="170"/>
+      <c r="L31" s="170"/>
+      <c r="M31" s="170"/>
+      <c r="N31" s="90"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="4"/>
+      <c r="B32" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C32" s="66">
         <f>Fin_Analysis!I48</f>
         <v>473357</v>
       </c>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="94"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="4"/>
-      <c r="B31" s="105" t="s">
+      <c r="D32" s="170"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="170"/>
+      <c r="K32" s="170"/>
+      <c r="L32" s="170"/>
+      <c r="M32" s="170"/>
+      <c r="N32" s="90"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="4"/>
+      <c r="B33" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="41">
+      <c r="C33" s="66">
         <f>Fin_Analysis!I15</f>
         <v>649697</v>
       </c>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="94"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="4"/>
-      <c r="B32" s="105" t="s">
+      <c r="D33" s="170"/>
+      <c r="E33" s="170"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="170"/>
+      <c r="K33" s="170"/>
+      <c r="L33" s="170"/>
+      <c r="M33" s="170"/>
+      <c r="N33" s="90"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="4"/>
+      <c r="B34" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C34" s="66">
         <f>Fin_Analysis!I34</f>
         <v>319420</v>
       </c>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="94"/>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="4"/>
-      <c r="B33" s="105" t="s">
+      <c r="D34" s="170"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="170"/>
+      <c r="K34" s="170"/>
+      <c r="L34" s="170"/>
+      <c r="M34" s="170"/>
+      <c r="N34" s="90"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="4"/>
+      <c r="B35" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="95" t="str">
-        <f t="shared" ref="C33:M33" si="18">IF(C6="","",C31+C32)</f>
-        <v/>
-      </c>
-      <c r="D33" s="95" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E33" s="95" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F33" s="95" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G33" s="95" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="H33" s="95" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I33" s="95" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="J33" s="95" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="K33" s="95" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="L33" s="95" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M33" s="95" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="N33" s="94"/>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="4"/>
-      <c r="B34" s="105" t="s">
+      <c r="C35" s="80" t="str">
+        <f t="shared" ref="C35:M35" si="19">IF(C6="","",C33+C34)</f>
+        <v/>
+      </c>
+      <c r="D35" s="80" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="E35" s="80" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="F35" s="80" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G35" s="80" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H35" s="80" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I35" s="80" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="J35" s="80" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="K35" s="80" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L35" s="80" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M35" s="80" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N35" s="90"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="4"/>
+      <c r="B36" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C36" s="66">
         <f>Fin_Analysis!D3</f>
         <v>12863898</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="94"/>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="4"/>
-      <c r="B35" s="105" t="s">
+      <c r="D36" s="170"/>
+      <c r="E36" s="170"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="170"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="170"/>
+      <c r="K36" s="170"/>
+      <c r="L36" s="170"/>
+      <c r="M36" s="170"/>
+      <c r="N36" s="90"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="4"/>
+      <c r="B37" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="41">
+      <c r="C37" s="66">
         <f>Fin_Analysis!D4</f>
         <v>-26962</v>
       </c>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="94"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="4"/>
-      <c r="B36" s="105" t="s">
+      <c r="D37" s="170"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="170"/>
+      <c r="K37" s="170"/>
+      <c r="L37" s="170"/>
+      <c r="M37" s="170"/>
+      <c r="N37" s="90"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="4"/>
+      <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C38" s="66">
         <f>Fin_Analysis!C63</f>
         <v>2923945</v>
       </c>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="94"/>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="4"/>
-      <c r="B37" s="105" t="s">
+      <c r="D38" s="170"/>
+      <c r="E38" s="170"/>
+      <c r="F38" s="170"/>
+      <c r="G38" s="170"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="170"/>
+      <c r="J38" s="170"/>
+      <c r="K38" s="170"/>
+      <c r="L38" s="170"/>
+      <c r="M38" s="170"/>
+      <c r="N38" s="90"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="4"/>
+      <c r="B39" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="41">
+      <c r="C39" s="66">
         <f>Fin_Analysis!C68</f>
         <v>13930119</v>
       </c>
-      <c r="D37" s="41" t="str">
-        <f t="shared" ref="D37:M37" si="19">IF(D6="","",D25-D36)</f>
-        <v/>
-      </c>
-      <c r="E37" s="41" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="F37" s="41" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="G37" s="41" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="H37" s="41" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I37" s="41" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="J37" s="41" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="K37" s="41" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L37" s="41" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="M37" s="41" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="N37" s="94"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="4"/>
-      <c r="B38" s="109" t="s">
-        <v>171</v>
-      </c>
-      <c r="C38" s="104" t="str">
-        <f>IF(C6="","",C19/C37)</f>
-        <v/>
-      </c>
-      <c r="D38" s="104" t="str">
-        <f t="shared" ref="D38:M38" si="20">IF(D6="","",D19/D37)</f>
-        <v/>
-      </c>
-      <c r="E38" s="104" t="str">
+      <c r="D39" s="66" t="str">
+        <f t="shared" ref="D39:M39" si="20">IF(D6="","",D27-D38)</f>
+        <v/>
+      </c>
+      <c r="E39" s="66" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="F38" s="104" t="str">
+      <c r="F39" s="66" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="G38" s="104" t="str">
+      <c r="G39" s="66" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="H38" s="104" t="str">
+      <c r="H39" s="66" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="I38" s="104" t="str">
+      <c r="I39" s="66" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J38" s="104" t="str">
+      <c r="J39" s="66" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="K38" s="104" t="str">
+      <c r="K39" s="66" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L38" s="104" t="str">
+      <c r="L39" s="66" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="M38" s="104" t="str">
+      <c r="M39" s="66" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N38" s="94"/>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="16"/>
-      <c r="B39" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="94"/>
+      <c r="N39" s="90"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="106" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="61" t="str">
-        <f t="shared" ref="C40:M40" si="21">IF(C6="","",C8/C6)</f>
-        <v/>
-      </c>
-      <c r="D40" s="61" t="str">
+      <c r="B40" s="102" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="177" t="str">
+        <f t="shared" ref="C40:M40" si="21">IF(C6="","",C21/C39)</f>
+        <v/>
+      </c>
+      <c r="D40" s="177" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="E40" s="61" t="str">
+      <c r="E40" s="177" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="F40" s="61" t="str">
+      <c r="F40" s="177" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="G40" s="61" t="str">
+      <c r="G40" s="177" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="H40" s="61" t="str">
+      <c r="H40" s="177" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="I40" s="61" t="str">
+      <c r="I40" s="177" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="J40" s="61" t="str">
+      <c r="J40" s="177" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K40" s="61" t="str">
+      <c r="K40" s="177" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="L40" s="61" t="str">
+      <c r="L40" s="177" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="M40" s="61" t="str">
+      <c r="M40" s="177" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="N40" s="94"/>
+      <c r="N40" s="90"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="4"/>
-      <c r="B41" s="105" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="56" t="str">
-        <f t="shared" ref="C41:M41" si="22">IF(C6="","",(C10-C12)/C6)</f>
-        <v/>
-      </c>
-      <c r="D41" s="56" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="E41" s="56" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="F41" s="56" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="G41" s="56" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="H41" s="56" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="I41" s="56" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="J41" s="56" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="K41" s="56" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L41" s="56" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M41" s="56" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="N41" s="94"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="90"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="105" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="56" t="str">
-        <f t="shared" ref="C42:M42" si="23">IF(C6="","",(C14+MAX(C15,0))/C6)</f>
-        <v/>
-      </c>
-      <c r="D42" s="56" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="E42" s="56" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="F42" s="56" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="G42" s="56" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="H42" s="56" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="I42" s="56" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="J42" s="56" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="K42" s="56" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="L42" s="56" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="M42" s="56" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="N42" s="94"/>
+      <c r="B42" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="178" t="str">
+        <f t="shared" ref="C42:M42" si="22">IF(C6="","",C8/C6)</f>
+        <v/>
+      </c>
+      <c r="D42" s="178" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="E42" s="178" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="F42" s="178" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="G42" s="178" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H42" s="178" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="I42" s="178" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="J42" s="178" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="K42" s="178" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="L42" s="178" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="M42" s="178" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N42" s="90"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="56" t="str">
-        <f t="shared" ref="C43:M43" si="24">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v/>
-      </c>
-      <c r="D43" s="56" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="E43" s="56" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="F43" s="56" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="G43" s="56" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="H43" s="56" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="I43" s="56" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="J43" s="56" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="K43" s="56" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="L43" s="56" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="M43" s="56" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="N43" s="94"/>
+      <c r="B43" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="174" t="str">
+        <f t="shared" ref="C43:M43" si="23">IF(C6="","",(C10-C12)/C6)</f>
+        <v/>
+      </c>
+      <c r="D43" s="174" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E43" s="174" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="F43" s="174" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G43" s="174" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="H43" s="174" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I43" s="174" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="J43" s="174" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="K43" s="174" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="L43" s="174" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="M43" s="174" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="N43" s="90"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="105" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="56" t="str">
-        <f t="shared" ref="C44:M44" si="25">IF(C6="","",C17/C6)</f>
-        <v/>
-      </c>
-      <c r="D44" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="E44" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="F44" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="G44" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="H44" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="I44" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="J44" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="K44" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="L44" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="M44" s="56" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="N44" s="94"/>
+      <c r="B44" s="98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="174" t="str">
+        <f t="shared" ref="C44:M44" si="24">IF(C6="","",(C14+MAX(C15,0))/C6)</f>
+        <v/>
+      </c>
+      <c r="D44" s="174" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="E44" s="174" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="F44" s="174" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="G44" s="174" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H44" s="174" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I44" s="174" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="J44" s="174" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="K44" s="174" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="L44" s="174" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="M44" s="174" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="N44" s="90"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="105" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="56" t="str">
-        <f>IF(C6="","",MAX(C18,0)/(1-Fin_Analysis!$F$84)/C6)</f>
-        <v/>
-      </c>
-      <c r="D45" s="56" t="str">
-        <f>IF(D6="","",MAX(D18,0)/(1-Fin_Analysis!$F$84)/D6)</f>
-        <v/>
-      </c>
-      <c r="E45" s="56" t="str">
-        <f>IF(E6="","",MAX(E18,0)/(1-Fin_Analysis!$F$84)/E6)</f>
-        <v/>
-      </c>
-      <c r="F45" s="56" t="str">
-        <f>IF(F6="","",MAX(F18,0)/(1-Fin_Analysis!$F$84)/F6)</f>
-        <v/>
-      </c>
-      <c r="G45" s="56" t="str">
-        <f>IF(G6="","",MAX(G18,0)/(1-Fin_Analysis!$F$84)/G6)</f>
-        <v/>
-      </c>
-      <c r="H45" s="56" t="str">
-        <f>IF(H6="","",MAX(H18,0)/(1-Fin_Analysis!$F$84)/H6)</f>
-        <v/>
-      </c>
-      <c r="I45" s="56" t="str">
-        <f>IF(I6="","",MAX(I18,0)/(1-Fin_Analysis!$F$84)/I6)</f>
-        <v/>
-      </c>
-      <c r="J45" s="56" t="str">
-        <f>IF(J6="","",MAX(J18,0)/(1-Fin_Analysis!$F$84)/J6)</f>
-        <v/>
-      </c>
-      <c r="K45" s="56" t="str">
-        <f>IF(K6="","",MAX(K18,0)/(1-Fin_Analysis!$F$84)/K6)</f>
-        <v/>
-      </c>
-      <c r="L45" s="56" t="str">
-        <f>IF(L6="","",MAX(L18,0)/(1-Fin_Analysis!$F$84)/L6)</f>
-        <v/>
-      </c>
-      <c r="M45" s="56" t="str">
-        <f>IF(M6="","",MAX(M18,0)/(1-Fin_Analysis!$F$84)/M6)</f>
-        <v/>
-      </c>
-      <c r="N45" s="94"/>
+      <c r="B45" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="174" t="str">
+        <f t="shared" ref="C45:M45" si="25">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v/>
+      </c>
+      <c r="D45" s="174" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="E45" s="174" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="F45" s="174" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="G45" s="174" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="H45" s="174" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="I45" s="174" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="J45" s="174" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="K45" s="174" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="L45" s="174" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="M45" s="174" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="N45" s="90"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="105" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" s="56" t="str">
-        <f t="shared" ref="C46:M46" si="26">IF(C6="","",C19/C6)</f>
-        <v/>
-      </c>
-      <c r="D46" s="56" t="str">
+      <c r="B46" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="174" t="str">
+        <f t="shared" ref="C46:M46" si="26">IF(C6="","",C17/C6)</f>
+        <v/>
+      </c>
+      <c r="D46" s="174" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="E46" s="56" t="str">
+      <c r="E46" s="174" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="F46" s="56" t="str">
+      <c r="F46" s="174" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G46" s="56" t="str">
+      <c r="G46" s="174" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H46" s="56" t="str">
+      <c r="H46" s="174" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="I46" s="56" t="str">
+      <c r="I46" s="174" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="J46" s="56" t="str">
+      <c r="J46" s="174" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="K46" s="56" t="str">
+      <c r="K46" s="174" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="L46" s="56" t="str">
+      <c r="L46" s="174" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="M46" s="56" t="str">
+      <c r="M46" s="174" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="N46" s="94"/>
+      <c r="N46" s="90"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="16"/>
-      <c r="B47" s="114" t="s">
-        <v>162</v>
-      </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="94"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="174" t="str">
+        <f>IF(C6="","",MAX(C18,0)/(1-Fin_Analysis!$F$84)/C6)</f>
+        <v/>
+      </c>
+      <c r="D47" s="174" t="str">
+        <f>IF(D6="","",MAX(D18,0)/(1-Fin_Analysis!$F$84)/D6)</f>
+        <v/>
+      </c>
+      <c r="E47" s="174" t="str">
+        <f>IF(E6="","",MAX(E18,0)/(1-Fin_Analysis!$F$84)/E6)</f>
+        <v/>
+      </c>
+      <c r="F47" s="174" t="str">
+        <f>IF(F6="","",MAX(F18,0)/(1-Fin_Analysis!$F$84)/F6)</f>
+        <v/>
+      </c>
+      <c r="G47" s="174" t="str">
+        <f>IF(G6="","",MAX(G18,0)/(1-Fin_Analysis!$F$84)/G6)</f>
+        <v/>
+      </c>
+      <c r="H47" s="174" t="str">
+        <f>IF(H6="","",MAX(H18,0)/(1-Fin_Analysis!$F$84)/H6)</f>
+        <v/>
+      </c>
+      <c r="I47" s="174" t="str">
+        <f>IF(I6="","",MAX(I18,0)/(1-Fin_Analysis!$F$84)/I6)</f>
+        <v/>
+      </c>
+      <c r="J47" s="174" t="str">
+        <f>IF(J6="","",MAX(J18,0)/(1-Fin_Analysis!$F$84)/J6)</f>
+        <v/>
+      </c>
+      <c r="K47" s="174" t="str">
+        <f>IF(K6="","",MAX(K18,0)/(1-Fin_Analysis!$F$84)/K6)</f>
+        <v/>
+      </c>
+      <c r="L47" s="174" t="str">
+        <f>IF(L6="","",MAX(L18,0)/(1-Fin_Analysis!$F$84)/L6)</f>
+        <v/>
+      </c>
+      <c r="M47" s="174" t="str">
+        <f>IF(M6="","",MAX(M18,0)/(1-Fin_Analysis!$F$84)/M6)</f>
+        <v/>
+      </c>
+      <c r="N47" s="90"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="106" t="s">
+      <c r="B48" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="174" t="str">
+        <f t="shared" ref="C48:M48" si="27">IF(C6="","",C21/C6)</f>
+        <v/>
+      </c>
+      <c r="D48" s="174" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="E48" s="174" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="F48" s="174" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="G48" s="174" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="H48" s="174" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="I48" s="174" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="J48" s="174" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="K48" s="174" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L48" s="174" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="M48" s="174" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="N48" s="90"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="16"/>
+      <c r="B49" s="107" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="90"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="4"/>
+      <c r="B50" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="C48" s="61" t="str">
-        <f t="shared" ref="C48:M48" si="27">IF(C6="","",C27/C6)</f>
-        <v/>
-      </c>
-      <c r="D48" s="61" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="E48" s="61" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="F48" s="61" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="G48" s="61" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="H48" s="61" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="I48" s="61" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="J48" s="61" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="K48" s="61" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="L48" s="61" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="M48" s="61" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="N48" s="94"/>
-    </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="4"/>
-      <c r="B49" s="105" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" s="56" t="str">
-        <f t="shared" ref="C49:M49" si="28">IF(C6="","",C28/C6)</f>
-        <v/>
-      </c>
-      <c r="D49" s="56" t="str">
+      <c r="C50" s="178" t="str">
+        <f t="shared" ref="C50:M50" si="28">IF(C6="","",C29/C6)</f>
+        <v/>
+      </c>
+      <c r="D50" s="178" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="E49" s="56" t="str">
+      <c r="E50" s="178" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="F49" s="56" t="str">
+      <c r="F50" s="178" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="G49" s="56" t="str">
+      <c r="G50" s="178" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="H49" s="56" t="str">
+      <c r="H50" s="178" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I49" s="56" t="str">
+      <c r="I50" s="178" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J49" s="56" t="str">
+      <c r="J50" s="178" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="K49" s="56" t="str">
+      <c r="K50" s="178" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="L49" s="56" t="str">
+      <c r="L50" s="178" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="M49" s="56" t="str">
+      <c r="M50" s="178" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="N49" s="94"/>
-    </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="16"/>
-      <c r="B50" s="114" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
+      <c r="N50" s="90"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="106" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="61" t="e">
-        <f>IF(C34="","",(C25-C34)/C25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D51" s="61" t="str">
-        <f t="shared" ref="D51:M51" si="29">IF(D34="","",(D25-D34)/D25)</f>
-        <v/>
-      </c>
-      <c r="E51" s="61" t="str">
+      <c r="B51" s="98" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="174" t="str">
+        <f t="shared" ref="C51:M51" si="29">IF(C6="","",C30/C6)</f>
+        <v/>
+      </c>
+      <c r="D51" s="174" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="F51" s="61" t="str">
+      <c r="E51" s="174" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="G51" s="61" t="str">
+      <c r="F51" s="174" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="H51" s="61" t="str">
+      <c r="G51" s="174" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="I51" s="61" t="str">
+      <c r="H51" s="174" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="J51" s="61" t="str">
+      <c r="I51" s="174" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="K51" s="61" t="str">
+      <c r="J51" s="174" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="L51" s="61" t="str">
+      <c r="K51" s="174" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="M51" s="61" t="str">
+      <c r="L51" s="174" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
+      <c r="M51" s="174" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="N51" s="90"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="105" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" s="60" t="str">
-        <f t="shared" ref="C52:M52" si="30">IF(C19="","",IF(C33&lt;=0,"-",C19/C33))</f>
-        <v/>
-      </c>
-      <c r="D52" s="60" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="E52" s="60" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="F52" s="60" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="G52" s="60" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="H52" s="60" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="I52" s="60" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="J52" s="60" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="K52" s="60" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="L52" s="60" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="M52" s="60" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
+      <c r="A52" s="16"/>
+      <c r="B52" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="105" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="56" t="str">
-        <f t="shared" ref="C53:M53" si="31">IF(C19="","",IF(C17&lt;=0,"-",C17/C19))</f>
-        <v/>
-      </c>
-      <c r="D53" s="56" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="E53" s="56" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="F53" s="56" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="G53" s="56" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="H53" s="56" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="I53" s="56" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="J53" s="56" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="K53" s="56" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="L53" s="56" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="M53" s="56" t="str">
-        <f t="shared" si="31"/>
+      <c r="B53" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="178" t="e">
+        <f>IF(C36="","",(C27-C36)/C27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D53" s="178" t="str">
+        <f t="shared" ref="D53:M53" si="30">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E53" s="178" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="F53" s="178" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="G53" s="178" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="H53" s="178" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="I53" s="178" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="J53" s="178" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="K53" s="178" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="L53" s="178" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="M53" s="178" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="62">
-        <f t="shared" ref="C54:M54" si="32">IF(C26="","",C26/C29)</f>
-        <v>3.5066755118062995</v>
-      </c>
-      <c r="D54" s="62" t="str">
+      <c r="B54" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="179" t="str">
+        <f t="shared" ref="C54:M54" si="31">IF(C21="","",IF(C35&lt;=0,"-",C21/C35))</f>
+        <v/>
+      </c>
+      <c r="D54" s="179" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="E54" s="179" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="F54" s="179" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="G54" s="179" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H54" s="179" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="I54" s="179" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="J54" s="179" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="K54" s="179" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="L54" s="179" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="M54" s="179" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="4"/>
+      <c r="B55" s="98" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="174" t="str">
+        <f t="shared" ref="C55:M55" si="32">IF(C21="","",IF(C17&lt;=0,"-",C17/C21))</f>
+        <v/>
+      </c>
+      <c r="D55" s="174" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="E54" s="62" t="str">
+      <c r="E55" s="174" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="F54" s="62" t="str">
+      <c r="F55" s="174" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="G54" s="62" t="str">
+      <c r="G55" s="174" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="H54" s="62" t="str">
+      <c r="H55" s="174" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="I54" s="62" t="str">
+      <c r="I55" s="174" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="J54" s="62" t="str">
+      <c r="J55" s="174" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="K54" s="62" t="str">
+      <c r="K55" s="174" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="L54" s="62" t="str">
+      <c r="L55" s="174" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="M54" s="62" t="str">
+      <c r="M55" s="174" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-    </row>
+      <c r="B56" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="180">
+        <f t="shared" ref="C56:M56" si="33">IF(C28="","",C28/C31)</f>
+        <v>3.5066755118062995</v>
+      </c>
+      <c r="D56" s="180" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="E56" s="180" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="F56" s="180" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="G56" s="180" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H56" s="180" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I56" s="180" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J56" s="180" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K56" s="180" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L56" s="180" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M56" s="180" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
@@ -5926,8 +6123,12 @@
     <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A246" s="4"/>
+    </row>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A247" s="4"/>
+    </row>
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6609,21 +6810,28 @@
     <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M21 C25:M38">
-    <cfRule type="containsBlanks" dxfId="6" priority="3">
+  <conditionalFormatting sqref="C6:M23 C27:M40">
+    <cfRule type="containsBlanks" dxfId="7" priority="4">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:M23">
-    <cfRule type="containsBlanks" dxfId="5" priority="2">
-      <formula>LEN(TRIM(C23))=0</formula>
+  <conditionalFormatting sqref="C25:M25">
+    <cfRule type="containsBlanks" dxfId="6" priority="3">
+      <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:M22">
+  <conditionalFormatting sqref="D24:M24">
+    <cfRule type="containsBlanks" dxfId="5" priority="2">
+      <formula>LEN(TRIM(D24))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
     <cfRule type="containsBlanks" dxfId="4" priority="1">
-      <formula>LEN(TRIM(D22))=0</formula>
+      <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -6650,7 +6858,7 @@
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
     <col min="3" max="6" width="15.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
@@ -6666,12 +6874,12 @@
         <v>22</v>
       </c>
       <c r="C2" s="45"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="94"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="90"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="94"/>
+      <c r="I2" s="90"/>
       <c r="K2" s="50" t="s">
         <v>8</v>
       </c>
@@ -6680,21 +6888,21 @@
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="140">
+      <c r="C3" s="90"/>
+      <c r="D3" s="124">
         <f>C49-I49</f>
         <v>12863898</v>
       </c>
-      <c r="E3" s="73" t="str">
+      <c r="E3" s="70" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
       <c r="H3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="59">
+      <c r="I3" s="57">
         <v>12890860</v>
       </c>
       <c r="K3" s="24"/>
@@ -6703,28 +6911,28 @@
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="69">
+      <c r="C4" s="90"/>
+      <c r="D4" s="66">
         <f>D3-I3</f>
         <v>-26962</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="11" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="64">
         <f>C28/I28</f>
         <v>3.5066755118062995</v>
       </c>
@@ -6734,35 +6942,35 @@
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="75">
+      <c r="C6" s="90"/>
+      <c r="D6" s="72">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>4105927.3200000008</v>
+        <v>3732661.2</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.68081779566349165</v>
-      </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
+        <v>0.70983435969408337</v>
+      </c>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
       <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="64">
         <f>(C24+C25)/I28</f>
         <v>0.74800394334750619</v>
       </c>
-      <c r="J6" s="94"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="70">
-        <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>7.6928285867749873</v>
+      <c r="C7" s="90"/>
+      <c r="D7" s="67">
+        <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
+        <v>6.3577095758470952</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -6771,17 +6979,17 @@
       <c r="H7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="64">
         <f>C24/I28</f>
         <v>0.64376313868623514</v>
       </c>
-      <c r="J7" s="94"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -6789,41 +6997,41 @@
       <c r="B9" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="71">
+      <c r="C9" s="89"/>
+      <c r="D9" s="68">
         <v>45473</v>
       </c>
-      <c r="E9" s="143" t="str">
+      <c r="E9" s="127" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="81" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" s="81" t="s">
+      <c r="D10" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="126" t="s">
+      <c r="F10" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="94"/>
+      <c r="G10" s="90"/>
       <c r="H10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="77" t="s">
         <v>34</v>
       </c>
       <c r="K10" s="24"/>
@@ -6832,187 +7040,187 @@
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="60">
         <v>1998219</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="61">
         <v>1</v>
       </c>
-      <c r="E11" s="95">
+      <c r="E11" s="91">
         <f t="shared" ref="E11:E21" si="0">C11*D11</f>
         <v>1998219</v>
       </c>
-      <c r="F11" s="127"/>
-      <c r="G11" s="94"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="90"/>
       <c r="H11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="63">
+      <c r="I11" s="60">
         <v>362000</v>
       </c>
-      <c r="J11" s="94"/>
+      <c r="J11" s="90"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64">
+      <c r="C12" s="60"/>
+      <c r="D12" s="61">
         <v>0.95</v>
       </c>
-      <c r="E12" s="95">
+      <c r="E12" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="127"/>
-      <c r="G12" s="94"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="60">
         <v>287697</v>
       </c>
-      <c r="J12" s="94"/>
+      <c r="J12" s="90"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="63">
+      <c r="C13" s="60">
         <v>265773</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="61">
         <v>0.8</v>
       </c>
-      <c r="E13" s="95">
+      <c r="E13" s="91">
         <f t="shared" si="0"/>
         <v>212618.40000000002</v>
       </c>
-      <c r="F13" s="127"/>
-      <c r="G13" s="94"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="94"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="90"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64">
+      <c r="C14" s="60"/>
+      <c r="D14" s="61">
         <v>0.3</v>
       </c>
-      <c r="E14" s="95">
+      <c r="E14" s="91">
         <f>C14*D14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="127"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="93" t="s">
+      <c r="F14" s="117"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="144"/>
-      <c r="J14" s="94"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="90"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64">
+      <c r="C15" s="60"/>
+      <c r="D15" s="61">
         <v>0.05</v>
       </c>
-      <c r="E15" s="95">
+      <c r="E15" s="91">
         <f>C15*D15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="127"/>
-      <c r="G15" s="94"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="90"/>
       <c r="H15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="91">
+      <c r="I15" s="87">
         <f>SUM(I11:I14)</f>
         <v>649697</v>
       </c>
-      <c r="J15" s="94"/>
+      <c r="J15" s="90"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64">
+      <c r="C16" s="60"/>
+      <c r="D16" s="61">
         <v>0.5</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E16" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="127"/>
+      <c r="F16" s="117"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="94"/>
+      <c r="J16" s="90"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="63">
+      <c r="C17" s="60">
         <v>366595</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="61">
         <v>0.1</v>
       </c>
-      <c r="E17" s="95">
+      <c r="E17" s="91">
         <f t="shared" si="0"/>
         <v>36659.5</v>
       </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="94"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="90"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="94"/>
+      <c r="J17" s="90"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="63">
+      <c r="C18" s="60">
         <v>9672256</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="61">
         <v>0.5</v>
       </c>
-      <c r="E18" s="95">
+      <c r="E18" s="91">
         <f t="shared" si="0"/>
         <v>4836128</v>
       </c>
-      <c r="F18" s="127"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="64">
+      <c r="C19" s="60"/>
+      <c r="D19" s="61">
         <v>0.75</v>
       </c>
-      <c r="E19" s="95">
+      <c r="E19" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="128" t="s">
+      <c r="F19" s="118" t="s">
         <v>46</v>
       </c>
       <c r="G19" s="30">
@@ -7024,15 +7232,15 @@
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="64">
+      <c r="C20" s="60"/>
+      <c r="D20" s="61">
         <v>0.6</v>
       </c>
-      <c r="E20" s="95">
+      <c r="E20" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="128" t="s">
+      <c r="F20" s="118" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="30">
@@ -7046,18 +7254,18 @@
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="60">
         <v>29465</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="61">
         <v>0.95</v>
       </c>
-      <c r="E21" s="95">
+      <c r="E21" s="91">
         <f t="shared" si="0"/>
         <v>27991.75</v>
       </c>
-      <c r="F21" s="127"/>
-      <c r="G21" s="94"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="90"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
@@ -7065,16 +7273,16 @@
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64">
+      <c r="C22" s="60"/>
+      <c r="D22" s="61">
         <v>0.2</v>
       </c>
-      <c r="E22" s="95">
+      <c r="E22" s="91">
         <f t="shared" ref="E22" si="1">C22*D22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="127"/>
-      <c r="G22" s="94"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="90"/>
       <c r="H22" s="3" t="s">
         <v>45</v>
       </c>
@@ -7084,61 +7292,61 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="126" t="s">
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="94"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="65">
+      <c r="C24" s="62">
         <f>SUM(C11:C14)</f>
         <v>2263992</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="63">
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.97652173682592514</v>
       </c>
-      <c r="E24" s="95">
+      <c r="E24" s="91">
         <f>SUM(E11:E14)</f>
         <v>2210837.4</v>
       </c>
-      <c r="F24" s="129">
+      <c r="F24" s="119">
         <f>E24/$E$28</f>
         <v>0.31087690869838996</v>
       </c>
-      <c r="G24" s="94"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="65">
+      <c r="C25" s="62">
         <f>SUM(C15:C17)</f>
         <v>366595</v>
       </c>
-      <c r="D25" s="66">
+      <c r="D25" s="63">
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0.1</v>
       </c>
-      <c r="E25" s="95">
+      <c r="E25" s="91">
         <f>SUM(E15:E17)</f>
         <v>36659.5</v>
       </c>
-      <c r="F25" s="129">
+      <c r="F25" s="119">
         <f t="shared" ref="F25:F27" si="2">E25/$E$28</f>
         <v>5.1548757201360113E-3</v>
       </c>
-      <c r="G25" s="94"/>
+      <c r="G25" s="90"/>
       <c r="H25" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="67">
+      <c r="I25" s="64">
         <f>E28/I28</f>
         <v>2.0221788132366587</v>
       </c>
@@ -7147,27 +7355,27 @@
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="65">
+      <c r="C26" s="62">
         <f>C18+C19+C20</f>
         <v>9672256</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="63">
         <f t="shared" ref="D26:D27" si="3">IF(E26=0,0,E26/C26)</f>
         <v>0.5</v>
       </c>
-      <c r="E26" s="95">
+      <c r="E26" s="91">
         <f>E18+E19+E20</f>
         <v>4836128</v>
       </c>
-      <c r="F26" s="129">
+      <c r="F26" s="119">
         <f t="shared" si="2"/>
         <v>0.68003215555776619</v>
       </c>
-      <c r="G26" s="94"/>
+      <c r="G26" s="90"/>
       <c r="H26" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="67">
+      <c r="I26" s="64">
         <f>E24/($I$28-I22)</f>
         <v>3.4028745707614472</v>
       </c>
@@ -7180,27 +7388,27 @@
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="84">
+      <c r="C27" s="80">
         <f>C21+C22</f>
         <v>29465</v>
       </c>
-      <c r="D27" s="66">
+      <c r="D27" s="63">
         <f t="shared" si="3"/>
         <v>0.95</v>
       </c>
-      <c r="E27" s="95">
+      <c r="E27" s="91">
         <f>E21+E22</f>
         <v>27991.75</v>
       </c>
-      <c r="F27" s="129">
+      <c r="F27" s="119">
         <f t="shared" si="2"/>
         <v>3.9360600237078299E-3</v>
       </c>
-      <c r="G27" s="94"/>
+      <c r="G27" s="90"/>
       <c r="H27" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="67">
+      <c r="I27" s="64">
         <f>(E25+E24)/$I$28</f>
         <v>0.63907277876051838</v>
       </c>
@@ -7210,27 +7418,27 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="86">
+      <c r="C28" s="82">
         <f>SUM(C11:C22)</f>
         <v>12332308</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="58">
         <f t="shared" ref="D28" si="4">E28/C28</f>
         <v>0.57666550738110012</v>
       </c>
-      <c r="E28" s="76">
+      <c r="E28" s="73">
         <f>SUM(E24:E27)</f>
         <v>7111616.6500000004</v>
       </c>
-      <c r="F28" s="127"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="85" t="s">
+      <c r="F28" s="117"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="72">
+      <c r="I28" s="69">
         <v>3516809</v>
       </c>
       <c r="J28" s="32">
@@ -7239,283 +7447,283 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="127" t="s">
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="64">
+      <c r="C30" s="60"/>
+      <c r="D30" s="61">
         <v>0.95</v>
       </c>
-      <c r="E30" s="95">
+      <c r="E30" s="91">
         <v>0</v>
       </c>
-      <c r="F30" s="127"/>
-      <c r="G30" s="94"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="90"/>
       <c r="H30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="63"/>
-      <c r="J30" s="94"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="90"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="64">
+      <c r="C31" s="60"/>
+      <c r="D31" s="61">
         <v>0.5</v>
       </c>
-      <c r="E31" s="95">
+      <c r="E31" s="91">
         <f t="shared" ref="E31:E42" si="5">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="127"/>
-      <c r="G31" s="94"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="90"/>
       <c r="H31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I31" s="63">
+      <c r="I31" s="60">
         <v>319420</v>
       </c>
-      <c r="J31" s="94"/>
+      <c r="J31" s="90"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="64">
+      <c r="C32" s="60"/>
+      <c r="D32" s="61">
         <v>0.4</v>
       </c>
-      <c r="E32" s="95">
+      <c r="E32" s="91">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F32" s="127"/>
-      <c r="G32" s="94"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="90"/>
       <c r="H32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="94"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="90"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="64">
+      <c r="C33" s="60"/>
+      <c r="D33" s="61">
         <v>0.5</v>
       </c>
-      <c r="E33" s="95">
+      <c r="E33" s="91">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F33" s="127"/>
+      <c r="F33" s="117"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="93" t="s">
+      <c r="H33" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="144"/>
-      <c r="J33" s="94"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="90"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="63">
+      <c r="C34" s="60">
         <v>103050</v>
       </c>
-      <c r="D34" s="64">
+      <c r="D34" s="61">
         <v>0</v>
       </c>
-      <c r="E34" s="95">
+      <c r="E34" s="91">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F34" s="127"/>
-      <c r="G34" s="94"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="90"/>
       <c r="H34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="91">
+      <c r="I34" s="87">
         <f>SUM(I30:I33)</f>
         <v>319420</v>
       </c>
-      <c r="J34" s="94"/>
+      <c r="J34" s="90"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="64">
+      <c r="C35" s="60"/>
+      <c r="D35" s="61">
         <v>0.1</v>
       </c>
-      <c r="E35" s="95">
+      <c r="E35" s="91">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F35" s="128" t="s">
+      <c r="F35" s="118" t="s">
         <v>71</v>
       </c>
       <c r="G35" s="30">
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="94"/>
+      <c r="J35" s="90"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="63">
+      <c r="C36" s="60">
         <v>925726</v>
       </c>
-      <c r="D36" s="64">
+      <c r="D36" s="61">
         <v>0.2</v>
       </c>
-      <c r="E36" s="95">
+      <c r="E36" s="91">
         <f t="shared" si="5"/>
         <v>185145.2</v>
       </c>
-      <c r="F36" s="128" t="s">
+      <c r="F36" s="118" t="s">
         <v>71</v>
       </c>
       <c r="G36" s="30">
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="64">
+      <c r="C37" s="60"/>
+      <c r="D37" s="61">
         <v>0.05</v>
       </c>
-      <c r="E37" s="95">
+      <c r="E37" s="91">
         <f>C37*D37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="128" t="s">
+      <c r="F37" s="118" t="s">
         <v>46</v>
       </c>
       <c r="G37" s="30">
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="63">
+      <c r="C38" s="60">
         <v>2522337</v>
       </c>
-      <c r="D38" s="64">
+      <c r="D38" s="61">
         <v>0.1</v>
       </c>
-      <c r="E38" s="95">
+      <c r="E38" s="91">
         <f>C38*D38</f>
         <v>252233.7</v>
       </c>
-      <c r="F38" s="127"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="64">
+      <c r="C39" s="60"/>
+      <c r="D39" s="61">
         <v>0.05</v>
       </c>
-      <c r="E39" s="95">
+      <c r="E39" s="91">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F39" s="127"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="94"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="63">
+      <c r="C40" s="60">
         <v>538321</v>
       </c>
-      <c r="D40" s="64">
+      <c r="D40" s="61">
         <v>0.05</v>
       </c>
-      <c r="E40" s="95">
+      <c r="E40" s="91">
         <f t="shared" si="5"/>
         <v>26916.050000000003</v>
       </c>
-      <c r="F40" s="127"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="63">
+      <c r="C41" s="60">
         <v>154648</v>
       </c>
-      <c r="D41" s="64">
+      <c r="D41" s="61">
         <v>0.95</v>
       </c>
-      <c r="E41" s="95">
+      <c r="E41" s="91">
         <f t="shared" si="5"/>
         <v>146915.6</v>
       </c>
-      <c r="F41" s="127"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="63">
+      <c r="C42" s="60">
         <v>277674</v>
       </c>
-      <c r="D42" s="64">
+      <c r="D42" s="61">
         <v>0</v>
       </c>
-      <c r="E42" s="95">
+      <c r="E42" s="91">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F42" s="127"/>
-      <c r="G42" s="94"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="90"/>
       <c r="H42" s="3" t="s">
         <v>69</v>
       </c>
@@ -7525,74 +7733,74 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="94"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="65">
+      <c r="C44" s="62">
         <f>SUM(C30:C31)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="66">
+      <c r="D44" s="63">
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="95">
+      <c r="E44" s="91">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
-      <c r="F44" s="78"/>
-      <c r="G44" s="94"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="90"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="65">
+      <c r="C45" s="62">
         <f>SUM(C32:C35)</f>
         <v>103050</v>
       </c>
-      <c r="D45" s="66">
+      <c r="D45" s="63">
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="95">
+      <c r="E45" s="91">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
-      <c r="F45" s="78"/>
-      <c r="G45" s="94"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="90"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="65">
+      <c r="C46" s="62">
         <f>C36+C37+C38+C39</f>
         <v>3448063</v>
       </c>
-      <c r="D46" s="66">
+      <c r="D46" s="63">
         <f t="shared" ref="D46:D47" si="6">IF(E46=0,0,E46/C46)</f>
         <v>0.12684771130921912</v>
       </c>
-      <c r="E46" s="95">
+      <c r="E46" s="91">
         <f>E36+E37+E38+E39</f>
         <v>437378.9</v>
       </c>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
       <c r="H46" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="I46" s="67">
+      <c r="I46" s="64">
         <f>(E44+E24)/E64</f>
         <v>2.2812904943365973</v>
       </c>
@@ -7605,24 +7813,24 @@
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="65">
+      <c r="C47" s="62">
         <f>C40+C41+C42</f>
         <v>970643</v>
       </c>
-      <c r="D47" s="66">
+      <c r="D47" s="63">
         <f t="shared" si="6"/>
         <v>0.17908917078678774</v>
       </c>
-      <c r="E47" s="95">
+      <c r="E47" s="91">
         <f>E40+E41+E42</f>
         <v>173831.65000000002</v>
       </c>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
       <c r="H47" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="I47" s="67">
+      <c r="I47" s="64">
         <f>(E44+E45+E24+E25)/$I$49</f>
         <v>0.56325899724472617</v>
       </c>
@@ -7632,27 +7840,27 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="87" t="s">
+      <c r="B48" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="88">
+      <c r="C48" s="84">
         <f>SUM(C30:C42)</f>
         <v>4521756</v>
       </c>
-      <c r="D48" s="89">
+      <c r="D48" s="85">
         <f>E48/C48</f>
         <v>0.13517105965027748</v>
       </c>
-      <c r="E48" s="83">
+      <c r="E48" s="79">
         <f>SUM(E30:E42)</f>
         <v>611210.55000000005</v>
       </c>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="87" t="s">
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="I48" s="90">
+      <c r="I48" s="86">
         <v>473357</v>
       </c>
       <c r="J48" s="8"/>
@@ -7661,7 +7869,7 @@
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="65">
+      <c r="C49" s="62">
         <f>C28+C48</f>
         <v>16854064</v>
       </c>
@@ -7669,12 +7877,12 @@
         <f>E49/C49</f>
         <v>0.45821750765868696</v>
       </c>
-      <c r="E49" s="95">
+      <c r="E49" s="91">
         <f>E28+E48</f>
         <v>7722827.2000000002</v>
       </c>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
       <c r="H49" s="3" t="s">
         <v>86</v>
       </c>
@@ -7682,13 +7890,13 @@
         <f>I28+I48</f>
         <v>3990166</v>
       </c>
-      <c r="J49" s="94"/>
+      <c r="J49" s="90"/>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="I50" s="94"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
+      <c r="I50" s="90"/>
     </row>
     <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
@@ -7701,24 +7909,24 @@
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="94"/>
-      <c r="D52" s="81" t="str">
+      <c r="C52" s="90"/>
+      <c r="D52" s="77" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>P/B Approach</v>
       </c>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="90"/>
       <c r="H52" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="94"/>
+      <c r="I52" s="90"/>
     </row>
     <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="95">
+      <c r="C53" s="91">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -7726,107 +7934,107 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="95">
+      <c r="E53" s="91">
         <f>MAX(C53,C53*Dashboard!G23)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="94"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
       <c r="I53" s="41"/>
     </row>
     <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="94"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="90"/>
     </row>
     <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="157"/>
+      <c r="E55" s="135"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="94"/>
-      <c r="I55" s="94"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="90"/>
     </row>
     <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="94"/>
-      <c r="D56" s="207">
+      <c r="C56" s="90"/>
+      <c r="D56" s="218">
         <f>I15+I34</f>
         <v>969117</v>
       </c>
-      <c r="E56" s="208"/>
+      <c r="E56" s="219"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="94"/>
+      <c r="H56" s="90"/>
       <c r="I56" s="56"/>
     </row>
     <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="94"/>
-      <c r="D57" s="206">
+      <c r="C57" s="90"/>
+      <c r="D57" s="217">
         <v>0</v>
       </c>
-      <c r="E57" s="205"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="94" t="s">
+      <c r="E57" s="216"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="I57" s="94"/>
+      <c r="I57" s="90"/>
     </row>
     <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="94"/>
-      <c r="D58" s="206">
+      <c r="C58" s="90"/>
+      <c r="D58" s="217">
         <v>0</v>
       </c>
-      <c r="E58" s="205"/>
+      <c r="E58" s="216"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="94"/>
-      <c r="I58" s="94"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="90"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="94"/>
-      <c r="I59" s="94"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="90"/>
     </row>
     <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="82" t="s">
+      <c r="D60" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="E60" s="94"/>
+      <c r="E60" s="90"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="94"/>
-      <c r="I60" s="94"/>
+      <c r="H60" s="90"/>
+      <c r="I60" s="90"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="74">
+      <c r="C61" s="71">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
         <v>925726</v>
       </c>
@@ -7838,37 +8046,37 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>185145.2</v>
       </c>
-      <c r="F61" s="94"/>
-      <c r="G61" s="94"/>
-      <c r="H61" s="94"/>
-      <c r="I61" s="94"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="90"/>
     </row>
     <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C62" s="141">
+      <c r="C62" s="125">
         <f>C11+C30</f>
         <v>1998219</v>
       </c>
-      <c r="D62" s="122">
+      <c r="D62" s="112">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E62" s="142">
+      <c r="E62" s="126">
         <f>E11+E30</f>
         <v>1998219</v>
       </c>
-      <c r="F62" s="94"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="94"/>
-      <c r="I62" s="94"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="90"/>
+      <c r="I62" s="90"/>
     </row>
     <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C63" s="74">
+      <c r="C63" s="71">
         <f>C61+C62</f>
         <v>2923945</v>
       </c>
@@ -7876,35 +8084,35 @@
         <f t="shared" si="7"/>
         <v>0.74671862842837333</v>
       </c>
-      <c r="E63" s="65">
+      <c r="E63" s="62">
         <f>E61+E62</f>
         <v>2183364.2000000002</v>
       </c>
-      <c r="F63" s="94"/>
-      <c r="G63" s="94"/>
-      <c r="H63" s="94"/>
-      <c r="I63" s="94"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="90"/>
     </row>
     <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="145" t="s">
+      <c r="B64" s="129" t="s">
         <v>164</v>
       </c>
-      <c r="C64" s="146"/>
-      <c r="D64" s="147"/>
-      <c r="E64" s="75">
+      <c r="C64" s="130"/>
+      <c r="D64" s="131"/>
+      <c r="E64" s="72">
         <f>D56+D57+D58</f>
         <v>969117</v>
       </c>
-      <c r="F64" s="94"/>
-      <c r="G64" s="94"/>
-      <c r="H64" s="94"/>
-      <c r="I64" s="94"/>
+      <c r="F64" s="90"/>
+      <c r="G64" s="90"/>
+      <c r="H64" s="90"/>
+      <c r="I64" s="90"/>
     </row>
     <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C65" s="74">
+      <c r="C65" s="71">
         <f>C63-E64</f>
         <v>1954828</v>
       </c>
@@ -7912,44 +8120,44 @@
         <f t="shared" si="7"/>
         <v>0.62115296077199644</v>
       </c>
-      <c r="E65" s="65">
+      <c r="E65" s="62">
         <f>E63-E64</f>
         <v>1214247.2000000002</v>
       </c>
-      <c r="F65" s="94"/>
-      <c r="G65" s="94"/>
-      <c r="H65" s="94"/>
-      <c r="I65" s="94"/>
+      <c r="F65" s="90"/>
+      <c r="G65" s="90"/>
+      <c r="H65" s="90"/>
+      <c r="I65" s="90"/>
     </row>
     <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
-      <c r="C66" s="74"/>
+      <c r="C66" s="71"/>
       <c r="D66" s="29"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="94"/>
-      <c r="H66" s="94"/>
-      <c r="I66" s="94"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="90"/>
+      <c r="G66" s="90"/>
+      <c r="H66" s="90"/>
+      <c r="I66" s="90"/>
     </row>
     <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="82" t="s">
+      <c r="D67" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="E67" s="65"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="94"/>
-      <c r="I67" s="94"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="90"/>
+      <c r="H67" s="90"/>
+      <c r="I67" s="90"/>
     </row>
     <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C68" s="74">
+      <c r="C68" s="71">
         <f>C49-C63</f>
         <v>13930119</v>
       </c>
@@ -7957,35 +8165,35 @@
         <f t="shared" si="7"/>
         <v>0.3976608527177693</v>
       </c>
-      <c r="E68" s="74">
+      <c r="E68" s="71">
         <f>E49-E63</f>
         <v>5539463</v>
       </c>
-      <c r="F68" s="94"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="94"/>
-      <c r="I68" s="94"/>
+      <c r="F68" s="90"/>
+      <c r="G68" s="90"/>
+      <c r="H68" s="90"/>
+      <c r="I68" s="90"/>
     </row>
     <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="145" t="s">
+      <c r="B69" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="C69" s="146"/>
-      <c r="D69" s="147"/>
-      <c r="E69" s="158">
+      <c r="C69" s="130"/>
+      <c r="D69" s="131"/>
+      <c r="E69" s="136">
         <f>I49-E64</f>
         <v>3021049</v>
       </c>
-      <c r="F69" s="94"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="94"/>
-      <c r="I69" s="94"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="90"/>
     </row>
     <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C70" s="74">
+      <c r="C70" s="71">
         <f>C68-E69</f>
         <v>10909070</v>
       </c>
@@ -7993,75 +8201,75 @@
         <f t="shared" si="7"/>
         <v>0.23085505913886334</v>
       </c>
-      <c r="E70" s="74">
+      <c r="E70" s="71">
         <f>E68-E69</f>
         <v>2518414</v>
       </c>
-      <c r="F70" s="94"/>
-      <c r="G70" s="94"/>
-      <c r="H70" s="94"/>
-      <c r="I70" s="94"/>
+      <c r="F70" s="90"/>
+      <c r="G70" s="90"/>
+      <c r="H70" s="90"/>
+      <c r="I70" s="90"/>
     </row>
     <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="120" t="s">
+      <c r="B72" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="212">
+      <c r="C72" s="223">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="212"/>
+      <c r="D72" s="223"/>
       <c r="H72" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
-        <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
-        <v>(Numbers in 1000CNY)</v>
-      </c>
-      <c r="C73" s="211" t="s">
+        <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
+        <v>(Numbers in 1000HKD)</v>
+      </c>
+      <c r="C73" s="222" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="211"/>
-      <c r="E73" s="213" t="s">
+      <c r="D73" s="222"/>
+      <c r="E73" s="224" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="211"/>
+      <c r="F73" s="222"/>
     </row>
     <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C74" s="95">
+      <c r="C74" s="80">
         <f>Data!C6</f>
         <v>0</v>
       </c>
-      <c r="D74" s="130"/>
-      <c r="E74" s="148">
+      <c r="D74" s="181"/>
+      <c r="E74" s="182">
         <f>C74</f>
         <v>0</v>
       </c>
-      <c r="F74" s="130"/>
+      <c r="F74" s="181"/>
     </row>
     <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="117" t="s">
+      <c r="B75" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="C75" s="95">
+      <c r="C75" s="80">
         <f>Data!C8</f>
         <v>0</v>
       </c>
-      <c r="D75" s="131" t="e">
+      <c r="D75" s="183" t="e">
         <f>C75/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E75" s="148" t="e">
+      <c r="E75" s="182" t="e">
         <f>D75*E74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F75" s="149" t="e">
+      <c r="F75" s="184" t="e">
         <f>E75/$E$74</f>
         <v>#DIV/0!</v>
       </c>
@@ -8070,34 +8278,34 @@
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="118">
+      <c r="C76" s="185">
         <f>C74-C75</f>
         <v>0</v>
       </c>
-      <c r="D76" s="132"/>
-      <c r="E76" s="150" t="e">
+      <c r="D76" s="186"/>
+      <c r="E76" s="187" t="e">
         <f>E74-E75</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F76" s="132"/>
+      <c r="F76" s="186"/>
     </row>
     <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="117" t="s">
+      <c r="B77" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="C77" s="95">
+      <c r="C77" s="80">
         <f>Data!C10-Data!C12</f>
         <v>0</v>
       </c>
-      <c r="D77" s="131" t="e">
+      <c r="D77" s="183" t="e">
         <f>C77/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E77" s="148" t="e">
+      <c r="E77" s="182" t="e">
         <f>D77*E74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F77" s="149" t="e">
+      <c r="F77" s="184" t="e">
         <f>E77/$E$74</f>
         <v>#DIV/0!</v>
       </c>
@@ -8106,34 +8314,34 @@
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C78" s="118">
+      <c r="C78" s="185">
         <f>C76-C77</f>
         <v>0</v>
       </c>
-      <c r="D78" s="132"/>
-      <c r="E78" s="150" t="e">
+      <c r="D78" s="186"/>
+      <c r="E78" s="187" t="e">
         <f>E76-E77</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F78" s="132"/>
+      <c r="F78" s="186"/>
     </row>
     <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="117" t="s">
+      <c r="B79" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="95">
+      <c r="C79" s="80">
         <f>Data!C17</f>
         <v>0</v>
       </c>
-      <c r="D79" s="131" t="e">
+      <c r="D79" s="183" t="e">
         <f>C79/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E79" s="148">
+      <c r="E79" s="182">
         <f>C79</f>
         <v>0</v>
       </c>
-      <c r="F79" s="149" t="e">
+      <c r="F79" s="184" t="e">
         <f>E79/$E$74</f>
         <v>#DIV/0!</v>
       </c>
@@ -8142,19 +8350,19 @@
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="95">
+      <c r="C80" s="80">
         <f>Data!C14+MAX(Data!C15,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="131" t="e">
+      <c r="D80" s="183" t="e">
         <f>C80/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E80" s="148">
+      <c r="E80" s="182">
         <f>3%*E74</f>
         <v>0</v>
       </c>
-      <c r="F80" s="149" t="e">
+      <c r="F80" s="184" t="e">
         <f t="shared" ref="F80:F83" si="8">E80/$E$74</f>
         <v>#DIV/0!</v>
       </c>
@@ -8163,63 +8371,63 @@
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="C81" s="95">
+      <c r="C81" s="80">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D81" s="131" t="e">
+      <c r="D81" s="183" t="e">
         <f>C81/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E81" s="148">
+      <c r="E81" s="182">
         <f>C81</f>
         <v>0</v>
       </c>
-      <c r="F81" s="149" t="e">
+      <c r="F81" s="184" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H81" s="125" t="s">
+      <c r="H81" s="115" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="79" t="s">
+      <c r="B82" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="C82" s="95">
+      <c r="C82" s="80">
         <f>MAX(Data!C18,0)</f>
         <v>0</v>
       </c>
-      <c r="D82" s="131" t="e">
+      <c r="D82" s="183" t="e">
         <f>C82/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E82" s="148">
+      <c r="E82" s="182">
         <v>0</v>
       </c>
-      <c r="F82" s="149" t="e">
+      <c r="F82" s="184" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="119" t="s">
+      <c r="B83" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="C83" s="100">
+      <c r="C83" s="188">
         <f>C78-C79-C80-C81-C82</f>
         <v>0</v>
       </c>
-      <c r="D83" s="133" t="e">
+      <c r="D83" s="189" t="e">
         <f>C83/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E83" s="151" t="e">
+      <c r="E83" s="190" t="e">
         <f>E78-E79-E80-E81-E82</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F83" s="135" t="e">
+      <c r="F83" s="191" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -8228,77 +8436,77 @@
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C84" s="121"/>
-      <c r="D84" s="134"/>
-      <c r="E84" s="152"/>
-      <c r="F84" s="136">
+      <c r="C84" s="192"/>
+      <c r="D84" s="193"/>
+      <c r="E84" s="194"/>
+      <c r="F84" s="195">
         <v>0.25</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="93" t="s">
+      <c r="B85" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="C85" s="118">
+      <c r="C85" s="185">
         <f>C83*(1-F84)</f>
         <v>0</v>
       </c>
-      <c r="D85" s="135" t="e">
+      <c r="D85" s="191" t="e">
         <f>C85/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E85" s="153" t="e">
+      <c r="E85" s="196" t="e">
         <f>E83*(1-F84)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F85" s="135" t="e">
+      <c r="F85" s="191" t="e">
         <f>E85/$E$74</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="94" t="s">
+      <c r="B86" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="159">
-        <f>C85*Data!E3/Common_Shares</f>
+      <c r="C86" s="197">
+        <f>C85*Data!C4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="D86" s="130"/>
-      <c r="E86" s="161" t="e">
-        <f>E85*Data!E3/Common_Shares</f>
+      <c r="D86" s="181"/>
+      <c r="E86" s="198" t="e">
+        <f>E85*Data!C4/Common_Shares</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F86" s="130"/>
+      <c r="F86" s="181"/>
     </row>
     <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="93" t="s">
+      <c r="B87" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="C87" s="162">
+      <c r="C87" s="199">
         <f>0.72+0.64</f>
         <v>1.3599999999999999</v>
       </c>
-      <c r="D87" s="135" t="e">
+      <c r="D87" s="191" t="e">
         <f>C87/C86</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E87" s="160">
+      <c r="E87" s="200">
         <f>C87</f>
         <v>1.3599999999999999</v>
       </c>
-      <c r="F87" s="135" t="e">
+      <c r="F87" s="191" t="e">
         <f>E87/E86</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
-      <c r="C88" s="95"/>
+      <c r="C88" s="91"/>
     </row>
     <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
-      <c r="B89" s="120" t="s">
+      <c r="B89" s="111" t="s">
         <v>168</v>
       </c>
       <c r="C89" s="21"/>
@@ -8310,69 +8518,69 @@
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D90" s="209" t="s">
+      <c r="D90" s="220" t="s">
         <v>170</v>
       </c>
-      <c r="E90" s="209"/>
-      <c r="G90" s="94"/>
+      <c r="E90" s="220"/>
+      <c r="G90" s="90"/>
       <c r="H90" s="24"/>
     </row>
     <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C91" s="64" t="s">
-        <v>230</v>
-      </c>
-      <c r="D91" s="210" t="s">
-        <v>223</v>
-      </c>
-      <c r="E91" s="210"/>
+      <c r="C91" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="D91" s="221" t="s">
+        <v>222</v>
+      </c>
+      <c r="E91" s="221"/>
       <c r="F91" s="29" t="e">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H91" s="195"/>
+      <c r="H91" s="161"/>
     </row>
     <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
-        <v>Required Return (CN)</v>
-      </c>
-      <c r="C92" s="173">
+        <v>Required Return (US)</v>
+      </c>
+      <c r="C92" s="146">
         <f>IF(C91="CN",Dashboard!C17,IF(C91="US",Dashboard!C12,IF(C91="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>0.1125</v>
-      </c>
-      <c r="D92" s="194">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D92" s="160">
         <v>5</v>
       </c>
-      <c r="E92" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="F92" s="193" t="e">
+      <c r="E92" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="F92" s="159" t="e">
         <f>FV(F91,D92,0,-(E86/C92))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H92" s="195"/>
+      <c r="H92" s="161"/>
     </row>
     <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H93" s="24"/>
     </row>
     <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
-      <c r="B94" s="120" t="str">
+      <c r="B94" s="111" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C94" s="163" t="str">
+      <c r="C94" s="137" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D94" s="196" t="s">
-        <v>226</v>
-      </c>
-      <c r="E94" s="155" t="s">
-        <v>227</v>
+      <c r="D94" s="167" t="s">
+        <v>224</v>
+      </c>
+      <c r="E94" s="133" t="s">
+        <v>225</v>
       </c>
       <c r="H94" s="24"/>
     </row>
@@ -8380,15 +8588,15 @@
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C95" s="102" t="e">
-        <f>D95*Common_Shares/Data!E3</f>
+      <c r="C95" s="95" t="e">
+        <f>D95*Common_Shares/Data!C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D95" s="154" t="e">
+      <c r="D95" s="132" t="e">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E95" s="154" t="e">
+      <c r="E95" s="132" t="e">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
         <v>#DIV/0!</v>
       </c>
@@ -8398,32 +8606,32 @@
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="C96" s="102">
+      <c r="C96" s="95">
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D96" s="154">
-        <f>C96*Data!$E$3/Common_Shares</f>
+      <c r="D96" s="132">
+        <f>C96*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="E96" s="130"/>
-      <c r="F96" s="137"/>
+      <c r="E96" s="120"/>
+      <c r="F96" s="121"/>
       <c r="H96" s="24"/>
     </row>
     <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B97" s="119" t="s">
+      <c r="B97" s="110" t="s">
         <v>158</v>
       </c>
-      <c r="C97" s="123">
+      <c r="C97" s="113">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>1335671.9200000004</v>
-      </c>
-      <c r="D97" s="197">
-        <f>C97*Data!$E$3/Common_Shares</f>
-        <v>2.2750026592218116</v>
-      </c>
-      <c r="E97" s="214"/>
-      <c r="F97" s="156" t="s">
+        <v>1214247.2000000002</v>
+      </c>
+      <c r="D97" s="162">
+        <f>C97*Data!$C$4/Common_Shares</f>
+        <v>2.0681842356561919</v>
+      </c>
+      <c r="E97" s="163"/>
+      <c r="F97" s="134" t="s">
         <v>144</v>
       </c>
       <c r="H97" s="24"/>
@@ -8432,19 +8640,19 @@
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C98" s="102" t="e">
+      <c r="C98" s="95" t="e">
         <f>C95-C96+$C$97</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D98" s="124" t="e">
-        <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
+      <c r="D98" s="114" t="e">
+        <f>MAX(C98*Data!$C$4/Common_Shares,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E98" s="124" t="e">
+      <c r="E98" s="114" t="e">
         <f>E95*Exchange_Rate-D96+D97</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F98" s="124" t="e">
+      <c r="F98" s="114" t="e">
         <f>D98*1.25</f>
         <v>#DIV/0!</v>
       </c>
@@ -8457,15 +8665,17 @@
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C100" s="163" t="str">
+      <c r="C100" s="137" t="str">
         <f>C94</f>
         <v>HKD</v>
       </c>
-      <c r="D100" s="196"/>
-      <c r="E100" s="155" t="s">
+      <c r="D100" s="168">
+        <v>0.02</v>
+      </c>
+      <c r="E100" s="133" t="s">
         <v>143</v>
       </c>
-      <c r="F100" s="156" t="s">
+      <c r="F100" s="134" t="s">
         <v>144</v>
       </c>
       <c r="H100" s="24"/>
@@ -8474,63 +8684,63 @@
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C101" s="102">
-        <f>D101*Common_Shares/Data!E3</f>
-        <v>9495279.3902702704</v>
-      </c>
-      <c r="D101" s="154">
-        <f>E87/(C92-2%)*Exchange_Rate</f>
-        <v>16.172972972972975</v>
-      </c>
-      <c r="E101" s="124">
+      <c r="C101" s="95">
+        <f>D101*Common_Shares/Data!C4</f>
+        <v>12476041.812499998</v>
+      </c>
+      <c r="D101" s="132">
+        <f>E87/(C92-D100)*Exchange_Rate</f>
+        <v>21.249999999999996</v>
+      </c>
+      <c r="E101" s="114">
         <f>D101*(1-25%)</f>
-        <v>12.129729729729732</v>
-      </c>
-      <c r="F101" s="124">
+        <v>15.937499999999996</v>
+      </c>
+      <c r="F101" s="114">
         <f>D101*1.25</f>
-        <v>20.216216216216218</v>
-      </c>
-      <c r="H101" s="24" t="s">
-        <v>225</v>
-      </c>
+        <v>26.562499999999996</v>
+      </c>
+      <c r="H101" s="24"/>
     </row>
     <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H102" s="24"/>
     </row>
     <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C103" s="163" t="str">
+        <v>226</v>
+      </c>
+      <c r="C103" s="137" t="str">
         <f>C100</f>
         <v>HKD</v>
       </c>
-      <c r="D103" s="196"/>
-      <c r="E103" s="155" t="s">
+      <c r="D103" s="137" t="s">
+        <v>236</v>
+      </c>
+      <c r="E103" s="133" t="s">
         <v>143</v>
       </c>
-      <c r="F103" s="156" t="s">
+      <c r="F103" s="134" t="s">
         <v>144</v>
       </c>
       <c r="H103" s="24"/>
     </row>
     <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C104" s="102" t="e">
-        <f>D104*Common_Shares/Data!E3</f>
+        <v>227</v>
+      </c>
+      <c r="C104" s="95" t="e">
+        <f>D104*Common_Shares/Data!C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D104" s="154" t="e">
+      <c r="D104" s="132" t="e">
         <f>(D98+D101)/2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E104" s="124" t="e">
+      <c r="E104" s="114" t="e">
         <f>D104*(1-25%)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F104" s="124" t="e">
+      <c r="F104" s="114" t="e">
         <f>D104*1.25</f>
         <v>#DIV/0!</v>
       </c>
@@ -8539,20 +8749,20 @@
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C106" s="164" t="s">
-        <v>210</v>
+      <c r="C106" s="138" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E73:F73"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D90:E90"/>
     <mergeCell ref="D91:E91"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E73:F73"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C86:C87">

--- a/financial_models/templates/Stock_Valuation.xlsx
+++ b/financial_models/templates/Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E649D1-0B8D-4021-A9E1-201E6E09F68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF268EE8-2DE7-EC47-BBB1-C42DE4DD072D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,21 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -34,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="240">
   <si>
     <t>Company Info:</t>
   </si>
@@ -512,14 +523,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>@ 25% Discount</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>@ 25% Increase</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Note:</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -633,234 +636,252 @@
     <t>EPS</t>
   </si>
   <si>
+    <t>Operating Equity Valuation</t>
+  </si>
+  <si>
+    <t>Dividend method</t>
+  </si>
+  <si>
+    <t>Last Revision:</t>
+  </si>
+  <si>
+    <t>After-tax Profit =</t>
+  </si>
+  <si>
+    <t>Selecting the Valuation method</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Value Range</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Operating Expenses - D&amp;A</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>MCX</t>
+  </si>
+  <si>
+    <t>ΔWC</t>
+  </si>
+  <si>
+    <t>- Non-controling Interests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-tax Profit </t>
+  </si>
+  <si>
+    <t>Normalized Payout Ratio</t>
+  </si>
+  <si>
+    <t>Normalized E/P</t>
+  </si>
+  <si>
+    <t>US Riskfree</t>
+  </si>
+  <si>
+    <t>CN Riskfree</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/BAMLC0A4CBBBEY</t>
+  </si>
+  <si>
+    <t>https://yield.chinabond.com.cn/cbweb-mn/yield_main?locale=en_US</t>
+  </si>
+  <si>
+    <t>US BBB Bond yield</t>
+  </si>
+  <si>
+    <t>https://iftp.chinamoney.com.cn/chinese/scsjzqxx/</t>
+  </si>
+  <si>
+    <t>Required Return (CN)</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/china/government-bond-yield</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/DGS10</t>
+  </si>
+  <si>
+    <t>Normalized Cost Structure</t>
+  </si>
+  <si>
+    <t>Price Indicators</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>CN Onshore BBB- Bond yield</t>
+  </si>
+  <si>
+    <t>CN Offshore BBB- Bond yield</t>
+  </si>
+  <si>
+    <t>PB Ratio</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Market Yields</t>
+  </si>
+  <si>
+    <t>Non-controlling Interests</t>
+  </si>
+  <si>
+    <t>Watchlist &amp; Comp_Group:</t>
+  </si>
+  <si>
+    <t>Normalized D/P</t>
+  </si>
+  <si>
+    <t>Symbol:</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Valued @</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>六福珠宝</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>0590.HK</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0003</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg of E and D method</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized Pre-tax Profit</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized Pre-tax Profit g</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAGR Calculator</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inputs =</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAGR =</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial Value (PV)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final Value (FV)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># of Years</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Base Case</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pessimistic Case</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>Dividend per share</t>
-  </si>
-  <si>
-    <t>Operating Equity Valuation</t>
-  </si>
-  <si>
-    <t>Dividend method</t>
-  </si>
-  <si>
-    <t>Last Revision:</t>
-  </si>
-  <si>
-    <t>After-tax Profit =</t>
-  </si>
-  <si>
-    <t>Selecting the Valuation method</t>
-  </si>
-  <si>
-    <t>Vaulation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>E/P Initial Rate of Retrun</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/P Initial Rate of Retrun</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>E/P Future Value is</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/P Future Value is</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target Return</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upper</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Lower</t>
-  </si>
-  <si>
-    <t>Upper</t>
-  </si>
-  <si>
-    <t>Value Range</t>
-  </si>
-  <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Operating Expenses - D&amp;A</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>MCX</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
-    <t>- Non-controling Interests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
-    <t>Choice of Required Return</t>
-  </si>
-  <si>
-    <t>Normalized Payout Ratio</t>
-  </si>
-  <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
-    <t>US Riskfree</t>
-  </si>
-  <si>
-    <t>CN Riskfree</t>
-  </si>
-  <si>
-    <t>https://fred.stlouisfed.org/series/BAMLC0A4CBBBEY</t>
-  </si>
-  <si>
-    <t>https://yield.chinabond.com.cn/cbweb-mn/yield_main?locale=en_US</t>
-  </si>
-  <si>
-    <t>US BBB Bond yield</t>
-  </si>
-  <si>
-    <t>https://iftp.chinamoney.com.cn/chinese/scsjzqxx/</t>
-  </si>
-  <si>
-    <t>Required Return (CN)</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/china/government-bond-yield</t>
-  </si>
-  <si>
-    <t>https://fred.stlouisfed.org/series/DGS10</t>
-  </si>
-  <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
-    <t>Price Indicators</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>CN Onshore BBB- Bond yield</t>
-  </si>
-  <si>
-    <t>CN Offshore BBB- Bond yield</t>
-  </si>
-  <si>
-    <t>PB Ratio</t>
-  </si>
-  <si>
-    <t>HK</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Market Yields</t>
-  </si>
-  <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
-    <t>Watchlist &amp; Comp_Group:</t>
-  </si>
-  <si>
-    <t>Normalized D/P</t>
-  </si>
-  <si>
-    <t>Symbol:</t>
-  </si>
-  <si>
-    <t>Name:</t>
-  </si>
-  <si>
-    <t>Valued @</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>六福珠宝</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>0590.HK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>C0003</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initial Rate of Return (E/P)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Future Value is</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>@Initial rate</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>@15% Target</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avg of E and D method</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avg Valuation</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normalized Pre-tax Profit</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normalized Pre-tax Profit g</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAGR Calculator</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inputs =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAGR =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initial Value (PV)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Final Value (FV)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t># of Years</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avg</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dividend</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="13">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
-    <numFmt numFmtId="187" formatCode="&quot;@ &quot;0.00%&quot; Growth&quot;"/>
+  <numFmts count="12">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1034,21 +1055,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1112,6 +1127,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,10 +1339,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1374,8 +1395,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1398,14 +1419,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1438,7 +1459,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1446,7 +1467,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1490,7 +1511,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1550,7 +1571,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1567,9 +1588,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1590,10 +1608,7 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,10 +1664,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1661,14 +1676,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1683,12 +1697,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="27" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1719,7 +1727,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1773,16 +1781,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1803,13 +1811,43 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="10" fontId="10" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1823,7 +1861,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1834,24 +1872,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2177,22 +2240,22 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="90"/>
       <c r="C1" s="90"/>
       <c r="D1" s="90"/>
@@ -2201,7 +2264,7 @@
       <c r="G1" s="90"/>
       <c r="H1" s="90"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2216,71 +2279,71 @@
       <c r="G2" s="89"/>
       <c r="H2" s="89"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="211" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" s="212"/>
+        <v>211</v>
+      </c>
+      <c r="C3" s="218" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="219"/>
       <c r="E3" s="90"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="142">
-        <v>15.260000228881836</v>
-      </c>
-      <c r="H3" s="144" t="s">
+      <c r="G3" s="140">
+        <v>15.100000381469727</v>
+      </c>
+      <c r="H3" s="142" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="213" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="214"/>
+        <v>212</v>
+      </c>
+      <c r="C4" s="220" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="221"/>
       <c r="E4" s="90"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="217">
+      <c r="G4" s="224">
         <v>587107850</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="224"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="215">
+        <v>175</v>
+      </c>
+      <c r="C5" s="222">
         <v>45593</v>
       </c>
-      <c r="D5" s="216"/>
+      <c r="D5" s="223"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="209">
+      <c r="G5" s="216">
         <f>G3*G4/1000000</f>
-        <v>8959.2659253783222</v>
-      </c>
-      <c r="H5" s="209"/>
+        <v>8865.3287589638712</v>
+      </c>
+      <c r="H5" s="216"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="155">
+      <c r="C6" s="153">
         <v>8</v>
       </c>
-      <c r="D6" s="156">
+      <c r="D6" s="154">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -2291,27 +2354,27 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="210" t="s">
+      <c r="G6" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="210"/>
+      <c r="H6" s="217"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="89" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="158" t="s">
-        <v>221</v>
+      <c r="D7" s="156" t="s">
+        <v>216</v>
       </c>
       <c r="E7" s="90"/>
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="143">
+      <c r="G7" s="141">
         <v>1</v>
       </c>
       <c r="H7" s="74" t="str">
@@ -2319,1144 +2382,1160 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="149" t="s">
-        <v>212</v>
-      </c>
-      <c r="F9" s="153" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="147" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="151" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="202">
+        <v>190</v>
+      </c>
+      <c r="C10" s="197">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="115" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="130" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="203">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="129" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="198">
         <v>5.3099999999999994E-2</v>
       </c>
-      <c r="D11" s="147" t="s">
-        <v>210</v>
+      <c r="D11" s="145" t="s">
+        <v>205</v>
       </c>
       <c r="F11" s="115" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="204">
+      <c r="C12" s="199">
+        <v>0.06</v>
+      </c>
+      <c r="D12" s="197">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F12" s="115"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="197">
+        <v>2.1309999999999999E-2</v>
+      </c>
+      <c r="F14" s="115" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="197">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="129" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="198">
+        <v>0.16</v>
+      </c>
+      <c r="D16" s="155" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="115" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="90" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="200">
         <v>0.08</v>
       </c>
-      <c r="D12" s="202">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="F12" s="115"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="202">
-        <v>2.1309999999999999E-2</v>
-      </c>
-      <c r="F14" s="115" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="202">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="115" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="203">
-        <v>0.16</v>
-      </c>
-      <c r="D16" s="157" t="s">
-        <v>211</v>
-      </c>
-      <c r="F16" s="115" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="90" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="205">
-        <v>8.8000000000000009E-2</v>
-      </c>
-      <c r="D17" s="206"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="152" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="145" t="s">
+      <c r="D17" s="201"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="150" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="143" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="90"/>
       <c r="E19" s="90"/>
-      <c r="F19" s="44"/>
+      <c r="F19" s="150" t="s">
+        <v>237</v>
+      </c>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" s="201" t="e">
-        <f>Fin_Analysis!F75</f>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="145" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="196" t="e">
+        <f>Fin_Analysis!I75</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="90"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="201" t="e">
-        <f>Fin_Analysis!F77</f>
+      <c r="F20" s="90" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" s="197">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="145" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="196" t="e">
+        <f>Fin_Analysis!I77</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="90"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="147" t="s">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="145" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="196" t="e">
+        <f>Fin_Analysis!I79</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="150" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="145" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="196" t="e">
+        <f>Fin_Analysis!I80</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" s="148" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" s="202">
+        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>0.68916348364732616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="145" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="196" t="e">
+        <f>Fin_Analysis!I81</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="148" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="203" t="e">
+        <f>(Fin_Analysis!H86*G7)/G3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="145" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="196" t="e">
+        <f>Fin_Analysis!I82</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="148" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" s="196" t="e">
+        <f>Fin_Analysis!I88</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="146" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="201" t="e">
-        <f>Fin_Analysis!F79</f>
+      <c r="C26" s="196" t="e">
+        <f>Fin_Analysis!I83</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="152" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="147" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="201" t="e">
-        <f>Fin_Analysis!F80</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="150" t="s">
-        <v>209</v>
-      </c>
-      <c r="G23" s="207">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.69646587102745394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="147" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="201" t="e">
-        <f>Fin_Analysis!F81</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="150" t="s">
-        <v>194</v>
-      </c>
-      <c r="G24" s="208" t="e">
-        <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="147" t="s">
-        <v>213</v>
-      </c>
-      <c r="C25" s="201" t="e">
-        <f>Fin_Analysis!F82</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="150" t="s">
-        <v>193</v>
-      </c>
-      <c r="G25" s="201" t="e">
-        <f>Fin_Analysis!F87</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="148" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="201" t="e">
-        <f>Fin_Analysis!F83</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="151" t="s">
-        <v>215</v>
-      </c>
-      <c r="G26" s="208">
-        <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>8.9121885950302682E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F26" s="149" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" s="203">
+        <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
+        <v>9.0066222890229308E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="94" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="93" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E28" s="59"/>
-      <c r="F28" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="53" t="str">
+        <f>Fin_Analysis!F96</f>
+        <v>Pessimistic Case</v>
+      </c>
+      <c r="G28" s="214" t="str">
+        <f>Fin_Analysis!H96</f>
+        <v>Base Case</v>
+      </c>
+      <c r="H28" s="214"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="90" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="140">
-        <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>15.937499999999996</v>
-      </c>
-      <c r="D29" s="139">
-        <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>26.562499999999996</v>
+        <v>180</v>
+      </c>
+      <c r="C29" s="138" t="e">
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="137" t="e">
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E29" s="90"/>
-      <c r="F29" s="141">
-        <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>21.249999999999996</v>
-      </c>
-      <c r="H29" s="90"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="F29" s="139" t="e">
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="215" t="e">
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="215"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
@@ -3466,23 +3545,28 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="11" priority="4">
+    <cfRule type="containsBlanks" dxfId="14" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="10" priority="2">
+    <cfRule type="containsBlanks" dxfId="13" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="9" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="8" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="containsBlanks" dxfId="10" priority="1">
+      <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -3518,7 +3602,7 @@
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3526,7 +3610,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3534,24 +3618,24 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="166" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="127" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="166" t="s">
-        <v>234</v>
-      </c>
-      <c r="H2" s="165" t="s">
-        <v>235</v>
+      <c r="E2" s="163" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="126" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="163" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="162" t="s">
+        <v>226</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="90"/>
@@ -3559,7 +3643,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="108" t="s">
         <v>10</v>
@@ -3567,8 +3651,8 @@
       <c r="C3" s="92">
         <v>45291</v>
       </c>
-      <c r="E3" s="164" t="s">
-        <v>231</v>
+      <c r="E3" s="161" t="s">
+        <v>222</v>
       </c>
       <c r="F3" s="88" t="str">
         <f>H19</f>
@@ -3587,7 +3671,7 @@
       <c r="L3" s="90"/>
       <c r="M3" s="90"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="108" t="s">
         <v>11</v>
@@ -3599,8 +3683,8 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="164" t="s">
-        <v>232</v>
+      <c r="E4" s="161" t="s">
+        <v>223</v>
       </c>
       <c r="F4" s="97" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -3608,10 +3692,10 @@
       </c>
       <c r="J4" s="90"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
-      <c r="B5" s="123" t="s">
-        <v>146</v>
+      <c r="B5" s="122" t="s">
+        <v>144</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -3658,25 +3742,25 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="169"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="164"/>
+      <c r="M6" s="164"/>
       <c r="N6" s="90"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="100" t="s">
         <v>13</v>
@@ -3727,664 +3811,664 @@
       </c>
       <c r="N7" s="90"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
       <c r="N8" s="90"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="171" t="str">
+      <c r="C9" s="166" t="str">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v/>
       </c>
-      <c r="D9" s="171" t="str">
+      <c r="D9" s="166" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E9" s="171" t="str">
+      <c r="E9" s="166" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="171" t="str">
+      <c r="F9" s="166" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="171" t="str">
+      <c r="G9" s="166" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="171" t="str">
+      <c r="H9" s="166" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="171" t="str">
+      <c r="I9" s="166" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="171" t="str">
+      <c r="J9" s="166" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="171" t="str">
+      <c r="K9" s="166" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="171" t="str">
+      <c r="L9" s="166" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="171" t="str">
+      <c r="M9" s="166" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N9" s="90"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
       <c r="N10" s="90"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="172" t="str">
+      <c r="C11" s="167" t="str">
         <f t="shared" ref="C11:M11" si="3">IF(C6="","",(C12/C6))</f>
         <v/>
       </c>
-      <c r="D11" s="172" t="str">
+      <c r="D11" s="167" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E11" s="172" t="str">
+      <c r="E11" s="167" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F11" s="172" t="str">
+      <c r="F11" s="167" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G11" s="172" t="str">
+      <c r="G11" s="167" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H11" s="172" t="str">
+      <c r="H11" s="167" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I11" s="172" t="str">
+      <c r="I11" s="167" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J11" s="172" t="str">
+      <c r="J11" s="167" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K11" s="172" t="str">
+      <c r="K11" s="167" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L11" s="172" t="str">
+      <c r="L11" s="167" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M11" s="172" t="str">
+      <c r="M11" s="167" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N11" s="90"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="170"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
       <c r="N12" s="90"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="171" t="str">
+      <c r="C13" s="166" t="str">
         <f>IF(C6="","",(C9-C10+C12))</f>
         <v/>
       </c>
-      <c r="D13" s="171" t="str">
+      <c r="D13" s="166" t="str">
         <f t="shared" ref="D13:M13" si="4">IF(D6="","",(D9-D10+D12))</f>
         <v/>
       </c>
-      <c r="E13" s="171" t="str">
+      <c r="E13" s="166" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F13" s="171" t="str">
+      <c r="F13" s="166" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G13" s="171" t="str">
+      <c r="G13" s="166" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H13" s="171" t="str">
+      <c r="H13" s="166" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I13" s="171" t="str">
+      <c r="I13" s="166" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J13" s="171" t="str">
+      <c r="J13" s="166" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K13" s="171" t="str">
+      <c r="K13" s="166" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L13" s="171" t="str">
+      <c r="L13" s="166" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M13" s="171" t="str">
+      <c r="M13" s="166" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N13" s="90"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="170"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
       <c r="N14" s="90"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="165"/>
       <c r="N15" s="90"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="170"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
       <c r="N16" s="90"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170"/>
-      <c r="M17" s="170"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+      <c r="M17" s="165"/>
       <c r="N17" s="90"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="170"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
       <c r="N18" s="90"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="103" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C19" s="80" t="str">
-        <f>IF(C6="","",C9-C10-C17-MAX(C18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(C6="","",C9-C10-C17-MAX(C18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="D19" s="80" t="str">
-        <f>IF(D6="","",D9-D10-D17-MAX(D18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(D6="","",D9-D10-D17-MAX(D18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="E19" s="80" t="str">
-        <f>IF(E6="","",E9-E10-E17-MAX(E18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(E6="","",E9-E10-E17-MAX(E18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="F19" s="80" t="str">
-        <f>IF(F6="","",F9-F10-F17-MAX(F18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(F6="","",F9-F10-F17-MAX(F18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="G19" s="80" t="str">
-        <f>IF(G6="","",G9-G10-G17-MAX(G18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(G6="","",G9-G10-G17-MAX(G18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="H19" s="80" t="str">
-        <f>IF(H6="","",H9-H10-H17-MAX(H18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(H6="","",H9-H10-H17-MAX(H18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="I19" s="80" t="str">
-        <f>IF(I6="","",I9-I10-I17-MAX(I18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(I6="","",I9-I10-I17-MAX(I18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="J19" s="80" t="str">
-        <f>IF(J6="","",J9-J10-J17-MAX(J18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(J6="","",J9-J10-J17-MAX(J18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="K19" s="80" t="str">
-        <f>IF(K6="","",K9-K10-K17-MAX(K18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(K6="","",K9-K10-K17-MAX(K18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="L19" s="80" t="str">
-        <f>IF(L6="","",L9-L10-L17-MAX(L18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(L6="","",L9-L10-L17-MAX(L18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="M19" s="80" t="str">
-        <f>IF(M6="","",M9-M10-M17-MAX(M18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(M6="","",M9-M10-M17-MAX(M18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="N19" s="90"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="103" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="173" t="str">
+        <v>220</v>
+      </c>
+      <c r="C20" s="168" t="str">
         <f>IF(D19="","",IF(ABS(C19+D19)=ABS(C19)+ABS(D19),IF(C19&lt;0,-1,1)*(C19-D19)/D19,"Turn"))</f>
         <v/>
       </c>
-      <c r="D20" s="173" t="str">
+      <c r="D20" s="168" t="str">
         <f t="shared" ref="D20:M20" si="5">IF(E19="","",IF(ABS(D19+E19)=ABS(D19)+ABS(E19),IF(D19&lt;0,-1,1)*(D19-E19)/E19,"Turn"))</f>
         <v/>
       </c>
-      <c r="E20" s="173" t="str">
+      <c r="E20" s="168" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F20" s="173" t="str">
+      <c r="F20" s="168" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G20" s="173" t="str">
+      <c r="G20" s="168" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H20" s="173" t="str">
+      <c r="H20" s="168" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I20" s="173" t="str">
+      <c r="I20" s="168" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J20" s="173" t="str">
+      <c r="J20" s="168" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K20" s="173" t="str">
+      <c r="K20" s="168" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L20" s="173" t="str">
+      <c r="L20" s="168" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M20" s="173" t="str">
+      <c r="M20" s="168" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N20" s="90"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="98" t="s">
         <v>115</v>
       </c>
       <c r="C21" s="80" t="str">
-        <f>IF(C6="","",C13-C14-MAX(C15,0)-MAX(C16,0)-C17-MAX(C18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(C6="","",C13-C14-MAX(C15,0)-MAX(C16,0)-C17-MAX(C18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="D21" s="80" t="str">
-        <f>IF(D6="","",D13-D14-MAX(D15,0)-MAX(D16,0)-D17-MAX(D18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(D6="","",D13-D14-MAX(D15,0)-MAX(D16,0)-D17-MAX(D18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="E21" s="80" t="str">
-        <f>IF(E6="","",E13-E14-MAX(E15,0)-MAX(E16,0)-E17-MAX(E18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(E6="","",E13-E14-MAX(E15,0)-MAX(E16,0)-E17-MAX(E18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="F21" s="80" t="str">
-        <f>IF(F6="","",F13-F14-MAX(F15,0)-MAX(F16,0)-F17-MAX(F18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(F6="","",F13-F14-MAX(F15,0)-MAX(F16,0)-F17-MAX(F18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="G21" s="80" t="str">
-        <f>IF(G6="","",G13-G14-MAX(G15,0)-MAX(G16,0)-G17-MAX(G18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(G6="","",G13-G14-MAX(G15,0)-MAX(G16,0)-G17-MAX(G18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="H21" s="80" t="str">
-        <f>IF(H6="","",H13-H14-MAX(H15,0)-MAX(H16,0)-H17-MAX(H18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(H6="","",H13-H14-MAX(H15,0)-MAX(H16,0)-H17-MAX(H18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="I21" s="80" t="str">
-        <f>IF(I6="","",I13-I14-MAX(I15,0)-MAX(I16,0)-I17-MAX(I18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(I6="","",I13-I14-MAX(I15,0)-MAX(I16,0)-I17-MAX(I18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="J21" s="80" t="str">
-        <f>IF(J6="","",J13-J14-MAX(J15,0)-MAX(J16,0)-J17-MAX(J18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(J6="","",J13-J14-MAX(J15,0)-MAX(J16,0)-J17-MAX(J18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="K21" s="80" t="str">
-        <f>IF(K6="","",K13-K14-MAX(K15,0)-MAX(K16,0)-K17-MAX(K18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(K6="","",K13-K14-MAX(K15,0)-MAX(K16,0)-K17-MAX(K18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="L21" s="80" t="str">
-        <f>IF(L6="","",L13-L14-MAX(L15,0)-MAX(L16,0)-L17-MAX(L18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(L6="","",L13-L14-MAX(L15,0)-MAX(L16,0)-L17-MAX(L18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="M21" s="80" t="str">
-        <f>IF(M6="","",M13-M14-MAX(M15,0)-MAX(M16,0)-M17-MAX(M18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(M6="","",M13-M14-MAX(M15,0)-MAX(M16,0)-M17-MAX(M18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="N21" s="90"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="173" t="str">
+      <c r="C22" s="168" t="str">
         <f>IF(D21="","",IF(ABS(C21+D21)=ABS(C21)+ABS(D21),IF(C21&lt;0,-1,1)*(C21-D21)/D21,"Turn"))</f>
         <v/>
       </c>
-      <c r="D22" s="173" t="str">
+      <c r="D22" s="168" t="str">
         <f t="shared" ref="D22:M22" si="6">IF(E21="","",IF(ABS(D21+E21)=ABS(D21)+ABS(E21),IF(D21&lt;0,-1,1)*(D21-E21)/E21,"Turn"))</f>
         <v/>
       </c>
-      <c r="E22" s="173" t="str">
+      <c r="E22" s="168" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F22" s="173" t="str">
+      <c r="F22" s="168" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G22" s="173" t="str">
+      <c r="G22" s="168" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H22" s="173" t="str">
+      <c r="H22" s="168" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I22" s="173" t="str">
+      <c r="I22" s="168" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J22" s="173" t="str">
+      <c r="J22" s="168" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K22" s="173" t="str">
+      <c r="K22" s="168" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L22" s="173" t="str">
+      <c r="L22" s="168" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M22" s="173" t="str">
+      <c r="M22" s="168" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N22" s="90"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="174" t="str">
+      <c r="C23" s="169" t="str">
         <f t="shared" ref="C23:M23" si="7">IF(C6="","",C24/C6)</f>
         <v/>
       </c>
-      <c r="D23" s="174" t="str">
+      <c r="D23" s="169" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="E23" s="174" t="str">
+      <c r="E23" s="169" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F23" s="174" t="str">
+      <c r="F23" s="169" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G23" s="174" t="str">
+      <c r="G23" s="169" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H23" s="174" t="str">
+      <c r="H23" s="169" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I23" s="174" t="str">
+      <c r="I23" s="169" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J23" s="174" t="str">
+      <c r="J23" s="169" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K23" s="174" t="str">
+      <c r="K23" s="169" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L23" s="174" t="str">
+      <c r="L23" s="169" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M23" s="174" t="str">
+      <c r="M23" s="169" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N23" s="90"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="175" t="str">
-        <f>IF(C6="","",C21*(1-Fin_Analysis!$F$84))</f>
+      <c r="C24" s="170" t="str">
+        <f>IF(C6="","",C21*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
       <c r="D24" s="80" t="str">
-        <f>IF(D6="","",D21*(1-Fin_Analysis!$F$84))</f>
+        <f>IF(D6="","",D21*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
       <c r="E24" s="80" t="str">
-        <f>IF(E6="","",E21*(1-Fin_Analysis!$F$84))</f>
+        <f>IF(E6="","",E21*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
       <c r="F24" s="80" t="str">
-        <f>IF(F6="","",F21*(1-Fin_Analysis!$F$84))</f>
+        <f>IF(F6="","",F21*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
       <c r="G24" s="80" t="str">
-        <f>IF(G6="","",G21*(1-Fin_Analysis!$F$84))</f>
+        <f>IF(G6="","",G21*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
       <c r="H24" s="80" t="str">
-        <f>IF(H6="","",H21*(1-Fin_Analysis!$F$84))</f>
+        <f>IF(H6="","",H21*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
       <c r="I24" s="80" t="str">
-        <f>IF(I6="","",I21*(1-Fin_Analysis!$F$84))</f>
+        <f>IF(I6="","",I21*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
       <c r="J24" s="80" t="str">
-        <f>IF(J6="","",J21*(1-Fin_Analysis!$F$84))</f>
+        <f>IF(J6="","",J21*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
       <c r="K24" s="80" t="str">
-        <f>IF(K6="","",K21*(1-Fin_Analysis!$F$84))</f>
+        <f>IF(K6="","",K21*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
       <c r="L24" s="80" t="str">
-        <f>IF(L6="","",L21*(1-Fin_Analysis!$F$84))</f>
+        <f>IF(L6="","",L21*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
       <c r="M24" s="80" t="str">
-        <f>IF(M6="","",M21*(1-Fin_Analysis!$F$84))</f>
+        <f>IF(M6="","",M21*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
       <c r="N24" s="90"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="176" t="str">
+      <c r="C25" s="171" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v/>
       </c>
-      <c r="D25" s="176" t="str">
+      <c r="D25" s="171" t="str">
         <f t="shared" ref="D25:M25" si="8">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="176" t="str">
+      <c r="E25" s="171" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F25" s="176" t="str">
+      <c r="F25" s="171" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G25" s="176" t="str">
+      <c r="G25" s="171" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H25" s="176" t="str">
+      <c r="H25" s="171" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I25" s="176" t="str">
+      <c r="I25" s="171" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J25" s="176" t="str">
+      <c r="J25" s="171" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K25" s="176" t="str">
+      <c r="K25" s="171" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L25" s="176" t="str">
+      <c r="L25" s="171" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M25" s="176" t="str">
+      <c r="M25" s="171" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N25" s="90"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
-      <c r="B26" s="122" t="s">
-        <v>147</v>
+      <c r="B26" s="121" t="s">
+        <v>145</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -4432,7 +4516,7 @@
       </c>
       <c r="N26" s="90"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="98" t="s">
         <v>14</v>
@@ -4483,7 +4567,7 @@
       </c>
       <c r="N27" s="90"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="98" t="s">
         <v>15</v>
@@ -4492,19 +4576,19 @@
         <f>Fin_Analysis!C28</f>
         <v>12332308</v>
       </c>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="170"/>
-      <c r="L28" s="170"/>
-      <c r="M28" s="170"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="165"/>
+      <c r="M28" s="165"/>
       <c r="N28" s="90"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="98" t="s">
         <v>121</v>
@@ -4513,40 +4597,40 @@
         <f>Fin_Analysis!C13</f>
         <v>265773</v>
       </c>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="170"/>
-      <c r="L29" s="170"/>
-      <c r="M29" s="170"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="165"/>
       <c r="N29" s="90"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C30" s="66">
         <f>Fin_Analysis!C18</f>
         <v>9672256</v>
       </c>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="170"/>
-      <c r="L30" s="170"/>
-      <c r="M30" s="170"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="165"/>
+      <c r="M30" s="165"/>
       <c r="N30" s="90"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="98" t="s">
         <v>16</v>
@@ -4555,19 +4639,19 @@
         <f>Fin_Analysis!I28</f>
         <v>3516809</v>
       </c>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="170"/>
-      <c r="K31" s="170"/>
-      <c r="L31" s="170"/>
-      <c r="M31" s="170"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="165"/>
+      <c r="L31" s="165"/>
+      <c r="M31" s="165"/>
       <c r="N31" s="90"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="98" t="s">
         <v>120</v>
@@ -4576,40 +4660,40 @@
         <f>Fin_Analysis!I48</f>
         <v>473357</v>
       </c>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="170"/>
-      <c r="M32" s="170"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="165"/>
+      <c r="L32" s="165"/>
+      <c r="M32" s="165"/>
       <c r="N32" s="90"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="98" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="66">
         <f>Fin_Analysis!I15</f>
-        <v>649697</v>
-      </c>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="170"/>
-      <c r="M33" s="170"/>
+        <v>1715502</v>
+      </c>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="165"/>
+      <c r="L33" s="165"/>
+      <c r="M33" s="165"/>
       <c r="N33" s="90"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="98" t="s">
         <v>18</v>
@@ -4618,19 +4702,19 @@
         <f>Fin_Analysis!I34</f>
         <v>319420</v>
       </c>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="170"/>
-      <c r="L34" s="170"/>
-      <c r="M34" s="170"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="165"/>
+      <c r="L34" s="165"/>
+      <c r="M34" s="165"/>
       <c r="N34" s="90"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="98" t="s">
         <v>19</v>
@@ -4681,73 +4765,73 @@
       </c>
       <c r="N35" s="90"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="98" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C36" s="66">
         <f>Fin_Analysis!D3</f>
         <v>12863898</v>
       </c>
-      <c r="D36" s="170"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="170"/>
-      <c r="H36" s="170"/>
-      <c r="I36" s="170"/>
-      <c r="J36" s="170"/>
-      <c r="K36" s="170"/>
-      <c r="L36" s="170"/>
-      <c r="M36" s="170"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="165"/>
+      <c r="K36" s="165"/>
+      <c r="L36" s="165"/>
+      <c r="M36" s="165"/>
       <c r="N36" s="90"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="98" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C37" s="66">
         <f>Fin_Analysis!D4</f>
         <v>-26962</v>
       </c>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="170"/>
-      <c r="K37" s="170"/>
-      <c r="L37" s="170"/>
-      <c r="M37" s="170"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="165"/>
+      <c r="K37" s="165"/>
+      <c r="L37" s="165"/>
+      <c r="M37" s="165"/>
       <c r="N37" s="90"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="98" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C38" s="66">
         <f>Fin_Analysis!C63</f>
         <v>2923945</v>
       </c>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170"/>
-      <c r="I38" s="170"/>
-      <c r="J38" s="170"/>
-      <c r="K38" s="170"/>
-      <c r="L38" s="170"/>
-      <c r="M38" s="170"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="165"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="165"/>
+      <c r="I38" s="165"/>
+      <c r="J38" s="165"/>
+      <c r="K38" s="165"/>
+      <c r="L38" s="165"/>
+      <c r="M38" s="165"/>
       <c r="N38" s="90"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C39" s="66">
         <f>Fin_Analysis!C68</f>
@@ -4795,58 +4879,58 @@
       </c>
       <c r="N39" s="90"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="102" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="177" t="str">
+        <v>169</v>
+      </c>
+      <c r="C40" s="172" t="str">
         <f t="shared" ref="C40:M40" si="21">IF(C6="","",C21/C39)</f>
         <v/>
       </c>
-      <c r="D40" s="177" t="str">
+      <c r="D40" s="172" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="E40" s="177" t="str">
+      <c r="E40" s="172" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="F40" s="177" t="str">
+      <c r="F40" s="172" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="G40" s="177" t="str">
+      <c r="G40" s="172" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="H40" s="177" t="str">
+      <c r="H40" s="172" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="I40" s="177" t="str">
+      <c r="I40" s="172" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="J40" s="177" t="str">
+      <c r="J40" s="172" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K40" s="177" t="str">
+      <c r="K40" s="172" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="L40" s="177" t="str">
+      <c r="L40" s="172" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="M40" s="177" t="str">
+      <c r="M40" s="172" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N40" s="90"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>132</v>
@@ -4864,367 +4948,367 @@
       <c r="M41" s="54"/>
       <c r="N41" s="90"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="178" t="str">
+      <c r="C42" s="173" t="str">
         <f t="shared" ref="C42:M42" si="22">IF(C6="","",C8/C6)</f>
         <v/>
       </c>
-      <c r="D42" s="178" t="str">
+      <c r="D42" s="173" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="E42" s="178" t="str">
+      <c r="E42" s="173" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F42" s="178" t="str">
+      <c r="F42" s="173" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G42" s="178" t="str">
+      <c r="G42" s="173" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H42" s="178" t="str">
+      <c r="H42" s="173" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="I42" s="178" t="str">
+      <c r="I42" s="173" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="J42" s="178" t="str">
+      <c r="J42" s="173" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="K42" s="178" t="str">
+      <c r="K42" s="173" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L42" s="178" t="str">
+      <c r="L42" s="173" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="M42" s="178" t="str">
+      <c r="M42" s="173" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N42" s="90"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="174" t="str">
+      <c r="C43" s="169" t="str">
         <f t="shared" ref="C43:M43" si="23">IF(C6="","",(C10-C12)/C6)</f>
         <v/>
       </c>
-      <c r="D43" s="174" t="str">
+      <c r="D43" s="169" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="E43" s="174" t="str">
+      <c r="E43" s="169" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="F43" s="174" t="str">
+      <c r="F43" s="169" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="G43" s="174" t="str">
+      <c r="G43" s="169" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H43" s="174" t="str">
+      <c r="H43" s="169" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I43" s="174" t="str">
+      <c r="I43" s="169" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="J43" s="174" t="str">
+      <c r="J43" s="169" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="K43" s="174" t="str">
+      <c r="K43" s="169" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L43" s="174" t="str">
+      <c r="L43" s="169" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M43" s="174" t="str">
+      <c r="M43" s="169" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="N43" s="90"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="174" t="str">
+      <c r="C44" s="169" t="str">
         <f t="shared" ref="C44:M44" si="24">IF(C6="","",(C14+MAX(C15,0))/C6)</f>
         <v/>
       </c>
-      <c r="D44" s="174" t="str">
+      <c r="D44" s="169" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="E44" s="174" t="str">
+      <c r="E44" s="169" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="F44" s="174" t="str">
+      <c r="F44" s="169" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="G44" s="174" t="str">
+      <c r="G44" s="169" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="H44" s="174" t="str">
+      <c r="H44" s="169" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I44" s="174" t="str">
+      <c r="I44" s="169" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J44" s="174" t="str">
+      <c r="J44" s="169" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="K44" s="174" t="str">
+      <c r="K44" s="169" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="L44" s="174" t="str">
+      <c r="L44" s="169" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="M44" s="174" t="str">
+      <c r="M44" s="169" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="N44" s="90"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="174" t="str">
+      <c r="C45" s="169" t="str">
         <f t="shared" ref="C45:M45" si="25">IF(C6="","",MAX(C16,0)/C6)</f>
         <v/>
       </c>
-      <c r="D45" s="174" t="str">
+      <c r="D45" s="169" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="E45" s="174" t="str">
+      <c r="E45" s="169" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="F45" s="174" t="str">
+      <c r="F45" s="169" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="G45" s="174" t="str">
+      <c r="G45" s="169" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="H45" s="174" t="str">
+      <c r="H45" s="169" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="I45" s="174" t="str">
+      <c r="I45" s="169" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="J45" s="174" t="str">
+      <c r="J45" s="169" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="K45" s="174" t="str">
+      <c r="K45" s="169" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="L45" s="174" t="str">
+      <c r="L45" s="169" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="M45" s="174" t="str">
+      <c r="M45" s="169" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="N45" s="90"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="174" t="str">
+      <c r="C46" s="169" t="str">
         <f t="shared" ref="C46:M46" si="26">IF(C6="","",C17/C6)</f>
         <v/>
       </c>
-      <c r="D46" s="174" t="str">
+      <c r="D46" s="169" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="E46" s="174" t="str">
+      <c r="E46" s="169" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="F46" s="174" t="str">
+      <c r="F46" s="169" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G46" s="174" t="str">
+      <c r="G46" s="169" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H46" s="174" t="str">
+      <c r="H46" s="169" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="I46" s="174" t="str">
+      <c r="I46" s="169" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="J46" s="174" t="str">
+      <c r="J46" s="169" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="K46" s="174" t="str">
+      <c r="K46" s="169" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="L46" s="174" t="str">
+      <c r="L46" s="169" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="M46" s="174" t="str">
+      <c r="M46" s="169" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="N46" s="90"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="174" t="str">
-        <f>IF(C6="","",MAX(C18,0)/(1-Fin_Analysis!$F$84)/C6)</f>
-        <v/>
-      </c>
-      <c r="D47" s="174" t="str">
-        <f>IF(D6="","",MAX(D18,0)/(1-Fin_Analysis!$F$84)/D6)</f>
-        <v/>
-      </c>
-      <c r="E47" s="174" t="str">
-        <f>IF(E6="","",MAX(E18,0)/(1-Fin_Analysis!$F$84)/E6)</f>
-        <v/>
-      </c>
-      <c r="F47" s="174" t="str">
-        <f>IF(F6="","",MAX(F18,0)/(1-Fin_Analysis!$F$84)/F6)</f>
-        <v/>
-      </c>
-      <c r="G47" s="174" t="str">
-        <f>IF(G6="","",MAX(G18,0)/(1-Fin_Analysis!$F$84)/G6)</f>
-        <v/>
-      </c>
-      <c r="H47" s="174" t="str">
-        <f>IF(H6="","",MAX(H18,0)/(1-Fin_Analysis!$F$84)/H6)</f>
-        <v/>
-      </c>
-      <c r="I47" s="174" t="str">
-        <f>IF(I6="","",MAX(I18,0)/(1-Fin_Analysis!$F$84)/I6)</f>
-        <v/>
-      </c>
-      <c r="J47" s="174" t="str">
-        <f>IF(J6="","",MAX(J18,0)/(1-Fin_Analysis!$F$84)/J6)</f>
-        <v/>
-      </c>
-      <c r="K47" s="174" t="str">
-        <f>IF(K6="","",MAX(K18,0)/(1-Fin_Analysis!$F$84)/K6)</f>
-        <v/>
-      </c>
-      <c r="L47" s="174" t="str">
-        <f>IF(L6="","",MAX(L18,0)/(1-Fin_Analysis!$F$84)/L6)</f>
-        <v/>
-      </c>
-      <c r="M47" s="174" t="str">
-        <f>IF(M6="","",MAX(M18,0)/(1-Fin_Analysis!$F$84)/M6)</f>
+      <c r="C47" s="169" t="str">
+        <f>IF(C6="","",MAX(C18,0)/(1-Fin_Analysis!$I$84)/C6)</f>
+        <v/>
+      </c>
+      <c r="D47" s="169" t="str">
+        <f>IF(D6="","",MAX(D18,0)/(1-Fin_Analysis!$I$84)/D6)</f>
+        <v/>
+      </c>
+      <c r="E47" s="169" t="str">
+        <f>IF(E6="","",MAX(E18,0)/(1-Fin_Analysis!$I$84)/E6)</f>
+        <v/>
+      </c>
+      <c r="F47" s="169" t="str">
+        <f>IF(F6="","",MAX(F18,0)/(1-Fin_Analysis!$I$84)/F6)</f>
+        <v/>
+      </c>
+      <c r="G47" s="169" t="str">
+        <f>IF(G6="","",MAX(G18,0)/(1-Fin_Analysis!$I$84)/G6)</f>
+        <v/>
+      </c>
+      <c r="H47" s="169" t="str">
+        <f>IF(H6="","",MAX(H18,0)/(1-Fin_Analysis!$I$84)/H6)</f>
+        <v/>
+      </c>
+      <c r="I47" s="169" t="str">
+        <f>IF(I6="","",MAX(I18,0)/(1-Fin_Analysis!$I$84)/I6)</f>
+        <v/>
+      </c>
+      <c r="J47" s="169" t="str">
+        <f>IF(J6="","",MAX(J18,0)/(1-Fin_Analysis!$I$84)/J6)</f>
+        <v/>
+      </c>
+      <c r="K47" s="169" t="str">
+        <f>IF(K6="","",MAX(K18,0)/(1-Fin_Analysis!$I$84)/K6)</f>
+        <v/>
+      </c>
+      <c r="L47" s="169" t="str">
+        <f>IF(L6="","",MAX(L18,0)/(1-Fin_Analysis!$I$84)/L6)</f>
+        <v/>
+      </c>
+      <c r="M47" s="169" t="str">
+        <f>IF(M6="","",MAX(M18,0)/(1-Fin_Analysis!$I$84)/M6)</f>
         <v/>
       </c>
       <c r="N47" s="90"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="174" t="str">
+      <c r="C48" s="169" t="str">
         <f t="shared" ref="C48:M48" si="27">IF(C6="","",C21/C6)</f>
         <v/>
       </c>
-      <c r="D48" s="174" t="str">
+      <c r="D48" s="169" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="E48" s="174" t="str">
+      <c r="E48" s="169" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="F48" s="174" t="str">
+      <c r="F48" s="169" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="G48" s="174" t="str">
+      <c r="G48" s="169" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H48" s="174" t="str">
+      <c r="H48" s="169" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I48" s="174" t="str">
+      <c r="I48" s="169" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="J48" s="174" t="str">
+      <c r="J48" s="169" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="K48" s="174" t="str">
+      <c r="K48" s="169" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="L48" s="174" t="str">
+      <c r="L48" s="169" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="M48" s="174" t="str">
+      <c r="M48" s="169" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="N48" s="90"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="107" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -5239,109 +5323,109 @@
       <c r="M49" s="36"/>
       <c r="N49" s="90"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="C50" s="178" t="str">
+        <v>157</v>
+      </c>
+      <c r="C50" s="173" t="str">
         <f t="shared" ref="C50:M50" si="28">IF(C6="","",C29/C6)</f>
         <v/>
       </c>
-      <c r="D50" s="178" t="str">
+      <c r="D50" s="173" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="E50" s="178" t="str">
+      <c r="E50" s="173" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="F50" s="178" t="str">
+      <c r="F50" s="173" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="G50" s="178" t="str">
+      <c r="G50" s="173" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="H50" s="178" t="str">
+      <c r="H50" s="173" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I50" s="178" t="str">
+      <c r="I50" s="173" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J50" s="178" t="str">
+      <c r="J50" s="173" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="K50" s="178" t="str">
+      <c r="K50" s="173" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="L50" s="178" t="str">
+      <c r="L50" s="173" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="M50" s="178" t="str">
+      <c r="M50" s="173" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="N50" s="90"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="98" t="s">
-        <v>160</v>
-      </c>
-      <c r="C51" s="174" t="str">
+        <v>158</v>
+      </c>
+      <c r="C51" s="169" t="str">
         <f t="shared" ref="C51:M51" si="29">IF(C6="","",C30/C6)</f>
         <v/>
       </c>
-      <c r="D51" s="174" t="str">
+      <c r="D51" s="169" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="E51" s="174" t="str">
+      <c r="E51" s="169" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="F51" s="174" t="str">
+      <c r="F51" s="169" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="G51" s="174" t="str">
+      <c r="G51" s="169" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="H51" s="174" t="str">
+      <c r="H51" s="169" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="I51" s="174" t="str">
+      <c r="I51" s="169" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="J51" s="174" t="str">
+      <c r="J51" s="169" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="K51" s="174" t="str">
+      <c r="K51" s="169" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="L51" s="174" t="str">
+      <c r="L51" s="169" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="M51" s="174" t="str">
+      <c r="M51" s="169" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="N51" s="90"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="107" t="s">
         <v>131</v>
@@ -5358,1479 +5442,1479 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="178" t="e">
+      <c r="C53" s="173" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D53" s="178" t="str">
+      <c r="D53" s="173" t="str">
         <f t="shared" ref="D53:M53" si="30">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="178" t="str">
+      <c r="E53" s="173" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="F53" s="178" t="str">
+      <c r="F53" s="173" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="G53" s="178" t="str">
+      <c r="G53" s="173" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="H53" s="178" t="str">
+      <c r="H53" s="173" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="I53" s="178" t="str">
+      <c r="I53" s="173" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="J53" s="178" t="str">
+      <c r="J53" s="173" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="K53" s="178" t="str">
+      <c r="K53" s="173" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="L53" s="178" t="str">
+      <c r="L53" s="173" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="M53" s="178" t="str">
+      <c r="M53" s="173" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="179" t="str">
+      <c r="C54" s="174" t="str">
         <f t="shared" ref="C54:M54" si="31">IF(C21="","",IF(C35&lt;=0,"-",C21/C35))</f>
         <v/>
       </c>
-      <c r="D54" s="179" t="str">
+      <c r="D54" s="174" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="E54" s="179" t="str">
+      <c r="E54" s="174" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="F54" s="179" t="str">
+      <c r="F54" s="174" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="G54" s="179" t="str">
+      <c r="G54" s="174" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H54" s="179" t="str">
+      <c r="H54" s="174" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="I54" s="179" t="str">
+      <c r="I54" s="174" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="J54" s="179" t="str">
+      <c r="J54" s="174" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="K54" s="179" t="str">
+      <c r="K54" s="174" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="L54" s="179" t="str">
+      <c r="L54" s="174" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="M54" s="179" t="str">
+      <c r="M54" s="174" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="174" t="str">
+      <c r="C55" s="169" t="str">
         <f t="shared" ref="C55:M55" si="32">IF(C21="","",IF(C17&lt;=0,"-",C17/C21))</f>
         <v/>
       </c>
-      <c r="D55" s="174" t="str">
+      <c r="D55" s="169" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="E55" s="174" t="str">
+      <c r="E55" s="169" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="F55" s="174" t="str">
+      <c r="F55" s="169" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="G55" s="174" t="str">
+      <c r="G55" s="169" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="H55" s="174" t="str">
+      <c r="H55" s="169" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="I55" s="174" t="str">
+      <c r="I55" s="169" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="J55" s="174" t="str">
+      <c r="J55" s="169" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="K55" s="174" t="str">
+      <c r="K55" s="169" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="L55" s="174" t="str">
+      <c r="L55" s="169" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="M55" s="174" t="str">
+      <c r="M55" s="169" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="180">
+      <c r="C56" s="175">
         <f t="shared" ref="C56:M56" si="33">IF(C28="","",C28/C31)</f>
         <v>3.5066755118062995</v>
       </c>
-      <c r="D56" s="180" t="str">
+      <c r="D56" s="175" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="E56" s="180" t="str">
+      <c r="E56" s="175" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="F56" s="180" t="str">
+      <c r="F56" s="175" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="G56" s="180" t="str">
+      <c r="G56" s="175" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H56" s="180" t="str">
+      <c r="H56" s="175" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I56" s="180" t="str">
+      <c r="I56" s="175" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J56" s="180" t="str">
+      <c r="J56" s="175" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K56" s="180" t="str">
+      <c r="K56" s="175" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L56" s="180" t="str">
+      <c r="L56" s="175" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M56" s="180" t="str">
+      <c r="M56" s="175" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="7" priority="4">
+    <cfRule type="containsBlanks" dxfId="9" priority="4">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="6" priority="3">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="5" priority="2">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="4" priority="1">
+    <cfRule type="containsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6849,26 +6933,25 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K106"/>
+  <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="18.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6884,12 +6967,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="90"/>
-      <c r="D3" s="124">
+      <c r="D3" s="123">
         <f>C49-I49</f>
         <v>12863898</v>
       </c>
@@ -6907,7 +6990,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6923,7 +7006,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="90"/>
       <c r="D5" s="90"/>
       <c r="E5" s="11" t="s">
@@ -6938,7 +7021,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -6963,7 +7046,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6986,13 +7069,13 @@
       <c r="J7" s="90"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="90"/>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -7001,7 +7084,7 @@
       <c r="D9" s="68">
         <v>45473</v>
       </c>
-      <c r="E9" s="127" t="str">
+      <c r="E9" s="126" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -7011,7 +7094,7 @@
       <c r="I9" s="89"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -7019,7 +7102,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E10" s="77" t="s">
         <v>35</v>
@@ -7036,7 +7119,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -7056,14 +7139,15 @@
         <v>39</v>
       </c>
       <c r="I11" s="60">
-        <v>362000</v>
+        <f>362000+1065805</f>
+        <v>1427805</v>
       </c>
       <c r="J11" s="90"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="60"/>
       <c r="D12" s="61">
@@ -7084,7 +7168,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -7107,7 +7191,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7124,11 +7208,11 @@
       <c r="H14" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="128"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="90"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7147,13 +7231,13 @@
       </c>
       <c r="I15" s="87">
         <f>SUM(I11:I14)</f>
-        <v>649697</v>
+        <v>1715502</v>
       </c>
       <c r="J15" s="90"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C16" s="60"/>
       <c r="D16" s="61">
@@ -7169,7 +7253,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="90"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7189,7 +7273,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="90"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7208,7 +7292,7 @@
       <c r="H18" s="90"/>
       <c r="I18" s="90"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7228,7 +7312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7250,7 +7334,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7269,7 +7353,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7288,10 +7372,10 @@
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
-        <v>2867112</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1801307</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="90"/>
       <c r="D23" s="90"/>
       <c r="E23" s="90"/>
@@ -7300,7 +7384,7 @@
       </c>
       <c r="G23" s="90"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7322,7 +7406,7 @@
       </c>
       <c r="G24" s="90"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7351,7 +7435,7 @@
         <v>2.0221788132366587</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7377,14 +7461,14 @@
       </c>
       <c r="I26" s="64">
         <f>E24/($I$28-I22)</f>
-        <v>3.4028745707614472</v>
+        <v>1.2887407884106226</v>
       </c>
       <c r="J26" s="8" t="str">
         <f>IF(I26&lt;1,"Liquidity Problem!","")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7417,7 +7501,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="81" t="s">
         <v>15</v>
       </c>
@@ -7446,7 +7530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="90"/>
       <c r="D29" s="90"/>
       <c r="E29" s="90"/>
@@ -7458,7 +7542,7 @@
       <c r="I29" s="90"/>
       <c r="J29" s="90"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7477,7 +7561,7 @@
       <c r="I30" s="60"/>
       <c r="J30" s="90"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7499,7 +7583,7 @@
       </c>
       <c r="J31" s="90"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7519,9 +7603,9 @@
       <c r="I32" s="60"/>
       <c r="J32" s="90"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C33" s="60"/>
       <c r="D33" s="61">
@@ -7539,10 +7623,10 @@
       <c r="H33" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="128"/>
+      <c r="I33" s="127"/>
       <c r="J33" s="90"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7567,7 +7651,7 @@
       </c>
       <c r="J34" s="90"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7588,7 +7672,7 @@
       </c>
       <c r="J35" s="90"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7612,7 +7696,7 @@
       <c r="H36" s="90"/>
       <c r="I36" s="90"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7634,7 +7718,7 @@
       <c r="H37" s="90"/>
       <c r="I37" s="90"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7653,7 +7737,7 @@
       <c r="H38" s="90"/>
       <c r="I38" s="90"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7670,7 +7754,7 @@
       <c r="H39" s="90"/>
       <c r="I39" s="90"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7689,7 +7773,7 @@
       <c r="H40" s="90"/>
       <c r="I40" s="90"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7708,7 +7792,7 @@
       <c r="H41" s="90"/>
       <c r="I41" s="90"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7732,7 +7816,7 @@
         <v>153937</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="90"/>
       <c r="D43" s="90"/>
       <c r="E43" s="90"/>
@@ -7741,7 +7825,7 @@
       <c r="H43" s="90"/>
       <c r="I43" s="90"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7760,7 +7844,7 @@
       <c r="F44" s="75"/>
       <c r="G44" s="90"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7779,7 +7863,7 @@
       <c r="F45" s="75"/>
       <c r="G45" s="90"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7802,14 +7886,14 @@
       </c>
       <c r="I46" s="64">
         <f>(E44+E24)/E64</f>
-        <v>2.2812904943365973</v>
+        <v>1.086448227499629</v>
       </c>
       <c r="J46" s="8" t="str">
         <f>IF(I46&lt;1,"Liquidity Problem!","")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7839,7 +7923,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="83" t="s">
         <v>84</v>
       </c>
@@ -7865,7 +7949,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7892,20 +7976,20 @@
       </c>
       <c r="J49" s="90"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="90"/>
       <c r="D50" s="90"/>
       <c r="E50" s="90"/>
       <c r="I50" s="90"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7917,12 +8001,12 @@
       <c r="E52" s="90"/>
       <c r="F52" s="90"/>
       <c r="G52" s="90"/>
-      <c r="H52" s="50" t="s">
+      <c r="I52" s="90"/>
+      <c r="K52" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="90"/>
-    </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7940,85 +8024,85 @@
       </c>
       <c r="F53" s="90"/>
       <c r="G53" s="90"/>
-      <c r="H53" s="90"/>
       <c r="I53" s="41"/>
-    </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K53" s="33"/>
+    </row>
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="90"/>
       <c r="D54" s="90"/>
       <c r="E54" s="90"/>
       <c r="F54" s="90"/>
       <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
       <c r="I54" s="90"/>
-    </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="K54" s="33"/>
+    </row>
+    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="135"/>
+      <c r="E55" s="133"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="90"/>
       <c r="I55" s="90"/>
-    </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="K55" s="33"/>
+    </row>
+    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C56" s="90"/>
-      <c r="D56" s="218">
+      <c r="D56" s="225">
         <f>I15+I34</f>
-        <v>969117</v>
-      </c>
-      <c r="E56" s="219"/>
+        <v>2034922</v>
+      </c>
+      <c r="E56" s="226"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="90"/>
       <c r="I56" s="56"/>
-    </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="K56" s="33"/>
+    </row>
+    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C57" s="90"/>
-      <c r="D57" s="217">
+      <c r="D57" s="224">
         <v>0</v>
       </c>
-      <c r="E57" s="216"/>
+      <c r="E57" s="223"/>
       <c r="G57" s="90"/>
-      <c r="H57" s="90" t="s">
+      <c r="I57" s="90"/>
+      <c r="K57" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="I57" s="90"/>
-    </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C58" s="90"/>
-      <c r="D58" s="217">
+      <c r="D58" s="224">
         <v>0</v>
       </c>
-      <c r="E58" s="216"/>
+      <c r="E58" s="223"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="90"/>
       <c r="I58" s="90"/>
-    </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K58" s="33"/>
+    </row>
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="90"/>
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
       <c r="F59" s="90"/>
       <c r="G59" s="90"/>
-      <c r="H59" s="90"/>
       <c r="I59" s="90"/>
-    </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="K59" s="33"/>
+    </row>
+    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="78" t="s">
@@ -8027,10 +8111,10 @@
       <c r="E60" s="90"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="90"/>
       <c r="I60" s="90"/>
-    </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K60" s="33"/>
+    </row>
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -8048,14 +8132,14 @@
       </c>
       <c r="F61" s="90"/>
       <c r="G61" s="90"/>
-      <c r="H61" s="90"/>
       <c r="I61" s="90"/>
-    </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="K61" s="33"/>
+    </row>
+    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="C62" s="125">
+        <v>150</v>
+      </c>
+      <c r="C62" s="124">
         <f>C11+C30</f>
         <v>1998219</v>
       </c>
@@ -8063,18 +8147,18 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E62" s="126">
+      <c r="E62" s="125">
         <f>E11+E30</f>
         <v>1998219</v>
       </c>
       <c r="F62" s="90"/>
       <c r="G62" s="90"/>
-      <c r="H62" s="90"/>
       <c r="I62" s="90"/>
-    </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="K62" s="33"/>
+    </row>
+    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="71">
         <f>C61+C62</f>
@@ -8090,58 +8174,58 @@
       </c>
       <c r="F63" s="90"/>
       <c r="G63" s="90"/>
-      <c r="H63" s="90"/>
       <c r="I63" s="90"/>
-    </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="C64" s="130"/>
-      <c r="D64" s="131"/>
+      <c r="K63" s="33"/>
+    </row>
+    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="128" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="129"/>
+      <c r="D64" s="130"/>
       <c r="E64" s="72">
         <f>D56+D57+D58</f>
-        <v>969117</v>
+        <v>2034922</v>
       </c>
       <c r="F64" s="90"/>
       <c r="G64" s="90"/>
-      <c r="H64" s="90"/>
       <c r="I64" s="90"/>
-    </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="K64" s="33"/>
+    </row>
+    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C65" s="71">
         <f>C63-E64</f>
-        <v>1954828</v>
+        <v>889023</v>
       </c>
       <c r="D65" s="29">
         <f t="shared" si="7"/>
-        <v>0.62115296077199644</v>
+        <v>0.16697228305679401</v>
       </c>
       <c r="E65" s="62">
         <f>E63-E64</f>
-        <v>1214247.2000000002</v>
+        <v>148442.20000000019</v>
       </c>
       <c r="F65" s="90"/>
       <c r="G65" s="90"/>
-      <c r="H65" s="90"/>
       <c r="I65" s="90"/>
-    </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="K65" s="33"/>
+    </row>
+    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="71"/>
       <c r="D66" s="29"/>
       <c r="E66" s="62"/>
       <c r="F66" s="90"/>
       <c r="G66" s="90"/>
-      <c r="H66" s="90"/>
       <c r="I66" s="90"/>
-    </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="K66" s="33"/>
+    </row>
+    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="78" t="s">
@@ -8150,12 +8234,12 @@
       <c r="E67" s="62"/>
       <c r="F67" s="90"/>
       <c r="G67" s="90"/>
-      <c r="H67" s="90"/>
       <c r="I67" s="90"/>
-    </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="K67" s="33"/>
+    </row>
+    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C68" s="71">
         <f>C49-C63</f>
@@ -8171,74 +8255,87 @@
       </c>
       <c r="F68" s="90"/>
       <c r="G68" s="90"/>
-      <c r="H68" s="90"/>
       <c r="I68" s="90"/>
-    </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="129" t="s">
-        <v>165</v>
-      </c>
-      <c r="C69" s="130"/>
-      <c r="D69" s="131"/>
-      <c r="E69" s="136">
+      <c r="K68" s="33"/>
+    </row>
+    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="128" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="129"/>
+      <c r="D69" s="130"/>
+      <c r="E69" s="134">
         <f>I49-E64</f>
-        <v>3021049</v>
+        <v>1955244</v>
       </c>
       <c r="F69" s="90"/>
       <c r="G69" s="90"/>
-      <c r="H69" s="90"/>
       <c r="I69" s="90"/>
-    </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="K69" s="33"/>
+    </row>
+    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C70" s="71">
         <f>C68-E69</f>
-        <v>10909070</v>
+        <v>11974875</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="7"/>
-        <v>0.23085505913886334</v>
+        <v>0.29931160032985732</v>
       </c>
       <c r="E70" s="71">
         <f>E68-E69</f>
-        <v>2518414</v>
+        <v>3584219</v>
       </c>
       <c r="F70" s="90"/>
       <c r="G70" s="90"/>
-      <c r="H70" s="90"/>
       <c r="I70" s="90"/>
-    </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K70" s="33"/>
+    </row>
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="223">
+      <c r="C72" s="229">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="223"/>
-      <c r="H72" s="50" t="s">
+      <c r="D72" s="229"/>
+      <c r="E72" s="227" t="s">
+        <v>230</v>
+      </c>
+      <c r="F72" s="227"/>
+      <c r="H72" s="227" t="s">
+        <v>229</v>
+      </c>
+      <c r="I72" s="227"/>
+      <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="222" t="s">
+      <c r="C73" s="228" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="222"/>
-      <c r="E73" s="224" t="s">
+      <c r="D73" s="228"/>
+      <c r="E73" s="230" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="222"/>
-    </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F73" s="228"/>
+      <c r="H73" s="230" t="s">
+        <v>104</v>
+      </c>
+      <c r="I73" s="228"/>
+      <c r="K73" s="24"/>
+    </row>
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8246,14 +8343,20 @@
         <f>Data!C6</f>
         <v>0</v>
       </c>
-      <c r="D74" s="181"/>
-      <c r="E74" s="182">
+      <c r="D74" s="176"/>
+      <c r="E74" s="177">
+        <f>H74*0.8</f>
+        <v>0</v>
+      </c>
+      <c r="F74" s="176"/>
+      <c r="H74" s="177">
         <f>C74</f>
         <v>0</v>
       </c>
-      <c r="F74" s="181"/>
-    </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I74" s="176"/>
+      <c r="K74" s="24"/>
+    </row>
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="109" t="s">
         <v>109</v>
       </c>
@@ -8261,35 +8364,50 @@
         <f>Data!C8</f>
         <v>0</v>
       </c>
-      <c r="D75" s="183" t="e">
+      <c r="D75" s="178" t="e">
         <f>C75/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E75" s="182" t="e">
-        <f>D75*E74</f>
+      <c r="E75" s="205" t="e">
+        <f>E74*F75</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F75" s="184" t="e">
-        <f>E75/$E$74</f>
+      <c r="F75" s="179" t="e">
+        <f>I75</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H75" s="177" t="e">
+        <f>D75*H74</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I75" s="179" t="e">
+        <f>H75/$H$74</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K75" s="24"/>
+    </row>
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="185">
+      <c r="C76" s="180">
         <f>C74-C75</f>
         <v>0</v>
       </c>
-      <c r="D76" s="186"/>
-      <c r="E76" s="187" t="e">
+      <c r="D76" s="181"/>
+      <c r="E76" s="182" t="e">
         <f>E74-E75</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F76" s="186"/>
-    </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F76" s="181"/>
+      <c r="H76" s="182" t="e">
+        <f>H74-H75</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I76" s="181"/>
+      <c r="K76" s="24"/>
+    </row>
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="109" t="s">
         <v>133</v>
       </c>
@@ -8297,35 +8415,50 @@
         <f>Data!C10-Data!C12</f>
         <v>0</v>
       </c>
-      <c r="D77" s="183" t="e">
+      <c r="D77" s="178" t="e">
         <f>C77/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E77" s="182" t="e">
-        <f>D77*E74</f>
+      <c r="E77" s="205" t="e">
+        <f>E74*F77</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F77" s="184" t="e">
-        <f>E77/$E$74</f>
+      <c r="F77" s="179" t="e">
+        <f>I77</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H77" s="177" t="e">
+        <f>D77*H74</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I77" s="179" t="e">
+        <f>H77/$H$74</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K77" s="24"/>
+    </row>
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C78" s="185">
+      <c r="C78" s="180">
         <f>C76-C77</f>
         <v>0</v>
       </c>
-      <c r="D78" s="186"/>
-      <c r="E78" s="187" t="e">
+      <c r="D78" s="181"/>
+      <c r="E78" s="182" t="e">
         <f>E76-E77</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F78" s="186"/>
-    </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F78" s="181"/>
+      <c r="H78" s="182" t="e">
+        <f>H76-H77</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I78" s="181"/>
+      <c r="K78" s="24"/>
+    </row>
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="109" t="s">
         <v>129</v>
       </c>
@@ -8333,20 +8466,29 @@
         <f>Data!C17</f>
         <v>0</v>
       </c>
-      <c r="D79" s="183" t="e">
+      <c r="D79" s="178" t="e">
         <f>C79/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E79" s="182">
+      <c r="E79" s="205" t="e">
+        <f>E74*F79</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F79" s="179" t="e">
+        <f t="shared" ref="F79:F84" si="8">I79</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H79" s="177">
         <f>C79</f>
         <v>0</v>
       </c>
-      <c r="F79" s="184" t="e">
-        <f>E79/$E$74</f>
+      <c r="I79" s="179" t="e">
+        <f>H79/$H$74</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K79" s="24"/>
+    </row>
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8354,20 +8496,29 @@
         <f>Data!C14+MAX(Data!C15,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="183" t="e">
+      <c r="D80" s="178" t="e">
         <f>C80/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E80" s="182">
-        <f>3%*E74</f>
+      <c r="E80" s="205" t="e">
+        <f>E74*F80</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F80" s="179" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H80" s="177">
+        <f>3%*H74</f>
         <v>0</v>
       </c>
-      <c r="F80" s="184" t="e">
-        <f t="shared" ref="F80:F83" si="8">E80/$E$74</f>
+      <c r="I80" s="179" t="e">
+        <f>H80/$H$74</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K80" s="24"/>
+    </row>
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8375,414 +8526,591 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D81" s="183" t="e">
+      <c r="D81" s="178" t="e">
         <f>C81/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E81" s="182">
+      <c r="E81" s="205" t="e">
+        <f>E74*F81</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F81" s="179" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H81" s="177">
         <f>C81</f>
         <v>0</v>
       </c>
-      <c r="F81" s="184" t="e">
-        <f t="shared" si="8"/>
+      <c r="I81" s="179" t="e">
+        <f>H81/$H$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H81" s="115" t="s">
+      <c r="K81" s="206" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="76" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C82" s="80">
         <f>MAX(Data!C18,0)</f>
         <v>0</v>
       </c>
-      <c r="D82" s="183" t="e">
+      <c r="D82" s="178" t="e">
         <f>C82/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E82" s="182">
-        <v>0</v>
-      </c>
-      <c r="F82" s="184" t="e">
+      <c r="E82" s="205" t="e">
+        <f>E74*F82</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F82" s="179" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H82" s="177">
+        <v>0</v>
+      </c>
+      <c r="I82" s="179" t="e">
+        <f>H82/$H$74</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K82" s="24"/>
+    </row>
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="C83" s="188">
+      <c r="C83" s="183">
         <f>C78-C79-C80-C81-C82</f>
         <v>0</v>
       </c>
-      <c r="D83" s="189" t="e">
+      <c r="D83" s="184" t="e">
         <f>C83/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E83" s="190" t="e">
-        <f>E78-E79-E80-E81-E82</f>
+      <c r="E83" s="185" t="e">
+        <f>E74*F83</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F83" s="191" t="e">
+      <c r="F83" s="186" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="H83" s="185" t="e">
+        <f>H78-H79-H80-H81-H82</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I83" s="186" t="e">
+        <f>H83/$H$74</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K83" s="24"/>
+    </row>
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C84" s="192"/>
-      <c r="D84" s="193"/>
-      <c r="E84" s="194"/>
-      <c r="F84" s="195">
+      <c r="C84" s="187"/>
+      <c r="D84" s="188"/>
+      <c r="E84" s="189"/>
+      <c r="F84" s="204">
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H84" s="189"/>
+      <c r="I84" s="190">
+        <v>0.25</v>
+      </c>
+      <c r="K84" s="24"/>
+    </row>
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="C85" s="185">
-        <f>C83*(1-F84)</f>
+        <v>176</v>
+      </c>
+      <c r="C85" s="180">
+        <f>C83*(1-I84)</f>
         <v>0</v>
       </c>
-      <c r="D85" s="191" t="e">
+      <c r="D85" s="186" t="e">
         <f>C85/$C$74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E85" s="196" t="e">
+      <c r="E85" s="191" t="e">
         <f>E83*(1-F84)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F85" s="191" t="e">
-        <f>E85/$E$74</f>
+      <c r="F85" s="186" t="e">
+        <f>E85/$H$74</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H85" s="191" t="e">
+        <f>H83*(1-I84)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I85" s="186" t="e">
+        <f>H85/$H$74</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K85" s="24"/>
+    </row>
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="90" t="s">
-        <v>174</v>
-      </c>
-      <c r="C86" s="197">
+        <v>172</v>
+      </c>
+      <c r="C86" s="192">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="D86" s="181"/>
-      <c r="E86" s="198" t="e">
+      <c r="D86" s="176"/>
+      <c r="E86" s="193" t="e">
         <f>E85*Data!C4/Common_Shares</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F86" s="181"/>
-    </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="C87" s="199">
+      <c r="F86" s="176"/>
+      <c r="H86" s="193" t="e">
+        <f>H85*Data!C4/Common_Shares</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I86" s="176"/>
+      <c r="K86" s="24"/>
+    </row>
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="90" t="s">
+        <v>232</v>
+      </c>
+      <c r="C87" s="207">
+        <f>C86/Dashboard!G3</f>
+        <v>0</v>
+      </c>
+      <c r="D87" s="176"/>
+      <c r="E87" s="207" t="e">
+        <f>E86/Dashboard!G3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F87" s="176"/>
+      <c r="H87" s="207" t="e">
+        <f>H86/Dashboard!G3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I87" s="176"/>
+      <c r="K87" s="24"/>
+    </row>
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="C88" s="194">
         <f>0.72+0.64</f>
         <v>1.3599999999999999</v>
       </c>
-      <c r="D87" s="191" t="e">
-        <f>C87/C86</f>
+      <c r="D88" s="186" t="e">
+        <f>C88/C86</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E87" s="200">
-        <f>C87</f>
+      <c r="E88" s="195">
+        <f>H88*0.85</f>
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="F88" s="186" t="e">
+        <f>E88/E86</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H88" s="195">
+        <f>C88</f>
         <v>1.3599999999999999</v>
       </c>
-      <c r="F87" s="191" t="e">
-        <f>E87/E86</f>
+      <c r="I88" s="186" t="e">
+        <f>H88/H86</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="28"/>
-      <c r="C88" s="91"/>
-    </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="5"/>
-      <c r="B89" s="111" t="s">
+      <c r="K88" s="24"/>
+    </row>
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="90" t="s">
+        <v>233</v>
+      </c>
+      <c r="C89" s="207">
+        <f>C88/Dashboard!G3</f>
+        <v>9.0066222890229308E-2</v>
+      </c>
+      <c r="D89" s="176"/>
+      <c r="E89" s="207">
+        <f>E88/Dashboard!G3</f>
+        <v>7.6556289456694904E-2</v>
+      </c>
+      <c r="F89" s="176"/>
+      <c r="H89" s="207">
+        <f>H88/Dashboard!G3</f>
+        <v>9.0066222890229308E-2</v>
+      </c>
+      <c r="I89" s="176"/>
+      <c r="K89" s="24"/>
+    </row>
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="28"/>
+      <c r="C90" s="91"/>
+    </row>
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="5"/>
+      <c r="B91" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="C91" s="21"/>
+      <c r="K91" s="50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C89" s="21"/>
-      <c r="H89" s="50" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D90" s="220" t="s">
-        <v>170</v>
-      </c>
-      <c r="E90" s="220"/>
-      <c r="G90" s="90"/>
-      <c r="H90" s="24"/>
-    </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B91" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C91" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="D91" s="221" t="s">
-        <v>222</v>
-      </c>
-      <c r="E91" s="221"/>
-      <c r="F91" s="29" t="e">
-        <f>E86*Exchange_Rate/Dashboard!G3</f>
+      <c r="E92" s="227" t="s">
+        <v>230</v>
+      </c>
+      <c r="F92" s="227"/>
+      <c r="G92" s="90"/>
+      <c r="H92" s="227" t="s">
+        <v>229</v>
+      </c>
+      <c r="I92" s="227"/>
+      <c r="K92" s="24"/>
+    </row>
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="1" t="str">
+        <f>C92&amp;" Required Return"</f>
+        <v>HK Required Return</v>
+      </c>
+      <c r="C93" s="144">
+        <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D93" s="210">
+        <v>5</v>
+      </c>
+      <c r="E93" s="90" t="s">
+        <v>234</v>
+      </c>
+      <c r="F93" s="157" t="e">
+        <f>FV(E87,D93,0,-(E86/C93))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H91" s="161"/>
-    </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B92" s="1" t="str">
-        <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
-        <v>Required Return (US)</v>
-      </c>
-      <c r="C92" s="146">
-        <f>IF(C91="CN",Dashboard!C17,IF(C91="US",Dashboard!C12,IF(C91="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="D92" s="160">
-        <v>5</v>
-      </c>
-      <c r="E92" s="90" t="s">
-        <v>223</v>
-      </c>
-      <c r="F92" s="159" t="e">
-        <f>FV(F91,D92,0,-(E86/C92))</f>
+      <c r="H93" s="90" t="s">
+        <v>234</v>
+      </c>
+      <c r="I93" s="157" t="e">
+        <f>FV(H87,D93,0,-(H86/C93))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H92" s="161"/>
-    </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H93" s="24"/>
-    </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="5"/>
-      <c r="B94" s="111" t="str">
+      <c r="K93" s="24"/>
+    </row>
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C94" s="208">
+        <f>Dashboard!G20</f>
+        <v>0.15</v>
+      </c>
+      <c r="D94" s="158"/>
+      <c r="E94" s="90" t="s">
+        <v>235</v>
+      </c>
+      <c r="F94" s="157">
+        <f>FV(E89,D93,0,-(E88/C93))</f>
+        <v>23.880505008882196</v>
+      </c>
+      <c r="H94" s="90" t="s">
+        <v>235</v>
+      </c>
+      <c r="I94" s="157">
+        <f>FV(H89,D93,0,-(H88/C93))</f>
+        <v>29.902347331465716</v>
+      </c>
+      <c r="K94" s="24"/>
+    </row>
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E95" s="24"/>
+      <c r="K95" s="24"/>
+    </row>
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="5"/>
+      <c r="B96" s="111" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C94" s="137" t="str">
+      <c r="C96" s="135" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D94" s="167" t="s">
-        <v>224</v>
-      </c>
-      <c r="E94" s="133" t="s">
-        <v>225</v>
-      </c>
-      <c r="H94" s="24"/>
-    </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B95" s="1" t="s">
+      <c r="E96" s="132" t="s">
+        <v>239</v>
+      </c>
+      <c r="F96" s="209" t="str">
+        <f>E72</f>
+        <v>Pessimistic Case</v>
+      </c>
+      <c r="H96" s="209" t="str">
+        <f>H72</f>
+        <v>Base Case</v>
+      </c>
+      <c r="I96" s="132" t="s">
+        <v>238</v>
+      </c>
+      <c r="K96" s="24"/>
+    </row>
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C95" s="95" t="e">
-        <f>D95*Common_Shares/Data!C4</f>
+      <c r="C97" s="95" t="e">
+        <f>H97*Common_Shares/Data!C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D95" s="132" t="e">
-        <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
+      <c r="E97" s="131" t="e">
+        <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E95" s="132" t="e">
-        <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
+      <c r="F97" s="131" t="e">
+        <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H95" s="24"/>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="C96" s="95">
+      <c r="H97" s="131" t="e">
+        <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I97" s="211"/>
+      <c r="K97" s="24"/>
+    </row>
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" s="95">
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D96" s="132">
-        <f>C96*Data!$C$4/Common_Shares</f>
+      <c r="E98" s="120"/>
+      <c r="F98" s="120"/>
+      <c r="H98" s="131">
+        <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="E96" s="120"/>
-      <c r="F96" s="121"/>
-      <c r="H96" s="24"/>
-    </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B97" s="110" t="s">
-        <v>158</v>
-      </c>
-      <c r="C97" s="113">
+      <c r="I98" s="211"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="110" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" s="113">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>1214247.2000000002</v>
-      </c>
-      <c r="D97" s="162">
-        <f>C97*Data!$C$4/Common_Shares</f>
-        <v>2.0681842356561919</v>
-      </c>
-      <c r="E97" s="163"/>
-      <c r="F97" s="134" t="s">
-        <v>144</v>
-      </c>
-      <c r="H97" s="24"/>
-    </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="1" t="s">
+        <v>148442.20000000019</v>
+      </c>
+      <c r="E99" s="160"/>
+      <c r="F99" s="160"/>
+      <c r="H99" s="159">
+        <f>C99*Data!$C$4/Common_Shares</f>
+        <v>0.25283634003531069</v>
+      </c>
+      <c r="I99" s="212"/>
+      <c r="K99" s="24"/>
+    </row>
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C98" s="95" t="e">
-        <f>C95-C96+$C$97</f>
+      <c r="C100" s="95" t="e">
+        <f>C97-C98+$C$99</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D98" s="114" t="e">
-        <f>MAX(C98*Data!$C$4/Common_Shares,0)</f>
+      <c r="E100" s="114" t="e">
+        <f>E97*Exchange_Rate-F98+F99</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E98" s="114" t="e">
-        <f>E95*Exchange_Rate-D96+D97</f>
+      <c r="F100" s="114" t="e">
+        <f>F97*Exchange_Rate-H98+H99</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F98" s="114" t="e">
-        <f>D98*1.25</f>
+      <c r="H100" s="114" t="e">
+        <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H98" s="24"/>
-    </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H99" s="24"/>
-    </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B100" s="10" t="s">
+      <c r="I100" s="114" t="e">
+        <f>H100*1.25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K100" s="24"/>
+    </row>
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F101" s="24"/>
+      <c r="K101" s="24"/>
+    </row>
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" s="135" t="str">
+        <f>C96</f>
+        <v>HKD</v>
+      </c>
+      <c r="E102" s="132" t="s">
+        <v>239</v>
+      </c>
+      <c r="F102" s="209" t="str">
+        <f>F96</f>
+        <v>Pessimistic Case</v>
+      </c>
+      <c r="H102" s="209" t="str">
+        <f>H96</f>
+        <v>Base Case</v>
+      </c>
+      <c r="I102" s="132" t="s">
+        <v>238</v>
+      </c>
+      <c r="K102" s="24"/>
+    </row>
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C103" s="95">
+        <f>H103*Common_Shares/Data!C4</f>
+        <v>12517116.101641463</v>
+      </c>
+      <c r="E103" s="114">
+        <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
+        <v>11.872831517590509</v>
+      </c>
+      <c r="F103" s="131">
+        <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
+        <v>17.026470030423521</v>
+      </c>
+      <c r="H103" s="131">
+        <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
+        <v>21.319960381455406</v>
+      </c>
+      <c r="I103" s="114">
+        <f>H103*1.25</f>
+        <v>26.649950476819257</v>
+      </c>
+      <c r="K103" s="24"/>
+    </row>
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F104" s="24"/>
+      <c r="K104" s="24"/>
+    </row>
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C105" s="135" t="str">
+        <f>C102</f>
+        <v>HKD</v>
+      </c>
+      <c r="E105" s="132" t="s">
+        <v>239</v>
+      </c>
+      <c r="F105" s="213" t="s">
+        <v>227</v>
+      </c>
+      <c r="H105" s="213" t="s">
+        <v>227</v>
+      </c>
+      <c r="I105" s="132" t="s">
+        <v>238</v>
+      </c>
+      <c r="K105" s="24"/>
+    </row>
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C106" s="95" t="e">
+        <f>F106*Common_Shares/Data!C4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E106" s="114" t="e">
+        <f>(E100+E103)/2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="131" t="e">
+        <f>(F100+F103)/2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="131" t="e">
+        <f>(H100+H103)/2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106" s="114" t="e">
+        <f>H106*1.25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K106" s="24"/>
+    </row>
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K107" s="24"/>
+    </row>
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C100" s="137" t="str">
-        <f>C94</f>
-        <v>HKD</v>
-      </c>
-      <c r="D100" s="168">
-        <v>0.02</v>
-      </c>
-      <c r="E100" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="F100" s="134" t="s">
-        <v>144</v>
-      </c>
-      <c r="H100" s="24"/>
-    </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B101" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C101" s="95">
-        <f>D101*Common_Shares/Data!C4</f>
-        <v>12476041.812499998</v>
-      </c>
-      <c r="D101" s="132">
-        <f>E87/(C92-D100)*Exchange_Rate</f>
-        <v>21.249999999999996</v>
-      </c>
-      <c r="E101" s="114">
-        <f>D101*(1-25%)</f>
-        <v>15.937499999999996</v>
-      </c>
-      <c r="F101" s="114">
-        <f>D101*1.25</f>
-        <v>26.562499999999996</v>
-      </c>
-      <c r="H101" s="24"/>
-    </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H102" s="24"/>
-    </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C103" s="137" t="str">
-        <f>C100</f>
-        <v>HKD</v>
-      </c>
-      <c r="D103" s="137" t="s">
-        <v>236</v>
-      </c>
-      <c r="E103" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="F103" s="134" t="s">
-        <v>144</v>
-      </c>
-      <c r="H103" s="24"/>
-    </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B104" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C104" s="95" t="e">
-        <f>D104*Common_Shares/Data!C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D104" s="132" t="e">
-        <f>(D98+D101)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E104" s="114" t="e">
-        <f>D104*(1-25%)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F104" s="114" t="e">
-        <f>D104*1.25</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B106" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C106" s="138" t="s">
-        <v>237</v>
-      </c>
+      <c r="C108" s="136" t="s">
+        <v>228</v>
+      </c>
+      <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="E92:F92"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C72:D72"/>
+    <mergeCell ref="H73:I73"/>
     <mergeCell ref="E73:F73"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="E72:F72"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C86:C87">
-    <cfRule type="containsBlanks" dxfId="3" priority="5">
+  <conditionalFormatting sqref="C86 C88">
+    <cfRule type="containsBlanks" dxfId="5" priority="7">
       <formula>LEN(TRIM(C86))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
-      <formula>LEN(TRIM(C106))=0</formula>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="containsBlanks" dxfId="4" priority="4">
+      <formula>LEN(TRIM(C108))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E82 F84">
-    <cfRule type="containsBlanks" dxfId="1" priority="9">
+    <cfRule type="containsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(E74))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="containsBlanks" dxfId="0" priority="4">
-      <formula>LEN(TRIM(E87))=0</formula>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
+      <formula>LEN(TRIM(E88))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74:H82 I84">
+    <cfRule type="containsBlanks" dxfId="1" priority="11">
+      <formula>LEN(TRIM(H74))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="containsBlanks" dxfId="0" priority="6">
+      <formula>LEN(TRIM(H88))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -8790,15 +9118,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F35:F37 F19:F20" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C106" xr:uid="{E383D7BB-5EEE-044F-801D-1E55C0035917}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C108" xr:uid="{E383D7BB-5EEE-044F-801D-1E55C0035917}">
       <formula1>"Profit, Dividend, Avg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C91" xr:uid="{CA293681-B01E-459F-8C40-5799F5EB5C26}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C92" xr:uid="{CA293681-B01E-459F-8C40-5799F5EB5C26}">
       <formula1>"US, CN, HK, Others"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H81" r:id="rId1" xr:uid="{B6C51259-995A-4E8A-8C0F-B82AE723DC52}"/>
+    <hyperlink ref="K81" r:id="rId1" xr:uid="{B6C51259-995A-4E8A-8C0F-B82AE723DC52}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId2"/>

--- a/financial_models/templates/Stock_Valuation.xlsx
+++ b/financial_models/templates/Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A193F5-AF90-4784-A378-6916A46D38D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4427B7C9-3587-4AF0-96EE-DE9E2FF8E307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="263">
   <si>
     <t>Company Info:</t>
   </si>
@@ -885,6 +885,60 @@
   <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earnings Power Checklist</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Consumer monopoly?</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Conservatively financed?</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Present</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Past</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Stable margin?</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. No big reinvestment required?</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. Can earnings be sustained?</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>unclear</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly Test</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Upward earnings and ROE trend?</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you had access to billions of dollars and your pick of the top fifty managers in the country, could you start a business and successfully compete with the business in question?</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
 </sst>
 </file>
@@ -905,7 +959,7 @@
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1087,6 +1141,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1161,7 +1221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1360,13 +1420,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1936,6 +2011,16 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1977,6 +2062,9 @@
     </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2357,17 +2445,17 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.59765625" style="1" customWidth="1"/>
     <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.59765625" style="1" customWidth="1"/>
     <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
@@ -2401,11 +2489,11 @@
       <c r="B3" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="245" t="str">
+      <c r="C3" s="249" t="str">
         <f>Inputs!C4</f>
         <v>6601.HK</v>
       </c>
-      <c r="D3" s="246"/>
+      <c r="D3" s="250"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -2421,40 +2509,40 @@
       <c r="B4" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="247" t="str">
+      <c r="C4" s="251" t="str">
         <f>Inputs!C5</f>
         <v>Template</v>
       </c>
-      <c r="D4" s="248"/>
+      <c r="D4" s="252"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="251">
+      <c r="G4" s="255">
         <f>Inputs!C10</f>
         <v>1333333500</v>
       </c>
-      <c r="H4" s="251"/>
+      <c r="H4" s="255"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="249">
+      <c r="C5" s="253">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="250"/>
+      <c r="D5" s="254"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="243">
+      <c r="G5" s="247">
         <f>G3*G4/1000000</f>
         <v>2626.6670331469777</v>
       </c>
-      <c r="H5" s="243"/>
+      <c r="H5" s="247"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -2477,11 +2565,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="244" t="str">
+      <c r="G6" s="248" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="244"/>
+      <c r="H6" s="248"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2735,11 +2823,11 @@
         <f>Fin_Analysis!F96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="G28" s="241" t="str">
+      <c r="G28" s="245" t="str">
         <f>Fin_Analysis!H96</f>
         <v>Base Case</v>
       </c>
-      <c r="H28" s="241"/>
+      <c r="H28" s="245"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -2758,31 +2846,123 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>1.4799711306196752</v>
       </c>
-      <c r="G29" s="242">
+      <c r="G29" s="246">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
         <v>1.4799711306196752</v>
       </c>
-      <c r="H29" s="242"/>
+      <c r="H29" s="246"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32"/>
+      <c r="B32" s="203" t="s">
+        <v>252</v>
+      </c>
+      <c r="C32" s="241"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33"/>
+      <c r="B33" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" s="242" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34"/>
+      <c r="B34" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="244" t="e">
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35"/>
+      <c r="B35" s="203" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="241"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36"/>
+      <c r="B36" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36" s="242" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37"/>
+      <c r="B37" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" s="242" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38"/>
+      <c r="B38" s="203" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="241"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39"/>
+      <c r="B39" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" s="242" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40"/>
+      <c r="B40" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" s="242" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
+      <c r="A43"/>
+      <c r="B43" s="243" t="s">
+        <v>261</v>
+      </c>
+      <c r="C43" s="261" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3695,12 +3875,18 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
       <formula1>"Y, N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C43" xr:uid="{8E7F0EEC-5966-407A-A978-6766E98E9396}">
+      <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{E4C044E3-A391-4734-A934-7EE005977157}">
+      <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -3717,16 +3903,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
-  <dimension ref="A2:M87"/>
+  <dimension ref="A2:M78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.06640625" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4587,18 +4773,6 @@
         <v>93</v>
       </c>
       <c r="C78" s="59"/>
-    </row>
-    <row r="81" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="20"/>
-    </row>
-    <row r="85" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B85" s="20"/>
-    </row>
-    <row r="86" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B86" s="20"/>
-    </row>
-    <row r="87" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B87" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
@@ -9803,11 +9977,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="252">
+      <c r="D56" s="256">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="250"/>
+      <c r="E56" s="254"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -9818,11 +9992,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="251">
+      <c r="D57" s="255">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
-      <c r="E57" s="250"/>
+      <c r="E57" s="254"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -9834,11 +10008,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="251">
+      <c r="D58" s="255">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="E58" s="250"/>
+      <c r="E58" s="254"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -10052,19 +10226,19 @@
       <c r="B72" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="255">
+      <c r="C72" s="259">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="255"/>
-      <c r="E72" s="253" t="s">
+      <c r="D72" s="259"/>
+      <c r="E72" s="257" t="s">
         <v>225</v>
       </c>
-      <c r="F72" s="253"/>
-      <c r="H72" s="253" t="s">
+      <c r="F72" s="257"/>
+      <c r="H72" s="257" t="s">
         <v>224</v>
       </c>
-      <c r="I72" s="253"/>
+      <c r="I72" s="257"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -10074,18 +10248,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="254" t="s">
+      <c r="C73" s="258" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="254"/>
-      <c r="E73" s="256" t="s">
+      <c r="D73" s="258"/>
+      <c r="E73" s="260" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="254"/>
-      <c r="H73" s="256" t="s">
+      <c r="F73" s="258"/>
+      <c r="H73" s="260" t="s">
         <v>104</v>
       </c>
-      <c r="I73" s="254"/>
+      <c r="I73" s="258"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10531,15 +10705,15 @@
       <c r="D92" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E92" s="253" t="s">
+      <c r="E92" s="257" t="s">
         <v>225</v>
       </c>
-      <c r="F92" s="253"/>
+      <c r="F92" s="257"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="253" t="s">
+      <c r="H92" s="257" t="s">
         <v>224</v>
       </c>
-      <c r="I92" s="253"/>
+      <c r="I92" s="257"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">

--- a/financial_models/templates/Stock_Valuation.xlsx
+++ b/financial_models/templates/Stock_Valuation.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4427B7C9-3587-4AF0-96EE-DE9E2FF8E307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48657D3-E1D9-4309-8C91-8D5792367E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
-    <sheet name="Inputs" sheetId="4" r:id="rId2"/>
+    <sheet name="Inputs" sheetId="4" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="1" r:id="rId2"/>
     <sheet name="Data" sheetId="2" r:id="rId3"/>
     <sheet name="Fin_Analysis" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -329,10 +329,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>EBITDA =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Tax Rate</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -345,10 +341,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>MCX/Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Capitalization:</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -365,10 +357,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>EBITDA</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>- Operating Expenses</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -445,10 +433,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>(OPEX-D&amp;A)/Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Interest/Sales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -473,18 +457,10 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>- (Operating Expenses - D&amp;A) =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>- MCX</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Sales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -653,13 +629,7 @@
     <t>COGS</t>
   </si>
   <si>
-    <t>Operating Expenses - D&amp;A</t>
-  </si>
-  <si>
     <t>Interest</t>
-  </si>
-  <si>
-    <t>MCX</t>
   </si>
   <si>
     <t>ΔWC</t>
@@ -758,14 +728,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Normalized Pre-tax Profit</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normalized Pre-tax Profit g</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>CAGR Calculator</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -862,83 +824,138 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>6601.HK</t>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>C0007</t>
+    <t>0857.HK</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>Dividend</t>
+    <t>C0013</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>- Operating Expenses =</t>
+  </si>
+  <si>
+    <t>- (MCX - D&amp;A)</t>
+  </si>
+  <si>
+    <t>Earnings Power Checklist</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Present</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Consumer monopoly?</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>unclear</t>
+  </si>
+  <si>
+    <t>2. Conservatively financed?</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Past</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. Can earnings be sustained?</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumer Monopoly Test</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you had access to billions of dollars and your pick of the top fifty managers in the country, could you start a business and successfully compete with the business in question?</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>MCX-D&amp;A</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>6. No big MCX-D&amp;A required?</t>
+  </si>
+  <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t>EBIT =</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>(OPEX+R&amp;D)/Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAPX/Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>(CAPX-D&amp;A)/Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBT</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBT Growth</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pessimistic Case</t>
   </si>
   <si>
     <t>Template</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>D/P Dividend Yield</t>
+    <t>3. Upward earnings trend?</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Earnings Power Checklist</t>
+    <t>4. Stable margin and ROE?</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Consumer monopoly?</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. Conservatively financed?</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Present</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Past</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. Stable margin?</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Future</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. No big reinvestment required?</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. Can earnings be sustained?</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>unclear</t>
-  </si>
-  <si>
-    <t>Consumer Monopoly Test</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. Upward earnings and ROE trend?</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>If you had access to billions of dollars and your pick of the top fifty managers in the country, could you start a business and successfully compete with the business in question?</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consumer Monopoly</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1458,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2015,10 +2032,19 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2062,9 +2088,6 @@
     </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2072,23 +2095,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2219,6 +2226,30 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2238,6 +2269,981 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Normalized Cost Structure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$B$20:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>COGS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Operating Expenses</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Interest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCX-D&amp;A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ΔWC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Non-controlling Interests</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Pre-tax Profit </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$C$20:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2437,6 +3443,922 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
+  <dimension ref="A2:M87"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="13" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="142" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="195" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="240" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="12" t="str">
+        <f>C11</f>
+        <v>CNY</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="142" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="198" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="231">
+        <f>C18</f>
+        <v>45291</v>
+      </c>
+      <c r="F5" s="232"/>
+    </row>
+    <row r="6" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="142" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="196">
+        <v>45605</v>
+      </c>
+      <c r="E6" s="233" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="232"/>
+    </row>
+    <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="197">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="141" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="198" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="141" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="199" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="141" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="200">
+        <v>183020977818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="141" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="199" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="227" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="228">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="227" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="229">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="227" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="228">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="227" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="182" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="234" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="235">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="48">
+        <f>C12</f>
+        <v>45291</v>
+      </c>
+      <c r="D18" s="49">
+        <f>EOMONTH(EDATE(C18,-12),0)</f>
+        <v>44926</v>
+      </c>
+      <c r="E18" s="49">
+        <f t="shared" ref="E18:M18" si="0">EOMONTH(EDATE(D18,-12),0)</f>
+        <v>44561</v>
+      </c>
+      <c r="F18" s="49">
+        <f t="shared" si="0"/>
+        <v>44196</v>
+      </c>
+      <c r="G18" s="49">
+        <f t="shared" si="0"/>
+        <v>43830</v>
+      </c>
+      <c r="H18" s="49">
+        <f t="shared" si="0"/>
+        <v>43465</v>
+      </c>
+      <c r="I18" s="49">
+        <f t="shared" si="0"/>
+        <v>43100</v>
+      </c>
+      <c r="J18" s="49">
+        <f t="shared" si="0"/>
+        <v>42735</v>
+      </c>
+      <c r="K18" s="49">
+        <f t="shared" si="0"/>
+        <v>42369</v>
+      </c>
+      <c r="L18" s="49">
+        <f t="shared" si="0"/>
+        <v>42004</v>
+      </c>
+      <c r="M18" s="49">
+        <f t="shared" si="0"/>
+        <v>41639</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="152"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="153"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="153"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
+    </row>
+    <row r="22" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+    </row>
+    <row r="23" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B23" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="153"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="153"/>
+    </row>
+    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B24" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="153"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="153"/>
+    </row>
+    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B25" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="153"/>
+    </row>
+    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B26" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="153"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="153"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="226"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="226"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="153"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="94" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="226"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="153"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="226"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="153"/>
+      <c r="K31" s="153"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="153"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="226"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="153"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="153"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="226"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="153"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="153"/>
+    </row>
+    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B34" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="226"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="153"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="153"/>
+    </row>
+    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B35" s="94" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="226"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="153"/>
+      <c r="K35" s="153"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="153"/>
+    </row>
+    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B36" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="226"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+    </row>
+    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B37" s="94" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="226"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="153"/>
+      <c r="K37" s="153"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="153"/>
+    </row>
+    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B39" s="203" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="201" t="s">
+        <v>205</v>
+      </c>
+      <c r="E39" s="112" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="59"/>
+      <c r="D40" s="60">
+        <v>0.9</v>
+      </c>
+      <c r="E40" s="113"/>
+    </row>
+    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="59"/>
+      <c r="D41" s="60">
+        <v>0.8</v>
+      </c>
+      <c r="E41" s="113"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="59"/>
+      <c r="D42" s="60">
+        <f>D43</f>
+        <v>0.6</v>
+      </c>
+      <c r="E42" s="113"/>
+    </row>
+    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="59"/>
+      <c r="D43" s="60">
+        <v>0.6</v>
+      </c>
+      <c r="E43" s="113"/>
+    </row>
+    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="59"/>
+      <c r="D44" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="113"/>
+    </row>
+    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B45" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="59"/>
+      <c r="D45" s="60">
+        <f>D42</f>
+        <v>0.6</v>
+      </c>
+      <c r="E45" s="113"/>
+    </row>
+    <row r="46" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="59"/>
+      <c r="D46" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="E46" s="113"/>
+    </row>
+    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="59"/>
+      <c r="D47" s="60">
+        <f>D44</f>
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="113"/>
+    </row>
+    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="59"/>
+      <c r="D48" s="60">
+        <f>D42</f>
+        <v>0.6</v>
+      </c>
+      <c r="E48" s="230" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B49" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="59"/>
+      <c r="D49" s="60">
+        <v>0.6</v>
+      </c>
+      <c r="E49" s="230" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="59"/>
+      <c r="D50" s="60">
+        <f>D40</f>
+        <v>0.9</v>
+      </c>
+      <c r="E50" s="113"/>
+    </row>
+    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B51" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="121"/>
+      <c r="D51" s="202">
+        <f>D62</f>
+        <v>0.05</v>
+      </c>
+      <c r="E51" s="113"/>
+    </row>
+    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="59"/>
+      <c r="D52" s="60">
+        <f>D41</f>
+        <v>0.8</v>
+      </c>
+      <c r="E52" s="113"/>
+    </row>
+    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="59"/>
+      <c r="D53" s="60">
+        <f>D43</f>
+        <v>0.6</v>
+      </c>
+      <c r="E53" s="113"/>
+    </row>
+    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="59"/>
+      <c r="D54" s="60">
+        <f>D44</f>
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="113"/>
+    </row>
+    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="59"/>
+      <c r="D55" s="60">
+        <f>D54</f>
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="113"/>
+    </row>
+    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="59"/>
+      <c r="D56" s="60">
+        <v>0.4</v>
+      </c>
+      <c r="E56" s="113"/>
+    </row>
+    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="59"/>
+      <c r="D57" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="E57" s="230" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B58" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="59"/>
+      <c r="D58" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="E58" s="230" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="59"/>
+      <c r="D59" s="60">
+        <f>D57</f>
+        <v>0.1</v>
+      </c>
+      <c r="E59" s="230" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="59"/>
+      <c r="D60" s="60">
+        <f>D57</f>
+        <v>0.1</v>
+      </c>
+      <c r="E60" s="113"/>
+    </row>
+    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="59"/>
+      <c r="D61" s="60">
+        <f>D62</f>
+        <v>0.05</v>
+      </c>
+      <c r="E61" s="113"/>
+    </row>
+    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B62" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="59"/>
+      <c r="D62" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="E62" s="113"/>
+    </row>
+    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B63" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="59"/>
+      <c r="D63" s="60">
+        <f>D50</f>
+        <v>0.9</v>
+      </c>
+      <c r="E63" s="113"/>
+    </row>
+    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="59"/>
+      <c r="D64" s="60">
+        <v>0</v>
+      </c>
+      <c r="E64" s="113"/>
+    </row>
+    <row r="65" spans="2:3" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="B65" s="203" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="201"/>
+    </row>
+    <row r="66" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="59"/>
+    </row>
+    <row r="67" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B67" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="59"/>
+    </row>
+    <row r="68" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B68" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="59"/>
+    </row>
+    <row r="69" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B69" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="121"/>
+    </row>
+    <row r="70" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="83"/>
+    </row>
+    <row r="71" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="59"/>
+    </row>
+    <row r="72" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B72" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="59"/>
+    </row>
+    <row r="73" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B73" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="59"/>
+    </row>
+    <row r="74" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B74" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="121"/>
+    </row>
+    <row r="75" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="83"/>
+    </row>
+    <row r="76" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="59"/>
+    </row>
+    <row r="77" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B77" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="59"/>
+    </row>
+    <row r="78" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B78" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="59"/>
+    </row>
+    <row r="81" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="20"/>
+    </row>
+    <row r="85" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B85" s="20"/>
+    </row>
+    <row r="86" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B86" s="20"/>
+    </row>
+    <row r="87" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B87" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <conditionalFormatting sqref="C16 C19:M27">
+    <cfRule type="containsBlanks" dxfId="18" priority="1">
+      <formula>LEN(TRIM(C16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:M37">
+    <cfRule type="containsBlanks" dxfId="17" priority="7">
+      <formula>LEN(TRIM(D28))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F6">
+    <cfRule type="containsBlanks" dxfId="16" priority="2">
+      <formula>LEN(TRIM(F5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
+      <formula1>"Y, N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
+      <formula1>"HKD,USD,CNY,EUR"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{87139493-416E-4F03-A3A9-B1C3E5C019E4}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{C4480F83-D8C1-4589-BCF3-1A7870946539}">
+      <formula1>"US, CN, HK, Others"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E48:E49 E57:E59" xr:uid="{2EA09CDC-767E-4F51-A87B-920BE059D711}">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor theme="4" tint="0.39997558519241921"/>
@@ -2445,17 +4367,17 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
     <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
@@ -2477,7 +4399,7 @@
       </c>
       <c r="C2" s="25" t="str">
         <f>C3&amp;" : "&amp;C4</f>
-        <v>6601.HK : Template</v>
+        <v>0857.HK : Template</v>
       </c>
       <c r="D2" s="87"/>
       <c r="E2" s="7"/>
@@ -2487,19 +4409,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="249" t="str">
+        <v>203</v>
+      </c>
+      <c r="C3" s="252" t="str">
         <f>Inputs!C4</f>
-        <v>6601.HK</v>
-      </c>
-      <c r="D3" s="250"/>
+        <v>0857.HK</v>
+      </c>
+      <c r="D3" s="253"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>1.9700000286102299</v>
+        <v>5.5500001907348633</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2507,42 +4429,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="251" t="str">
+        <v>204</v>
+      </c>
+      <c r="C4" s="254" t="str">
         <f>Inputs!C5</f>
         <v>Template</v>
       </c>
-      <c r="D4" s="252"/>
+      <c r="D4" s="255"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="255">
+      <c r="G4" s="258">
         <f>Inputs!C10</f>
-        <v>1333333500</v>
-      </c>
-      <c r="H4" s="255"/>
+        <v>183020977818</v>
+      </c>
+      <c r="H4" s="258"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="253">
+        <v>169</v>
+      </c>
+      <c r="C5" s="256">
         <f>Inputs!C6</f>
-        <v>45593</v>
-      </c>
-      <c r="D5" s="254"/>
+        <v>45605</v>
+      </c>
+      <c r="D5" s="257"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="247">
+        <v>100</v>
+      </c>
+      <c r="G5" s="250">
         <f>G3*G4/1000000</f>
-        <v>2626.6670331469777</v>
-      </c>
-      <c r="H5" s="247"/>
+        <v>1015766.4617983812</v>
+      </c>
+      <c r="H5" s="250"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -2565,16 +4487,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="248" t="str">
+      <c r="G6" s="251" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="248"/>
+      <c r="H6" s="251"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C7" s="194" t="str">
         <f>Inputs!C8</f>
@@ -2582,14 +4504,14 @@
       </c>
       <c r="D7" s="194" t="str">
         <f>Inputs!C9</f>
-        <v>C0007</v>
+        <v>C0013</v>
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="134">
-        <v>1.08</v>
+        <v>1.0790773232777913</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -2599,99 +4521,99 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F9" s="144" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C10" s="178">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="111" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="123" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C11" s="179">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="138" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F11" s="111" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C12" s="180">
         <v>0.06</v>
       </c>
       <c r="D12" s="178">
-        <v>7.0000000000000007E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="111"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C14" s="178">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="111" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C15" s="178">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="111" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="123" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C16" s="179">
         <v>0.16</v>
       </c>
       <c r="D16" s="145" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F16" s="111" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C17" s="181">
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D17" s="182"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="143" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C19" s="136" t="s">
         <v>52</v>
@@ -2699,21 +4621,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="143" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="138" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C20" s="177" t="e">
         <f>Fin_Analysis!I75</f>
         <v>#VALUE!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G20" s="178">
         <v>0.15</v>
@@ -2721,7 +4643,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="138" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="C21" s="177" t="e">
         <f>Fin_Analysis!I77</f>
@@ -2732,42 +4654,42 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="138" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C22" s="177" t="e">
         <f>Fin_Analysis!I79</f>
         <v>#VALUE!</v>
       </c>
       <c r="F22" s="143" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="138" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="C23" s="177" t="e">
         <f>Fin_Analysis!I80</f>
         <v>#VALUE!</v>
       </c>
       <c r="F23" s="141" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G23" s="183" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C37*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="138" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C24" s="177" t="e">
         <f>Fin_Analysis!I81</f>
         <v>#VALUE!</v>
       </c>
       <c r="F24" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G24" s="184" t="e">
         <f>(Fin_Analysis!H86*G7)/G3</f>
@@ -2776,14 +4698,14 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="138" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C25" s="177" t="e">
         <f>Fin_Analysis!I82</f>
         <v>#VALUE!</v>
       </c>
       <c r="F25" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G25" s="177" t="e">
         <f>Fin_Analysis!I88</f>
@@ -2792,18 +4714,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="139" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C26" s="177" t="e">
         <f>Fin_Analysis!I83</f>
         <v>#VALUE!</v>
       </c>
       <c r="F26" s="142" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.458070972199545E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2813,128 +4735,126 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E28" s="58"/>
-      <c r="F28" s="53" t="str">
-        <f>Fin_Analysis!F96</f>
-        <v>Pessimistic Case</v>
-      </c>
-      <c r="G28" s="245" t="str">
-        <f>Fin_Analysis!H96</f>
-        <v>Base Case</v>
-      </c>
-      <c r="H28" s="245"/>
+      <c r="F28" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" s="248" t="s">
+        <v>265</v>
+      </c>
+      <c r="H28" s="248"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="131">
+        <v>174</v>
+      </c>
+      <c r="C29" s="131" t="e">
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D29" s="130" t="e">
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E29" s="87"/>
+      <c r="F29" s="132" t="e">
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G29" s="249" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>1.0811422001955733</v>
-      </c>
-      <c r="D29" s="130">
-        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.849963913274594</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="132">
-        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.4799711306196752</v>
-      </c>
-      <c r="G29" s="246">
-        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>1.4799711306196752</v>
-      </c>
-      <c r="H29" s="246"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H29" s="249"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="203" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C32" s="241"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C33" s="242" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="C34" s="244" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <v>244</v>
+      </c>
+      <c r="C34" s="243" t="e">
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="203" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C35" s="241"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C36" s="242" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C37" s="242" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="203" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C38" s="241"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C39" s="242" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C40" s="242" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2945,17 +4865,17 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="243" t="s">
-        <v>261</v>
-      </c>
-      <c r="C43" s="261" t="s">
-        <v>262</v>
+      <c r="B43" s="244" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" s="245" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3851,27 +5771,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="17" priority="5">
+    <cfRule type="containsBlanks" dxfId="15" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="16" priority="3">
+    <cfRule type="containsBlanks" dxfId="14" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="15" priority="2">
+    <cfRule type="containsBlanks" dxfId="13" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="14" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="13" priority="1">
+    <cfRule type="containsBlanks" dxfId="11" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3882,11 +5802,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
       <formula1>"Y, N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C43" xr:uid="{8E7F0EEC-5966-407A-A978-6766E98E9396}">
+    <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
+      <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C43" xr:uid="{DD5E114B-2D0D-6542-B2CA-EDDAC8AA7C6A}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{E4C044E3-A391-4734-A934-7EE005977157}">
-      <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -3898,916 +5818,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
-  <dimension ref="A2:M78"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="3.06640625" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="24.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="142" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="195" t="s">
-        <v>242</v>
-      </c>
-      <c r="E4" s="240" t="s">
-        <v>226</v>
-      </c>
-      <c r="F4" s="12" t="str">
-        <f>C11</f>
-        <v>CNY</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="142" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="198" t="s">
-        <v>247</v>
-      </c>
-      <c r="E5" s="231">
-        <f>C18</f>
-        <v>45291</v>
-      </c>
-      <c r="F5" s="232">
-        <f>0.0538+0.064</f>
-        <v>0.1178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="142" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="196">
-        <v>45593</v>
-      </c>
-      <c r="E6" s="233" t="s">
-        <v>224</v>
-      </c>
-      <c r="F6" s="232">
-        <f>F5</f>
-        <v>0.1178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="141" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="197">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="141" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" s="198" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="141" t="s">
-        <v>236</v>
-      </c>
-      <c r="C9" s="199" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="141" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10" s="200">
-        <v>1333333500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="141" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11" s="199" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="227" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="228">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="227" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="229">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="227" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" s="228">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="227" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="182" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="234" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="235">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="116" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="48">
-        <f>C12</f>
-        <v>45291</v>
-      </c>
-      <c r="D18" s="49">
-        <f>EOMONTH(EDATE(C18,-12),0)</f>
-        <v>44926</v>
-      </c>
-      <c r="E18" s="49">
-        <f t="shared" ref="E18:M18" si="0">EOMONTH(EDATE(D18,-12),0)</f>
-        <v>44561</v>
-      </c>
-      <c r="F18" s="49">
-        <f t="shared" si="0"/>
-        <v>44196</v>
-      </c>
-      <c r="G18" s="49">
-        <f t="shared" si="0"/>
-        <v>43830</v>
-      </c>
-      <c r="H18" s="49">
-        <f t="shared" si="0"/>
-        <v>43465</v>
-      </c>
-      <c r="I18" s="49">
-        <f t="shared" si="0"/>
-        <v>43100</v>
-      </c>
-      <c r="J18" s="49">
-        <f t="shared" si="0"/>
-        <v>42735</v>
-      </c>
-      <c r="K18" s="49">
-        <f t="shared" si="0"/>
-        <v>42369</v>
-      </c>
-      <c r="L18" s="49">
-        <f t="shared" si="0"/>
-        <v>42004</v>
-      </c>
-      <c r="M18" s="49">
-        <f t="shared" si="0"/>
-        <v>41639</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="152"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="153"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="153"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
-    </row>
-    <row r="22" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B22" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-    </row>
-    <row r="23" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B23" s="97" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="153"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
-    </row>
-    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
-    </row>
-    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
-    </row>
-    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="99" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="153"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="226"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="226"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="94" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="226"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="153"/>
-      <c r="K30" s="153"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="153"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="226"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="153"/>
-      <c r="K31" s="153"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="153"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="226"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="226"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="153"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="153"/>
-    </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="226"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="153"/>
-      <c r="K34" s="153"/>
-      <c r="L34" s="153"/>
-      <c r="M34" s="153"/>
-    </row>
-    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" s="226"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="153"/>
-      <c r="K35" s="153"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="153"/>
-    </row>
-    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>149</v>
-      </c>
-      <c r="C36" s="226"/>
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
-    </row>
-    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="226"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="153"/>
-      <c r="K37" s="153"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="153"/>
-    </row>
-    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="203" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="201" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="201" t="s">
-        <v>213</v>
-      </c>
-      <c r="E39" s="112" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="59"/>
-      <c r="D40" s="60">
-        <v>0.9</v>
-      </c>
-      <c r="E40" s="113"/>
-    </row>
-    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="60">
-        <v>0.8</v>
-      </c>
-      <c r="E41" s="113"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="60">
-        <f>D43</f>
-        <v>0.6</v>
-      </c>
-      <c r="E42" s="113"/>
-    </row>
-    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="60">
-        <v>0.6</v>
-      </c>
-      <c r="E43" s="113"/>
-    </row>
-    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="60">
-        <v>0.5</v>
-      </c>
-      <c r="E44" s="113"/>
-    </row>
-    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B45" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="60">
-        <f>D42</f>
-        <v>0.6</v>
-      </c>
-      <c r="E45" s="113"/>
-    </row>
-    <row r="46" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B46" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="60">
-        <v>0.1</v>
-      </c>
-      <c r="E46" s="113"/>
-    </row>
-    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="60">
-        <f>D44</f>
-        <v>0.5</v>
-      </c>
-      <c r="E47" s="113"/>
-    </row>
-    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="60">
-        <f>D42</f>
-        <v>0.6</v>
-      </c>
-      <c r="E48" s="230" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B49" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="60">
-        <v>0.6</v>
-      </c>
-      <c r="E49" s="230" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B50" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="59"/>
-      <c r="D50" s="60">
-        <f>D40</f>
-        <v>0.9</v>
-      </c>
-      <c r="E50" s="113"/>
-    </row>
-    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B51" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="121"/>
-      <c r="D51" s="202">
-        <f>D62</f>
-        <v>0.05</v>
-      </c>
-      <c r="E51" s="113"/>
-    </row>
-    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B52" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="60">
-        <f>D41</f>
-        <v>0.8</v>
-      </c>
-      <c r="E52" s="113"/>
-    </row>
-    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B53" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="60">
-        <f>D43</f>
-        <v>0.6</v>
-      </c>
-      <c r="E53" s="113"/>
-    </row>
-    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B54" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="60">
-        <f>D44</f>
-        <v>0.5</v>
-      </c>
-      <c r="E54" s="113"/>
-    </row>
-    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B55" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="60">
-        <f>D54</f>
-        <v>0.5</v>
-      </c>
-      <c r="E55" s="113"/>
-    </row>
-    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B56" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="59"/>
-      <c r="D56" s="60">
-        <v>0.4</v>
-      </c>
-      <c r="E56" s="113"/>
-    </row>
-    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B57" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="60">
-        <v>0.1</v>
-      </c>
-      <c r="E57" s="230" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B58" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="59"/>
-      <c r="D58" s="60">
-        <v>0.2</v>
-      </c>
-      <c r="E58" s="230" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B59" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="59"/>
-      <c r="D59" s="60">
-        <f>D57</f>
-        <v>0.1</v>
-      </c>
-      <c r="E59" s="230" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B60" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" s="59"/>
-      <c r="D60" s="60">
-        <f>D57</f>
-        <v>0.1</v>
-      </c>
-      <c r="E60" s="113"/>
-    </row>
-    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B61" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="60">
-        <f>D62</f>
-        <v>0.05</v>
-      </c>
-      <c r="E61" s="113"/>
-    </row>
-    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B62" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="59"/>
-      <c r="D62" s="60">
-        <v>0.05</v>
-      </c>
-      <c r="E62" s="113"/>
-    </row>
-    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B63" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="59"/>
-      <c r="D63" s="60">
-        <f>D50</f>
-        <v>0.9</v>
-      </c>
-      <c r="E63" s="113"/>
-    </row>
-    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B64" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="59"/>
-      <c r="D64" s="60">
-        <v>0</v>
-      </c>
-      <c r="E64" s="113"/>
-    </row>
-    <row r="65" spans="2:3" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B65" s="203" t="s">
-        <v>37</v>
-      </c>
-      <c r="C65" s="201"/>
-    </row>
-    <row r="66" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B66" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66" s="59"/>
-    </row>
-    <row r="67" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B67" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="59"/>
-    </row>
-    <row r="68" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B68" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="59"/>
-    </row>
-    <row r="69" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B69" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69" s="121"/>
-    </row>
-    <row r="70" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="83"/>
-    </row>
-    <row r="71" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C71" s="59"/>
-    </row>
-    <row r="72" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B72" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C72" s="59"/>
-    </row>
-    <row r="73" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B73" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" s="59"/>
-    </row>
-    <row r="74" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B74" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="121"/>
-    </row>
-    <row r="75" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="C75" s="83"/>
-    </row>
-    <row r="76" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="73" t="s">
-        <v>241</v>
-      </c>
-      <c r="C76" s="59"/>
-    </row>
-    <row r="77" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B77" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C77" s="59"/>
-    </row>
-    <row r="78" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B78" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C78" s="59"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsBlanks" dxfId="12" priority="1">
-      <formula>LEN(TRIM(C16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:M27 D28:M37">
-    <cfRule type="containsBlanks" dxfId="11" priority="7">
-      <formula>LEN(TRIM(C19))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F6">
-    <cfRule type="containsBlanks" dxfId="10" priority="2">
-      <formula>LEN(TRIM(F5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
-      <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{87139493-416E-4F03-A3A9-B1C3E5C019E4}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{C4480F83-D8C1-4589-BCF3-1A7870946539}">
-      <formula1>"US, CN, HK, Others"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E48:E49 E57:E59" xr:uid="{2EA09CDC-767E-4F51-A87B-920BE059D711}">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -4816,12 +5827,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D20" sqref="D20"/>
+      <selection pane="topRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4848,16 +5859,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="151" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F2" s="120" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="G2" s="151" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="H2" s="150" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -4875,18 +5886,18 @@
         <v>45291</v>
       </c>
       <c r="E3" s="149" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F3" s="85" t="str">
-        <f>H19</f>
+        <f>L12</f>
         <v/>
       </c>
       <c r="G3" s="85" t="e">
-        <f>C19</f>
+        <f>C12</f>
         <v>#VALUE!</v>
       </c>
       <c r="H3" s="85">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I3" s="87"/>
       <c r="J3" s="42"/>
@@ -4901,14 +5912,14 @@
       </c>
       <c r="C4" s="129">
         <f>Inputs!C13</f>
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
       <c r="E4" s="149" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -4919,7 +5930,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="116" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5071,7 +6082,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C8" s="208" t="str">
         <f>IF(Inputs!C20="","",Inputs!C20)</f>
@@ -5122,7 +6133,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C9" s="154" t="e">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -5173,7 +6184,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C10" s="208" t="str">
         <f>IF(Inputs!C21="","",Inputs!C21)</f>
@@ -5223,918 +6234,918 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="155" t="str">
-        <f>IF(OR(C6="",C12=""),"",C12/C6)</f>
-        <v/>
-      </c>
-      <c r="D11" s="155" t="str">
-        <f t="shared" ref="D11:M11" si="3">IF(OR(D6="",D12=""),"",D12/D6)</f>
-        <v/>
-      </c>
-      <c r="E11" s="155" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F11" s="155" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G11" s="155" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H11" s="155" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I11" s="155" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J11" s="155" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K11" s="155" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L11" s="155" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M11" s="155" t="str">
-        <f t="shared" si="3"/>
+      <c r="B11" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="208" t="str">
+        <f>IF(Inputs!C22="","",Inputs!C22)</f>
+        <v/>
+      </c>
+      <c r="D11" s="208" t="str">
+        <f>IF(Inputs!D22="","",Inputs!D22)</f>
+        <v/>
+      </c>
+      <c r="E11" s="208" t="str">
+        <f>IF(Inputs!E22="","",Inputs!E22)</f>
+        <v/>
+      </c>
+      <c r="F11" s="208" t="str">
+        <f>IF(Inputs!F22="","",Inputs!F22)</f>
+        <v/>
+      </c>
+      <c r="G11" s="208" t="str">
+        <f>IF(Inputs!G22="","",Inputs!G22)</f>
+        <v/>
+      </c>
+      <c r="H11" s="208" t="str">
+        <f>IF(Inputs!H22="","",Inputs!H22)</f>
+        <v/>
+      </c>
+      <c r="I11" s="208" t="str">
+        <f>IF(Inputs!I22="","",Inputs!I22)</f>
+        <v/>
+      </c>
+      <c r="J11" s="208" t="str">
+        <f>IF(Inputs!J22="","",Inputs!J22)</f>
+        <v/>
+      </c>
+      <c r="K11" s="208" t="str">
+        <f>IF(Inputs!K22="","",Inputs!K22)</f>
+        <v/>
+      </c>
+      <c r="L11" s="208" t="str">
+        <f>IF(Inputs!L22="","",Inputs!L22)</f>
+        <v/>
+      </c>
+      <c r="M11" s="208" t="str">
+        <f>IF(Inputs!M22="","",Inputs!M22)</f>
         <v/>
       </c>
       <c r="N11" s="87"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="208" t="str">
-        <f>IF(Inputs!C22="","",Inputs!C22)</f>
-        <v/>
-      </c>
-      <c r="D12" s="208" t="str">
-        <f>IF(Inputs!D22="","",Inputs!D22)</f>
-        <v/>
-      </c>
-      <c r="E12" s="208" t="str">
-        <f>IF(Inputs!E22="","",Inputs!E22)</f>
-        <v/>
-      </c>
-      <c r="F12" s="208" t="str">
-        <f>IF(Inputs!F22="","",Inputs!F22)</f>
-        <v/>
-      </c>
-      <c r="G12" s="208" t="str">
-        <f>IF(Inputs!G22="","",Inputs!G22)</f>
-        <v/>
-      </c>
-      <c r="H12" s="208" t="str">
-        <f>IF(Inputs!H22="","",Inputs!H22)</f>
-        <v/>
-      </c>
-      <c r="I12" s="208" t="str">
-        <f>IF(Inputs!I22="","",Inputs!I22)</f>
-        <v/>
-      </c>
-      <c r="J12" s="208" t="str">
-        <f>IF(Inputs!J22="","",Inputs!J22)</f>
-        <v/>
-      </c>
-      <c r="K12" s="208" t="str">
-        <f>IF(Inputs!K22="","",Inputs!K22)</f>
-        <v/>
-      </c>
-      <c r="L12" s="208" t="str">
-        <f>IF(Inputs!L22="","",Inputs!L22)</f>
-        <v/>
-      </c>
-      <c r="M12" s="208" t="str">
-        <f>IF(Inputs!M22="","",Inputs!M22)</f>
+      <c r="B12" s="98" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="154" t="e">
+        <f>IF(C6="","",(C9-C10-MAX(C11,0)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" s="154" t="str">
+        <f t="shared" ref="D12:M12" si="3">IF(D6="","",(D9-D10-MAX(D11,0)))</f>
+        <v/>
+      </c>
+      <c r="E12" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F12" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G12" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H12" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I12" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J12" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K12" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L12" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M12" s="154" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N12" s="87"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="98" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="154" t="e">
-        <f>IF(C6="","",(C9-C10+MAX(C12,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D13" s="154" t="str">
-        <f t="shared" ref="D13:M13" si="4">IF(D6="","",(D9-D10+MAX(D12,0)))</f>
-        <v/>
-      </c>
-      <c r="E13" s="154" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F13" s="154" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G13" s="154" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H13" s="154" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I13" s="154" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J13" s="154" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K13" s="154" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L13" s="154" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M13" s="154" t="str">
-        <f t="shared" si="4"/>
+      <c r="B13" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="208" t="str">
+        <f>IF(Inputs!C23="","",Inputs!C23)</f>
+        <v/>
+      </c>
+      <c r="D13" s="208" t="str">
+        <f>IF(Inputs!D23="","",Inputs!D23)</f>
+        <v/>
+      </c>
+      <c r="E13" s="208" t="str">
+        <f>IF(Inputs!E23="","",Inputs!E23)</f>
+        <v/>
+      </c>
+      <c r="F13" s="208" t="str">
+        <f>IF(Inputs!F23="","",Inputs!F23)</f>
+        <v/>
+      </c>
+      <c r="G13" s="208" t="str">
+        <f>IF(Inputs!G23="","",Inputs!G23)</f>
+        <v/>
+      </c>
+      <c r="H13" s="208" t="str">
+        <f>IF(Inputs!H23="","",Inputs!H23)</f>
+        <v/>
+      </c>
+      <c r="I13" s="208" t="str">
+        <f>IF(Inputs!I23="","",Inputs!I23)</f>
+        <v/>
+      </c>
+      <c r="J13" s="208" t="str">
+        <f>IF(Inputs!J23="","",Inputs!J23)</f>
+        <v/>
+      </c>
+      <c r="K13" s="208" t="str">
+        <f>IF(Inputs!K23="","",Inputs!K23)</f>
+        <v/>
+      </c>
+      <c r="L13" s="208" t="str">
+        <f>IF(Inputs!L23="","",Inputs!L23)</f>
+        <v/>
+      </c>
+      <c r="M13" s="208" t="str">
+        <f>IF(Inputs!M23="","",Inputs!M23)</f>
         <v/>
       </c>
       <c r="N13" s="87"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="97" t="s">
-        <v>110</v>
+      <c r="B14" s="99" t="s">
+        <v>111</v>
       </c>
       <c r="C14" s="208" t="str">
-        <f>IF(Inputs!C23="","",Inputs!C23)</f>
+        <f>IF(Inputs!C24="","",Inputs!C24)</f>
         <v/>
       </c>
       <c r="D14" s="208" t="str">
-        <f>IF(Inputs!D23="","",Inputs!D23)</f>
+        <f>IF(Inputs!D24="","",Inputs!D24)</f>
         <v/>
       </c>
       <c r="E14" s="208" t="str">
-        <f>IF(Inputs!E23="","",Inputs!E23)</f>
+        <f>IF(Inputs!E24="","",Inputs!E24)</f>
         <v/>
       </c>
       <c r="F14" s="208" t="str">
-        <f>IF(Inputs!F23="","",Inputs!F23)</f>
+        <f>IF(Inputs!F24="","",Inputs!F24)</f>
         <v/>
       </c>
       <c r="G14" s="208" t="str">
-        <f>IF(Inputs!G23="","",Inputs!G23)</f>
+        <f>IF(Inputs!G24="","",Inputs!G24)</f>
         <v/>
       </c>
       <c r="H14" s="208" t="str">
-        <f>IF(Inputs!H23="","",Inputs!H23)</f>
+        <f>IF(Inputs!H24="","",Inputs!H24)</f>
         <v/>
       </c>
       <c r="I14" s="208" t="str">
-        <f>IF(Inputs!I23="","",Inputs!I23)</f>
+        <f>IF(Inputs!I24="","",Inputs!I24)</f>
         <v/>
       </c>
       <c r="J14" s="208" t="str">
-        <f>IF(Inputs!J23="","",Inputs!J23)</f>
+        <f>IF(Inputs!J24="","",Inputs!J24)</f>
         <v/>
       </c>
       <c r="K14" s="208" t="str">
-        <f>IF(Inputs!K23="","",Inputs!K23)</f>
+        <f>IF(Inputs!K24="","",Inputs!K24)</f>
         <v/>
       </c>
       <c r="L14" s="208" t="str">
-        <f>IF(Inputs!L23="","",Inputs!L23)</f>
+        <f>IF(Inputs!L24="","",Inputs!L24)</f>
         <v/>
       </c>
       <c r="M14" s="208" t="str">
-        <f>IF(Inputs!M23="","",Inputs!M23)</f>
+        <f>IF(Inputs!M24="","",Inputs!M24)</f>
         <v/>
       </c>
       <c r="N14" s="87"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="208" t="str">
-        <f>IF(Inputs!C24="","",Inputs!C24)</f>
-        <v/>
-      </c>
-      <c r="D15" s="208" t="str">
-        <f>IF(Inputs!D24="","",Inputs!D24)</f>
-        <v/>
-      </c>
-      <c r="E15" s="208" t="str">
-        <f>IF(Inputs!E24="","",Inputs!E24)</f>
-        <v/>
-      </c>
-      <c r="F15" s="208" t="str">
-        <f>IF(Inputs!F24="","",Inputs!F24)</f>
-        <v/>
-      </c>
-      <c r="G15" s="208" t="str">
-        <f>IF(Inputs!G24="","",Inputs!G24)</f>
-        <v/>
-      </c>
-      <c r="H15" s="208" t="str">
-        <f>IF(Inputs!H24="","",Inputs!H24)</f>
-        <v/>
-      </c>
-      <c r="I15" s="208" t="str">
-        <f>IF(Inputs!I24="","",Inputs!I24)</f>
-        <v/>
-      </c>
-      <c r="J15" s="208" t="str">
-        <f>IF(Inputs!J24="","",Inputs!J24)</f>
-        <v/>
-      </c>
-      <c r="K15" s="208" t="str">
-        <f>IF(Inputs!K24="","",Inputs!K24)</f>
-        <v/>
-      </c>
-      <c r="L15" s="208" t="str">
-        <f>IF(Inputs!L24="","",Inputs!L24)</f>
-        <v/>
-      </c>
-      <c r="M15" s="208" t="str">
-        <f>IF(Inputs!M24="","",Inputs!M24)</f>
+      <c r="B15" s="236" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="237" t="e">
+        <f>IF(C6="","",C12-MAX(C13,0)-MAX(C14,0)/(1-Fin_Analysis!$I$84))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" s="237" t="str">
+        <f>IF(D6="","",D12-MAX(D13,0)-MAX(D14,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="E15" s="237" t="str">
+        <f>IF(E6="","",E12-MAX(E13,0)-MAX(E14,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="F15" s="237" t="str">
+        <f>IF(F6="","",F12-MAX(F13,0)-MAX(F14,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="G15" s="237" t="str">
+        <f>IF(G6="","",G12-MAX(G13,0)-MAX(G14,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="H15" s="237" t="str">
+        <f>IF(H6="","",H12-MAX(H13,0)-MAX(H14,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="I15" s="237" t="str">
+        <f>IF(I6="","",I12-MAX(I13,0)-MAX(I14,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="J15" s="237" t="str">
+        <f>IF(J6="","",J12-MAX(J13,0)-MAX(J14,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="K15" s="237" t="str">
+        <f>IF(K6="","",K12-MAX(K13,0)-MAX(K14,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="L15" s="237" t="str">
+        <f>IF(L6="","",L12-MAX(L13,0)-MAX(L14,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="M15" s="237" t="str">
+        <f>IF(M6="","",M12-MAX(M13,0)-MAX(M14,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
       <c r="N15" s="87"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="208" t="str">
-        <f>IF(Inputs!C25="","",Inputs!C25)</f>
-        <v/>
-      </c>
-      <c r="D16" s="208" t="str">
-        <f>IF(Inputs!D25="","",Inputs!D25)</f>
-        <v/>
-      </c>
-      <c r="E16" s="208" t="str">
-        <f>IF(Inputs!E25="","",Inputs!E25)</f>
-        <v/>
-      </c>
-      <c r="F16" s="208" t="str">
-        <f>IF(Inputs!F25="","",Inputs!F25)</f>
-        <v/>
-      </c>
-      <c r="G16" s="208" t="str">
-        <f>IF(Inputs!G25="","",Inputs!G25)</f>
-        <v/>
-      </c>
-      <c r="H16" s="208" t="str">
-        <f>IF(Inputs!H25="","",Inputs!H25)</f>
-        <v/>
-      </c>
-      <c r="I16" s="208" t="str">
-        <f>IF(Inputs!I25="","",Inputs!I25)</f>
-        <v/>
-      </c>
-      <c r="J16" s="208" t="str">
-        <f>IF(Inputs!J25="","",Inputs!J25)</f>
-        <v/>
-      </c>
-      <c r="K16" s="208" t="str">
-        <f>IF(Inputs!K25="","",Inputs!K25)</f>
-        <v/>
-      </c>
-      <c r="L16" s="208" t="str">
-        <f>IF(Inputs!L25="","",Inputs!L25)</f>
-        <v/>
-      </c>
-      <c r="M16" s="208" t="str">
-        <f>IF(Inputs!M25="","",Inputs!M25)</f>
+      <c r="B16" s="247" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="238" t="str">
+        <f>IF(D15="","",IF(ABS(C15+D15)=ABS(C15)+ABS(D15),IF(C15&lt;0,-1,1)*(C15-D15)/D15,"Turn"))</f>
+        <v/>
+      </c>
+      <c r="D16" s="238" t="str">
+        <f t="shared" ref="D16:M16" si="4">IF(E15="","",IF(ABS(D15+E15)=ABS(D15)+ABS(E15),IF(D15&lt;0,-1,1)*(D15-E15)/E15,"Turn"))</f>
+        <v/>
+      </c>
+      <c r="E16" s="238" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F16" s="238" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G16" s="238" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H16" s="238" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I16" s="238" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J16" s="238" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K16" s="238" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L16" s="238" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M16" s="238" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N16" s="87"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="208" t="str">
-        <f>IF(Inputs!C26="","",Inputs!C26)</f>
-        <v/>
-      </c>
-      <c r="D17" s="208" t="str">
-        <f>IF(Inputs!D26="","",Inputs!D26)</f>
-        <v/>
-      </c>
-      <c r="E17" s="208" t="str">
-        <f>IF(Inputs!E26="","",Inputs!E26)</f>
-        <v/>
-      </c>
-      <c r="F17" s="208" t="str">
-        <f>IF(Inputs!F26="","",Inputs!F26)</f>
-        <v/>
-      </c>
-      <c r="G17" s="208" t="str">
-        <f>IF(Inputs!G26="","",Inputs!G26)</f>
-        <v/>
-      </c>
-      <c r="H17" s="208" t="str">
-        <f>IF(Inputs!H26="","",Inputs!H26)</f>
-        <v/>
-      </c>
-      <c r="I17" s="208" t="str">
-        <f>IF(Inputs!I26="","",Inputs!I26)</f>
-        <v/>
-      </c>
-      <c r="J17" s="208" t="str">
-        <f>IF(Inputs!J26="","",Inputs!J26)</f>
-        <v/>
-      </c>
-      <c r="K17" s="208" t="str">
-        <f>IF(Inputs!K26="","",Inputs!K26)</f>
-        <v/>
-      </c>
-      <c r="L17" s="208" t="str">
-        <f>IF(Inputs!L26="","",Inputs!L26)</f>
-        <v/>
-      </c>
-      <c r="M17" s="208" t="str">
-        <f>IF(Inputs!M26="","",Inputs!M26)</f>
+      <c r="B17" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="155" t="str">
+        <f t="shared" ref="C17:M17" si="5">IF(OR(C6="",C18=""),"",C18/C6)</f>
+        <v/>
+      </c>
+      <c r="D17" s="155" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E17" s="155" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F17" s="155" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G17" s="155" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H17" s="155" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I17" s="155" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J17" s="155" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K17" s="155" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L17" s="155" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M17" s="155" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N17" s="87"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="99" t="s">
-        <v>114</v>
+      <c r="B18" s="97" t="s">
+        <v>105</v>
       </c>
       <c r="C18" s="208" t="str">
-        <f>IF(Inputs!C27="","",Inputs!C27)</f>
+        <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v/>
       </c>
       <c r="D18" s="208" t="str">
-        <f>IF(Inputs!D27="","",Inputs!D27)</f>
+        <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v/>
       </c>
       <c r="E18" s="208" t="str">
-        <f>IF(Inputs!E27="","",Inputs!E27)</f>
+        <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
       <c r="F18" s="208" t="str">
-        <f>IF(Inputs!F27="","",Inputs!F27)</f>
+        <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
       <c r="G18" s="208" t="str">
-        <f>IF(Inputs!G27="","",Inputs!G27)</f>
+        <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
       <c r="H18" s="208" t="str">
-        <f>IF(Inputs!H27="","",Inputs!H27)</f>
+        <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
       <c r="I18" s="208" t="str">
-        <f>IF(Inputs!I27="","",Inputs!I27)</f>
+        <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
       <c r="J18" s="208" t="str">
-        <f>IF(Inputs!J27="","",Inputs!J27)</f>
+        <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
       <c r="K18" s="208" t="str">
-        <f>IF(Inputs!K27="","",Inputs!K27)</f>
+        <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
       <c r="L18" s="208" t="str">
-        <f>IF(Inputs!L27="","",Inputs!L27)</f>
+        <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
       <c r="M18" s="208" t="str">
-        <f>IF(Inputs!M27="","",Inputs!M27)</f>
+        <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
       <c r="N18" s="87"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="236" t="s">
-        <v>216</v>
-      </c>
-      <c r="C19" s="237" t="e">
-        <f>IF(C6="","",C9-C10-MAX(C17,0)-MAX(C18,0)/(1-Fin_Analysis!$I$84))</f>
+      <c r="B19" s="97" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="155" t="e">
+        <f t="shared" ref="C19:M19" si="6">IF(C6="","",MAX(C20,0)/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D19" s="237" t="str">
-        <f>IF(D6="","",D9-D10-MAX(D17,0)-MAX(D18,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="E19" s="237" t="str">
-        <f>IF(E6="","",E9-E10-MAX(E17,0)-MAX(E18,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="F19" s="237" t="str">
-        <f>IF(F6="","",F9-F10-MAX(F17,0)-MAX(F18,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="G19" s="237" t="str">
-        <f>IF(G6="","",G9-G10-MAX(G17,0)-MAX(G18,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="H19" s="237" t="str">
-        <f>IF(H6="","",H9-H10-MAX(H17,0)-MAX(H18,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="I19" s="237" t="str">
-        <f>IF(I6="","",I9-I10-MAX(I17,0)-MAX(I18,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="J19" s="237" t="str">
-        <f>IF(J6="","",J9-J10-MAX(J17,0)-MAX(J18,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="K19" s="237" t="str">
-        <f>IF(K6="","",K9-K10-MAX(K17,0)-MAX(K18,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="L19" s="237" t="str">
-        <f>IF(L6="","",L9-L10-MAX(L17,0)-MAX(L18,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="M19" s="237" t="str">
-        <f>IF(M6="","",M9-M10-MAX(M17,0)-MAX(M18,0)/(1-Fin_Analysis!$I$84))</f>
+      <c r="D19" s="155" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E19" s="155" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F19" s="155" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G19" s="155" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H19" s="155" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I19" s="155" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J19" s="155" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K19" s="155" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L19" s="155" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M19" s="155" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N19" s="87"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="236" t="s">
-        <v>217</v>
-      </c>
-      <c r="C20" s="238" t="str">
-        <f>IF(D19="","",IF(ABS(C19+D19)=ABS(C19)+ABS(D19),IF(C19&lt;0,-1,1)*(C19-D19)/D19,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="D20" s="238" t="str">
-        <f t="shared" ref="D20:M20" si="5">IF(E19="","",IF(ABS(D19+E19)=ABS(D19)+ABS(E19),IF(D19&lt;0,-1,1)*(D19-E19)/E19,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="E20" s="238" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F20" s="238" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G20" s="238" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H20" s="238" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I20" s="238" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J20" s="238" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K20" s="238" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L20" s="238" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M20" s="238" t="str">
-        <f t="shared" si="5"/>
+      <c r="B20" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="208" t="str">
+        <f>IF(Inputs!C27="","",Inputs!C27)</f>
+        <v/>
+      </c>
+      <c r="D20" s="208" t="str">
+        <f>IF(Inputs!D27="","",Inputs!D27)</f>
+        <v/>
+      </c>
+      <c r="E20" s="208" t="str">
+        <f>IF(Inputs!E27="","",Inputs!E27)</f>
+        <v/>
+      </c>
+      <c r="F20" s="208" t="str">
+        <f>IF(Inputs!F27="","",Inputs!F27)</f>
+        <v/>
+      </c>
+      <c r="G20" s="208" t="str">
+        <f>IF(Inputs!G27="","",Inputs!G27)</f>
+        <v/>
+      </c>
+      <c r="H20" s="208" t="str">
+        <f>IF(Inputs!H27="","",Inputs!H27)</f>
+        <v/>
+      </c>
+      <c r="I20" s="208" t="str">
+        <f>IF(Inputs!I27="","",Inputs!I27)</f>
+        <v/>
+      </c>
+      <c r="J20" s="208" t="str">
+        <f>IF(Inputs!J27="","",Inputs!J27)</f>
+        <v/>
+      </c>
+      <c r="K20" s="208" t="str">
+        <f>IF(Inputs!K27="","",Inputs!K27)</f>
+        <v/>
+      </c>
+      <c r="L20" s="208" t="str">
+        <f>IF(Inputs!L27="","",Inputs!L27)</f>
+        <v/>
+      </c>
+      <c r="M20" s="208" t="str">
+        <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
       <c r="N20" s="87"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="94" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="77" t="e">
-        <f>IF(C6="","",C13-MAX(C14,0)-MAX(C15,0)-MAX(C16,0)-MAX(C17,0)-MAX(C18,0)/(1-Fin_Analysis!$I$84))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D21" s="77" t="str">
-        <f>IF(D6="","",D13-MAX(D14,0)-MAX(D15,0)-MAX(D16,0)-MAX(D17,0)-MAX(D18,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="E21" s="77" t="str">
-        <f>IF(E6="","",E13-MAX(E14,0)-MAX(E15,0)-MAX(E16,0)-MAX(E17,0)-MAX(E18,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="F21" s="77" t="str">
-        <f>IF(F6="","",F13-MAX(F14,0)-MAX(F15,0)-MAX(F16,0)-MAX(F17,0)-MAX(F18,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="G21" s="77" t="str">
-        <f>IF(G6="","",G13-MAX(G14,0)-MAX(G15,0)-MAX(G16,0)-MAX(G17,0)-MAX(G18,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="H21" s="77" t="str">
-        <f>IF(H6="","",H13-MAX(H14,0)-MAX(H15,0)-MAX(H16,0)-MAX(H17,0)-MAX(H18,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="I21" s="77" t="str">
-        <f>IF(I6="","",I13-MAX(I14,0)-MAX(I15,0)-MAX(I16,0)-MAX(I17,0)-MAX(I18,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="J21" s="77" t="str">
-        <f>IF(J6="","",J13-MAX(J14,0)-MAX(J15,0)-MAX(J16,0)-MAX(J17,0)-MAX(J18,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="K21" s="77" t="str">
-        <f>IF(K6="","",K13-MAX(K14,0)-MAX(K15,0)-MAX(K16,0)-MAX(K17,0)-MAX(K18,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="L21" s="77" t="str">
-        <f>IF(L6="","",L13-MAX(L14,0)-MAX(L15,0)-MAX(L16,0)-MAX(L17,0)-MAX(L18,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="M21" s="77" t="str">
-        <f>IF(M6="","",M13-MAX(M14,0)-MAX(M15,0)-MAX(M16,0)-MAX(M17,0)-MAX(M18,0)/(1-Fin_Analysis!$I$84))</f>
+      <c r="B21" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="208" t="str">
+        <f>IF(Inputs!C25="","",Inputs!C25)</f>
+        <v/>
+      </c>
+      <c r="D21" s="208" t="str">
+        <f>IF(Inputs!D25="","",Inputs!D25)</f>
+        <v/>
+      </c>
+      <c r="E21" s="208" t="str">
+        <f>IF(Inputs!E25="","",Inputs!E25)</f>
+        <v/>
+      </c>
+      <c r="F21" s="208" t="str">
+        <f>IF(Inputs!F25="","",Inputs!F25)</f>
+        <v/>
+      </c>
+      <c r="G21" s="208" t="str">
+        <f>IF(Inputs!G25="","",Inputs!G25)</f>
+        <v/>
+      </c>
+      <c r="H21" s="208" t="str">
+        <f>IF(Inputs!H25="","",Inputs!H25)</f>
+        <v/>
+      </c>
+      <c r="I21" s="208" t="str">
+        <f>IF(Inputs!I25="","",Inputs!I25)</f>
+        <v/>
+      </c>
+      <c r="J21" s="208" t="str">
+        <f>IF(Inputs!J25="","",Inputs!J25)</f>
+        <v/>
+      </c>
+      <c r="K21" s="208" t="str">
+        <f>IF(Inputs!K25="","",Inputs!K25)</f>
+        <v/>
+      </c>
+      <c r="L21" s="208" t="str">
+        <f>IF(Inputs!L25="","",Inputs!L25)</f>
+        <v/>
+      </c>
+      <c r="M21" s="208" t="str">
+        <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
       <c r="N21" s="87"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="156" t="str">
-        <f>IF(D21="","",IF(ABS(C21+D21)=ABS(C21)+ABS(D21),IF(C21&lt;0,-1,1)*(C21-D21)/D21,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="D22" s="156" t="str">
-        <f t="shared" ref="D22:M22" si="6">IF(E21="","",IF(ABS(D21+E21)=ABS(D21)+ABS(E21),IF(D21&lt;0,-1,1)*(D21-E21)/E21,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="E22" s="156" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F22" s="156" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G22" s="156" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H22" s="156" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I22" s="156" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J22" s="156" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K22" s="156" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L22" s="156" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M22" s="156" t="str">
-        <f t="shared" si="6"/>
+      <c r="B22" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="77" t="e">
+        <f t="shared" ref="C22:M22" si="7">IF(C6="","",C15+MAX(C18,0)-MAX(C20,0)-MAX(C21,0))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D22" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E22" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F22" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G22" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H22" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I22" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J22" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K22" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L22" s="77" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M22" s="77" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N22" s="87"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="157" t="e">
-        <f t="shared" ref="C23:M23" si="7">IF(C6="","",C24/C6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D23" s="157" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="E23" s="157" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F23" s="157" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G23" s="157" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H23" s="157" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I23" s="157" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J23" s="157" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K23" s="157" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L23" s="157" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M23" s="157" t="str">
-        <f t="shared" si="7"/>
+      <c r="B23" s="98" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="156" t="str">
+        <f>IF(D22="","",IF(ABS(C22+D22)=ABS(C22)+ABS(D22),IF(C22&lt;0,-1,1)*(C22-D22)/D22,"Turn"))</f>
+        <v/>
+      </c>
+      <c r="D23" s="156" t="str">
+        <f t="shared" ref="D23:M23" si="8">IF(E22="","",IF(ABS(D22+E22)=ABS(D22)+ABS(E22),IF(D22&lt;0,-1,1)*(D22-E22)/E22,"Turn"))</f>
+        <v/>
+      </c>
+      <c r="E23" s="156" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F23" s="156" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G23" s="156" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H23" s="156" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I23" s="156" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J23" s="156" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K23" s="156" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L23" s="156" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M23" s="156" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N23" s="87"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="102" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="158" t="e">
-        <f>IF(C6="","",C21*(1-Fin_Analysis!$I$84))</f>
+      <c r="B24" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="157" t="e">
+        <f t="shared" ref="C24:M24" si="9">IF(C6="","",C25/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D24" s="77" t="str">
-        <f>IF(D6="","",D21*(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="E24" s="77" t="str">
-        <f>IF(E6="","",E21*(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="F24" s="77" t="str">
-        <f>IF(F6="","",F21*(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="G24" s="77" t="str">
-        <f>IF(G6="","",G21*(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="H24" s="77" t="str">
-        <f>IF(H6="","",H21*(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="I24" s="77" t="str">
-        <f>IF(I6="","",I21*(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="J24" s="77" t="str">
-        <f>IF(J6="","",J21*(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="K24" s="77" t="str">
-        <f>IF(K6="","",K21*(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="L24" s="77" t="str">
-        <f>IF(L6="","",L21*(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="M24" s="77" t="str">
-        <f>IF(M6="","",M21*(1-Fin_Analysis!$I$84))</f>
+      <c r="D24" s="157" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E24" s="157" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F24" s="157" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G24" s="157" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H24" s="157" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I24" s="157" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J24" s="157" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K24" s="157" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L24" s="157" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M24" s="157" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
-      <c r="B25" s="101" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="159" t="str">
-        <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="D25" s="159" t="str">
-        <f t="shared" ref="D25:M25" si="8">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="E25" s="159" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F25" s="159" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G25" s="159" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H25" s="159" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I25" s="159" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J25" s="159" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K25" s="159" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L25" s="159" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M25" s="159" t="str">
-        <f t="shared" si="8"/>
+      <c r="B25" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="158" t="e">
+        <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D25" s="77" t="str">
+        <f>IF(D6="","",D22*(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="E25" s="77" t="str">
+        <f>IF(E6="","",E22*(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="F25" s="77" t="str">
+        <f>IF(F6="","",F22*(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="G25" s="77" t="str">
+        <f>IF(G6="","",G22*(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="H25" s="77" t="str">
+        <f>IF(H6="","",H22*(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="I25" s="77" t="str">
+        <f>IF(I6="","",I22*(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="J25" s="77" t="str">
+        <f>IF(J6="","",J22*(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="K25" s="77" t="str">
+        <f>IF(K6="","",K22*(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="L25" s="77" t="str">
+        <f>IF(L6="","",L22*(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="M25" s="77" t="str">
+        <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="16"/>
-      <c r="B26" s="115" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="48">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="4"/>
+      <c r="B26" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="159" t="str">
+        <f>IF(D25="","",IF(ABS(C25+D25)=ABS(C25)+ABS(D25),IF(C25&lt;0,-1,1)*(C25-D25)/D25,"Turn"))</f>
+        <v/>
+      </c>
+      <c r="D26" s="159" t="str">
+        <f t="shared" ref="D26:M26" si="10">IF(E25="","",IF(ABS(D25+E25)=ABS(D25)+ABS(E25),IF(D25&lt;0,-1,1)*(D25-E25)/E25,"Turn"))</f>
+        <v/>
+      </c>
+      <c r="E26" s="159" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F26" s="159" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G26" s="159" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H26" s="159" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I26" s="159" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J26" s="159" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="K26" s="159" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L26" s="159" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M26" s="159" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N26" s="87"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="16"/>
+      <c r="B27" s="115" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="48">
         <f>Fin_Analysis!D9</f>
         <v>45473</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D27" s="49">
         <f>D5</f>
         <v>44926</v>
       </c>
-      <c r="E26" s="49">
-        <f t="shared" ref="E26" si="9">EOMONTH(EDATE(D26,-12),0)</f>
+      <c r="E27" s="49">
+        <f t="shared" ref="E27" si="11">EOMONTH(EDATE(D27,-12),0)</f>
         <v>44561</v>
       </c>
-      <c r="F26" s="49">
-        <f t="shared" ref="F26" si="10">EOMONTH(EDATE(E26,-12),0)</f>
+      <c r="F27" s="49">
+        <f t="shared" ref="F27" si="12">EOMONTH(EDATE(E27,-12),0)</f>
         <v>44196</v>
       </c>
-      <c r="G26" s="49">
-        <f t="shared" ref="G26" si="11">EOMONTH(EDATE(F26,-12),0)</f>
+      <c r="G27" s="49">
+        <f t="shared" ref="G27" si="13">EOMONTH(EDATE(F27,-12),0)</f>
         <v>43830</v>
       </c>
-      <c r="H26" s="49">
-        <f t="shared" ref="H26" si="12">EOMONTH(EDATE(G26,-12),0)</f>
+      <c r="H27" s="49">
+        <f t="shared" ref="H27" si="14">EOMONTH(EDATE(G27,-12),0)</f>
         <v>43465</v>
       </c>
-      <c r="I26" s="49">
-        <f t="shared" ref="I26" si="13">EOMONTH(EDATE(H26,-12),0)</f>
+      <c r="I27" s="49">
+        <f t="shared" ref="I27" si="15">EOMONTH(EDATE(H27,-12),0)</f>
         <v>43100</v>
       </c>
-      <c r="J26" s="49">
-        <f t="shared" ref="J26" si="14">EOMONTH(EDATE(I26,-12),0)</f>
+      <c r="J27" s="49">
+        <f t="shared" ref="J27" si="16">EOMONTH(EDATE(I27,-12),0)</f>
         <v>42735</v>
       </c>
-      <c r="K26" s="49">
-        <f t="shared" ref="K26" si="15">EOMONTH(EDATE(J26,-12),0)</f>
+      <c r="K27" s="49">
+        <f t="shared" ref="K27" si="17">EOMONTH(EDATE(J27,-12),0)</f>
         <v>42369</v>
       </c>
-      <c r="L26" s="49">
-        <f t="shared" ref="L26" si="16">EOMONTH(EDATE(K26,-12),0)</f>
+      <c r="L27" s="49">
+        <f t="shared" ref="L27" si="18">EOMONTH(EDATE(K27,-12),0)</f>
         <v>42004</v>
       </c>
-      <c r="M26" s="49">
-        <f t="shared" ref="M26" si="17">EOMONTH(EDATE(L26,-12),0)</f>
+      <c r="M27" s="49">
+        <f t="shared" ref="M27" si="19">EOMONTH(EDATE(L27,-12),0)</f>
         <v>41639</v>
-      </c>
-      <c r="N26" s="87"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="18">IF(D36="","",D36+D31+D32)</f>
-        <v/>
-      </c>
-      <c r="E27" s="65" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F27" s="65" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G27" s="65" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="H27" s="65" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I27" s="65" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="J27" s="65" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="K27" s="65" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="L27" s="65" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M27" s="65" t="str">
-        <f t="shared" si="18"/>
-        <v/>
       </c>
       <c r="N27" s="87"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="208" t="str">
-        <f>IF(Inputs!D28="","",Inputs!D28)</f>
-        <v/>
-      </c>
-      <c r="E28" s="208" t="str">
-        <f>IF(Inputs!E28="","",Inputs!E28)</f>
-        <v/>
-      </c>
-      <c r="F28" s="208" t="str">
-        <f>IF(Inputs!F28="","",Inputs!F28)</f>
-        <v/>
-      </c>
-      <c r="G28" s="208" t="str">
-        <f>IF(Inputs!G28="","",Inputs!G28)</f>
-        <v/>
-      </c>
-      <c r="H28" s="208" t="str">
-        <f>IF(Inputs!H28="","",Inputs!H28)</f>
-        <v/>
-      </c>
-      <c r="I28" s="208" t="str">
-        <f>IF(Inputs!I28="","",Inputs!I28)</f>
-        <v/>
-      </c>
-      <c r="J28" s="208" t="str">
-        <f>IF(Inputs!J28="","",Inputs!J28)</f>
-        <v/>
-      </c>
-      <c r="K28" s="208" t="str">
-        <f>IF(Inputs!K28="","",Inputs!K28)</f>
-        <v/>
-      </c>
-      <c r="L28" s="208" t="str">
-        <f>IF(Inputs!L28="","",Inputs!L28)</f>
-        <v/>
-      </c>
-      <c r="M28" s="208" t="str">
-        <f>IF(Inputs!M28="","",Inputs!M28)</f>
+        <f>IF(C37="","",C37+C32+C33)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="65" t="str">
+        <f t="shared" ref="D28:M28" si="20">IF(D37="","",D37+D32+D33)</f>
+        <v/>
+      </c>
+      <c r="E28" s="65" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="F28" s="65" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="G28" s="65" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H28" s="65" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="I28" s="65" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J28" s="65" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="K28" s="65" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L28" s="65" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="M28" s="65" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6142,50 +7153,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
       <c r="D29" s="208" t="str">
-        <f>IF(Inputs!D29="","",Inputs!D29)</f>
+        <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
       <c r="E29" s="208" t="str">
-        <f>IF(Inputs!E29="","",Inputs!E29)</f>
+        <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
       <c r="F29" s="208" t="str">
-        <f>IF(Inputs!F29="","",Inputs!F29)</f>
+        <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
       <c r="G29" s="208" t="str">
-        <f>IF(Inputs!G29="","",Inputs!G29)</f>
+        <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
       <c r="H29" s="208" t="str">
-        <f>IF(Inputs!H29="","",Inputs!H29)</f>
+        <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
       <c r="I29" s="208" t="str">
-        <f>IF(Inputs!I29="","",Inputs!I29)</f>
+        <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
       <c r="J29" s="208" t="str">
-        <f>IF(Inputs!J29="","",Inputs!J29)</f>
+        <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
       <c r="K29" s="208" t="str">
-        <f>IF(Inputs!K29="","",Inputs!K29)</f>
+        <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
       <c r="L29" s="208" t="str">
-        <f>IF(Inputs!L29="","",Inputs!L29)</f>
+        <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
       <c r="M29" s="208" t="str">
-        <f>IF(Inputs!M29="","",Inputs!M29)</f>
+        <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6193,50 +7204,50 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D30" s="208" t="str">
-        <f>IF(Inputs!D30="","",Inputs!D30)</f>
+        <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v/>
       </c>
       <c r="E30" s="208" t="str">
-        <f>IF(Inputs!E30="","",Inputs!E30)</f>
+        <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
       <c r="F30" s="208" t="str">
-        <f>IF(Inputs!F30="","",Inputs!F30)</f>
+        <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
       <c r="G30" s="208" t="str">
-        <f>IF(Inputs!G30="","",Inputs!G30)</f>
+        <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
       <c r="H30" s="208" t="str">
-        <f>IF(Inputs!H30="","",Inputs!H30)</f>
+        <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
       <c r="I30" s="208" t="str">
-        <f>IF(Inputs!I30="","",Inputs!I30)</f>
+        <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
       <c r="J30" s="208" t="str">
-        <f>IF(Inputs!J30="","",Inputs!J30)</f>
+        <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
       <c r="K30" s="208" t="str">
-        <f>IF(Inputs!K30="","",Inputs!K30)</f>
+        <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
       <c r="L30" s="208" t="str">
-        <f>IF(Inputs!L30="","",Inputs!L30)</f>
+        <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
       <c r="M30" s="208" t="str">
-        <f>IF(Inputs!M30="","",Inputs!M30)</f>
+        <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
@@ -6244,50 +7255,50 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D31" s="208" t="str">
-        <f>IF(Inputs!D31="","",Inputs!D31)</f>
+        <f>IF(Inputs!D30="","",Inputs!D30)</f>
         <v/>
       </c>
       <c r="E31" s="208" t="str">
-        <f>IF(Inputs!E31="","",Inputs!E31)</f>
+        <f>IF(Inputs!E30="","",Inputs!E30)</f>
         <v/>
       </c>
       <c r="F31" s="208" t="str">
-        <f>IF(Inputs!F31="","",Inputs!F31)</f>
+        <f>IF(Inputs!F30="","",Inputs!F30)</f>
         <v/>
       </c>
       <c r="G31" s="208" t="str">
-        <f>IF(Inputs!G31="","",Inputs!G31)</f>
+        <f>IF(Inputs!G30="","",Inputs!G30)</f>
         <v/>
       </c>
       <c r="H31" s="208" t="str">
-        <f>IF(Inputs!H31="","",Inputs!H31)</f>
+        <f>IF(Inputs!H30="","",Inputs!H30)</f>
         <v/>
       </c>
       <c r="I31" s="208" t="str">
-        <f>IF(Inputs!I31="","",Inputs!I31)</f>
+        <f>IF(Inputs!I30="","",Inputs!I30)</f>
         <v/>
       </c>
       <c r="J31" s="208" t="str">
-        <f>IF(Inputs!J31="","",Inputs!J31)</f>
+        <f>IF(Inputs!J30="","",Inputs!J30)</f>
         <v/>
       </c>
       <c r="K31" s="208" t="str">
-        <f>IF(Inputs!K31="","",Inputs!K31)</f>
+        <f>IF(Inputs!K30="","",Inputs!K30)</f>
         <v/>
       </c>
       <c r="L31" s="208" t="str">
-        <f>IF(Inputs!L31="","",Inputs!L31)</f>
+        <f>IF(Inputs!L30="","",Inputs!L30)</f>
         <v/>
       </c>
       <c r="M31" s="208" t="str">
-        <f>IF(Inputs!M31="","",Inputs!M31)</f>
+        <f>IF(Inputs!M30="","",Inputs!M30)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -6295,152 +7306,152 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
       <c r="D32" s="208" t="str">
-        <f>IF(Inputs!D32="","",Inputs!D32)</f>
+        <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
       <c r="E32" s="208" t="str">
-        <f>IF(Inputs!E32="","",Inputs!E32)</f>
+        <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
       <c r="F32" s="208" t="str">
-        <f>IF(Inputs!F32="","",Inputs!F32)</f>
+        <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
       <c r="G32" s="208" t="str">
-        <f>IF(Inputs!G32="","",Inputs!G32)</f>
+        <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
       <c r="H32" s="208" t="str">
-        <f>IF(Inputs!H32="","",Inputs!H32)</f>
+        <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
       <c r="I32" s="208" t="str">
-        <f>IF(Inputs!I32="","",Inputs!I32)</f>
+        <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
       <c r="J32" s="208" t="str">
-        <f>IF(Inputs!J32="","",Inputs!J32)</f>
+        <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
       <c r="K32" s="208" t="str">
-        <f>IF(Inputs!K32="","",Inputs!K32)</f>
+        <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
       <c r="L32" s="208" t="str">
-        <f>IF(Inputs!L32="","",Inputs!L32)</f>
+        <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
       <c r="M32" s="208" t="str">
-        <f>IF(Inputs!M32="","",Inputs!M32)</f>
+        <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
+        <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
       <c r="D33" s="208" t="str">
-        <f>IF(Inputs!D33="","",Inputs!D33)</f>
+        <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
       <c r="E33" s="208" t="str">
-        <f>IF(Inputs!E33="","",Inputs!E33)</f>
+        <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
       <c r="F33" s="208" t="str">
-        <f>IF(Inputs!F33="","",Inputs!F33)</f>
+        <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
       <c r="G33" s="208" t="str">
-        <f>IF(Inputs!G33="","",Inputs!G33)</f>
+        <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
       <c r="H33" s="208" t="str">
-        <f>IF(Inputs!H33="","",Inputs!H33)</f>
+        <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
       <c r="I33" s="208" t="str">
-        <f>IF(Inputs!I33="","",Inputs!I33)</f>
+        <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
       <c r="J33" s="208" t="str">
-        <f>IF(Inputs!J33="","",Inputs!J33)</f>
+        <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
       <c r="K33" s="208" t="str">
-        <f>IF(Inputs!K33="","",Inputs!K33)</f>
+        <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
       <c r="L33" s="208" t="str">
-        <f>IF(Inputs!L33="","",Inputs!L33)</f>
+        <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
       <c r="M33" s="208" t="str">
-        <f>IF(Inputs!M33="","",Inputs!M33)</f>
+        <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D34" s="208" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
       <c r="E34" s="208" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
       <c r="F34" s="208" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
       <c r="G34" s="208" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
       <c r="H34" s="208" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
       <c r="I34" s="208" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
       <c r="J34" s="208" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
       <c r="K34" s="208" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
       <c r="L34" s="208" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
       <c r="M34" s="208" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -6448,50 +7459,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="19">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="20">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="21">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="22">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="23">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="24">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="25">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="26">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="27">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="28">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="29">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>18</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Fin_Analysis!I34</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="208" t="str">
+        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <v/>
+      </c>
+      <c r="E35" s="208" t="str">
+        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <v/>
+      </c>
+      <c r="F35" s="208" t="str">
+        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <v/>
+      </c>
+      <c r="G35" s="208" t="str">
+        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <v/>
+      </c>
+      <c r="H35" s="208" t="str">
+        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <v/>
+      </c>
+      <c r="I35" s="208" t="str">
+        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <v/>
+      </c>
+      <c r="J35" s="208" t="str">
+        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <v/>
+      </c>
+      <c r="K35" s="208" t="str">
+        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <v/>
+      </c>
+      <c r="L35" s="208" t="str">
+        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <v/>
+      </c>
+      <c r="M35" s="208" t="str">
+        <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -6499,50 +7510,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="208" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
-        <v/>
-      </c>
-      <c r="E36" s="208" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
-        <v/>
-      </c>
-      <c r="F36" s="208" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
-        <v/>
-      </c>
-      <c r="G36" s="208" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
-        <v/>
-      </c>
-      <c r="H36" s="208" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
-        <v/>
-      </c>
-      <c r="I36" s="208" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
-        <v/>
-      </c>
-      <c r="J36" s="208" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
-        <v/>
-      </c>
-      <c r="K36" s="208" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
-        <v/>
-      </c>
-      <c r="L36" s="208" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
-        <v/>
-      </c>
-      <c r="M36" s="208" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <v>19</v>
+      </c>
+      <c r="C36" s="77">
+        <f t="shared" ref="C36" si="21">IF(OR(C34="",C35=""),"",C34+C35)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="77" t="str">
+        <f t="shared" ref="D36" si="22">IF(OR(D34="",D35=""),"",D34+D35)</f>
+        <v/>
+      </c>
+      <c r="E36" s="77" t="str">
+        <f t="shared" ref="E36" si="23">IF(OR(E34="",E35=""),"",E34+E35)</f>
+        <v/>
+      </c>
+      <c r="F36" s="77" t="str">
+        <f t="shared" ref="F36" si="24">IF(OR(F34="",F35=""),"",F34+F35)</f>
+        <v/>
+      </c>
+      <c r="G36" s="77" t="str">
+        <f t="shared" ref="G36" si="25">IF(OR(G34="",G35=""),"",G34+G35)</f>
+        <v/>
+      </c>
+      <c r="H36" s="77" t="str">
+        <f t="shared" ref="H36" si="26">IF(OR(H34="",H35=""),"",H34+H35)</f>
+        <v/>
+      </c>
+      <c r="I36" s="77" t="str">
+        <f t="shared" ref="I36" si="27">IF(OR(I34="",I35=""),"",I34+I35)</f>
+        <v/>
+      </c>
+      <c r="J36" s="77" t="str">
+        <f t="shared" ref="J36" si="28">IF(OR(J34="",J35=""),"",J34+J35)</f>
+        <v/>
+      </c>
+      <c r="K36" s="77" t="str">
+        <f t="shared" ref="K36" si="29">IF(OR(K34="",K35=""),"",K34+K35)</f>
+        <v/>
+      </c>
+      <c r="L36" s="77" t="str">
+        <f t="shared" ref="L36" si="30">IF(OR(L34="",L35=""),"",L34+L35)</f>
+        <v/>
+      </c>
+      <c r="M36" s="77" t="str">
+        <f t="shared" ref="M36" si="31">IF(OR(M34="",M35=""),"",M34+M35)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -6550,50 +7561,50 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
+        <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
       <c r="D37" s="208" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E37" s="208" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F37" s="208" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G37" s="208" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H37" s="208" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I37" s="208" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J37" s="208" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K37" s="208" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L37" s="208" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M37" s="208" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N37" s="87"/>
@@ -6601,50 +7612,50 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
+        <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
       <c r="D38" s="208" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E38" s="208" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F38" s="208" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G38" s="208" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H38" s="208" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I38" s="208" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J38" s="208" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K38" s="208" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L38" s="208" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M38" s="208" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N38" s="87"/>
@@ -6652,220 +7663,220 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="30">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="30"/>
+        <f>Fin_Analysis!C63</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="208" t="str">
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <v/>
+      </c>
+      <c r="E39" s="208" t="str">
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <v/>
+      </c>
+      <c r="F39" s="208" t="str">
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <v/>
+      </c>
+      <c r="G39" s="208" t="str">
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <v/>
+      </c>
+      <c r="H39" s="208" t="str">
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <v/>
+      </c>
+      <c r="I39" s="208" t="str">
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <v/>
+      </c>
+      <c r="J39" s="208" t="str">
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <v/>
+      </c>
+      <c r="K39" s="208" t="str">
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <v/>
+      </c>
+      <c r="L39" s="208" t="str">
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <v/>
+      </c>
+      <c r="M39" s="208" t="str">
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="160" t="e">
-        <f t="shared" ref="C40" si="31">IF(C6="","",C21/C39)</f>
+      <c r="B40" s="94" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="65">
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="65" t="str">
+        <f>IF(D39="","",D28-D39)</f>
+        <v/>
+      </c>
+      <c r="E40" s="65" t="str">
+        <f t="shared" ref="E40:M40" si="32">IF(E39="","",E28-E39)</f>
+        <v/>
+      </c>
+      <c r="F40" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G40" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H40" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I40" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J40" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K40" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L40" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M40" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="N40" s="87"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="4"/>
+      <c r="B41" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="160" t="e">
+        <f>IF(C6="","",C22/C40)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D40" s="160" t="str">
-        <f>IF(D39="","",D21/D39)</f>
-        <v/>
-      </c>
-      <c r="E40" s="160" t="str">
-        <f t="shared" ref="E40:M40" si="32">IF(E39="","",E21/E39)</f>
-        <v/>
-      </c>
-      <c r="F40" s="160" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G40" s="160" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H40" s="160" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I40" s="160" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J40" s="160" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K40" s="160" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L40" s="160" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M40" s="160" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="N40" s="87"/>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="D41" s="160" t="str">
+        <f>IF(D40="","",D22/D40)</f>
+        <v/>
+      </c>
+      <c r="E41" s="160" t="str">
+        <f t="shared" ref="E41:M41" si="33">IF(E40="","",E22/E40)</f>
+        <v/>
+      </c>
+      <c r="F41" s="160" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="G41" s="160" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H41" s="160" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I41" s="160" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J41" s="160" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K41" s="160" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L41" s="160" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M41" s="160" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="161" t="e">
-        <f t="shared" ref="C42:M42" si="33">IF(C6="","",C8/C6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D42" s="161" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="E42" s="161" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="F42" s="161" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="G42" s="161" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H42" s="161" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I42" s="161" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J42" s="161" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K42" s="161" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L42" s="161" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M42" s="161" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
+      <c r="A42" s="16"/>
+      <c r="B42" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
       <c r="N42" s="87"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="157" t="e">
-        <f>IF(C6="","",(C10-MAX(C12,0))/C6)</f>
+      <c r="B43" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="161" t="e">
+        <f t="shared" ref="C43:M43" si="34">IF(C6="","",C8/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D43" s="157" t="str">
-        <f t="shared" ref="D43:M43" si="34">IF(D6="","",(D10-MAX(D12,0))/D6)</f>
-        <v/>
-      </c>
-      <c r="E43" s="157" t="str">
+      <c r="D43" s="161" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F43" s="157" t="str">
+      <c r="E43" s="161" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G43" s="157" t="str">
+      <c r="F43" s="161" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H43" s="157" t="str">
+      <c r="G43" s="161" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I43" s="157" t="str">
+      <c r="H43" s="161" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J43" s="157" t="str">
+      <c r="I43" s="161" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K43" s="157" t="str">
+      <c r="J43" s="161" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L43" s="157" t="str">
+      <c r="K43" s="161" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M43" s="157" t="str">
+      <c r="L43" s="161" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M43" s="161" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -6874,14 +7885,14 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>101</v>
+        <v>259</v>
       </c>
       <c r="C44" s="157" t="e">
-        <f>IF(C6="","",(MAX(C14,0)+MAX(C15,0))/C6)</f>
+        <f t="shared" ref="C44:M44" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D44" s="157" t="str">
-        <f t="shared" ref="D44:M44" si="35">IF(D6="","",(MAX(D14,0)+MAX(D15,0))/D6)</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="E44" s="157" t="str">
@@ -6925,10 +7936,10 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>112</v>
+        <v>261</v>
       </c>
       <c r="C45" s="157" t="e">
-        <f t="shared" ref="C45:M45" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <f t="shared" ref="C45:M45" si="36">IF(C6="","",(MAX(C20,0)-MAX(C18,0))/C6)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D45" s="157" t="str">
@@ -6976,14 +7987,14 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C46" s="157" t="e">
-        <f>IF(C6="","",MAX(C17,0)/C6)</f>
+        <f t="shared" ref="C46:M46" si="37">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D46" s="157" t="str">
-        <f t="shared" ref="D46:M46" si="37">IF(D6="","",MAX(D17,0)/D6)</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E46" s="157" t="str">
@@ -7027,50 +8038,50 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C47" s="157" t="e">
-        <f>IF(C6="","",MAX(C18,0)/(1-Fin_Analysis!$I$84)/C6)</f>
+        <f t="shared" ref="C47:M47" si="38">IF(C6="","",MAX(C13,0)/C6)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D47" s="157" t="str">
-        <f>IF(D6="","",MAX(D18,0)/(1-Fin_Analysis!$I$84)/D6)</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="E47" s="157" t="str">
-        <f>IF(E6="","",MAX(E18,0)/(1-Fin_Analysis!$I$84)/E6)</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F47" s="157" t="str">
-        <f>IF(F6="","",MAX(F18,0)/(1-Fin_Analysis!$I$84)/F6)</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G47" s="157" t="str">
-        <f>IF(G6="","",MAX(G18,0)/(1-Fin_Analysis!$I$84)/G6)</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H47" s="157" t="str">
-        <f>IF(H6="","",MAX(H18,0)/(1-Fin_Analysis!$I$84)/H6)</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I47" s="157" t="str">
-        <f>IF(I6="","",MAX(I18,0)/(1-Fin_Analysis!$I$84)/I6)</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J47" s="157" t="str">
-        <f>IF(J6="","",MAX(J18,0)/(1-Fin_Analysis!$I$84)/J6)</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K47" s="157" t="str">
-        <f>IF(K6="","",MAX(K18,0)/(1-Fin_Analysis!$I$84)/K6)</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L47" s="157" t="str">
-        <f>IF(L6="","",MAX(L18,0)/(1-Fin_Analysis!$I$84)/L6)</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M47" s="157" t="str">
-        <f>IF(M6="","",MAX(M18,0)/(1-Fin_Analysis!$I$84)/M6)</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N47" s="87"/>
@@ -7078,287 +8089,288 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C48" s="157" t="e">
-        <f t="shared" ref="C48:M48" si="38">IF(C6="","",C21/C6)</f>
+        <f>IF(C6="","",MAX(C14,0)/(1-Fin_Analysis!$I$84)/C6)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D48" s="157" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(D6="","",MAX(D14,0)/(1-Fin_Analysis!$I$84)/D6)</f>
         <v/>
       </c>
       <c r="E48" s="157" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(E6="","",MAX(E14,0)/(1-Fin_Analysis!$I$84)/E6)</f>
         <v/>
       </c>
       <c r="F48" s="157" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(F6="","",MAX(F14,0)/(1-Fin_Analysis!$I$84)/F6)</f>
         <v/>
       </c>
       <c r="G48" s="157" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(G6="","",MAX(G14,0)/(1-Fin_Analysis!$I$84)/G6)</f>
         <v/>
       </c>
       <c r="H48" s="157" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(H6="","",MAX(H14,0)/(1-Fin_Analysis!$I$84)/H6)</f>
         <v/>
       </c>
       <c r="I48" s="157" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(I6="","",MAX(I14,0)/(1-Fin_Analysis!$I$84)/I6)</f>
         <v/>
       </c>
       <c r="J48" s="157" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(J6="","",MAX(J14,0)/(1-Fin_Analysis!$I$84)/J6)</f>
         <v/>
       </c>
       <c r="K48" s="157" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(K6="","",MAX(K14,0)/(1-Fin_Analysis!$I$84)/K6)</f>
         <v/>
       </c>
       <c r="L48" s="157" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(L6="","",MAX(L14,0)/(1-Fin_Analysis!$I$84)/L6)</f>
         <v/>
       </c>
       <c r="M48" s="157" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(M6="","",MAX(M14,0)/(1-Fin_Analysis!$I$84)/M6)</f>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="103" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="157" t="e">
+        <f t="shared" ref="C49:M49" si="39">IF(C6="","",C22/C6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D49" s="157" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="E49" s="157" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="F49" s="157" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G49" s="157" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="H49" s="157" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="I49" s="157" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="J49" s="157" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="K49" s="157" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="L49" s="157" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="M49" s="157" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>157</v>
-      </c>
-      <c r="C50" s="161" t="e">
-        <f>IF(C29="","",C29/C6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D50" s="161" t="str">
-        <f t="shared" ref="D50:M50" si="39">IF(D29="","",D29/D6)</f>
-        <v/>
-      </c>
-      <c r="E50" s="161" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F50" s="161" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G50" s="161" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H50" s="161" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I50" s="161" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J50" s="161" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K50" s="161" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L50" s="161" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M50" s="161" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A50" s="16"/>
+      <c r="B50" s="103" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
       <c r="N50" s="87"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51" s="157" t="e">
-        <f>IF(C30="","",C30/C6)</f>
+      <c r="B51" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="161" t="e">
+        <f t="shared" ref="C51:M51" si="40">IF(C30="","",C30/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="157" t="str">
-        <f t="shared" ref="D51:M51" si="40">IF(D30="","",D30/D6)</f>
-        <v/>
-      </c>
-      <c r="E51" s="157" t="str">
+      <c r="D51" s="161" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F51" s="157" t="str">
+      <c r="E51" s="161" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G51" s="157" t="str">
+      <c r="F51" s="161" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H51" s="157" t="str">
+      <c r="G51" s="161" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I51" s="157" t="str">
+      <c r="H51" s="161" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J51" s="157" t="str">
+      <c r="I51" s="161" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K51" s="157" t="str">
+      <c r="J51" s="161" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L51" s="157" t="str">
+      <c r="K51" s="161" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M51" s="157" t="str">
+      <c r="L51" s="161" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
+      <c r="M51" s="161" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="157" t="e">
+        <f t="shared" ref="C52:M52" si="41">IF(C31="","",C31/C6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="157" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="E52" s="157" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F52" s="157" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G52" s="157" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H52" s="157" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I52" s="157" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J52" s="157" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K52" s="157" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L52" s="157" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M52" s="157" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="161" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="161" t="str">
-        <f t="shared" ref="D53:M53" si="41">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="161" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F53" s="161" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G53" s="161" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H53" s="161" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I53" s="161" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J53" s="161" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K53" s="161" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L53" s="161" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M53" s="161" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
+      <c r="A53" s="16"/>
+      <c r="B53" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="162" t="e">
-        <f>IF(OR(C21="",C35=""),"",IF(C35&lt;=0,"-",C21/C35))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D54" s="162" t="str">
-        <f t="shared" ref="D54:M54" si="42">IF(OR(D21="",D35=""),"",IF(D35&lt;=0,"-",D21/D35))</f>
-        <v/>
-      </c>
-      <c r="E54" s="162" t="str">
+      <c r="B54" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="161" t="e">
+        <f>IF(C37="","",(C28-C37)/C28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D54" s="161" t="str">
+        <f t="shared" ref="D54:M54" si="42">IF(D37="","",(D28-D37)/D28)</f>
+        <v/>
+      </c>
+      <c r="E54" s="161" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F54" s="162" t="str">
+      <c r="F54" s="161" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G54" s="162" t="str">
+      <c r="G54" s="161" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H54" s="162" t="str">
+      <c r="H54" s="161" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I54" s="162" t="str">
+      <c r="I54" s="161" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J54" s="162" t="str">
+      <c r="J54" s="161" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K54" s="162" t="str">
+      <c r="K54" s="161" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L54" s="162" t="str">
+      <c r="L54" s="161" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M54" s="162" t="str">
+      <c r="M54" s="161" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7366,107 +8378,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="157" t="e">
-        <f>IF(C21="","",IF(MAX(C17,0)&lt;=0,"-",C17/C21))</f>
+        <v>122</v>
+      </c>
+      <c r="C55" s="162" t="e">
+        <f>IF(OR(C22="",C36=""),"",IF(C36&lt;=0,"-",C22/C36))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D55" s="157" t="str">
-        <f t="shared" ref="D55:M55" si="43">IF(D21="","",IF(MAX(D17,0)&lt;=0,"-",D17/D21))</f>
-        <v/>
-      </c>
-      <c r="E55" s="157" t="str">
+      <c r="D55" s="162" t="str">
+        <f t="shared" ref="D55:M55" si="43">IF(OR(D22="",D36=""),"",IF(D36&lt;=0,"-",D22/D36))</f>
+        <v/>
+      </c>
+      <c r="E55" s="162" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="F55" s="162" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="G55" s="162" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="H55" s="162" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="I55" s="162" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="J55" s="162" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="K55" s="162" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
+      <c r="L55" s="162" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="162" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="157" t="e">
+        <f t="shared" ref="C56:M56" si="44">IF(C22="","",IF(MAX(C13,0)&lt;=0,"-",C13/C22))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D56" s="157" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F56" s="157" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G56" s="157" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H56" s="157" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I56" s="157" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J56" s="157" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K56" s="157" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L56" s="157" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M56" s="157" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="163" t="e">
-        <f t="shared" ref="C56:M56" si="44">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="163" t="e">
+        <f t="shared" ref="C57:M57" si="45">IF(C29="","",C29/C32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="163" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="E56" s="163" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F56" s="163" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G56" s="163" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H56" s="163" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I56" s="163" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J56" s="163" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K56" s="163" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L56" s="163" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M56" s="163" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="163" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E57" s="163" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F57" s="163" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G57" s="163" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H57" s="163" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I57" s="163" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J57" s="163" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K57" s="163" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L57" s="163" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M57" s="163" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -8034,7 +9093,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8717,25 +9778,26 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="9" priority="4">
+  <conditionalFormatting sqref="C6:M24 C28:M41">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="8" priority="3">
-      <formula>LEN(TRIM(C25))=0</formula>
+  <conditionalFormatting sqref="C26:M26">
+    <cfRule type="containsBlanks" dxfId="9" priority="3">
+      <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
-      <formula>LEN(TRIM(D24))=0</formula>
+  <conditionalFormatting sqref="D25:M25">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
+      <formula>LEN(TRIM(D25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="6" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8756,8 +9818,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H106" sqref="H106"/>
+    <sheetView showGridLines="0" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8925,7 +9987,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -8972,7 +10034,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C41</f>
@@ -9000,7 +10062,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C42</f>
@@ -9083,7 +10145,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C45</f>
@@ -9105,7 +10167,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C46</f>
@@ -9173,7 +10235,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C49</f>
@@ -9495,7 +10557,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C55</f>
@@ -9632,7 +10694,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C60</f>
@@ -9963,7 +11025,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="126"/>
@@ -9977,11 +11039,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="256">
+      <c r="D56" s="259">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="254"/>
+      <c r="E56" s="257"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -9992,11 +11054,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="255">
+      <c r="D57" s="258">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
-      <c r="E57" s="254"/>
+      <c r="E57" s="257"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -10008,11 +11070,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="255">
+      <c r="D58" s="258">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="E58" s="254"/>
+      <c r="E58" s="257"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -10029,7 +11091,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -10064,7 +11126,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C62" s="118">
         <f>C11+C30</f>
@@ -10085,7 +11147,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -10106,7 +11168,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="122" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C64" s="217"/>
       <c r="D64" s="217"/>
@@ -10121,7 +11183,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -10152,7 +11214,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -10166,7 +11228,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -10187,7 +11249,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="122" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C69" s="217"/>
       <c r="D69" s="217"/>
@@ -10202,7 +11264,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -10224,21 +11286,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="107" t="s">
-        <v>137</v>
-      </c>
-      <c r="C72" s="259">
+        <v>131</v>
+      </c>
+      <c r="C72" s="262">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="259"/>
-      <c r="E72" s="257" t="s">
-        <v>225</v>
-      </c>
-      <c r="F72" s="257"/>
-      <c r="H72" s="257" t="s">
-        <v>224</v>
-      </c>
-      <c r="I72" s="257"/>
+      <c r="D72" s="262"/>
+      <c r="E72" s="260" t="s">
+        <v>215</v>
+      </c>
+      <c r="F72" s="260"/>
+      <c r="H72" s="260" t="s">
+        <v>214</v>
+      </c>
+      <c r="I72" s="260"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -10246,25 +11308,25 @@
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
-        <v>(Numbers in 1000CNY)</v>
-      </c>
-      <c r="C73" s="258" t="s">
-        <v>103</v>
-      </c>
-      <c r="D73" s="258"/>
-      <c r="E73" s="260" t="s">
-        <v>104</v>
-      </c>
-      <c r="F73" s="258"/>
-      <c r="H73" s="260" t="s">
-        <v>104</v>
-      </c>
-      <c r="I73" s="258"/>
+        <v>(Numbers in 1000000CNY)</v>
+      </c>
+      <c r="C73" s="261" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" s="261"/>
+      <c r="E73" s="263" t="s">
+        <v>102</v>
+      </c>
+      <c r="F73" s="261"/>
+      <c r="H73" s="263" t="s">
+        <v>102</v>
+      </c>
+      <c r="I73" s="261"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C74" s="77" t="str">
         <f>Data!C6</f>
@@ -10285,7 +11347,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="105" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C75" s="77" t="str">
         <f>Data!C8</f>
@@ -10295,16 +11357,16 @@
         <f>C75/$C$74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E75" s="186" t="e">
-        <f>E74*F75</f>
+      <c r="E75" s="205" t="e">
+        <f>E74*D75</f>
         <v>#VALUE!</v>
       </c>
       <c r="F75" s="165" t="e">
-        <f>I75</f>
+        <f>E75/E74</f>
         <v>#VALUE!</v>
       </c>
       <c r="H75" s="205" t="e">
-        <f>D75*H74</f>
+        <f>H74*D75</f>
         <v>#VALUE!</v>
       </c>
       <c r="I75" s="165" t="e">
@@ -10336,26 +11398,26 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="105" t="s">
-        <v>133</v>
-      </c>
-      <c r="C77" s="77" t="e">
-        <f>Data!C10-MAX(Data!C12,0)</f>
-        <v>#VALUE!</v>
+        <v>238</v>
+      </c>
+      <c r="C77" s="77" t="str">
+        <f>Data!C10</f>
+        <v/>
       </c>
       <c r="D77" s="164" t="e">
         <f>C77/$C$74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E77" s="186" t="e">
-        <f>E74*F77</f>
+      <c r="E77" s="205" t="e">
+        <f>E74*D77</f>
         <v>#VALUE!</v>
       </c>
       <c r="F77" s="165" t="e">
-        <f>I77</f>
+        <f>E77/E74</f>
         <v>#VALUE!</v>
       </c>
       <c r="H77" s="205" t="e">
-        <f>D77*H74</f>
+        <f>H74*D77</f>
         <v>#VALUE!</v>
       </c>
       <c r="I77" s="165" t="e">
@@ -10366,7 +11428,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="C78" s="166" t="e">
         <f>C76-C77</f>
@@ -10387,10 +11449,10 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="105" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C79" s="77">
-        <f>MAX(Data!C17,0)</f>
+        <f>MAX(Data!C13,0)</f>
         <v>0</v>
       </c>
       <c r="D79" s="164" t="e">
@@ -10405,9 +11467,9 @@
         <f t="shared" ref="F79:F84" si="3">I79</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H79" s="205">
-        <f>C79</f>
-        <v>0</v>
+      <c r="H79" s="205" t="e">
+        <f>H74*D79</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I79" s="165" t="e">
         <f>H79/$H$74</f>
@@ -10417,22 +11479,22 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="C80" s="77">
-        <f>MAX(Data!C14,0)+MAX(Data!C15,0)</f>
+        <f>MAX(Data!C11,0)+MAX(Data!C20,0)-MAX(Data!C18,0)</f>
         <v>0</v>
       </c>
       <c r="D80" s="164" t="e">
         <f>C80/$C$74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E80" s="186" t="e">
-        <f>E74*F80</f>
+      <c r="E80" s="205" t="e">
+        <f>E74*D80</f>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="165" t="e">
-        <f t="shared" si="3"/>
+        <f>E80/E74</f>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="205" t="e">
@@ -10447,10 +11509,10 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C81" s="77">
-        <f>MAX(Data!C16,0)</f>
+        <f>MAX(Data!C21,0)</f>
         <v>0</v>
       </c>
       <c r="D81" s="164" t="e">
@@ -10473,15 +11535,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="K81" s="187" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="73" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C82" s="77">
-        <f>MAX(Data!C18,0)</f>
+        <f>MAX(Data!C14,0)</f>
         <v>0</v>
       </c>
       <c r="D82" s="164" t="e">
@@ -10508,7 +11570,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="106" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C83" s="168" t="e">
         <f>C78-C79-C80-C81-C82</f>
@@ -10538,7 +11600,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C84" s="220"/>
       <c r="D84" s="164">
@@ -10559,7 +11621,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="86" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C85" s="166" t="e">
         <f>C83*(1-I84)</f>
@@ -10589,7 +11651,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C86" s="173" t="e">
         <f>C85*Data!C4/Common_Shares</f>
@@ -10610,7 +11672,7 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C87" s="165" t="e">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
@@ -10631,11 +11693,11 @@
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C88" s="175">
         <f>Inputs!F5</f>
-        <v>0.1178</v>
+        <v>0</v>
       </c>
       <c r="D88" s="171" t="e">
         <f>C88/C86</f>
@@ -10643,7 +11705,7 @@
       </c>
       <c r="E88" s="204">
         <f>H88</f>
-        <v>0.1178</v>
+        <v>0</v>
       </c>
       <c r="F88" s="171" t="e">
         <f>E88/E86</f>
@@ -10651,7 +11713,7 @@
       </c>
       <c r="H88" s="176">
         <f>Inputs!F6</f>
-        <v>0.1178</v>
+        <v>0</v>
       </c>
       <c r="I88" s="171" t="e">
         <f>H88/H86</f>
@@ -10661,21 +11723,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C89" s="165">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.458070972199545E-2</v>
+        <v>0</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.458070972199545E-2</v>
+        <v>0</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.458070972199545E-2</v>
+        <v>0</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10687,33 +11749,33 @@
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
       <c r="B91" s="107" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C92" s="207" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E92" s="257" t="s">
-        <v>225</v>
-      </c>
-      <c r="F92" s="257"/>
+        <v>162</v>
+      </c>
+      <c r="E92" s="260" t="s">
+        <v>215</v>
+      </c>
+      <c r="F92" s="260"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="257" t="s">
-        <v>224</v>
-      </c>
-      <c r="I92" s="257"/>
+      <c r="H92" s="260" t="s">
+        <v>214</v>
+      </c>
+      <c r="I92" s="260"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10723,20 +11785,20 @@
       </c>
       <c r="C93" s="137">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D93" s="206">
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F93" s="146" t="e">
         <f>FV(E87,D93,0,-(E86/C93))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="I93" s="146" t="e">
         <f>FV(H87,D93,0,-(H86/C93))</f>
@@ -10746,7 +11808,7 @@
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C94" s="188">
         <f>Dashboard!G20</f>
@@ -10754,18 +11816,18 @@
       </c>
       <c r="D94" s="147"/>
       <c r="E94" s="87" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>2.0134843843267864</v>
+        <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>2.0134843843267864</v>
+        <v>0</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10783,38 +11845,39 @@
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="E96" s="125" t="s">
-        <v>233</v>
-      </c>
-      <c r="F96" s="189" t="str">
+      <c r="D96" s="125" t="s">
+        <v>223</v>
+      </c>
+      <c r="E96" s="189" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
+      </c>
+      <c r="F96" s="246" t="s">
+        <v>262</v>
       </c>
       <c r="H96" s="189" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="125" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C97" s="91" t="e">
         <f>H97*Common_Shares/Data!C4</f>
         <v>#VALUE!</v>
       </c>
+      <c r="D97" s="222"/>
       <c r="E97" s="124" t="e">
-        <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F97" s="124" t="e">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
         <v>#VALUE!</v>
       </c>
+      <c r="F97" s="222"/>
       <c r="H97" s="124" t="e">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
         <v>#VALUE!</v>
@@ -10824,12 +11887,13 @@
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
+      <c r="D98" s="222"/>
       <c r="E98" s="222"/>
       <c r="F98" s="222"/>
       <c r="H98" s="124">
@@ -10841,17 +11905,18 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="106" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C99" s="109">
-        <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="E99" s="223"/>
-      <c r="F99" s="148">
+        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <v>0</v>
+      </c>
+      <c r="D99" s="223"/>
+      <c r="E99" s="148">
         <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
         <v>0</v>
       </c>
+      <c r="F99" s="223"/>
       <c r="H99" s="148">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
@@ -10861,18 +11926,22 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C100" s="91" t="e">
         <f>C97-C98+$C$99</f>
         <v>#VALUE!</v>
       </c>
+      <c r="D100" s="110" t="e">
+        <f>F100*(1-C94)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="E100" s="110" t="e">
-        <f>MAX(E97-H98+F99,0)</f>
+        <f>MAX(E97-H98+E99,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="F100" s="110" t="e">
-        <f>MAX(F97-H98+F99,0)</f>
+        <f>(E100+H100)/2</f>
         <v>#VALUE!</v>
       </c>
       <c r="H100" s="110" t="e">
@@ -10880,106 +11949,120 @@
         <v>#VALUE!</v>
       </c>
       <c r="I100" s="110" t="e">
-        <f>H100*1.25</f>
+        <f>F100*1.25</f>
         <v>#VALUE!</v>
       </c>
       <c r="K100" s="24"/>
     </row>
     <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F101" s="24"/>
+      <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C102" s="128" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="E102" s="125" t="s">
-        <v>233</v>
-      </c>
-      <c r="F102" s="189" t="str">
-        <f>F96</f>
+      <c r="D102" s="125" t="s">
+        <v>223</v>
+      </c>
+      <c r="E102" s="189" t="str">
+        <f>E96</f>
         <v>Pessimistic Case</v>
+      </c>
+      <c r="F102" s="246" t="s">
+        <v>262</v>
       </c>
       <c r="H102" s="189" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="125" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1973295.0874880888</v>
-      </c>
-      <c r="E103" s="110">
-        <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.0811422001955733</v>
-      </c>
-      <c r="F103" s="124">
+        <v>0</v>
+      </c>
+      <c r="D103" s="110">
+        <f>F103*(1-C94)</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>1.4799711306196752</v>
+        <v>0</v>
+      </c>
+      <c r="F103" s="110">
+        <f>(E103+H103)/2</f>
+        <v>0</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>1.4799711306196752</v>
+        <v>0</v>
       </c>
       <c r="I103" s="110">
-        <f>H103*1.25</f>
-        <v>1.849963913274594</v>
+        <f>F103*1.25</f>
+        <v>0</v>
       </c>
       <c r="K103" s="24"/>
     </row>
     <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F104" s="24"/>
+      <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C105" s="128" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="E105" s="125" t="s">
-        <v>233</v>
-      </c>
-      <c r="F105" s="190" t="str">
-        <f>F96</f>
+      <c r="D105" s="125" t="s">
+        <v>223</v>
+      </c>
+      <c r="E105" s="190" t="str">
+        <f>E96</f>
         <v>Pessimistic Case</v>
+      </c>
+      <c r="F105" s="246" t="s">
+        <v>262</v>
       </c>
       <c r="H105" s="190" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="125" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C106" s="91" t="e">
-        <f>F106*Common_Shares/Data!C4</f>
+        <f>E106*Common_Shares/Data!C4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E106" s="110" t="e">
+      <c r="D106" s="110" t="e">
+        <f>(D100+D103)/2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="124" t="e">
         <f>(E100+E103)/2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F106" s="124" t="e">
+      <c r="F106" s="110" t="e">
         <f>(F100+F103)/2</f>
         <v>#VALUE!</v>
       </c>
@@ -10987,8 +12070,8 @@
         <f>(H100+H103)/2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I106" s="110" t="e">
-        <f>H106*1.25</f>
+      <c r="I106" s="124" t="e">
+        <f>(I100+I103)/2</f>
         <v>#VALUE!</v>
       </c>
       <c r="K106" s="24"/>
@@ -10998,10 +12081,10 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C108" s="191" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="K108" s="24"/>
     </row>
@@ -11021,36 +12104,41 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C86 C88">
-    <cfRule type="containsBlanks" dxfId="5" priority="7">
+    <cfRule type="containsBlanks" dxfId="6" priority="10">
       <formula>LEN(TRIM(C86))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
+    <cfRule type="containsBlanks" dxfId="5" priority="7">
       <formula>LEN(TRIM(C108))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:E82 F84">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
+  <conditionalFormatting sqref="E74:E82">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(E74))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(E88))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F84">
+    <cfRule type="containsBlanks" dxfId="2" priority="5">
+      <formula>LEN(TRIM(F84))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H74:H82 I84">
-    <cfRule type="containsBlanks" dxfId="1" priority="11">
+    <cfRule type="containsBlanks" dxfId="1" priority="14">
       <formula>LEN(TRIM(H74))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="containsBlanks" dxfId="0" priority="6">
+    <cfRule type="containsBlanks" dxfId="0" priority="9">
       <formula>LEN(TRIM(H88))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation allowBlank="1" sqref="D52" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:F20 F35:F37" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>

--- a/financial_models/templates/Stock_Valuation.xlsx
+++ b/financial_models/templates/Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48657D3-E1D9-4309-8C91-8D5792367E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEECF82E-215E-4C63-9F46-D809AE32E11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="267">
   <si>
     <t>Company Info:</t>
   </si>
@@ -393,10 +393,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Pre-tax Profit Growth</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>After-tax Profit Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -824,9 +820,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CNY</t>
-  </si>
-  <si>
     <t>CN</t>
   </si>
   <si>
@@ -834,17 +827,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>0857.HK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>C0013</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avg</t>
-  </si>
-  <si>
     <t>- Operating Expenses =</t>
   </si>
   <si>
@@ -863,9 +845,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>unclear</t>
-  </si>
-  <si>
     <t>2. Conservatively financed?</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -893,12 +872,6 @@
     <t>Consumer Monopoly</t>
   </si>
   <si>
-    <t>Operating Expenses</t>
-  </si>
-  <si>
-    <t>MCX-D&amp;A</t>
-  </si>
-  <si>
     <t>Strongly agree</t>
   </si>
   <si>
@@ -906,9 +879,6 @@
   </si>
   <si>
     <t>6. No big MCX-D&amp;A required?</t>
-  </si>
-  <si>
-    <t>disagree</t>
   </si>
   <si>
     <t>EBIT =</t>
@@ -935,19 +905,7 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>EBT</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>EBT Growth</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pessimistic Case</t>
-  </si>
-  <si>
-    <t>Template</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3. Upward earnings trend?</t>
@@ -955,6 +913,41 @@
   </si>
   <si>
     <t>4. Stable margin and ROE?</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1475.HK</t>
+  </si>
+  <si>
+    <t>NISSIN FOODS</t>
+  </si>
+  <si>
+    <t>C0002</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>- Pre-tax Non-controling Interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT/Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Growth</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strongly disagree</t>
+  </si>
+  <si>
+    <t>OPEX+R&amp;D</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAPX-D&amp;A</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1654,9 +1647,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1791,16 +1781,10 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2013,15 +1997,6 @@
     <xf numFmtId="10" fontId="23" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2044,8 +2019,26 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2506,13 +2499,13 @@
                   <c:v>COGS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Operating Expenses</c:v>
+                  <c:v>OPEX+R&amp;D</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Interest</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MCX-D&amp;A</c:v>
+                  <c:v>CAPX-D&amp;A</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>ΔWC</c:v>
@@ -3446,8 +3439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3460,133 +3453,133 @@
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="142" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="195" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="240" t="s">
-        <v>216</v>
+      <c r="B4" s="141" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="192" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="234" t="s">
+        <v>215</v>
       </c>
       <c r="F4" s="12" t="str">
         <f>C11</f>
-        <v>CNY</v>
+        <v>HKD</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="142" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="198" t="s">
-        <v>266</v>
-      </c>
-      <c r="E5" s="231">
+      <c r="B5" s="141" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="195" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="228">
         <f>C18</f>
         <v>45291</v>
       </c>
-      <c r="F5" s="232"/>
+      <c r="F5" s="229"/>
     </row>
     <row r="6" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="142" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="196">
-        <v>45605</v>
-      </c>
-      <c r="E6" s="233" t="s">
-        <v>214</v>
-      </c>
-      <c r="F6" s="232"/>
+      <c r="B6" s="141" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="193">
+        <v>45591</v>
+      </c>
+      <c r="E6" s="230" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="229"/>
     </row>
     <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="197">
+      <c r="C7" s="194">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="140" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="195" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="140" t="s">
         <v>225</v>
       </c>
-      <c r="C8" s="198" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="141" t="s">
+      <c r="C9" s="196" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="140" t="s">
         <v>226</v>
       </c>
-      <c r="C9" s="199" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="141" t="s">
+      <c r="C10" s="197">
+        <v>1043691480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="140" t="s">
         <v>227</v>
       </c>
-      <c r="C10" s="200">
-        <v>183020977818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="141" t="s">
+      <c r="C11" s="196" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="224" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="225">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="224" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="226">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="224" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="225">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="224" t="s">
         <v>228</v>
       </c>
-      <c r="C11" s="199" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="227" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="228">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="227" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="229">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="227" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="228">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="227" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="182" t="s">
-        <v>233</v>
+      <c r="C15" s="179" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="234" t="s">
+      <c r="B16" s="231" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="235">
+      <c r="C16" s="232">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="116" t="s">
-        <v>138</v>
+      <c r="B18" s="115" t="s">
+        <v>137</v>
       </c>
       <c r="C18" s="48">
         <f>C12</f>
@@ -3637,317 +3630,317 @@
       <c r="B19" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="152"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="152"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="153"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="153"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="152"/>
     </row>
     <row r="22" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B22" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="152"/>
     </row>
     <row r="23" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B23" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="153"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
+        <v>124</v>
+      </c>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="152"/>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="152"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="152"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="153"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="152"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="226"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
+      <c r="C28" s="223"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="152"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="226"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
+        <v>117</v>
+      </c>
+      <c r="C29" s="223"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="152"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="94" t="s">
-        <v>153</v>
-      </c>
-      <c r="C30" s="226"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="153"/>
-      <c r="K30" s="153"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="153"/>
+        <v>152</v>
+      </c>
+      <c r="C30" s="223"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="152"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="226"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="153"/>
-      <c r="K31" s="153"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="153"/>
+      <c r="C31" s="223"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="152"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="226"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
+        <v>116</v>
+      </c>
+      <c r="C32" s="223"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="152"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="152"/>
+      <c r="M32" s="152"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="226"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="153"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="153"/>
+      <c r="C33" s="223"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="152"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="226"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="153"/>
-      <c r="K34" s="153"/>
-      <c r="L34" s="153"/>
-      <c r="M34" s="153"/>
+      <c r="C34" s="223"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="152"/>
+      <c r="L34" s="152"/>
+      <c r="M34" s="152"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="226"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="153"/>
-      <c r="K35" s="153"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="153"/>
+        <v>141</v>
+      </c>
+      <c r="C35" s="223"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="226"/>
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
+        <v>142</v>
+      </c>
+      <c r="C36" s="223"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="152"/>
+      <c r="M36" s="152"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="226"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="153"/>
-      <c r="K37" s="153"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="153"/>
+        <v>140</v>
+      </c>
+      <c r="C37" s="223"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="152"/>
+      <c r="K37" s="152"/>
+      <c r="L37" s="152"/>
+      <c r="M37" s="152"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="203" t="s">
+      <c r="B39" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="201" t="s">
+      <c r="C39" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="201" t="s">
-        <v>205</v>
-      </c>
-      <c r="E39" s="112" t="s">
+      <c r="D39" s="198" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" s="111" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3959,28 +3952,28 @@
       <c r="D40" s="60">
         <v>0.9</v>
       </c>
-      <c r="E40" s="113"/>
+      <c r="E40" s="112"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C41" s="59"/>
       <c r="D41" s="60">
         <v>0.8</v>
       </c>
-      <c r="E41" s="113"/>
+      <c r="E41" s="112"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" s="59"/>
       <c r="D42" s="60">
         <f>D43</f>
         <v>0.6</v>
       </c>
-      <c r="E42" s="113"/>
+      <c r="E42" s="112"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="3" t="s">
@@ -3990,7 +3983,7 @@
       <c r="D43" s="60">
         <v>0.6</v>
       </c>
-      <c r="E43" s="113"/>
+      <c r="E43" s="112"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="3" t="s">
@@ -4000,28 +3993,28 @@
       <c r="D44" s="60">
         <v>0.5</v>
       </c>
-      <c r="E44" s="113"/>
+      <c r="E44" s="112"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C45" s="59"/>
       <c r="D45" s="60">
         <f>D42</f>
         <v>0.6</v>
       </c>
-      <c r="E45" s="113"/>
+      <c r="E45" s="112"/>
     </row>
     <row r="46" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="59"/>
       <c r="D46" s="60">
         <v>0.1</v>
       </c>
-      <c r="E46" s="113"/>
+      <c r="E46" s="112"/>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
@@ -4032,7 +4025,7 @@
         <f>D44</f>
         <v>0.5</v>
       </c>
-      <c r="E47" s="113"/>
+      <c r="E47" s="112"/>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
@@ -4043,19 +4036,19 @@
         <f>D42</f>
         <v>0.6</v>
       </c>
-      <c r="E48" s="230" t="s">
+      <c r="E48" s="227" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.6</v>
       </c>
-      <c r="E49" s="230" t="s">
+      <c r="E49" s="227" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4068,18 +4061,18 @@
         <f>D40</f>
         <v>0.9</v>
       </c>
-      <c r="E50" s="113"/>
+      <c r="E50" s="112"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="121"/>
-      <c r="D51" s="202">
+      <c r="C51" s="120"/>
+      <c r="D51" s="199">
         <f>D62</f>
         <v>0.05</v>
       </c>
-      <c r="E51" s="113"/>
+      <c r="E51" s="112"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
@@ -4090,7 +4083,7 @@
         <f>D41</f>
         <v>0.8</v>
       </c>
-      <c r="E52" s="113"/>
+      <c r="E52" s="112"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
@@ -4101,7 +4094,7 @@
         <f>D43</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="113"/>
+      <c r="E53" s="112"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
@@ -4112,18 +4105,18 @@
         <f>D44</f>
         <v>0.5</v>
       </c>
-      <c r="E54" s="113"/>
+      <c r="E54" s="112"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D54</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="113"/>
+      <c r="E55" s="112"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
@@ -4133,7 +4126,7 @@
       <c r="D56" s="60">
         <v>0.4</v>
       </c>
-      <c r="E56" s="113"/>
+      <c r="E56" s="112"/>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
@@ -4143,7 +4136,7 @@
       <c r="D57" s="60">
         <v>0.1</v>
       </c>
-      <c r="E57" s="230" t="s">
+      <c r="E57" s="227" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4155,7 +4148,7 @@
       <c r="D58" s="60">
         <v>0.2</v>
       </c>
-      <c r="E58" s="230" t="s">
+      <c r="E58" s="227" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4168,20 +4161,20 @@
         <f>D57</f>
         <v>0.1</v>
       </c>
-      <c r="E59" s="230" t="s">
+      <c r="E59" s="227" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D57</f>
         <v>0.1</v>
       </c>
-      <c r="E60" s="113"/>
+      <c r="E60" s="112"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
@@ -4192,7 +4185,7 @@
         <f>D62</f>
         <v>0.05</v>
       </c>
-      <c r="E61" s="113"/>
+      <c r="E61" s="112"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
@@ -4202,7 +4195,7 @@
       <c r="D62" s="60">
         <v>0.05</v>
       </c>
-      <c r="E62" s="113"/>
+      <c r="E62" s="112"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="3" t="s">
@@ -4213,7 +4206,7 @@
         <f>D50</f>
         <v>0.9</v>
       </c>
-      <c r="E63" s="113"/>
+      <c r="E63" s="112"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
@@ -4223,13 +4216,13 @@
       <c r="D64" s="60">
         <v>0</v>
       </c>
-      <c r="E64" s="113"/>
+      <c r="E64" s="112"/>
     </row>
     <row r="65" spans="2:3" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B65" s="203" t="s">
+      <c r="B65" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="201"/>
+      <c r="C65" s="198"/>
     </row>
     <row r="66" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
@@ -4253,7 +4246,7 @@
       <c r="B69" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="C69" s="121"/>
+      <c r="C69" s="120"/>
     </row>
     <row r="70" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B70" s="80" t="s">
@@ -4283,7 +4276,7 @@
       <c r="B74" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="121"/>
+      <c r="C74" s="120"/>
     </row>
     <row r="75" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B75" s="80" t="s">
@@ -4293,7 +4286,7 @@
     </row>
     <row r="76" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B76" s="73" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C76" s="59"/>
     </row>
@@ -4367,8 +4360,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4399,7 +4392,7 @@
       </c>
       <c r="C2" s="25" t="str">
         <f>C3&amp;" : "&amp;C4</f>
-        <v>0857.HK : Template</v>
+        <v>1475.HK : NISSIN FOODS</v>
       </c>
       <c r="D2" s="87"/>
       <c r="E2" s="7"/>
@@ -4409,31 +4402,31 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="252" t="str">
         <f>Inputs!C4</f>
-        <v>0857.HK</v>
+        <v>1475.HK</v>
       </c>
       <c r="D3" s="253"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="133">
-        <v>5.5500001907348633</v>
-      </c>
-      <c r="H3" s="135" t="s">
+      <c r="G3" s="132">
+        <v>4.6300001144409197</v>
+      </c>
+      <c r="H3" s="134" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="254" t="str">
         <f>Inputs!C5</f>
-        <v>Template</v>
+        <v>NISSIN FOODS</v>
       </c>
       <c r="D4" s="255"/>
       <c r="E4" s="87"/>
@@ -4442,18 +4435,18 @@
       </c>
       <c r="G4" s="258">
         <f>Inputs!C10</f>
-        <v>183020977818</v>
+        <v>1043691480</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="256">
         <f>Inputs!C6</f>
-        <v>45605</v>
+        <v>45591</v>
       </c>
       <c r="D5" s="257"/>
       <c r="E5" s="34"/>
@@ -4462,7 +4455,7 @@
       </c>
       <c r="G5" s="250">
         <f>G3*G4/1000000</f>
-        <v>1015766.4617983812</v>
+        <v>4832.2916718410133</v>
       </c>
       <c r="H5" s="250"/>
       <c r="I5" s="38"/>
@@ -4472,11 +4465,11 @@
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="192">
+      <c r="C6" s="189">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="193">
+      <c r="D6" s="190">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4489,163 +4482,163 @@
       </c>
       <c r="G6" s="251" t="str">
         <f>Inputs!C11</f>
-        <v>CNY</v>
+        <v>HKD</v>
       </c>
       <c r="H6" s="251"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="194" t="str">
+        <v>200</v>
+      </c>
+      <c r="C7" s="191" t="str">
         <f>Inputs!C8</f>
         <v>Y</v>
       </c>
-      <c r="D7" s="194" t="str">
+      <c r="D7" s="191" t="str">
         <f>Inputs!C9</f>
-        <v>C0013</v>
+        <v>C0002</v>
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="134">
-        <v>1.0790773232777913</v>
+      <c r="G7" s="133">
+        <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
-        <v>CNY/HKD</v>
+        <v>HKD</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
-        <v>199</v>
-      </c>
-      <c r="F9" s="144" t="s">
-        <v>193</v>
+      <c r="B9" s="139" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="143" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" s="178">
+        <v>181</v>
+      </c>
+      <c r="C10" s="175">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="F10" s="111" t="s">
-        <v>190</v>
+      <c r="F10" s="110" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="123" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="179">
+      <c r="B11" s="122" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="176">
         <v>5.3099999999999994E-2</v>
       </c>
-      <c r="D11" s="138" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11" s="111" t="s">
-        <v>184</v>
+      <c r="D11" s="137" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="110" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="180">
+        <v>135</v>
+      </c>
+      <c r="C12" s="177">
         <v>0.06</v>
       </c>
-      <c r="D12" s="178">
+      <c r="D12" s="175">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F12" s="111"/>
+      <c r="F12" s="110"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="178">
+        <v>182</v>
+      </c>
+      <c r="C14" s="175">
         <v>2.1309999999999999E-2</v>
       </c>
-      <c r="F14" s="111" t="s">
-        <v>189</v>
+      <c r="F14" s="110" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="175">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="110" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="122" t="s">
         <v>194</v>
       </c>
-      <c r="C15" s="178">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="111" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="123" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="179">
+      <c r="C16" s="176">
         <v>0.16</v>
       </c>
-      <c r="D16" s="145" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16" s="111" t="s">
-        <v>185</v>
+      <c r="D16" s="144" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="110" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="181">
+        <v>187</v>
+      </c>
+      <c r="C17" s="178">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D17" s="182"/>
+      <c r="D17" s="179"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="143" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" s="136" t="s">
+      <c r="B19" s="142" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="135" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="143" t="s">
-        <v>221</v>
+      <c r="F19" s="142" t="s">
+        <v>220</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="138" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="177" t="e">
+      <c r="B20" s="137" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="174" t="e">
         <f>Fin_Analysis!I75</f>
         <v>#VALUE!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" s="178">
+        <v>219</v>
+      </c>
+      <c r="G20" s="175">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="138" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="177" t="e">
+      <c r="B21" s="137" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="174" t="e">
         <f>Fin_Analysis!I77</f>
         <v>#VALUE!</v>
       </c>
@@ -4653,77 +4646,77 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="138" t="s">
-        <v>176</v>
-      </c>
-      <c r="C22" s="177" t="e">
+      <c r="B22" s="137" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="174" t="e">
         <f>Fin_Analysis!I79</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F22" s="143" t="s">
-        <v>192</v>
+      <c r="F22" s="142" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="138" t="s">
-        <v>252</v>
-      </c>
-      <c r="C23" s="177" t="e">
+      <c r="B23" s="137" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="174" t="e">
         <f>Fin_Analysis!I80</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F23" s="141" t="s">
-        <v>196</v>
-      </c>
-      <c r="G23" s="183" t="e">
-        <f>G3/(Data!C37*Data!C4/Common_Shares*Exchange_Rate)</f>
+      <c r="F23" s="140" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" s="180" t="e">
+        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="C24" s="177" t="e">
+      <c r="B24" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="174" t="e">
         <f>Fin_Analysis!I81</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F24" s="141" t="s">
-        <v>181</v>
-      </c>
-      <c r="G24" s="184" t="e">
+      <c r="F24" s="140" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" s="181" t="e">
         <f>(Fin_Analysis!H86*G7)/G3</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="138" t="s">
-        <v>200</v>
-      </c>
-      <c r="C25" s="177" t="e">
+      <c r="B25" s="137" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="174" t="e">
         <f>Fin_Analysis!I82</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F25" s="141" t="s">
-        <v>180</v>
-      </c>
-      <c r="G25" s="177" t="e">
+      <c r="F25" s="140" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="174" t="e">
         <f>Fin_Analysis!I88</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="139" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26" s="177" t="e">
+      <c r="B26" s="138" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="174" t="e">
         <f>Fin_Analysis!I83</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F26" s="142" t="s">
-        <v>202</v>
-      </c>
-      <c r="G26" s="184">
+      <c r="F26" s="141" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" s="181">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
         <v>0</v>
       </c>
@@ -4735,34 +4728,34 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>172</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>173</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G28" s="248" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H28" s="248"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="131" t="e">
+        <v>173</v>
+      </c>
+      <c r="C29" s="130" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D29" s="130" t="e">
+      <c r="D29" s="129" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>#VALUE!</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="132" t="e">
+      <c r="F29" s="131" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>#VALUE!</v>
       </c>
@@ -4776,85 +4769,85 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="203" t="s">
-        <v>241</v>
-      </c>
-      <c r="C32" s="241"/>
+      <c r="B32" s="200" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="235"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="C33" s="242" t="s">
-        <v>253</v>
+        <v>237</v>
+      </c>
+      <c r="C33" s="236" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="C34" s="243" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <v>238</v>
+      </c>
+      <c r="C34" s="237" t="e">
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="203" t="s">
-        <v>245</v>
-      </c>
-      <c r="C35" s="241"/>
+      <c r="B35" s="200" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="235"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C36" s="242" t="s">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="C36" s="236" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="C37" s="242" t="s">
         <v>256</v>
+      </c>
+      <c r="C37" s="236" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="203" t="s">
-        <v>246</v>
-      </c>
-      <c r="C38" s="241"/>
+      <c r="B38" s="200" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="235"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="C39" s="242" t="s">
-        <v>254</v>
+        <v>241</v>
+      </c>
+      <c r="C39" s="236" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C40" s="242" t="s">
-        <v>243</v>
+        <v>247</v>
+      </c>
+      <c r="C40" s="236" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4865,17 +4858,17 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="244" t="s">
-        <v>249</v>
-      </c>
-      <c r="C43" s="245" t="s">
-        <v>250</v>
+      <c r="B43" s="238" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" s="239" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5827,12 +5820,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C39" sqref="C39"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5858,17 +5851,17 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="151" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" s="120" t="s">
+      <c r="E2" s="150" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="150" t="s">
         <v>211</v>
       </c>
-      <c r="G2" s="151" t="s">
+      <c r="H2" s="149" t="s">
         <v>212</v>
-      </c>
-      <c r="H2" s="150" t="s">
-        <v>213</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5878,26 +5871,26 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="210">
+      <c r="C3" s="207">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="149" t="s">
-        <v>209</v>
+      <c r="E3" s="148" t="s">
+        <v>208</v>
       </c>
       <c r="F3" s="85" t="str">
-        <f>L12</f>
+        <f>J14</f>
         <v/>
       </c>
       <c r="G3" s="85" t="e">
-        <f>C12</f>
+        <f>C14</f>
         <v>#VALUE!</v>
       </c>
       <c r="H3" s="85">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I3" s="87"/>
       <c r="J3" s="42"/>
@@ -5907,19 +5900,19 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="129">
+      <c r="C4" s="128">
         <f>Inputs!C13</f>
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>Dashboard!G6</f>
-        <v>CNY</v>
-      </c>
-      <c r="E4" s="149" t="s">
-        <v>210</v>
+        <v>HKD</v>
+      </c>
+      <c r="E4" s="148" t="s">
+        <v>209</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5929,8 +5922,8 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="116" t="s">
-        <v>138</v>
+      <c r="B5" s="115" t="s">
+        <v>137</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5982,47 +5975,47 @@
       <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="209" t="str">
+      <c r="C6" s="206" t="str">
         <f>IF(Inputs!C19=""," ",Inputs!C19)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D6" s="209" t="str">
+      <c r="D6" s="206" t="str">
         <f>IF(Inputs!D19="","",Inputs!D19)</f>
         <v/>
       </c>
-      <c r="E6" s="209" t="str">
+      <c r="E6" s="206" t="str">
         <f>IF(Inputs!E19="","",Inputs!E19)</f>
         <v/>
       </c>
-      <c r="F6" s="209" t="str">
+      <c r="F6" s="206" t="str">
         <f>IF(Inputs!F19="","",Inputs!F19)</f>
         <v/>
       </c>
-      <c r="G6" s="209" t="str">
+      <c r="G6" s="206" t="str">
         <f>IF(Inputs!G19="","",Inputs!G19)</f>
         <v/>
       </c>
-      <c r="H6" s="209" t="str">
+      <c r="H6" s="206" t="str">
         <f>IF(Inputs!H19="","",Inputs!H19)</f>
         <v/>
       </c>
-      <c r="I6" s="209" t="str">
+      <c r="I6" s="206" t="str">
         <f>IF(Inputs!I19="","",Inputs!I19)</f>
         <v/>
       </c>
-      <c r="J6" s="209" t="str">
+      <c r="J6" s="206" t="str">
         <f>IF(Inputs!J19="","",Inputs!J19)</f>
         <v/>
       </c>
-      <c r="K6" s="209" t="str">
+      <c r="K6" s="206" t="str">
         <f>IF(Inputs!K19="","",Inputs!K19)</f>
         <v/>
       </c>
-      <c r="L6" s="209" t="str">
+      <c r="L6" s="206" t="str">
         <f>IF(Inputs!L19="","",Inputs!L19)</f>
         <v/>
       </c>
-      <c r="M6" s="209" t="str">
+      <c r="M6" s="206" t="str">
         <f>IF(Inputs!M19="","",Inputs!M19)</f>
         <v/>
       </c>
@@ -6084,47 +6077,47 @@
       <c r="B8" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="208" t="str">
+      <c r="C8" s="205" t="str">
         <f>IF(Inputs!C20="","",Inputs!C20)</f>
         <v/>
       </c>
-      <c r="D8" s="208" t="str">
+      <c r="D8" s="205" t="str">
         <f>IF(Inputs!D20="","",Inputs!D20)</f>
         <v/>
       </c>
-      <c r="E8" s="208" t="str">
+      <c r="E8" s="205" t="str">
         <f>IF(Inputs!E20="","",Inputs!E20)</f>
         <v/>
       </c>
-      <c r="F8" s="208" t="str">
+      <c r="F8" s="205" t="str">
         <f>IF(Inputs!F20="","",Inputs!F20)</f>
         <v/>
       </c>
-      <c r="G8" s="208" t="str">
+      <c r="G8" s="205" t="str">
         <f>IF(Inputs!G20="","",Inputs!G20)</f>
         <v/>
       </c>
-      <c r="H8" s="208" t="str">
+      <c r="H8" s="205" t="str">
         <f>IF(Inputs!H20="","",Inputs!H20)</f>
         <v/>
       </c>
-      <c r="I8" s="208" t="str">
+      <c r="I8" s="205" t="str">
         <f>IF(Inputs!I20="","",Inputs!I20)</f>
         <v/>
       </c>
-      <c r="J8" s="208" t="str">
+      <c r="J8" s="205" t="str">
         <f>IF(Inputs!J20="","",Inputs!J20)</f>
         <v/>
       </c>
-      <c r="K8" s="208" t="str">
+      <c r="K8" s="205" t="str">
         <f>IF(Inputs!K20="","",Inputs!K20)</f>
         <v/>
       </c>
-      <c r="L8" s="208" t="str">
+      <c r="L8" s="205" t="str">
         <f>IF(Inputs!L20="","",Inputs!L20)</f>
         <v/>
       </c>
-      <c r="M8" s="208" t="str">
+      <c r="M8" s="205" t="str">
         <f>IF(Inputs!M20="","",Inputs!M20)</f>
         <v/>
       </c>
@@ -6135,47 +6128,47 @@
       <c r="B9" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="154" t="e">
+      <c r="C9" s="153" t="e">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="154" t="str">
+      <c r="D9" s="153" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E9" s="154" t="str">
+      <c r="E9" s="153" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="154" t="str">
+      <c r="F9" s="153" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="154" t="str">
+      <c r="G9" s="153" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="154" t="str">
+      <c r="H9" s="153" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="154" t="str">
+      <c r="I9" s="153" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="154" t="str">
+      <c r="J9" s="153" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="154" t="str">
+      <c r="K9" s="153" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="154" t="str">
+      <c r="L9" s="153" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="154" t="str">
+      <c r="M9" s="153" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6186,47 +6179,47 @@
       <c r="B10" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="208" t="str">
+      <c r="C10" s="205" t="str">
         <f>IF(Inputs!C21="","",Inputs!C21)</f>
         <v/>
       </c>
-      <c r="D10" s="208" t="str">
+      <c r="D10" s="205" t="str">
         <f>IF(Inputs!D21="","",Inputs!D21)</f>
         <v/>
       </c>
-      <c r="E10" s="208" t="str">
+      <c r="E10" s="205" t="str">
         <f>IF(Inputs!E21="","",Inputs!E21)</f>
         <v/>
       </c>
-      <c r="F10" s="208" t="str">
+      <c r="F10" s="205" t="str">
         <f>IF(Inputs!F21="","",Inputs!F21)</f>
         <v/>
       </c>
-      <c r="G10" s="208" t="str">
+      <c r="G10" s="205" t="str">
         <f>IF(Inputs!G21="","",Inputs!G21)</f>
         <v/>
       </c>
-      <c r="H10" s="208" t="str">
+      <c r="H10" s="205" t="str">
         <f>IF(Inputs!H21="","",Inputs!H21)</f>
         <v/>
       </c>
-      <c r="I10" s="208" t="str">
+      <c r="I10" s="205" t="str">
         <f>IF(Inputs!I21="","",Inputs!I21)</f>
         <v/>
       </c>
-      <c r="J10" s="208" t="str">
+      <c r="J10" s="205" t="str">
         <f>IF(Inputs!J21="","",Inputs!J21)</f>
         <v/>
       </c>
-      <c r="K10" s="208" t="str">
+      <c r="K10" s="205" t="str">
         <f>IF(Inputs!K21="","",Inputs!K21)</f>
         <v/>
       </c>
-      <c r="L10" s="208" t="str">
+      <c r="L10" s="205" t="str">
         <f>IF(Inputs!L21="","",Inputs!L21)</f>
         <v/>
       </c>
-      <c r="M10" s="208" t="str">
+      <c r="M10" s="205" t="str">
         <f>IF(Inputs!M21="","",Inputs!M21)</f>
         <v/>
       </c>
@@ -6237,47 +6230,47 @@
       <c r="B11" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="208" t="str">
+      <c r="C11" s="205" t="str">
         <f>IF(Inputs!C22="","",Inputs!C22)</f>
         <v/>
       </c>
-      <c r="D11" s="208" t="str">
+      <c r="D11" s="205" t="str">
         <f>IF(Inputs!D22="","",Inputs!D22)</f>
         <v/>
       </c>
-      <c r="E11" s="208" t="str">
+      <c r="E11" s="205" t="str">
         <f>IF(Inputs!E22="","",Inputs!E22)</f>
         <v/>
       </c>
-      <c r="F11" s="208" t="str">
+      <c r="F11" s="205" t="str">
         <f>IF(Inputs!F22="","",Inputs!F22)</f>
         <v/>
       </c>
-      <c r="G11" s="208" t="str">
+      <c r="G11" s="205" t="str">
         <f>IF(Inputs!G22="","",Inputs!G22)</f>
         <v/>
       </c>
-      <c r="H11" s="208" t="str">
+      <c r="H11" s="205" t="str">
         <f>IF(Inputs!H22="","",Inputs!H22)</f>
         <v/>
       </c>
-      <c r="I11" s="208" t="str">
+      <c r="I11" s="205" t="str">
         <f>IF(Inputs!I22="","",Inputs!I22)</f>
         <v/>
       </c>
-      <c r="J11" s="208" t="str">
+      <c r="J11" s="205" t="str">
         <f>IF(Inputs!J22="","",Inputs!J22)</f>
         <v/>
       </c>
-      <c r="K11" s="208" t="str">
+      <c r="K11" s="205" t="str">
         <f>IF(Inputs!K22="","",Inputs!K22)</f>
         <v/>
       </c>
-      <c r="L11" s="208" t="str">
+      <c r="L11" s="205" t="str">
         <f>IF(Inputs!L22="","",Inputs!L22)</f>
         <v/>
       </c>
-      <c r="M11" s="208" t="str">
+      <c r="M11" s="205" t="str">
         <f>IF(Inputs!M22="","",Inputs!M22)</f>
         <v/>
       </c>
@@ -6285,357 +6278,357 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="98" t="s">
-        <v>258</v>
-      </c>
-      <c r="C12" s="154" t="e">
-        <f>IF(C6="","",(C9-C10-MAX(C11,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D12" s="154" t="str">
-        <f t="shared" ref="D12:M12" si="3">IF(D6="","",(D9-D10-MAX(D11,0)))</f>
-        <v/>
-      </c>
-      <c r="E12" s="154" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F12" s="154" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G12" s="154" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H12" s="154" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I12" s="154" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J12" s="154" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K12" s="154" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L12" s="154" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M12" s="154" t="str">
-        <f t="shared" si="3"/>
+      <c r="B12" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="205" t="str">
+        <f>IF(Inputs!C24="","",MAX(Inputs!C24,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="D12" s="205" t="str">
+        <f>IF(Inputs!D24="","",MAX(Inputs!D24,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="E12" s="205" t="str">
+        <f>IF(Inputs!E24="","",MAX(Inputs!E24,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="F12" s="205" t="str">
+        <f>IF(Inputs!F24="","",MAX(Inputs!F24,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="G12" s="205" t="str">
+        <f>IF(Inputs!G24="","",MAX(Inputs!G24,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="H12" s="205" t="str">
+        <f>IF(Inputs!H24="","",MAX(Inputs!H24,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="I12" s="205" t="str">
+        <f>IF(Inputs!I24="","",MAX(Inputs!I24,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="J12" s="205" t="str">
+        <f>IF(Inputs!J24="","",MAX(Inputs!J24,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="K12" s="205" t="str">
+        <f>IF(Inputs!K24="","",MAX(Inputs!K24,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="L12" s="205" t="str">
+        <f>IF(Inputs!L24="","",MAX(Inputs!L24,0)/(1-Fin_Analysis!$I$84))</f>
+        <v/>
+      </c>
+      <c r="M12" s="205" t="str">
+        <f>IF(Inputs!M24="","",MAX(Inputs!M24,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
       <c r="N12" s="87"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="97" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="208" t="str">
-        <f>IF(Inputs!C23="","",Inputs!C23)</f>
-        <v/>
-      </c>
-      <c r="D13" s="208" t="str">
-        <f>IF(Inputs!D23="","",Inputs!D23)</f>
-        <v/>
-      </c>
-      <c r="E13" s="208" t="str">
-        <f>IF(Inputs!E23="","",Inputs!E23)</f>
-        <v/>
-      </c>
-      <c r="F13" s="208" t="str">
-        <f>IF(Inputs!F23="","",Inputs!F23)</f>
-        <v/>
-      </c>
-      <c r="G13" s="208" t="str">
-        <f>IF(Inputs!G23="","",Inputs!G23)</f>
-        <v/>
-      </c>
-      <c r="H13" s="208" t="str">
-        <f>IF(Inputs!H23="","",Inputs!H23)</f>
-        <v/>
-      </c>
-      <c r="I13" s="208" t="str">
-        <f>IF(Inputs!I23="","",Inputs!I23)</f>
-        <v/>
-      </c>
-      <c r="J13" s="208" t="str">
-        <f>IF(Inputs!J23="","",Inputs!J23)</f>
-        <v/>
-      </c>
-      <c r="K13" s="208" t="str">
-        <f>IF(Inputs!K23="","",Inputs!K23)</f>
-        <v/>
-      </c>
-      <c r="L13" s="208" t="str">
-        <f>IF(Inputs!L23="","",Inputs!L23)</f>
-        <v/>
-      </c>
-      <c r="M13" s="208" t="str">
-        <f>IF(Inputs!M23="","",Inputs!M23)</f>
+      <c r="B13" s="241" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="242" t="e">
+        <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" s="242" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E13" s="242" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F13" s="242" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G13" s="242" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H13" s="242" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I13" s="242" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J13" s="242" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K13" s="242" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L13" s="242" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M13" s="242" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N13" s="87"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="99" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="208" t="str">
-        <f>IF(Inputs!C24="","",Inputs!C24)</f>
-        <v/>
-      </c>
-      <c r="D14" s="208" t="str">
-        <f>IF(Inputs!D24="","",Inputs!D24)</f>
-        <v/>
-      </c>
-      <c r="E14" s="208" t="str">
-        <f>IF(Inputs!E24="","",Inputs!E24)</f>
-        <v/>
-      </c>
-      <c r="F14" s="208" t="str">
-        <f>IF(Inputs!F24="","",Inputs!F24)</f>
-        <v/>
-      </c>
-      <c r="G14" s="208" t="str">
-        <f>IF(Inputs!G24="","",Inputs!G24)</f>
-        <v/>
-      </c>
-      <c r="H14" s="208" t="str">
-        <f>IF(Inputs!H24="","",Inputs!H24)</f>
-        <v/>
-      </c>
-      <c r="I14" s="208" t="str">
-        <f>IF(Inputs!I24="","",Inputs!I24)</f>
-        <v/>
-      </c>
-      <c r="J14" s="208" t="str">
-        <f>IF(Inputs!J24="","",Inputs!J24)</f>
-        <v/>
-      </c>
-      <c r="K14" s="208" t="str">
-        <f>IF(Inputs!K24="","",Inputs!K24)</f>
-        <v/>
-      </c>
-      <c r="L14" s="208" t="str">
-        <f>IF(Inputs!L24="","",Inputs!L24)</f>
-        <v/>
-      </c>
-      <c r="M14" s="208" t="str">
-        <f>IF(Inputs!M24="","",Inputs!M24)</f>
+      <c r="B14" s="241" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="243" t="e">
+        <f t="shared" ref="C14:M14" si="4">IF(C6="","",C9-C10-MAX(C11,0)-C12)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" s="243" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E14" s="243" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F14" s="243" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G14" s="243" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H14" s="243" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I14" s="243" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J14" s="243" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K14" s="243" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L14" s="243" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M14" s="243" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N14" s="87"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="236" t="s">
+      <c r="B15" s="244" t="s">
         <v>263</v>
       </c>
-      <c r="C15" s="237" t="e">
-        <f>IF(C6="","",C12-MAX(C13,0)-MAX(C14,0)/(1-Fin_Analysis!$I$84))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D15" s="237" t="str">
-        <f>IF(D6="","",D12-MAX(D13,0)-MAX(D14,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="E15" s="237" t="str">
-        <f>IF(E6="","",E12-MAX(E13,0)-MAX(E14,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="F15" s="237" t="str">
-        <f>IF(F6="","",F12-MAX(F13,0)-MAX(F14,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="G15" s="237" t="str">
-        <f>IF(G6="","",G12-MAX(G13,0)-MAX(G14,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="H15" s="237" t="str">
-        <f>IF(H6="","",H12-MAX(H13,0)-MAX(H14,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="I15" s="237" t="str">
-        <f>IF(I6="","",I12-MAX(I13,0)-MAX(I14,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="J15" s="237" t="str">
-        <f>IF(J6="","",J12-MAX(J13,0)-MAX(J14,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="K15" s="237" t="str">
-        <f>IF(K6="","",K12-MAX(K13,0)-MAX(K14,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="L15" s="237" t="str">
-        <f>IF(L6="","",L12-MAX(L13,0)-MAX(L14,0)/(1-Fin_Analysis!$I$84))</f>
-        <v/>
-      </c>
-      <c r="M15" s="237" t="str">
-        <f>IF(M6="","",M12-MAX(M13,0)-MAX(M14,0)/(1-Fin_Analysis!$I$84))</f>
+      <c r="C15" s="245" t="str">
+        <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
+        <v/>
+      </c>
+      <c r="D15" s="245" t="str">
+        <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
+        <v/>
+      </c>
+      <c r="E15" s="245" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F15" s="245" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G15" s="245" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H15" s="245" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I15" s="245" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J15" s="245" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K15" s="245" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L15" s="245" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M15" s="245" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N15" s="87"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="247" t="s">
-        <v>264</v>
-      </c>
-      <c r="C16" s="238" t="str">
-        <f>IF(D15="","",IF(ABS(C15+D15)=ABS(C15)+ABS(D15),IF(C15&lt;0,-1,1)*(C15-D15)/D15,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="D16" s="238" t="str">
-        <f t="shared" ref="D16:M16" si="4">IF(E15="","",IF(ABS(D15+E15)=ABS(D15)+ABS(E15),IF(D15&lt;0,-1,1)*(D15-E15)/E15,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="E16" s="238" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F16" s="238" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G16" s="238" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H16" s="238" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I16" s="238" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J16" s="238" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K16" s="238" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L16" s="238" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M16" s="238" t="str">
-        <f t="shared" si="4"/>
+      <c r="B16" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="205" t="str">
+        <f>IF(Inputs!C25="","",Inputs!C25)</f>
+        <v/>
+      </c>
+      <c r="D16" s="205" t="str">
+        <f>IF(Inputs!D25="","",Inputs!D25)</f>
+        <v/>
+      </c>
+      <c r="E16" s="205" t="str">
+        <f>IF(Inputs!E25="","",Inputs!E25)</f>
+        <v/>
+      </c>
+      <c r="F16" s="205" t="str">
+        <f>IF(Inputs!F25="","",Inputs!F25)</f>
+        <v/>
+      </c>
+      <c r="G16" s="205" t="str">
+        <f>IF(Inputs!G25="","",Inputs!G25)</f>
+        <v/>
+      </c>
+      <c r="H16" s="205" t="str">
+        <f>IF(Inputs!H25="","",Inputs!H25)</f>
+        <v/>
+      </c>
+      <c r="I16" s="205" t="str">
+        <f>IF(Inputs!I25="","",Inputs!I25)</f>
+        <v/>
+      </c>
+      <c r="J16" s="205" t="str">
+        <f>IF(Inputs!J25="","",Inputs!J25)</f>
+        <v/>
+      </c>
+      <c r="K16" s="205" t="str">
+        <f>IF(Inputs!K25="","",Inputs!K25)</f>
+        <v/>
+      </c>
+      <c r="L16" s="205" t="str">
+        <f>IF(Inputs!L25="","",Inputs!L25)</f>
+        <v/>
+      </c>
+      <c r="M16" s="205" t="str">
+        <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
       <c r="N16" s="87"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="155" t="str">
-        <f t="shared" ref="C17:M17" si="5">IF(OR(C6="",C18=""),"",C18/C6)</f>
-        <v/>
-      </c>
-      <c r="D17" s="155" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="E17" s="155" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F17" s="155" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G17" s="155" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H17" s="155" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I17" s="155" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J17" s="155" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K17" s="155" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L17" s="155" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M17" s="155" t="str">
-        <f t="shared" si="5"/>
+      <c r="B17" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="205" t="str">
+        <f>IF(Inputs!C23="","",Inputs!C23)</f>
+        <v/>
+      </c>
+      <c r="D17" s="205" t="str">
+        <f>IF(Inputs!D23="","",Inputs!D23)</f>
+        <v/>
+      </c>
+      <c r="E17" s="205" t="str">
+        <f>IF(Inputs!E23="","",Inputs!E23)</f>
+        <v/>
+      </c>
+      <c r="F17" s="205" t="str">
+        <f>IF(Inputs!F23="","",Inputs!F23)</f>
+        <v/>
+      </c>
+      <c r="G17" s="205" t="str">
+        <f>IF(Inputs!G23="","",Inputs!G23)</f>
+        <v/>
+      </c>
+      <c r="H17" s="205" t="str">
+        <f>IF(Inputs!H23="","",Inputs!H23)</f>
+        <v/>
+      </c>
+      <c r="I17" s="205" t="str">
+        <f>IF(Inputs!I23="","",Inputs!I23)</f>
+        <v/>
+      </c>
+      <c r="J17" s="205" t="str">
+        <f>IF(Inputs!J23="","",Inputs!J23)</f>
+        <v/>
+      </c>
+      <c r="K17" s="205" t="str">
+        <f>IF(Inputs!K23="","",Inputs!K23)</f>
+        <v/>
+      </c>
+      <c r="L17" s="205" t="str">
+        <f>IF(Inputs!L23="","",Inputs!L23)</f>
+        <v/>
+      </c>
+      <c r="M17" s="205" t="str">
+        <f>IF(Inputs!M23="","",Inputs!M23)</f>
         <v/>
       </c>
       <c r="N17" s="87"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="208" t="str">
-        <f>IF(Inputs!C26="","",Inputs!C26)</f>
-        <v/>
-      </c>
-      <c r="D18" s="208" t="str">
-        <f>IF(Inputs!D26="","",Inputs!D26)</f>
-        <v/>
-      </c>
-      <c r="E18" s="208" t="str">
-        <f>IF(Inputs!E26="","",Inputs!E26)</f>
-        <v/>
-      </c>
-      <c r="F18" s="208" t="str">
-        <f>IF(Inputs!F26="","",Inputs!F26)</f>
-        <v/>
-      </c>
-      <c r="G18" s="208" t="str">
-        <f>IF(Inputs!G26="","",Inputs!G26)</f>
-        <v/>
-      </c>
-      <c r="H18" s="208" t="str">
-        <f>IF(Inputs!H26="","",Inputs!H26)</f>
-        <v/>
-      </c>
-      <c r="I18" s="208" t="str">
-        <f>IF(Inputs!I26="","",Inputs!I26)</f>
-        <v/>
-      </c>
-      <c r="J18" s="208" t="str">
-        <f>IF(Inputs!J26="","",Inputs!J26)</f>
-        <v/>
-      </c>
-      <c r="K18" s="208" t="str">
-        <f>IF(Inputs!K26="","",Inputs!K26)</f>
-        <v/>
-      </c>
-      <c r="L18" s="208" t="str">
-        <f>IF(Inputs!L26="","",Inputs!L26)</f>
-        <v/>
-      </c>
-      <c r="M18" s="208" t="str">
-        <f>IF(Inputs!M26="","",Inputs!M26)</f>
+      <c r="B18" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="154" t="str">
+        <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
+        <v/>
+      </c>
+      <c r="D18" s="154" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="E18" s="154" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F18" s="154" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G18" s="154" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H18" s="154" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I18" s="154" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J18" s="154" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K18" s="154" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L18" s="154" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M18" s="154" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N18" s="87"/>
@@ -6643,50 +6636,50 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="155" t="e">
-        <f t="shared" ref="C19:M19" si="6">IF(C6="","",MAX(C20,0)/C6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D19" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E19" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F19" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G19" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H19" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I19" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J19" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K19" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L19" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M19" s="155" t="str">
-        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="C19" s="205" t="str">
+        <f>IF(Inputs!C26="","",Inputs!C26)</f>
+        <v/>
+      </c>
+      <c r="D19" s="205" t="str">
+        <f>IF(Inputs!D26="","",Inputs!D26)</f>
+        <v/>
+      </c>
+      <c r="E19" s="205" t="str">
+        <f>IF(Inputs!E26="","",Inputs!E26)</f>
+        <v/>
+      </c>
+      <c r="F19" s="205" t="str">
+        <f>IF(Inputs!F26="","",Inputs!F26)</f>
+        <v/>
+      </c>
+      <c r="G19" s="205" t="str">
+        <f>IF(Inputs!G26="","",Inputs!G26)</f>
+        <v/>
+      </c>
+      <c r="H19" s="205" t="str">
+        <f>IF(Inputs!H26="","",Inputs!H26)</f>
+        <v/>
+      </c>
+      <c r="I19" s="205" t="str">
+        <f>IF(Inputs!I26="","",Inputs!I26)</f>
+        <v/>
+      </c>
+      <c r="J19" s="205" t="str">
+        <f>IF(Inputs!J26="","",Inputs!J26)</f>
+        <v/>
+      </c>
+      <c r="K19" s="205" t="str">
+        <f>IF(Inputs!K26="","",Inputs!K26)</f>
+        <v/>
+      </c>
+      <c r="L19" s="205" t="str">
+        <f>IF(Inputs!L26="","",Inputs!L26)</f>
+        <v/>
+      </c>
+      <c r="M19" s="205" t="str">
+        <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
       <c r="N19" s="87"/>
@@ -6694,50 +6687,50 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="208" t="str">
-        <f>IF(Inputs!C27="","",Inputs!C27)</f>
-        <v/>
-      </c>
-      <c r="D20" s="208" t="str">
-        <f>IF(Inputs!D27="","",Inputs!D27)</f>
-        <v/>
-      </c>
-      <c r="E20" s="208" t="str">
-        <f>IF(Inputs!E27="","",Inputs!E27)</f>
-        <v/>
-      </c>
-      <c r="F20" s="208" t="str">
-        <f>IF(Inputs!F27="","",Inputs!F27)</f>
-        <v/>
-      </c>
-      <c r="G20" s="208" t="str">
-        <f>IF(Inputs!G27="","",Inputs!G27)</f>
-        <v/>
-      </c>
-      <c r="H20" s="208" t="str">
-        <f>IF(Inputs!H27="","",Inputs!H27)</f>
-        <v/>
-      </c>
-      <c r="I20" s="208" t="str">
-        <f>IF(Inputs!I27="","",Inputs!I27)</f>
-        <v/>
-      </c>
-      <c r="J20" s="208" t="str">
-        <f>IF(Inputs!J27="","",Inputs!J27)</f>
-        <v/>
-      </c>
-      <c r="K20" s="208" t="str">
-        <f>IF(Inputs!K27="","",Inputs!K27)</f>
-        <v/>
-      </c>
-      <c r="L20" s="208" t="str">
-        <f>IF(Inputs!L27="","",Inputs!L27)</f>
-        <v/>
-      </c>
-      <c r="M20" s="208" t="str">
-        <f>IF(Inputs!M27="","",Inputs!M27)</f>
+        <v>251</v>
+      </c>
+      <c r="C20" s="154" t="e">
+        <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D20" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="E20" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F20" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G20" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H20" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I20" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J20" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K20" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L20" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M20" s="154" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N20" s="87"/>
@@ -6745,407 +6738,407 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="208" t="str">
-        <f>IF(Inputs!C25="","",Inputs!C25)</f>
-        <v/>
-      </c>
-      <c r="D21" s="208" t="str">
-        <f>IF(Inputs!D25="","",Inputs!D25)</f>
-        <v/>
-      </c>
-      <c r="E21" s="208" t="str">
-        <f>IF(Inputs!E25="","",Inputs!E25)</f>
-        <v/>
-      </c>
-      <c r="F21" s="208" t="str">
-        <f>IF(Inputs!F25="","",Inputs!F25)</f>
-        <v/>
-      </c>
-      <c r="G21" s="208" t="str">
-        <f>IF(Inputs!G25="","",Inputs!G25)</f>
-        <v/>
-      </c>
-      <c r="H21" s="208" t="str">
-        <f>IF(Inputs!H25="","",Inputs!H25)</f>
-        <v/>
-      </c>
-      <c r="I21" s="208" t="str">
-        <f>IF(Inputs!I25="","",Inputs!I25)</f>
-        <v/>
-      </c>
-      <c r="J21" s="208" t="str">
-        <f>IF(Inputs!J25="","",Inputs!J25)</f>
-        <v/>
-      </c>
-      <c r="K21" s="208" t="str">
-        <f>IF(Inputs!K25="","",Inputs!K25)</f>
-        <v/>
-      </c>
-      <c r="L21" s="208" t="str">
-        <f>IF(Inputs!L25="","",Inputs!L25)</f>
-        <v/>
-      </c>
-      <c r="M21" s="208" t="str">
-        <f>IF(Inputs!M25="","",Inputs!M25)</f>
+        <v>108</v>
+      </c>
+      <c r="C21" s="205" t="str">
+        <f>IF(Inputs!C27="","",Inputs!C27)</f>
+        <v/>
+      </c>
+      <c r="D21" s="205" t="str">
+        <f>IF(Inputs!D27="","",Inputs!D27)</f>
+        <v/>
+      </c>
+      <c r="E21" s="205" t="str">
+        <f>IF(Inputs!E27="","",Inputs!E27)</f>
+        <v/>
+      </c>
+      <c r="F21" s="205" t="str">
+        <f>IF(Inputs!F27="","",Inputs!F27)</f>
+        <v/>
+      </c>
+      <c r="G21" s="205" t="str">
+        <f>IF(Inputs!G27="","",Inputs!G27)</f>
+        <v/>
+      </c>
+      <c r="H21" s="205" t="str">
+        <f>IF(Inputs!H27="","",Inputs!H27)</f>
+        <v/>
+      </c>
+      <c r="I21" s="205" t="str">
+        <f>IF(Inputs!I27="","",Inputs!I27)</f>
+        <v/>
+      </c>
+      <c r="J21" s="205" t="str">
+        <f>IF(Inputs!J27="","",Inputs!J27)</f>
+        <v/>
+      </c>
+      <c r="K21" s="205" t="str">
+        <f>IF(Inputs!K27="","",Inputs!K27)</f>
+        <v/>
+      </c>
+      <c r="L21" s="205" t="str">
+        <f>IF(Inputs!L27="","",Inputs!L27)</f>
+        <v/>
+      </c>
+      <c r="M21" s="205" t="str">
+        <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
       <c r="N21" s="87"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="77" t="e">
-        <f t="shared" ref="C22:M22" si="7">IF(C6="","",C15+MAX(C18,0)-MAX(C20,0)-MAX(C21,0))</f>
+      <c r="C22" s="163" t="e">
+        <f t="shared" ref="C22:M22" si="8">IF(C6="","",C14-MAX(C17,0)+MAX(C19,0)-MAX(C21,0)-MAX(C16,0))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D22" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="E22" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F22" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G22" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H22" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I22" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J22" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K22" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L22" s="77" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M22" s="77" t="str">
-        <f t="shared" si="7"/>
+      <c r="D22" s="163" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E22" s="163" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F22" s="163" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G22" s="163" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H22" s="163" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I22" s="163" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J22" s="163" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K22" s="163" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L22" s="163" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M22" s="163" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N22" s="87"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="156" t="str">
-        <f>IF(D22="","",IF(ABS(C22+D22)=ABS(C22)+ABS(D22),IF(C22&lt;0,-1,1)*(C22-D22)/D22,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="D23" s="156" t="str">
-        <f t="shared" ref="D23:M23" si="8">IF(E22="","",IF(ABS(D22+E22)=ABS(D22)+ABS(E22),IF(D22&lt;0,-1,1)*(D22-E22)/E22,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="E23" s="156" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F23" s="156" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="G23" s="156" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H23" s="156" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I23" s="156" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J23" s="156" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K23" s="156" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L23" s="156" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M23" s="156" t="str">
-        <f t="shared" si="8"/>
+      <c r="C23" s="155" t="e">
+        <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D23" s="155" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E23" s="155" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F23" s="155" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G23" s="155" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H23" s="155" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I23" s="155" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J23" s="155" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K23" s="155" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L23" s="155" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M23" s="155" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N23" s="87"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="157" t="e">
-        <f t="shared" ref="C24:M24" si="9">IF(C6="","",C25/C6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D24" s="157" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E24" s="157" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F24" s="157" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G24" s="157" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H24" s="157" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I24" s="157" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="J24" s="157" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="K24" s="157" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="L24" s="157" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="M24" s="157" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N24" s="87"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="4"/>
-      <c r="B25" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="158" t="e">
+      <c r="C24" s="156" t="e">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D25" s="77" t="str">
+      <c r="D24" s="77" t="str">
         <f>IF(D6="","",D22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="E25" s="77" t="str">
+      <c r="E24" s="77" t="str">
         <f>IF(E6="","",E22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F25" s="77" t="str">
+      <c r="F24" s="77" t="str">
         <f>IF(F6="","",F22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G25" s="77" t="str">
+      <c r="G24" s="77" t="str">
         <f>IF(G6="","",G22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H25" s="77" t="str">
+      <c r="H24" s="77" t="str">
         <f>IF(H6="","",H22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I25" s="77" t="str">
+      <c r="I24" s="77" t="str">
         <f>IF(I6="","",I22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J25" s="77" t="str">
+      <c r="J24" s="77" t="str">
         <f>IF(J6="","",J22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K25" s="77" t="str">
+      <c r="K24" s="77" t="str">
         <f>IF(K6="","",K22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L25" s="77" t="str">
+      <c r="L24" s="77" t="str">
         <f>IF(L6="","",L22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M25" s="77" t="str">
+      <c r="M24" s="77" t="str">
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
+      <c r="N24" s="87"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="4"/>
+      <c r="B25" s="247" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="246" t="str">
+        <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
+        <v/>
+      </c>
+      <c r="D25" s="246" t="str">
+        <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
+        <v/>
+      </c>
+      <c r="E25" s="246" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F25" s="246" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G25" s="246" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H25" s="246" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I25" s="246" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J25" s="246" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="K25" s="246" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L25" s="246" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M25" s="246" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-      <c r="B26" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="159" t="str">
-        <f>IF(D25="","",IF(ABS(C25+D25)=ABS(C25)+ABS(D25),IF(C25&lt;0,-1,1)*(C25-D25)/D25,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="D26" s="159" t="str">
-        <f t="shared" ref="D26:M26" si="10">IF(E25="","",IF(ABS(D25+E25)=ABS(D25)+ABS(E25),IF(D25&lt;0,-1,1)*(D25-E25)/E25,"Turn"))</f>
-        <v/>
-      </c>
-      <c r="E26" s="159" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F26" s="159" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G26" s="159" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="H26" s="159" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I26" s="159" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J26" s="159" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="K26" s="159" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L26" s="159" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="M26" s="159" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="N26" s="87"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="16"/>
-      <c r="B27" s="115" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" s="48">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="16"/>
+      <c r="B26" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
         <v>45473</v>
       </c>
-      <c r="D27" s="49">
+      <c r="D26" s="49">
         <f>D5</f>
         <v>44926</v>
       </c>
-      <c r="E27" s="49">
-        <f t="shared" ref="E27" si="11">EOMONTH(EDATE(D27,-12),0)</f>
+      <c r="E26" s="49">
+        <f t="shared" ref="E26" si="11">EOMONTH(EDATE(D26,-12),0)</f>
         <v>44561</v>
       </c>
-      <c r="F27" s="49">
-        <f t="shared" ref="F27" si="12">EOMONTH(EDATE(E27,-12),0)</f>
+      <c r="F26" s="49">
+        <f t="shared" ref="F26" si="12">EOMONTH(EDATE(E26,-12),0)</f>
         <v>44196</v>
       </c>
-      <c r="G27" s="49">
-        <f t="shared" ref="G27" si="13">EOMONTH(EDATE(F27,-12),0)</f>
+      <c r="G26" s="49">
+        <f t="shared" ref="G26" si="13">EOMONTH(EDATE(F26,-12),0)</f>
         <v>43830</v>
       </c>
-      <c r="H27" s="49">
-        <f t="shared" ref="H27" si="14">EOMONTH(EDATE(G27,-12),0)</f>
+      <c r="H26" s="49">
+        <f t="shared" ref="H26" si="14">EOMONTH(EDATE(G26,-12),0)</f>
         <v>43465</v>
       </c>
-      <c r="I27" s="49">
-        <f t="shared" ref="I27" si="15">EOMONTH(EDATE(H27,-12),0)</f>
+      <c r="I26" s="49">
+        <f t="shared" ref="I26" si="15">EOMONTH(EDATE(H26,-12),0)</f>
         <v>43100</v>
       </c>
-      <c r="J27" s="49">
-        <f t="shared" ref="J27" si="16">EOMONTH(EDATE(I27,-12),0)</f>
+      <c r="J26" s="49">
+        <f t="shared" ref="J26" si="16">EOMONTH(EDATE(I26,-12),0)</f>
         <v>42735</v>
       </c>
-      <c r="K27" s="49">
-        <f t="shared" ref="K27" si="17">EOMONTH(EDATE(J27,-12),0)</f>
+      <c r="K26" s="49">
+        <f t="shared" ref="K26" si="17">EOMONTH(EDATE(J26,-12),0)</f>
         <v>42369</v>
       </c>
-      <c r="L27" s="49">
-        <f t="shared" ref="L27" si="18">EOMONTH(EDATE(K27,-12),0)</f>
+      <c r="L26" s="49">
+        <f t="shared" ref="L26" si="18">EOMONTH(EDATE(K26,-12),0)</f>
         <v>42004</v>
       </c>
-      <c r="M27" s="49">
-        <f t="shared" ref="M27" si="19">EOMONTH(EDATE(L27,-12),0)</f>
+      <c r="M26" s="49">
+        <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
+      </c>
+      <c r="N26" s="87"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="4"/>
+      <c r="B27" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="65">
+        <f>IF(C36="","",C36+C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="65" t="str">
+        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E27" s="65" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="F27" s="65" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="G27" s="65" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H27" s="65" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="I27" s="65" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J27" s="65" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="K27" s="65" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="L27" s="65" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="M27" s="65" t="str">
+        <f t="shared" si="20"/>
+        <v/>
       </c>
       <c r="N27" s="87"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="65">
-        <f>IF(C37="","",C37+C32+C33)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="65" t="str">
-        <f t="shared" ref="D28:M28" si="20">IF(D37="","",D37+D32+D33)</f>
-        <v/>
-      </c>
-      <c r="E28" s="65" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="F28" s="65" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="G28" s="65" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="H28" s="65" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="I28" s="65" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="J28" s="65" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K28" s="65" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L28" s="65" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M28" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f>Fin_Analysis!C28</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="205" t="str">
+        <f>IF(Inputs!D28="","",Inputs!D28)</f>
+        <v/>
+      </c>
+      <c r="E28" s="205" t="str">
+        <f>IF(Inputs!E28="","",Inputs!E28)</f>
+        <v/>
+      </c>
+      <c r="F28" s="205" t="str">
+        <f>IF(Inputs!F28="","",Inputs!F28)</f>
+        <v/>
+      </c>
+      <c r="G28" s="205" t="str">
+        <f>IF(Inputs!G28="","",Inputs!G28)</f>
+        <v/>
+      </c>
+      <c r="H28" s="205" t="str">
+        <f>IF(Inputs!H28="","",Inputs!H28)</f>
+        <v/>
+      </c>
+      <c r="I28" s="205" t="str">
+        <f>IF(Inputs!I28="","",Inputs!I28)</f>
+        <v/>
+      </c>
+      <c r="J28" s="205" t="str">
+        <f>IF(Inputs!J28="","",Inputs!J28)</f>
+        <v/>
+      </c>
+      <c r="K28" s="205" t="str">
+        <f>IF(Inputs!K28="","",Inputs!K28)</f>
+        <v/>
+      </c>
+      <c r="L28" s="205" t="str">
+        <f>IF(Inputs!L28="","",Inputs!L28)</f>
+        <v/>
+      </c>
+      <c r="M28" s="205" t="str">
+        <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -7153,50 +7146,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="208" t="str">
-        <f>IF(Inputs!D28="","",Inputs!D28)</f>
-        <v/>
-      </c>
-      <c r="E29" s="208" t="str">
-        <f>IF(Inputs!E28="","",Inputs!E28)</f>
-        <v/>
-      </c>
-      <c r="F29" s="208" t="str">
-        <f>IF(Inputs!F28="","",Inputs!F28)</f>
-        <v/>
-      </c>
-      <c r="G29" s="208" t="str">
-        <f>IF(Inputs!G28="","",Inputs!G28)</f>
-        <v/>
-      </c>
-      <c r="H29" s="208" t="str">
-        <f>IF(Inputs!H28="","",Inputs!H28)</f>
-        <v/>
-      </c>
-      <c r="I29" s="208" t="str">
-        <f>IF(Inputs!I28="","",Inputs!I28)</f>
-        <v/>
-      </c>
-      <c r="J29" s="208" t="str">
-        <f>IF(Inputs!J28="","",Inputs!J28)</f>
-        <v/>
-      </c>
-      <c r="K29" s="208" t="str">
-        <f>IF(Inputs!K28="","",Inputs!K28)</f>
-        <v/>
-      </c>
-      <c r="L29" s="208" t="str">
-        <f>IF(Inputs!L28="","",Inputs!L28)</f>
-        <v/>
-      </c>
-      <c r="M29" s="208" t="str">
-        <f>IF(Inputs!M28="","",Inputs!M28)</f>
+        <f>Fin_Analysis!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="205" t="str">
+        <f>IF(Inputs!D29="","",Inputs!D29)</f>
+        <v/>
+      </c>
+      <c r="E29" s="205" t="str">
+        <f>IF(Inputs!E29="","",Inputs!E29)</f>
+        <v/>
+      </c>
+      <c r="F29" s="205" t="str">
+        <f>IF(Inputs!F29="","",Inputs!F29)</f>
+        <v/>
+      </c>
+      <c r="G29" s="205" t="str">
+        <f>IF(Inputs!G29="","",Inputs!G29)</f>
+        <v/>
+      </c>
+      <c r="H29" s="205" t="str">
+        <f>IF(Inputs!H29="","",Inputs!H29)</f>
+        <v/>
+      </c>
+      <c r="I29" s="205" t="str">
+        <f>IF(Inputs!I29="","",Inputs!I29)</f>
+        <v/>
+      </c>
+      <c r="J29" s="205" t="str">
+        <f>IF(Inputs!J29="","",Inputs!J29)</f>
+        <v/>
+      </c>
+      <c r="K29" s="205" t="str">
+        <f>IF(Inputs!K29="","",Inputs!K29)</f>
+        <v/>
+      </c>
+      <c r="L29" s="205" t="str">
+        <f>IF(Inputs!L29="","",Inputs!L29)</f>
+        <v/>
+      </c>
+      <c r="M29" s="205" t="str">
+        <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -7204,50 +7197,50 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C13</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="208" t="str">
-        <f>IF(Inputs!D29="","",Inputs!D29)</f>
-        <v/>
-      </c>
-      <c r="E30" s="208" t="str">
-        <f>IF(Inputs!E29="","",Inputs!E29)</f>
-        <v/>
-      </c>
-      <c r="F30" s="208" t="str">
-        <f>IF(Inputs!F29="","",Inputs!F29)</f>
-        <v/>
-      </c>
-      <c r="G30" s="208" t="str">
-        <f>IF(Inputs!G29="","",Inputs!G29)</f>
-        <v/>
-      </c>
-      <c r="H30" s="208" t="str">
-        <f>IF(Inputs!H29="","",Inputs!H29)</f>
-        <v/>
-      </c>
-      <c r="I30" s="208" t="str">
-        <f>IF(Inputs!I29="","",Inputs!I29)</f>
-        <v/>
-      </c>
-      <c r="J30" s="208" t="str">
-        <f>IF(Inputs!J29="","",Inputs!J29)</f>
-        <v/>
-      </c>
-      <c r="K30" s="208" t="str">
-        <f>IF(Inputs!K29="","",Inputs!K29)</f>
-        <v/>
-      </c>
-      <c r="L30" s="208" t="str">
-        <f>IF(Inputs!L29="","",Inputs!L29)</f>
-        <v/>
-      </c>
-      <c r="M30" s="208" t="str">
-        <f>IF(Inputs!M29="","",Inputs!M29)</f>
+        <f>Fin_Analysis!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="205" t="str">
+        <f>IF(Inputs!D30="","",Inputs!D30)</f>
+        <v/>
+      </c>
+      <c r="E30" s="205" t="str">
+        <f>IF(Inputs!E30="","",Inputs!E30)</f>
+        <v/>
+      </c>
+      <c r="F30" s="205" t="str">
+        <f>IF(Inputs!F30="","",Inputs!F30)</f>
+        <v/>
+      </c>
+      <c r="G30" s="205" t="str">
+        <f>IF(Inputs!G30="","",Inputs!G30)</f>
+        <v/>
+      </c>
+      <c r="H30" s="205" t="str">
+        <f>IF(Inputs!H30="","",Inputs!H30)</f>
+        <v/>
+      </c>
+      <c r="I30" s="205" t="str">
+        <f>IF(Inputs!I30="","",Inputs!I30)</f>
+        <v/>
+      </c>
+      <c r="J30" s="205" t="str">
+        <f>IF(Inputs!J30="","",Inputs!J30)</f>
+        <v/>
+      </c>
+      <c r="K30" s="205" t="str">
+        <f>IF(Inputs!K30="","",Inputs!K30)</f>
+        <v/>
+      </c>
+      <c r="L30" s="205" t="str">
+        <f>IF(Inputs!L30="","",Inputs!L30)</f>
+        <v/>
+      </c>
+      <c r="M30" s="205" t="str">
+        <f>IF(Inputs!M30="","",Inputs!M30)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
@@ -7255,50 +7248,50 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!C18</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="208" t="str">
-        <f>IF(Inputs!D30="","",Inputs!D30)</f>
-        <v/>
-      </c>
-      <c r="E31" s="208" t="str">
-        <f>IF(Inputs!E30="","",Inputs!E30)</f>
-        <v/>
-      </c>
-      <c r="F31" s="208" t="str">
-        <f>IF(Inputs!F30="","",Inputs!F30)</f>
-        <v/>
-      </c>
-      <c r="G31" s="208" t="str">
-        <f>IF(Inputs!G30="","",Inputs!G30)</f>
-        <v/>
-      </c>
-      <c r="H31" s="208" t="str">
-        <f>IF(Inputs!H30="","",Inputs!H30)</f>
-        <v/>
-      </c>
-      <c r="I31" s="208" t="str">
-        <f>IF(Inputs!I30="","",Inputs!I30)</f>
-        <v/>
-      </c>
-      <c r="J31" s="208" t="str">
-        <f>IF(Inputs!J30="","",Inputs!J30)</f>
-        <v/>
-      </c>
-      <c r="K31" s="208" t="str">
-        <f>IF(Inputs!K30="","",Inputs!K30)</f>
-        <v/>
-      </c>
-      <c r="L31" s="208" t="str">
-        <f>IF(Inputs!L30="","",Inputs!L30)</f>
-        <v/>
-      </c>
-      <c r="M31" s="208" t="str">
-        <f>IF(Inputs!M30="","",Inputs!M30)</f>
+        <f>Fin_Analysis!I28</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="205" t="str">
+        <f>IF(Inputs!D31="","",Inputs!D31)</f>
+        <v/>
+      </c>
+      <c r="E31" s="205" t="str">
+        <f>IF(Inputs!E31="","",Inputs!E31)</f>
+        <v/>
+      </c>
+      <c r="F31" s="205" t="str">
+        <f>IF(Inputs!F31="","",Inputs!F31)</f>
+        <v/>
+      </c>
+      <c r="G31" s="205" t="str">
+        <f>IF(Inputs!G31="","",Inputs!G31)</f>
+        <v/>
+      </c>
+      <c r="H31" s="205" t="str">
+        <f>IF(Inputs!H31="","",Inputs!H31)</f>
+        <v/>
+      </c>
+      <c r="I31" s="205" t="str">
+        <f>IF(Inputs!I31="","",Inputs!I31)</f>
+        <v/>
+      </c>
+      <c r="J31" s="205" t="str">
+        <f>IF(Inputs!J31="","",Inputs!J31)</f>
+        <v/>
+      </c>
+      <c r="K31" s="205" t="str">
+        <f>IF(Inputs!K31="","",Inputs!K31)</f>
+        <v/>
+      </c>
+      <c r="L31" s="205" t="str">
+        <f>IF(Inputs!L31="","",Inputs!L31)</f>
+        <v/>
+      </c>
+      <c r="M31" s="205" t="str">
+        <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7306,152 +7299,152 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I28</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="208" t="str">
-        <f>IF(Inputs!D31="","",Inputs!D31)</f>
-        <v/>
-      </c>
-      <c r="E32" s="208" t="str">
-        <f>IF(Inputs!E31="","",Inputs!E31)</f>
-        <v/>
-      </c>
-      <c r="F32" s="208" t="str">
-        <f>IF(Inputs!F31="","",Inputs!F31)</f>
-        <v/>
-      </c>
-      <c r="G32" s="208" t="str">
-        <f>IF(Inputs!G31="","",Inputs!G31)</f>
-        <v/>
-      </c>
-      <c r="H32" s="208" t="str">
-        <f>IF(Inputs!H31="","",Inputs!H31)</f>
-        <v/>
-      </c>
-      <c r="I32" s="208" t="str">
-        <f>IF(Inputs!I31="","",Inputs!I31)</f>
-        <v/>
-      </c>
-      <c r="J32" s="208" t="str">
-        <f>IF(Inputs!J31="","",Inputs!J31)</f>
-        <v/>
-      </c>
-      <c r="K32" s="208" t="str">
-        <f>IF(Inputs!K31="","",Inputs!K31)</f>
-        <v/>
-      </c>
-      <c r="L32" s="208" t="str">
-        <f>IF(Inputs!L31="","",Inputs!L31)</f>
-        <v/>
-      </c>
-      <c r="M32" s="208" t="str">
-        <f>IF(Inputs!M31="","",Inputs!M31)</f>
+        <f>Fin_Analysis!I48</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="205" t="str">
+        <f>IF(Inputs!D32="","",Inputs!D32)</f>
+        <v/>
+      </c>
+      <c r="E32" s="205" t="str">
+        <f>IF(Inputs!E32="","",Inputs!E32)</f>
+        <v/>
+      </c>
+      <c r="F32" s="205" t="str">
+        <f>IF(Inputs!F32="","",Inputs!F32)</f>
+        <v/>
+      </c>
+      <c r="G32" s="205" t="str">
+        <f>IF(Inputs!G32="","",Inputs!G32)</f>
+        <v/>
+      </c>
+      <c r="H32" s="205" t="str">
+        <f>IF(Inputs!H32="","",Inputs!H32)</f>
+        <v/>
+      </c>
+      <c r="I32" s="205" t="str">
+        <f>IF(Inputs!I32="","",Inputs!I32)</f>
+        <v/>
+      </c>
+      <c r="J32" s="205" t="str">
+        <f>IF(Inputs!J32="","",Inputs!J32)</f>
+        <v/>
+      </c>
+      <c r="K32" s="205" t="str">
+        <f>IF(Inputs!K32="","",Inputs!K32)</f>
+        <v/>
+      </c>
+      <c r="L32" s="205" t="str">
+        <f>IF(Inputs!L32="","",Inputs!L32)</f>
+        <v/>
+      </c>
+      <c r="M32" s="205" t="str">
+        <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="C33" s="65">
-        <f>Fin_Analysis!I48</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="208" t="str">
-        <f>IF(Inputs!D32="","",Inputs!D32)</f>
-        <v/>
-      </c>
-      <c r="E33" s="208" t="str">
-        <f>IF(Inputs!E32="","",Inputs!E32)</f>
-        <v/>
-      </c>
-      <c r="F33" s="208" t="str">
-        <f>IF(Inputs!F32="","",Inputs!F32)</f>
-        <v/>
-      </c>
-      <c r="G33" s="208" t="str">
-        <f>IF(Inputs!G32="","",Inputs!G32)</f>
-        <v/>
-      </c>
-      <c r="H33" s="208" t="str">
-        <f>IF(Inputs!H32="","",Inputs!H32)</f>
-        <v/>
-      </c>
-      <c r="I33" s="208" t="str">
-        <f>IF(Inputs!I32="","",Inputs!I32)</f>
-        <v/>
-      </c>
-      <c r="J33" s="208" t="str">
-        <f>IF(Inputs!J32="","",Inputs!J32)</f>
-        <v/>
-      </c>
-      <c r="K33" s="208" t="str">
-        <f>IF(Inputs!K32="","",Inputs!K32)</f>
-        <v/>
-      </c>
-      <c r="L33" s="208" t="str">
-        <f>IF(Inputs!L32="","",Inputs!L32)</f>
-        <v/>
-      </c>
-      <c r="M33" s="208" t="str">
-        <f>IF(Inputs!M32="","",Inputs!M32)</f>
+        <f>Fin_Analysis!I15</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="205" t="str">
+        <f>IF(Inputs!D33="","",Inputs!D33)</f>
+        <v/>
+      </c>
+      <c r="E33" s="205" t="str">
+        <f>IF(Inputs!E33="","",Inputs!E33)</f>
+        <v/>
+      </c>
+      <c r="F33" s="205" t="str">
+        <f>IF(Inputs!F33="","",Inputs!F33)</f>
+        <v/>
+      </c>
+      <c r="G33" s="205" t="str">
+        <f>IF(Inputs!G33="","",Inputs!G33)</f>
+        <v/>
+      </c>
+      <c r="H33" s="205" t="str">
+        <f>IF(Inputs!H33="","",Inputs!H33)</f>
+        <v/>
+      </c>
+      <c r="I33" s="205" t="str">
+        <f>IF(Inputs!I33="","",Inputs!I33)</f>
+        <v/>
+      </c>
+      <c r="J33" s="205" t="str">
+        <f>IF(Inputs!J33="","",Inputs!J33)</f>
+        <v/>
+      </c>
+      <c r="K33" s="205" t="str">
+        <f>IF(Inputs!K33="","",Inputs!K33)</f>
+        <v/>
+      </c>
+      <c r="L33" s="205" t="str">
+        <f>IF(Inputs!L33="","",Inputs!L33)</f>
+        <v/>
+      </c>
+      <c r="M33" s="205" t="str">
+        <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="208" t="str">
-        <f>IF(Inputs!D33="","",Inputs!D33)</f>
-        <v/>
-      </c>
-      <c r="E34" s="208" t="str">
-        <f>IF(Inputs!E33="","",Inputs!E33)</f>
-        <v/>
-      </c>
-      <c r="F34" s="208" t="str">
-        <f>IF(Inputs!F33="","",Inputs!F33)</f>
-        <v/>
-      </c>
-      <c r="G34" s="208" t="str">
-        <f>IF(Inputs!G33="","",Inputs!G33)</f>
-        <v/>
-      </c>
-      <c r="H34" s="208" t="str">
-        <f>IF(Inputs!H33="","",Inputs!H33)</f>
-        <v/>
-      </c>
-      <c r="I34" s="208" t="str">
-        <f>IF(Inputs!I33="","",Inputs!I33)</f>
-        <v/>
-      </c>
-      <c r="J34" s="208" t="str">
-        <f>IF(Inputs!J33="","",Inputs!J33)</f>
-        <v/>
-      </c>
-      <c r="K34" s="208" t="str">
-        <f>IF(Inputs!K33="","",Inputs!K33)</f>
-        <v/>
-      </c>
-      <c r="L34" s="208" t="str">
-        <f>IF(Inputs!L33="","",Inputs!L33)</f>
-        <v/>
-      </c>
-      <c r="M34" s="208" t="str">
-        <f>IF(Inputs!M33="","",Inputs!M33)</f>
+        <f>Fin_Analysis!I34</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="205" t="str">
+        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <v/>
+      </c>
+      <c r="E34" s="205" t="str">
+        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <v/>
+      </c>
+      <c r="F34" s="205" t="str">
+        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <v/>
+      </c>
+      <c r="G34" s="205" t="str">
+        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <v/>
+      </c>
+      <c r="H34" s="205" t="str">
+        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <v/>
+      </c>
+      <c r="I34" s="205" t="str">
+        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <v/>
+      </c>
+      <c r="J34" s="205" t="str">
+        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <v/>
+      </c>
+      <c r="K34" s="205" t="str">
+        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <v/>
+      </c>
+      <c r="L34" s="205" t="str">
+        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <v/>
+      </c>
+      <c r="M34" s="205" t="str">
+        <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7459,50 +7452,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="65">
-        <f>Fin_Analysis!I34</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="208" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="208" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="208" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="208" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="208" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="208" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="208" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="208" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="208" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="208" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <v>19</v>
+      </c>
+      <c r="C35" s="77">
+        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="77" t="str">
+        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
+        <v/>
+      </c>
+      <c r="E35" s="77" t="str">
+        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
+        <v/>
+      </c>
+      <c r="F35" s="77" t="str">
+        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
+        <v/>
+      </c>
+      <c r="G35" s="77" t="str">
+        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
+        <v/>
+      </c>
+      <c r="H35" s="77" t="str">
+        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
+        <v/>
+      </c>
+      <c r="I35" s="77" t="str">
+        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
+        <v/>
+      </c>
+      <c r="J35" s="77" t="str">
+        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
+        <v/>
+      </c>
+      <c r="K35" s="77" t="str">
+        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
+        <v/>
+      </c>
+      <c r="L35" s="77" t="str">
+        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
+        <v/>
+      </c>
+      <c r="M35" s="77" t="str">
+        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7510,50 +7503,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="77">
-        <f t="shared" ref="C36" si="21">IF(OR(C34="",C35=""),"",C34+C35)</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="77" t="str">
-        <f t="shared" ref="D36" si="22">IF(OR(D34="",D35=""),"",D34+D35)</f>
-        <v/>
-      </c>
-      <c r="E36" s="77" t="str">
-        <f t="shared" ref="E36" si="23">IF(OR(E34="",E35=""),"",E34+E35)</f>
-        <v/>
-      </c>
-      <c r="F36" s="77" t="str">
-        <f t="shared" ref="F36" si="24">IF(OR(F34="",F35=""),"",F34+F35)</f>
-        <v/>
-      </c>
-      <c r="G36" s="77" t="str">
-        <f t="shared" ref="G36" si="25">IF(OR(G34="",G35=""),"",G34+G35)</f>
-        <v/>
-      </c>
-      <c r="H36" s="77" t="str">
-        <f t="shared" ref="H36" si="26">IF(OR(H34="",H35=""),"",H34+H35)</f>
-        <v/>
-      </c>
-      <c r="I36" s="77" t="str">
-        <f t="shared" ref="I36" si="27">IF(OR(I34="",I35=""),"",I34+I35)</f>
-        <v/>
-      </c>
-      <c r="J36" s="77" t="str">
-        <f t="shared" ref="J36" si="28">IF(OR(J34="",J35=""),"",J34+J35)</f>
-        <v/>
-      </c>
-      <c r="K36" s="77" t="str">
-        <f t="shared" ref="K36" si="29">IF(OR(K34="",K35=""),"",K34+K35)</f>
-        <v/>
-      </c>
-      <c r="L36" s="77" t="str">
-        <f t="shared" ref="L36" si="30">IF(OR(L34="",L35=""),"",L34+L35)</f>
-        <v/>
-      </c>
-      <c r="M36" s="77" t="str">
-        <f t="shared" ref="M36" si="31">IF(OR(M34="",M35=""),"",M34+M35)</f>
+        <v>141</v>
+      </c>
+      <c r="C36" s="65">
+        <f>Fin_Analysis!D3</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="205" t="str">
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <v/>
+      </c>
+      <c r="E36" s="205" t="str">
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <v/>
+      </c>
+      <c r="F36" s="205" t="str">
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <v/>
+      </c>
+      <c r="G36" s="205" t="str">
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <v/>
+      </c>
+      <c r="H36" s="205" t="str">
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <v/>
+      </c>
+      <c r="I36" s="205" t="str">
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <v/>
+      </c>
+      <c r="J36" s="205" t="str">
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <v/>
+      </c>
+      <c r="K36" s="205" t="str">
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <v/>
+      </c>
+      <c r="L36" s="205" t="str">
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <v/>
+      </c>
+      <c r="M36" s="205" t="str">
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7564,47 +7557,47 @@
         <v>142</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="208" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
-        <v/>
-      </c>
-      <c r="E37" s="208" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
-        <v/>
-      </c>
-      <c r="F37" s="208" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
-        <v/>
-      </c>
-      <c r="G37" s="208" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
-        <v/>
-      </c>
-      <c r="H37" s="208" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
-        <v/>
-      </c>
-      <c r="I37" s="208" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
-        <v/>
-      </c>
-      <c r="J37" s="208" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
-        <v/>
-      </c>
-      <c r="K37" s="208" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
-        <v/>
-      </c>
-      <c r="L37" s="208" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
-        <v/>
-      </c>
-      <c r="M37" s="208" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>Fin_Analysis!D4</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="205" t="str">
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="205" t="str">
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <v/>
+      </c>
+      <c r="F37" s="205" t="str">
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <v/>
+      </c>
+      <c r="G37" s="205" t="str">
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <v/>
+      </c>
+      <c r="H37" s="205" t="str">
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <v/>
+      </c>
+      <c r="I37" s="205" t="str">
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <v/>
+      </c>
+      <c r="J37" s="205" t="str">
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <v/>
+      </c>
+      <c r="K37" s="205" t="str">
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <v/>
+      </c>
+      <c r="L37" s="205" t="str">
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <v/>
+      </c>
+      <c r="M37" s="205" t="str">
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N37" s="87"/>
@@ -7612,50 +7605,50 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C38" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="208" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
-        <v/>
-      </c>
-      <c r="E38" s="208" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
-        <v/>
-      </c>
-      <c r="F38" s="208" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
-        <v/>
-      </c>
-      <c r="G38" s="208" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
-        <v/>
-      </c>
-      <c r="H38" s="208" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
-        <v/>
-      </c>
-      <c r="I38" s="208" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
-        <v/>
-      </c>
-      <c r="J38" s="208" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
-        <v/>
-      </c>
-      <c r="K38" s="208" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
-        <v/>
-      </c>
-      <c r="L38" s="208" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
-        <v/>
-      </c>
-      <c r="M38" s="208" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>Fin_Analysis!C63</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="205" t="str">
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <v/>
+      </c>
+      <c r="E38" s="205" t="str">
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <v/>
+      </c>
+      <c r="F38" s="205" t="str">
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="205" t="str">
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <v/>
+      </c>
+      <c r="H38" s="205" t="str">
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <v/>
+      </c>
+      <c r="I38" s="205" t="str">
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <v/>
+      </c>
+      <c r="J38" s="205" t="str">
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <v/>
+      </c>
+      <c r="K38" s="205" t="str">
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <v/>
+      </c>
+      <c r="L38" s="205" t="str">
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <v/>
+      </c>
+      <c r="M38" s="205" t="str">
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N38" s="87"/>
@@ -7663,221 +7656,221 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C39" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="208" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
-        <v/>
-      </c>
-      <c r="E39" s="208" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
-        <v/>
-      </c>
-      <c r="F39" s="208" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
-        <v/>
-      </c>
-      <c r="G39" s="208" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
-        <v/>
-      </c>
-      <c r="H39" s="208" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
-        <v/>
-      </c>
-      <c r="I39" s="208" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
-        <v/>
-      </c>
-      <c r="J39" s="208" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
-        <v/>
-      </c>
-      <c r="K39" s="208" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
-        <v/>
-      </c>
-      <c r="L39" s="208" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
-        <v/>
-      </c>
-      <c r="M39" s="208" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="65" t="str">
+        <f>IF(D38="","",D27-D38)</f>
+        <v/>
+      </c>
+      <c r="E39" s="65" t="str">
+        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
+        <v/>
+      </c>
+      <c r="F39" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G39" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H39" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I39" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J39" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K39" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L39" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M39" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="94" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="65" t="str">
-        <f>IF(D39="","",D28-D39)</f>
-        <v/>
-      </c>
-      <c r="E40" s="65" t="str">
-        <f t="shared" ref="E40:M40" si="32">IF(E39="","",E28-E39)</f>
-        <v/>
-      </c>
-      <c r="F40" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G40" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H40" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I40" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J40" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K40" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L40" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M40" s="65" t="str">
-        <f t="shared" si="32"/>
+      <c r="B40" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="157" t="e">
+        <f>IF(C6="","",C14/MAX(C39,0))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D40" s="157" t="str">
+        <f>IF(D6="","",D14/MAX(D39,0))</f>
+        <v/>
+      </c>
+      <c r="E40" s="157" t="str">
+        <f>IF(E6="","",E14/MAX(E39,0))</f>
+        <v/>
+      </c>
+      <c r="F40" s="157" t="str">
+        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
+        <v/>
+      </c>
+      <c r="G40" s="157" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H40" s="157" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I40" s="157" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J40" s="157" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K40" s="157" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L40" s="157" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M40" s="157" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="4"/>
-      <c r="B41" s="98" t="s">
-        <v>163</v>
-      </c>
-      <c r="C41" s="160" t="e">
-        <f>IF(C6="","",C22/C40)</f>
+      <c r="A41" s="16"/>
+      <c r="B41" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="87"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="4"/>
+      <c r="B42" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="158" t="e">
+        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D41" s="160" t="str">
-        <f>IF(D40="","",D22/D40)</f>
-        <v/>
-      </c>
-      <c r="E41" s="160" t="str">
-        <f t="shared" ref="E41:M41" si="33">IF(E40="","",E22/E40)</f>
-        <v/>
-      </c>
-      <c r="F41" s="160" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="G41" s="160" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H41" s="160" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I41" s="160" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J41" s="160" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K41" s="160" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L41" s="160" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M41" s="160" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N41" s="87"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="16"/>
-      <c r="B42" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
+      <c r="D42" s="158" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="E42" s="158" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F42" s="158" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G42" s="158" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H42" s="158" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I42" s="158" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J42" s="158" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K42" s="158" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L42" s="158" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M42" s="158" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
       <c r="N42" s="87"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="161" t="e">
-        <f t="shared" ref="C43:M43" si="34">IF(C6="","",C8/C6)</f>
+      <c r="B43" s="94" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="155" t="e">
+        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D43" s="161" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="E43" s="161" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F43" s="161" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G43" s="161" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H43" s="161" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I43" s="161" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J43" s="161" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K43" s="161" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L43" s="161" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M43" s="161" t="str">
-        <f t="shared" si="34"/>
+      <c r="D43" s="155" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="E43" s="155" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F43" s="155" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G43" s="155" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H43" s="155" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I43" s="155" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J43" s="155" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K43" s="155" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L43" s="155" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M43" s="155" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7885,50 +7878,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C44" s="157" t="e">
-        <f t="shared" ref="C44:M44" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>109</v>
+      </c>
+      <c r="C44" s="155" t="e">
+        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D44" s="157" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="E44" s="157" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="F44" s="157" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="G44" s="157" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="H44" s="157" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="I44" s="157" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="J44" s="157" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="K44" s="157" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="L44" s="157" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="M44" s="157" t="str">
-        <f t="shared" si="35"/>
+      <c r="D44" s="155" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="E44" s="155" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F44" s="155" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G44" s="155" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H44" s="155" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I44" s="155" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J44" s="155" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K44" s="155" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L44" s="155" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M44" s="155" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7936,50 +7929,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C45" s="157" t="e">
-        <f t="shared" ref="C45:M45" si="36">IF(C6="","",(MAX(C20,0)-MAX(C18,0))/C6)</f>
+        <v>122</v>
+      </c>
+      <c r="C45" s="155" t="e">
+        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D45" s="157" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="E45" s="157" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="F45" s="157" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="G45" s="157" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="H45" s="157" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="I45" s="157" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="J45" s="157" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="K45" s="157" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="L45" s="157" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="M45" s="157" t="str">
-        <f t="shared" si="36"/>
+      <c r="D45" s="155" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="E45" s="155" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="F45" s="155" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="G45" s="155" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="H45" s="155" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="I45" s="155" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="J45" s="155" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="K45" s="155" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="L45" s="155" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="M45" s="155" t="str">
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7987,50 +7980,50 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="157" t="e">
-        <f t="shared" ref="C46:M46" si="37">IF(C6="","",MAX(C21,0)/C6)</f>
+        <v>132</v>
+      </c>
+      <c r="C46" s="155" t="e">
+        <f t="shared" ref="C46:M46" si="38">IF(C6="","",C12/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D46" s="157" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="E46" s="157" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="F46" s="157" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="G46" s="157" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="H46" s="157" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="I46" s="157" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="J46" s="157" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="K46" s="157" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="L46" s="157" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="M46" s="157" t="str">
-        <f t="shared" si="37"/>
+      <c r="D46" s="155" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="E46" s="155" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="F46" s="155" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="G46" s="155" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="H46" s="155" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="I46" s="155" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="J46" s="155" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="K46" s="155" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="L46" s="155" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="M46" s="155" t="str">
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
@@ -8038,50 +8031,50 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" s="157" t="e">
-        <f t="shared" ref="C47:M47" si="38">IF(C6="","",MAX(C13,0)/C6)</f>
+        <v>252</v>
+      </c>
+      <c r="C47" s="155" t="e">
+        <f t="shared" ref="C47:M47" si="39">IF(C6="","",(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D47" s="157" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="E47" s="157" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="F47" s="157" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="G47" s="157" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="H47" s="157" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="I47" s="157" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="J47" s="157" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="K47" s="157" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="L47" s="157" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="M47" s="157" t="str">
-        <f t="shared" si="38"/>
+      <c r="D47" s="155" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="E47" s="155" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="F47" s="155" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G47" s="155" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="H47" s="155" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="I47" s="155" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="J47" s="155" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="K47" s="155" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="L47" s="155" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="M47" s="155" t="str">
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N47" s="87"/>
@@ -8089,443 +8082,395 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="157" t="e">
-        <f>IF(C6="","",MAX(C14,0)/(1-Fin_Analysis!$I$84)/C6)</f>
+        <v>125</v>
+      </c>
+      <c r="C48" s="155" t="e">
+        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D48" s="157" t="str">
-        <f>IF(D6="","",MAX(D14,0)/(1-Fin_Analysis!$I$84)/D6)</f>
-        <v/>
-      </c>
-      <c r="E48" s="157" t="str">
-        <f>IF(E6="","",MAX(E14,0)/(1-Fin_Analysis!$I$84)/E6)</f>
-        <v/>
-      </c>
-      <c r="F48" s="157" t="str">
-        <f>IF(F6="","",MAX(F14,0)/(1-Fin_Analysis!$I$84)/F6)</f>
-        <v/>
-      </c>
-      <c r="G48" s="157" t="str">
-        <f>IF(G6="","",MAX(G14,0)/(1-Fin_Analysis!$I$84)/G6)</f>
-        <v/>
-      </c>
-      <c r="H48" s="157" t="str">
-        <f>IF(H6="","",MAX(H14,0)/(1-Fin_Analysis!$I$84)/H6)</f>
-        <v/>
-      </c>
-      <c r="I48" s="157" t="str">
-        <f>IF(I6="","",MAX(I14,0)/(1-Fin_Analysis!$I$84)/I6)</f>
-        <v/>
-      </c>
-      <c r="J48" s="157" t="str">
-        <f>IF(J6="","",MAX(J14,0)/(1-Fin_Analysis!$I$84)/J6)</f>
-        <v/>
-      </c>
-      <c r="K48" s="157" t="str">
-        <f>IF(K6="","",MAX(K14,0)/(1-Fin_Analysis!$I$84)/K6)</f>
-        <v/>
-      </c>
-      <c r="L48" s="157" t="str">
-        <f>IF(L6="","",MAX(L14,0)/(1-Fin_Analysis!$I$84)/L6)</f>
-        <v/>
-      </c>
-      <c r="M48" s="157" t="str">
-        <f>IF(M6="","",MAX(M14,0)/(1-Fin_Analysis!$I$84)/M6)</f>
+      <c r="D48" s="155" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="E48" s="155" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="F48" s="155" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="G48" s="155" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="H48" s="155" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="I48" s="155" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="J48" s="155" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="K48" s="155" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="L48" s="155" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="M48" s="155" t="str">
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" s="157" t="e">
-        <f t="shared" ref="C49:M49" si="39">IF(C6="","",C22/C6)</f>
+      <c r="A49" s="16"/>
+      <c r="B49" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="87"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="4"/>
+      <c r="B50" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="158" t="e">
+        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D49" s="157" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="E49" s="157" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F49" s="157" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G49" s="157" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H49" s="157" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I49" s="157" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J49" s="157" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K49" s="157" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L49" s="157" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M49" s="157" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="N49" s="87"/>
-    </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="16"/>
-      <c r="B50" s="103" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
+      <c r="D50" s="158" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="E50" s="158" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F50" s="158" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G50" s="158" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H50" s="158" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I50" s="158" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J50" s="158" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K50" s="158" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L50" s="158" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M50" s="158" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
       <c r="N50" s="87"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="95" t="s">
+      <c r="B51" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="161" t="e">
-        <f t="shared" ref="C51:M51" si="40">IF(C30="","",C30/C6)</f>
+      <c r="C51" s="155" t="e">
+        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="161" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="E51" s="161" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F51" s="161" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G51" s="161" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H51" s="161" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I51" s="161" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J51" s="161" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K51" s="161" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L51" s="161" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M51" s="161" t="str">
-        <f t="shared" si="40"/>
+      <c r="D51" s="155" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E51" s="155" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F51" s="155" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G51" s="155" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H51" s="155" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I51" s="155" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J51" s="155" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K51" s="155" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L51" s="155" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M51" s="155" t="str">
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="157" t="e">
-        <f t="shared" ref="C52:M52" si="41">IF(C31="","",C31/C6)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D52" s="157" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="E52" s="157" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F52" s="157" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G52" s="157" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H52" s="157" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I52" s="157" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J52" s="157" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K52" s="157" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L52" s="157" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M52" s="157" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="158" t="e">
+        <f>IF(C36="","",(C27-C36)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="158" t="str">
+        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E53" s="158" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F53" s="158" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G53" s="158" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H53" s="158" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I53" s="158" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J53" s="158" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K53" s="158" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L53" s="158" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M53" s="158" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="161" t="e">
-        <f>IF(C37="","",(C28-C37)/C28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="161" t="str">
-        <f t="shared" ref="D54:M54" si="42">IF(D37="","",(D28-D37)/D28)</f>
-        <v/>
-      </c>
-      <c r="E54" s="161" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="F54" s="161" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="G54" s="161" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="H54" s="161" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="I54" s="161" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="J54" s="161" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="K54" s="161" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="L54" s="161" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="M54" s="161" t="str">
-        <f t="shared" si="42"/>
+      <c r="B54" s="94" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="159" t="e">
+        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D54" s="159" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="E54" s="159" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F54" s="159" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G54" s="159" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H54" s="159" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I54" s="159" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J54" s="159" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K54" s="159" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L54" s="159" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M54" s="159" t="str">
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="162" t="e">
-        <f>IF(OR(C22="",C36=""),"",IF(C36&lt;=0,"-",C22/C36))</f>
+        <v>123</v>
+      </c>
+      <c r="C55" s="155" t="e">
+        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D55" s="162" t="str">
-        <f t="shared" ref="D55:M55" si="43">IF(OR(D22="",D36=""),"",IF(D36&lt;=0,"-",D22/D36))</f>
-        <v/>
-      </c>
-      <c r="E55" s="162" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F55" s="162" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G55" s="162" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H55" s="162" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I55" s="162" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J55" s="162" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K55" s="162" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L55" s="162" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M55" s="162" t="str">
-        <f t="shared" si="43"/>
+      <c r="D55" s="155" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E55" s="155" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F55" s="155" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G55" s="155" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H55" s="155" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I55" s="155" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J55" s="155" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K55" s="155" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L55" s="155" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M55" s="155" t="str">
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f t="shared" ref="C56:M56" si="44">IF(C22="","",IF(MAX(C13,0)&lt;=0,"-",C13/C22))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
+      <c r="B56" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="163" t="e">
-        <f t="shared" ref="C57:M57" si="45">IF(C29="","",C29/C32)</f>
+      <c r="C56" s="160" t="e">
+        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="163" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="E57" s="163" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F57" s="163" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G57" s="163" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H57" s="163" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I57" s="163" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J57" s="163" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K57" s="163" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L57" s="163" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M57" s="163" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D56" s="160" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E56" s="160" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="160" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="160" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="160" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="160" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="160" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="160" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="160" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="160" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9093,9 +9038,7 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9778,22 +9721,21 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M24 C28:M41">
+  <conditionalFormatting sqref="C6:M23 C27:M40">
     <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:M26">
+  <conditionalFormatting sqref="C25:M25">
     <cfRule type="containsBlanks" dxfId="9" priority="3">
-      <formula>LEN(TRIM(C26))=0</formula>
+      <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:M25">
+  <conditionalFormatting sqref="D24:M24">
     <cfRule type="containsBlanks" dxfId="8" priority="2">
-      <formula>LEN(TRIM(D25))=0</formula>
+      <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
@@ -9818,8 +9760,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9855,7 +9797,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="117">
+      <c r="D3" s="116">
         <f>C49-I49</f>
         <v>0</v>
       </c>
@@ -9868,7 +9810,7 @@
       <c r="H3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="213">
+      <c r="I3" s="210">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9965,11 +9907,11 @@
         <v>32</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="212">
+      <c r="D9" s="209">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="120" t="str">
+      <c r="E9" s="119" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9987,12 +9929,12 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="112" t="s">
+      <c r="F10" s="111" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="87"/>
@@ -10012,7 +9954,7 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D11" s="207">
+      <c r="D11" s="204">
         <f>Inputs!D40</f>
         <v>0.9</v>
       </c>
@@ -10020,7 +9962,7 @@
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="113"/>
+      <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
         <v>39</v>
@@ -10034,13 +9976,13 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D12" s="207">
+      <c r="D12" s="204">
         <f>Inputs!D41</f>
         <v>0.8</v>
       </c>
@@ -10048,7 +9990,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="113"/>
+      <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
         <v>40</v>
@@ -10062,13 +10004,13 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D13" s="207">
+      <c r="D13" s="204">
         <f>Inputs!D42</f>
         <v>0.6</v>
       </c>
@@ -10076,7 +10018,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="113"/>
+      <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
         <v>41</v>
@@ -10096,7 +10038,7 @@
         <f>Inputs!C43</f>
         <v>0</v>
       </c>
-      <c r="D14" s="207">
+      <c r="D14" s="204">
         <f>Inputs!D43</f>
         <v>0.6</v>
       </c>
@@ -10104,12 +10046,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="113"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="214">
+      <c r="I14" s="211">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
@@ -10124,7 +10066,7 @@
         <f>Inputs!C44</f>
         <v>0</v>
       </c>
-      <c r="D15" s="207">
+      <c r="D15" s="204">
         <f>Inputs!D44</f>
         <v>0.5</v>
       </c>
@@ -10132,7 +10074,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="113"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
         <v>54</v>
@@ -10145,13 +10087,13 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C45</f>
         <v>0</v>
       </c>
-      <c r="D16" s="207">
+      <c r="D16" s="204">
         <f>Inputs!D45</f>
         <v>0.6</v>
       </c>
@@ -10159,7 +10101,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="113"/>
+      <c r="F16" s="112"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
@@ -10167,13 +10109,13 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C46</f>
         <v>0</v>
       </c>
-      <c r="D17" s="207">
+      <c r="D17" s="204">
         <f>Inputs!D46</f>
         <v>0.1</v>
       </c>
@@ -10181,7 +10123,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="113"/>
+      <c r="F17" s="112"/>
       <c r="G17" s="87"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
@@ -10195,7 +10137,7 @@
         <f>Inputs!C47</f>
         <v>0</v>
       </c>
-      <c r="D18" s="207">
+      <c r="D18" s="204">
         <f>Inputs!D47</f>
         <v>0.5</v>
       </c>
@@ -10203,7 +10145,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="113"/>
+      <c r="F18" s="112"/>
       <c r="G18" s="87"/>
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
@@ -10216,7 +10158,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D19" s="207">
+      <c r="D19" s="204">
         <f>Inputs!D48</f>
         <v>0.6</v>
       </c>
@@ -10224,7 +10166,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="135" t="str">
+      <c r="F19" s="134" t="str">
         <f>Inputs!E48</f>
         <v>N</v>
       </c>
@@ -10235,13 +10177,13 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D20" s="207">
+      <c r="D20" s="204">
         <f>Inputs!D49</f>
         <v>0.6</v>
       </c>
@@ -10249,7 +10191,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="135" t="str">
+      <c r="F20" s="134" t="str">
         <f>Inputs!E49</f>
         <v>Y</v>
       </c>
@@ -10268,7 +10210,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D21" s="207">
+      <c r="D21" s="204">
         <f>Inputs!D50</f>
         <v>0.9</v>
       </c>
@@ -10276,7 +10218,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="113"/>
+      <c r="F21" s="112"/>
       <c r="G21" s="87"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
@@ -10289,7 +10231,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D22" s="207">
+      <c r="D22" s="204">
         <f>Inputs!D51</f>
         <v>0.05</v>
       </c>
@@ -10297,7 +10239,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="113"/>
+      <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
         <v>45</v>
@@ -10311,7 +10253,7 @@
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
-      <c r="F23" s="112" t="s">
+      <c r="F23" s="111" t="s">
         <v>52</v>
       </c>
       <c r="G23" s="87"/>
@@ -10332,7 +10274,7 @@
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="114" t="e">
+      <c r="F24" s="113" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
@@ -10354,7 +10296,7 @@
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="114" t="e">
+      <c r="F25" s="113" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
@@ -10383,7 +10325,7 @@
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="114" t="e">
+      <c r="F26" s="113" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
@@ -10416,7 +10358,7 @@
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="114" t="e">
+      <c r="F27" s="113" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
@@ -10449,12 +10391,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="113"/>
+      <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="215">
+      <c r="I28" s="212">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
@@ -10467,7 +10409,7 @@
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
-      <c r="F29" s="113" t="s">
+      <c r="F29" s="112" t="s">
         <v>36</v>
       </c>
       <c r="G29" s="87"/>
@@ -10483,14 +10425,14 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D30" s="207">
+      <c r="D30" s="204">
         <f>Inputs!D52</f>
         <v>0.8</v>
       </c>
       <c r="E30" s="88">
         <v>0</v>
       </c>
-      <c r="F30" s="113"/>
+      <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
         <v>62</v>
@@ -10509,7 +10451,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D31" s="207">
+      <c r="D31" s="204">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10517,7 +10459,7 @@
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="113"/>
+      <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
         <v>64</v>
@@ -10536,7 +10478,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D32" s="207">
+      <c r="D32" s="204">
         <f>Inputs!D54</f>
         <v>0.5</v>
       </c>
@@ -10544,7 +10486,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="113"/>
+      <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
         <v>66</v>
@@ -10557,13 +10499,13 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D33" s="207">
+      <c r="D33" s="204">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10571,7 +10513,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="113"/>
+      <c r="F33" s="112"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
@@ -10579,7 +10521,7 @@
       <c r="H33" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="214">
+      <c r="I33" s="211">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
@@ -10593,7 +10535,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D34" s="207">
+      <c r="D34" s="204">
         <f>Inputs!D56</f>
         <v>0.4</v>
       </c>
@@ -10601,7 +10543,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="113"/>
+      <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
         <v>78</v>
@@ -10620,7 +10562,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D35" s="207">
+      <c r="D35" s="204">
         <f>Inputs!D57</f>
         <v>0.1</v>
       </c>
@@ -10628,7 +10570,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="135" t="str">
+      <c r="F35" s="134" t="str">
         <f>Inputs!E57</f>
         <v>N</v>
       </c>
@@ -10646,7 +10588,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D36" s="207">
+      <c r="D36" s="204">
         <f>Inputs!D58</f>
         <v>0.2</v>
       </c>
@@ -10654,7 +10596,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="135" t="str">
+      <c r="F36" s="134" t="str">
         <f>Inputs!E58</f>
         <v>N</v>
       </c>
@@ -10673,7 +10615,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D37" s="207">
+      <c r="D37" s="204">
         <f>Inputs!D59</f>
         <v>0.1</v>
       </c>
@@ -10681,7 +10623,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="135" t="str">
+      <c r="F37" s="134" t="str">
         <f>Inputs!E59</f>
         <v>Y</v>
       </c>
@@ -10694,13 +10636,13 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D38" s="207">
+      <c r="D38" s="204">
         <f>Inputs!D60</f>
         <v>0.1</v>
       </c>
@@ -10708,7 +10650,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="113"/>
+      <c r="F38" s="112"/>
       <c r="G38" s="87"/>
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
@@ -10721,7 +10663,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D39" s="207">
+      <c r="D39" s="204">
         <f>Inputs!D61</f>
         <v>0.05</v>
       </c>
@@ -10729,7 +10671,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="113"/>
+      <c r="F39" s="112"/>
       <c r="G39" s="87"/>
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
@@ -10742,7 +10684,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D40" s="207">
+      <c r="D40" s="204">
         <f>Inputs!D62</f>
         <v>0.05</v>
       </c>
@@ -10750,7 +10692,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="113"/>
+      <c r="F40" s="112"/>
       <c r="G40" s="87"/>
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
@@ -10763,7 +10705,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D41" s="207">
+      <c r="D41" s="204">
         <f>Inputs!D63</f>
         <v>0.9</v>
       </c>
@@ -10771,7 +10713,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="113"/>
+      <c r="F41" s="112"/>
       <c r="G41" s="87"/>
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
@@ -10784,7 +10726,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D42" s="207">
+      <c r="D42" s="204">
         <f>Inputs!D64</f>
         <v>0</v>
       </c>
@@ -10792,7 +10734,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="113"/>
+      <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
         <v>69</v>
@@ -10930,7 +10872,7 @@
       <c r="H48" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="I48" s="216">
+      <c r="I48" s="213">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
@@ -11025,10 +10967,10 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="126"/>
+      <c r="E55" s="125"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -11091,7 +11033,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11126,17 +11068,17 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C62" s="118">
+        <v>143</v>
+      </c>
+      <c r="C62" s="117">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="108">
+      <c r="D62" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="119">
+      <c r="E62" s="118">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -11147,7 +11089,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11167,11 +11109,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="122" t="s">
-        <v>156</v>
-      </c>
-      <c r="C64" s="217"/>
-      <c r="D64" s="217"/>
+      <c r="B64" s="121" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="214"/>
+      <c r="D64" s="214"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11183,7 +11125,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11214,7 +11156,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11228,7 +11170,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11248,12 +11190,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="122" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" s="217"/>
-      <c r="D69" s="217"/>
-      <c r="E69" s="127">
+      <c r="B69" s="121" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" s="214"/>
+      <c r="D69" s="214"/>
+      <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11264,7 +11206,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11285,8 +11227,8 @@
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="107" t="s">
-        <v>131</v>
+      <c r="B72" s="106" t="s">
+        <v>130</v>
       </c>
       <c r="C72" s="262">
         <f>Data!C5</f>
@@ -11294,11 +11236,11 @@
       </c>
       <c r="D72" s="262"/>
       <c r="E72" s="260" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F72" s="260"/>
       <c r="H72" s="260" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I72" s="260"/>
       <c r="K72" s="50" t="s">
@@ -11308,7 +11250,7 @@
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
-        <v>(Numbers in 1000000CNY)</v>
+        <v>(Numbers in 1000HKD)</v>
       </c>
       <c r="C73" s="261" t="s">
         <v>101</v>
@@ -11326,50 +11268,50 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C74" s="77" t="str">
         <f>Data!C6</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D74" s="218"/>
-      <c r="E74" s="205" t="str">
+      <c r="D74" s="215"/>
+      <c r="E74" s="202" t="str">
         <f>H74</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F74" s="218"/>
-      <c r="H74" s="205" t="str">
+      <c r="F74" s="215"/>
+      <c r="H74" s="202" t="str">
         <f>C74</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I74" s="218"/>
+      <c r="I74" s="215"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="105" t="s">
+      <c r="B75" s="104" t="s">
         <v>106</v>
       </c>
       <c r="C75" s="77" t="str">
         <f>Data!C8</f>
         <v/>
       </c>
-      <c r="D75" s="164" t="e">
+      <c r="D75" s="161" t="e">
         <f>C75/$C$74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E75" s="205" t="e">
+      <c r="E75" s="202" t="e">
         <f>E74*D75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F75" s="165" t="e">
+      <c r="F75" s="162" t="e">
         <f>E75/E74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H75" s="205" t="e">
+      <c r="H75" s="202" t="e">
         <f>H74*D75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I75" s="165" t="e">
+      <c r="I75" s="162" t="e">
         <f>H75/$H$74</f>
         <v>#VALUE!</v>
       </c>
@@ -11379,48 +11321,48 @@
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="166" t="e">
+      <c r="C76" s="163" t="e">
         <f>C74-C75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D76" s="219"/>
-      <c r="E76" s="167" t="e">
+      <c r="D76" s="216"/>
+      <c r="E76" s="164" t="e">
         <f>E74-E75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F76" s="219"/>
-      <c r="H76" s="167" t="e">
+      <c r="F76" s="216"/>
+      <c r="H76" s="164" t="e">
         <f>H74-H75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I76" s="219"/>
+      <c r="I76" s="216"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="105" t="s">
-        <v>238</v>
+      <c r="B77" s="104" t="s">
+        <v>233</v>
       </c>
       <c r="C77" s="77" t="str">
         <f>Data!C10</f>
         <v/>
       </c>
-      <c r="D77" s="164" t="e">
+      <c r="D77" s="161" t="e">
         <f>C77/$C$74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E77" s="205" t="e">
+      <c r="E77" s="202" t="e">
         <f>E74*D77</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F77" s="165" t="e">
+      <c r="F77" s="162" t="e">
         <f>E77/E74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H77" s="205" t="e">
+      <c r="H77" s="202" t="e">
         <f>H74*D77</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I77" s="165" t="e">
+      <c r="I77" s="162" t="e">
         <f>H77/$H$74</f>
         <v>#VALUE!</v>
       </c>
@@ -11428,50 +11370,50 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="C78" s="166" t="e">
+        <v>248</v>
+      </c>
+      <c r="C78" s="163" t="e">
         <f>C76-C77</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D78" s="219"/>
-      <c r="E78" s="167" t="e">
+      <c r="D78" s="216"/>
+      <c r="E78" s="164" t="e">
         <f>E76-E77</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F78" s="219"/>
-      <c r="H78" s="167" t="e">
+      <c r="F78" s="216"/>
+      <c r="H78" s="164" t="e">
         <f>H76-H77</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I78" s="219"/>
+      <c r="I78" s="216"/>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="105" t="s">
-        <v>125</v>
+      <c r="B79" s="104" t="s">
+        <v>124</v>
       </c>
       <c r="C79" s="77">
-        <f>MAX(Data!C13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D79" s="164" t="e">
+        <f>MAX(Data!C17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="161" t="e">
         <f>C79/$C$74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E79" s="186" t="e">
+      <c r="E79" s="183" t="e">
         <f>E74*F79</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F79" s="165" t="e">
+      <c r="F79" s="162" t="e">
         <f t="shared" ref="F79:F84" si="3">I79</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H79" s="205" t="e">
+      <c r="H79" s="202" t="e">
         <f>H74*D79</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I79" s="165" t="e">
+      <c r="I79" s="162" t="e">
         <f>H79/$H$74</f>
         <v>#VALUE!</v>
       </c>
@@ -11479,29 +11421,29 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C80" s="77">
-        <f>MAX(Data!C11,0)+MAX(Data!C20,0)-MAX(Data!C18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D80" s="164" t="e">
+        <f>MAX(Data!C11,0)+MAX(Data!C21,0)-MAX(Data!C19,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="161" t="e">
         <f>C80/$C$74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E80" s="205" t="e">
-        <f>E74*D80</f>
+      <c r="E80" s="202" t="e">
+        <f>E74*I80</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F80" s="165" t="e">
+      <c r="F80" s="162" t="e">
         <f>E80/E74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H80" s="205" t="e">
-        <f>H74*D80</f>
+      <c r="H80" s="202" t="e">
+        <f>H74*0.01</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I80" s="165" t="e">
+      <c r="I80" s="162" t="e">
         <f>H80/$H$74</f>
         <v>#VALUE!</v>
       </c>
@@ -11512,87 +11454,87 @@
         <v>110</v>
       </c>
       <c r="C81" s="77">
-        <f>MAX(Data!C21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D81" s="164" t="e">
+        <f>MAX(Data!C16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D81" s="161" t="e">
         <f>C81/$C$74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E81" s="186" t="e">
+      <c r="E81" s="183" t="e">
         <f>E74*F81</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F81" s="165" t="e">
+      <c r="F81" s="162" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H81" s="205">
-        <v>0</v>
-      </c>
-      <c r="I81" s="165" t="e">
+      <c r="H81" s="202">
+        <v>0</v>
+      </c>
+      <c r="I81" s="162" t="e">
         <f>H81/$H$74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K81" s="187" t="s">
-        <v>135</v>
+      <c r="K81" s="184" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="73" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C82" s="77">
-        <f>MAX(Data!C14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D82" s="164" t="e">
+        <f>MAX(Data!C12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="161" t="e">
         <f>C82/$C$74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E82" s="186" t="e">
+      <c r="E82" s="183" t="e">
         <f>E74*F82</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F82" s="165" t="e">
+      <c r="F82" s="162" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H82" s="205" t="e">
+      <c r="H82" s="202" t="e">
         <f>H74*D82</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I82" s="165" t="e">
+      <c r="I82" s="162" t="e">
         <f>H82/$H$74</f>
         <v>#VALUE!</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="106" t="s">
-        <v>129</v>
-      </c>
-      <c r="C83" s="168" t="e">
+      <c r="B83" s="105" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" s="165" t="e">
         <f>C78-C79-C80-C81-C82</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D83" s="169" t="e">
+      <c r="D83" s="166" t="e">
         <f>C83/$C$74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E83" s="170" t="e">
+      <c r="E83" s="167" t="e">
         <f>E78-E79-E80-E81-E82</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F83" s="169" t="e">
+      <c r="F83" s="166" t="e">
         <f>E83/E74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H83" s="170" t="e">
+      <c r="H83" s="167" t="e">
         <f>H78-H79-H80-H81-H82</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I83" s="169" t="e">
+      <c r="I83" s="166" t="e">
         <f>H83/$H$74</f>
         <v>#VALUE!</v>
       </c>
@@ -11602,18 +11544,18 @@
       <c r="B84" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="220"/>
-      <c r="D84" s="164">
+      <c r="C84" s="217"/>
+      <c r="D84" s="161">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="221"/>
-      <c r="F84" s="185">
+      <c r="E84" s="218"/>
+      <c r="F84" s="182">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="H84" s="221"/>
-      <c r="I84" s="211">
+      <c r="H84" s="218"/>
+      <c r="I84" s="208">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
@@ -11621,29 +11563,29 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="86" t="s">
-        <v>170</v>
-      </c>
-      <c r="C85" s="166" t="e">
+        <v>169</v>
+      </c>
+      <c r="C85" s="163" t="e">
         <f>C83*(1-I84)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D85" s="171" t="e">
+      <c r="D85" s="168" t="e">
         <f>C85/$C$74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E85" s="172" t="e">
+      <c r="E85" s="169" t="e">
         <f>E83*(1-F84)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F85" s="171" t="e">
+      <c r="F85" s="168" t="e">
         <f>E85/E74</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H85" s="172" t="e">
+      <c r="H85" s="169" t="e">
         <f>H83*(1-I84)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I85" s="171" t="e">
+      <c r="I85" s="168" t="e">
         <f>H85/$H$74</f>
         <v>#VALUE!</v>
       </c>
@@ -11651,71 +11593,71 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>166</v>
-      </c>
-      <c r="C86" s="173" t="e">
+        <v>165</v>
+      </c>
+      <c r="C86" s="170" t="e">
         <f>C85*Data!C4/Common_Shares</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D86" s="218"/>
-      <c r="E86" s="174" t="e">
+      <c r="D86" s="215"/>
+      <c r="E86" s="171" t="e">
         <f>E85*Data!C4/Common_Shares</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F86" s="218"/>
-      <c r="H86" s="174" t="e">
+      <c r="F86" s="215"/>
+      <c r="H86" s="171" t="e">
         <f>H85*Data!C4/Common_Shares</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I86" s="218"/>
+      <c r="I86" s="215"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>217</v>
-      </c>
-      <c r="C87" s="165" t="e">
+        <v>216</v>
+      </c>
+      <c r="C87" s="162" t="e">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D87" s="218"/>
-      <c r="E87" s="239" t="e">
+      <c r="D87" s="215"/>
+      <c r="E87" s="233" t="e">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F87" s="218"/>
-      <c r="H87" s="239" t="e">
+      <c r="F87" s="215"/>
+      <c r="H87" s="233" t="e">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I87" s="218"/>
+      <c r="I87" s="215"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="C88" s="175">
+        <v>215</v>
+      </c>
+      <c r="C88" s="172">
         <f>Inputs!F5</f>
         <v>0</v>
       </c>
-      <c r="D88" s="171" t="e">
+      <c r="D88" s="168" t="e">
         <f>C88/C86</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E88" s="204">
+      <c r="E88" s="201">
         <f>H88</f>
         <v>0</v>
       </c>
-      <c r="F88" s="171" t="e">
+      <c r="F88" s="168" t="e">
         <f>E88/E86</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H88" s="176">
+      <c r="H88" s="173">
         <f>Inputs!F6</f>
         <v>0</v>
       </c>
-      <c r="I88" s="171" t="e">
+      <c r="I88" s="168" t="e">
         <f>H88/H86</f>
         <v>#VALUE!</v>
       </c>
@@ -11723,23 +11665,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>234</v>
-      </c>
-      <c r="C89" s="165">
+        <v>232</v>
+      </c>
+      <c r="C89" s="162">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="D89" s="218"/>
-      <c r="E89" s="165">
+      <c r="D89" s="215"/>
+      <c r="E89" s="162">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="F89" s="218"/>
-      <c r="H89" s="165">
+      <c r="F89" s="215"/>
+      <c r="H89" s="162">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="I89" s="218"/>
+      <c r="I89" s="215"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11748,32 +11690,32 @@
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="107" t="s">
-        <v>160</v>
+      <c r="B91" s="106" t="s">
+        <v>159</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C92" s="207" t="str">
+        <v>160</v>
+      </c>
+      <c r="C92" s="204" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E92" s="260" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F92" s="260"/>
       <c r="G92" s="87"/>
       <c r="H92" s="260" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I92" s="260"/>
       <c r="K92" s="24"/>
@@ -11783,24 +11725,24 @@
         <f>C92&amp;" Required Return"</f>
         <v>CN Required Return</v>
       </c>
-      <c r="C93" s="137">
+      <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D93" s="206">
+      <c r="D93" s="203">
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>218</v>
-      </c>
-      <c r="F93" s="146" t="e">
+        <v>217</v>
+      </c>
+      <c r="F93" s="145" t="e">
         <f>FV(E87,D93,0,-(E86/C93))</f>
         <v>#VALUE!</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>218</v>
-      </c>
-      <c r="I93" s="146" t="e">
+        <v>217</v>
+      </c>
+      <c r="I93" s="145" t="e">
         <f>FV(H87,D93,0,-(H86/C93))</f>
         <v>#VALUE!</v>
       </c>
@@ -11808,24 +11750,24 @@
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C94" s="188">
+        <v>219</v>
+      </c>
+      <c r="C94" s="185">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="147"/>
+      <c r="D94" s="146"/>
       <c r="E94" s="87" t="s">
-        <v>219</v>
-      </c>
-      <c r="F94" s="146">
+        <v>218</v>
+      </c>
+      <c r="F94" s="145">
         <f>FV(E89,D93,0,-(E88/C93))</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>219</v>
-      </c>
-      <c r="I94" s="146">
+        <v>218</v>
+      </c>
+      <c r="I94" s="145">
         <f>FV(H89,D93,0,-(H88/C93))</f>
         <v>0</v>
       </c>
@@ -11837,118 +11779,118 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="107" t="str">
+      <c r="B96" s="106" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="128" t="str">
+      <c r="C96" s="127" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="125" t="s">
-        <v>223</v>
-      </c>
-      <c r="E96" s="189" t="str">
+      <c r="D96" s="124" t="s">
+        <v>222</v>
+      </c>
+      <c r="E96" s="186" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="246" t="s">
-        <v>262</v>
-      </c>
-      <c r="H96" s="189" t="str">
+      <c r="F96" s="240" t="s">
+        <v>253</v>
+      </c>
+      <c r="H96" s="186" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="125" t="s">
-        <v>222</v>
+      <c r="I96" s="124" t="s">
+        <v>221</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C97" s="91" t="e">
         <f>H97*Common_Shares/Data!C4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D97" s="222"/>
-      <c r="E97" s="124" t="e">
+      <c r="D97" s="219"/>
+      <c r="E97" s="123" t="e">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F97" s="222"/>
-      <c r="H97" s="124" t="e">
+      <c r="F97" s="219"/>
+      <c r="H97" s="123" t="e">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I97" s="224"/>
+      <c r="I97" s="221"/>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="222"/>
-      <c r="E98" s="222"/>
-      <c r="F98" s="222"/>
-      <c r="H98" s="124">
+      <c r="D98" s="219"/>
+      <c r="E98" s="219"/>
+      <c r="F98" s="219"/>
+      <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="224"/>
+      <c r="I98" s="221"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="106" t="s">
-        <v>150</v>
-      </c>
-      <c r="C99" s="109">
+      <c r="B99" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="223"/>
-      <c r="E99" s="148">
+      <c r="D99" s="220"/>
+      <c r="E99" s="147">
         <f>IF(H99&gt;0,H99*0.85,H99*1.15)</f>
         <v>0</v>
       </c>
-      <c r="F99" s="223"/>
-      <c r="H99" s="148">
+      <c r="F99" s="220"/>
+      <c r="H99" s="147">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="225"/>
+      <c r="I99" s="222"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C100" s="91" t="e">
         <f>C97-C98+$C$99</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D100" s="110" t="e">
+      <c r="D100" s="109" t="e">
         <f>F100*(1-C94)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E100" s="110" t="e">
+      <c r="E100" s="109" t="e">
         <f>MAX(E97-H98+E99,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F100" s="110" t="e">
+      <c r="F100" s="109" t="e">
         <f>(E100+H100)/2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H100" s="110" t="e">
+      <c r="H100" s="109" t="e">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I100" s="110" t="e">
+      <c r="I100" s="109" t="e">
         <f>F100*1.25</f>
         <v>#VALUE!</v>
       </c>
@@ -11960,56 +11902,56 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C102" s="128" t="str">
+        <v>167</v>
+      </c>
+      <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="125" t="s">
-        <v>223</v>
-      </c>
-      <c r="E102" s="189" t="str">
+      <c r="D102" s="124" t="s">
+        <v>222</v>
+      </c>
+      <c r="E102" s="186" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="246" t="s">
-        <v>262</v>
-      </c>
-      <c r="H102" s="189" t="str">
+      <c r="F102" s="240" t="s">
+        <v>253</v>
+      </c>
+      <c r="H102" s="186" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="125" t="s">
-        <v>222</v>
+      <c r="I102" s="124" t="s">
+        <v>221</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
         <v>0</v>
       </c>
-      <c r="D103" s="110">
+      <c r="D103" s="109">
         <f>F103*(1-C94)</f>
         <v>0</v>
       </c>
-      <c r="E103" s="124">
+      <c r="E103" s="123">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="F103" s="110">
+      <c r="F103" s="109">
         <f>(E103+H103)/2</f>
         <v>0</v>
       </c>
-      <c r="H103" s="124">
+      <c r="H103" s="123">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="I103" s="110">
+      <c r="I103" s="109">
         <f>F103*1.25</f>
         <v>0</v>
       </c>
@@ -12021,56 +11963,56 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C105" s="128" t="str">
+        <v>205</v>
+      </c>
+      <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="125" t="s">
-        <v>223</v>
-      </c>
-      <c r="E105" s="190" t="str">
+      <c r="D105" s="124" t="s">
+        <v>222</v>
+      </c>
+      <c r="E105" s="187" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="246" t="s">
-        <v>262</v>
-      </c>
-      <c r="H105" s="190" t="str">
+      <c r="F105" s="240" t="s">
+        <v>253</v>
+      </c>
+      <c r="H105" s="187" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="125" t="s">
-        <v>222</v>
+      <c r="I105" s="124" t="s">
+        <v>221</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C106" s="91" t="e">
         <f>E106*Common_Shares/Data!C4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D106" s="110" t="e">
+      <c r="D106" s="109" t="e">
         <f>(D100+D103)/2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E106" s="124" t="e">
+      <c r="E106" s="123" t="e">
         <f>(E100+E103)/2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F106" s="110" t="e">
+      <c r="F106" s="109" t="e">
         <f>(F100+F103)/2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H106" s="124" t="e">
+      <c r="H106" s="123" t="e">
         <f>(H100+H103)/2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I106" s="124" t="e">
+      <c r="I106" s="123" t="e">
         <f>(I100+I103)/2</f>
         <v>#VALUE!</v>
       </c>
@@ -12081,10 +12023,10 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C108" s="191" t="s">
-        <v>237</v>
+        <v>170</v>
+      </c>
+      <c r="C108" s="188" t="s">
+        <v>260</v>
       </c>
       <c r="K108" s="24"/>
     </row>
@@ -12138,7 +12080,7 @@
       <formula>LEN(TRIM(H88))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation allowBlank="1" sqref="D52" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:F20 F35:F37" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>

--- a/financial_models/templates/Stock_Valuation.xlsx
+++ b/financial_models/templates/Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEECF82E-215E-4C63-9F46-D809AE32E11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1157B0D1-25F9-4BB8-88E8-B5F1917C14B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="266">
   <si>
     <t>Company Info:</t>
   </si>
@@ -820,19 +820,10 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CN</t>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>- Operating Expenses =</t>
-  </si>
-  <si>
-    <t>- (MCX - D&amp;A)</t>
-  </si>
-  <si>
     <t>Earnings Power Checklist</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -916,18 +907,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>1475.HK</t>
-  </si>
-  <si>
-    <t>NISSIN FOODS</t>
-  </si>
-  <si>
-    <t>C0002</t>
-  </si>
-  <si>
-    <t>Profit</t>
-  </si>
-  <si>
     <t>- Pre-tax Non-controling Interests</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -940,14 +919,34 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Strongly disagree</t>
+    <t>0590.HK</t>
+  </si>
+  <si>
+    <t>六福珠宝</t>
+  </si>
+  <si>
+    <t>C0003</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>OPEX+R&amp;D</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
+    <t>unclear</t>
+  </si>
+  <si>
+    <t>- (CAPX - D&amp;A)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>- (OPEX + R&amp;D) =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -3440,7 +3439,7 @@
   <dimension ref="A2:M87"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3480,7 +3479,7 @@
       </c>
       <c r="E5" s="228">
         <f>C18</f>
-        <v>45291</v>
+        <v>45381</v>
       </c>
       <c r="F5" s="229"/>
     </row>
@@ -3489,7 +3488,7 @@
         <v>168</v>
       </c>
       <c r="C6" s="193">
-        <v>45591</v>
+        <v>45593</v>
       </c>
       <c r="E6" s="230" t="s">
         <v>213</v>
@@ -3525,7 +3524,7 @@
         <v>226</v>
       </c>
       <c r="C10" s="197">
-        <v>1043691480</v>
+        <v>587107850</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
@@ -3541,7 +3540,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="225">
-        <v>45291</v>
+        <v>45381</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
@@ -3557,7 +3556,7 @@
         <v>229</v>
       </c>
       <c r="C14" s="225">
-        <v>45473</v>
+        <v>45381</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
@@ -3565,7 +3564,7 @@
         <v>228</v>
       </c>
       <c r="C15" s="179" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
@@ -3583,47 +3582,47 @@
       </c>
       <c r="C18" s="48">
         <f>C12</f>
-        <v>45291</v>
+        <v>45381</v>
       </c>
       <c r="D18" s="49">
         <f>EOMONTH(EDATE(C18,-12),0)</f>
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="E18" s="49">
         <f t="shared" ref="E18:M18" si="0">EOMONTH(EDATE(D18,-12),0)</f>
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="F18" s="49">
         <f t="shared" si="0"/>
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="G18" s="49">
         <f t="shared" si="0"/>
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="H18" s="49">
         <f t="shared" si="0"/>
-        <v>43465</v>
+        <v>43555</v>
       </c>
       <c r="I18" s="49">
         <f t="shared" si="0"/>
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="J18" s="49">
         <f t="shared" si="0"/>
-        <v>42735</v>
+        <v>42825</v>
       </c>
       <c r="K18" s="49">
         <f t="shared" si="0"/>
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="L18" s="49">
         <f t="shared" si="0"/>
-        <v>42004</v>
+        <v>42094</v>
       </c>
       <c r="M18" s="49">
         <f t="shared" si="0"/>
-        <v>41639</v>
+        <v>41729</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
@@ -4361,7 +4360,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4392,7 +4391,7 @@
       </c>
       <c r="C2" s="25" t="str">
         <f>C3&amp;" : "&amp;C4</f>
-        <v>1475.HK : NISSIN FOODS</v>
+        <v>0590.HK : 六福珠宝</v>
       </c>
       <c r="D2" s="87"/>
       <c r="E2" s="7"/>
@@ -4406,7 +4405,7 @@
       </c>
       <c r="C3" s="252" t="str">
         <f>Inputs!C4</f>
-        <v>1475.HK</v>
+        <v>0590.HK</v>
       </c>
       <c r="D3" s="253"/>
       <c r="E3" s="87"/>
@@ -4414,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.6300001144409197</v>
+        <v>15</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4426,7 +4425,7 @@
       </c>
       <c r="C4" s="254" t="str">
         <f>Inputs!C5</f>
-        <v>NISSIN FOODS</v>
+        <v>六福珠宝</v>
       </c>
       <c r="D4" s="255"/>
       <c r="E4" s="87"/>
@@ -4435,7 +4434,7 @@
       </c>
       <c r="G4" s="258">
         <f>Inputs!C10</f>
-        <v>1043691480</v>
+        <v>587107850</v>
       </c>
       <c r="H4" s="258"/>
       <c r="I4" s="39"/>
@@ -4446,7 +4445,7 @@
       </c>
       <c r="C5" s="256">
         <f>Inputs!C6</f>
-        <v>45591</v>
+        <v>45593</v>
       </c>
       <c r="D5" s="257"/>
       <c r="E5" s="34"/>
@@ -4455,7 +4454,7 @@
       </c>
       <c r="G5" s="250">
         <f>G3*G4/1000000</f>
-        <v>4832.2916718410133</v>
+        <v>8806.6177499999994</v>
       </c>
       <c r="H5" s="250"/>
       <c r="I5" s="38"/>
@@ -4471,11 +4470,11 @@
       </c>
       <c r="D6" s="190">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="E6" s="51">
         <f>IF(Fin_Analysis!E9="FY",Fin_Analysis!D9,Data!C3)</f>
-        <v>45291</v>
+        <v>45381</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>5</v>
@@ -4497,7 +4496,7 @@
       </c>
       <c r="D7" s="191" t="str">
         <f>Inputs!C9</f>
-        <v>C0002</v>
+        <v>C0003</v>
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
@@ -4636,7 +4635,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C21" s="174" t="e">
         <f>Fin_Analysis!I77</f>
@@ -4659,7 +4658,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C23" s="174" t="e">
         <f>Fin_Analysis!I80</f>
@@ -4735,10 +4734,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G28" s="248" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H28" s="248"/>
     </row>
@@ -4769,30 +4768,30 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="200" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C32" s="235"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C33" s="236" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C34" s="237" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -4803,51 +4802,51 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="200" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C35" s="235"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C36" s="236" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C37" s="236" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="200" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C38" s="235"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C39" s="236" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C40" s="236" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4858,17 +4857,17 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="238" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C43" s="239" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5822,10 +5821,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5876,13 +5875,13 @@
       </c>
       <c r="C3" s="207">
         <f>Inputs!C12</f>
-        <v>45291</v>
+        <v>45381</v>
       </c>
       <c r="E3" s="148" t="s">
         <v>208</v>
       </c>
       <c r="F3" s="85" t="str">
-        <f>J14</f>
+        <f>H14</f>
         <v/>
       </c>
       <c r="G3" s="85" t="e">
@@ -5890,7 +5889,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H3" s="85">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I3" s="87"/>
       <c r="J3" s="42"/>
@@ -5927,47 +5926,47 @@
       </c>
       <c r="C5" s="48">
         <f>C3</f>
-        <v>45291</v>
+        <v>45381</v>
       </c>
       <c r="D5" s="49">
         <f>EOMONTH(EDATE(C5,-12),0)</f>
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="E5" s="49">
         <f t="shared" ref="E5:M5" si="0">EOMONTH(EDATE(D5,-12),0)</f>
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="F5" s="49">
         <f t="shared" si="0"/>
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="G5" s="49">
         <f t="shared" si="0"/>
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="H5" s="49">
         <f t="shared" si="0"/>
-        <v>43465</v>
+        <v>43555</v>
       </c>
       <c r="I5" s="49">
         <f t="shared" si="0"/>
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="J5" s="49">
         <f t="shared" si="0"/>
-        <v>42735</v>
+        <v>42825</v>
       </c>
       <c r="K5" s="49">
         <f t="shared" si="0"/>
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="L5" s="49">
         <f t="shared" si="0"/>
-        <v>42004</v>
+        <v>42094</v>
       </c>
       <c r="M5" s="49">
         <f t="shared" si="0"/>
-        <v>41639</v>
+        <v>41729</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6279,7 +6278,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C12" s="205" t="str">
         <f>IF(Inputs!C24="","",MAX(Inputs!C24,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6330,7 +6329,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="241" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C13" s="242" t="e">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6381,14 +6380,14 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="241" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C14" s="243" t="e">
-        <f t="shared" ref="C14:M14" si="4">IF(C6="","",C9-C10-MAX(C11,0)-C12)</f>
+        <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D14" s="243" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v/>
       </c>
       <c r="E14" s="243" t="str">
@@ -6432,7 +6431,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="244" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C15" s="245" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6687,7 +6686,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C20" s="154" t="e">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6792,11 +6791,11 @@
         <v>112</v>
       </c>
       <c r="C22" s="163" t="e">
-        <f t="shared" ref="C22:M22" si="8">IF(C6="","",C14-MAX(C17,0)+MAX(C19,0)-MAX(C21,0)-MAX(C16,0))</f>
+        <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-MAX(MAX(C21,0)-MAX(C19,0),0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D22" s="163" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-MAX(MAX(D21,0)-MAX(D19,0),0))</f>
         <v/>
       </c>
       <c r="E22" s="163" t="str">
@@ -6997,47 +6996,47 @@
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
-        <v>45473</v>
+        <v>45381</v>
       </c>
       <c r="D26" s="49">
         <f>D5</f>
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="E26" s="49">
         <f t="shared" ref="E26" si="11">EOMONTH(EDATE(D26,-12),0)</f>
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="F26" s="49">
         <f t="shared" ref="F26" si="12">EOMONTH(EDATE(E26,-12),0)</f>
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="G26" s="49">
         <f t="shared" ref="G26" si="13">EOMONTH(EDATE(F26,-12),0)</f>
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="H26" s="49">
         <f t="shared" ref="H26" si="14">EOMONTH(EDATE(G26,-12),0)</f>
-        <v>43465</v>
+        <v>43555</v>
       </c>
       <c r="I26" s="49">
         <f t="shared" ref="I26" si="15">EOMONTH(EDATE(H26,-12),0)</f>
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="J26" s="49">
         <f t="shared" ref="J26" si="16">EOMONTH(EDATE(I26,-12),0)</f>
-        <v>42735</v>
+        <v>42825</v>
       </c>
       <c r="K26" s="49">
         <f t="shared" ref="K26" si="17">EOMONTH(EDATE(J26,-12),0)</f>
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="L26" s="49">
         <f t="shared" ref="L26" si="18">EOMONTH(EDATE(K26,-12),0)</f>
-        <v>42004</v>
+        <v>42094</v>
       </c>
       <c r="M26" s="49">
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
-        <v>41639</v>
+        <v>41729</v>
       </c>
       <c r="N26" s="87"/>
     </row>
@@ -7827,7 +7826,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C43" s="155" t="e">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -7983,11 +7982,11 @@
         <v>132</v>
       </c>
       <c r="C46" s="155" t="e">
-        <f t="shared" ref="C46:M46" si="38">IF(C6="","",C12/C6)</f>
+        <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D46" s="155" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v/>
       </c>
       <c r="E46" s="155" t="str">
@@ -8031,14 +8030,14 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C47" s="155" t="e">
-        <f t="shared" ref="C47:M47" si="39">IF(C6="","",(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <f>IF(C6="","",MAX(MAX(C21,0)-MAX(C19,0),0)/C6)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D47" s="155" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="D47:M47" si="39">IF(D6="","",MAX(MAX(D21,0)-MAX(D19,0),0)/D6)</f>
         <v/>
       </c>
       <c r="E47" s="155" t="str">
@@ -9760,8 +9759,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9909,11 +9908,11 @@
       <c r="C9" s="86"/>
       <c r="D9" s="209">
         <f>Inputs!C14</f>
-        <v>45473</v>
+        <v>45381</v>
       </c>
       <c r="E9" s="119" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
-        <v>Quarter</v>
+        <v>FY</v>
       </c>
       <c r="F9" s="86"/>
       <c r="G9" s="86"/>
@@ -11232,7 +11231,7 @@
       </c>
       <c r="C72" s="262">
         <f>Data!C5</f>
-        <v>45291</v>
+        <v>45381</v>
       </c>
       <c r="D72" s="262"/>
       <c r="E72" s="260" t="s">
@@ -11340,18 +11339,18 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>233</v>
-      </c>
-      <c r="C77" s="77" t="str">
-        <f>Data!C10</f>
-        <v/>
+        <v>265</v>
+      </c>
+      <c r="C77" s="77" t="e">
+        <f>Data!C10+MAX(Data!C11,0)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D77" s="161" t="e">
         <f>C77/$C$74</f>
         <v>#VALUE!</v>
       </c>
       <c r="E77" s="202" t="e">
-        <f>E74*D77</f>
+        <f>E74*I77</f>
         <v>#VALUE!</v>
       </c>
       <c r="F77" s="162" t="e">
@@ -11370,7 +11369,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C78" s="163" t="e">
         <f>C76-C77</f>
@@ -11421,10 +11420,10 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="C80" s="77">
-        <f>MAX(Data!C11,0)+MAX(Data!C21,0)-MAX(Data!C19,0)</f>
+        <f>MAX(MAX(Data!C21,0)-MAX(Data!C19,0),0)</f>
         <v>0</v>
       </c>
       <c r="D80" s="161" t="e">
@@ -11440,7 +11439,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="202" t="e">
-        <f>H74*0.01</f>
+        <f>H74*D80</f>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="162" t="e">
@@ -11469,8 +11468,9 @@
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H81" s="202">
-        <v>0</v>
+      <c r="H81" s="202" t="e">
+        <f>H74*D81</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I81" s="162" t="e">
         <f>H81/$H$74</f>
@@ -11665,7 +11665,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C89" s="162">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -11704,7 +11704,7 @@
       </c>
       <c r="C92" s="204" t="str">
         <f>Inputs!C15</f>
-        <v>CN</v>
+        <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>161</v>
@@ -11723,11 +11723,11 @@
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Required Return"</f>
-        <v>CN Required Return</v>
+        <v>HK Required Return</v>
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D93" s="203">
         <v>5</v>
@@ -11795,7 +11795,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="240" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H96" s="186" t="str">
         <f>H72</f>
@@ -11916,7 +11916,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="240" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H102" s="186" t="str">
         <f>H96</f>
@@ -11977,7 +11977,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="240" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H105" s="187" t="str">
         <f>H96</f>

--- a/financial_models/templates/Stock_Valuation.xlsx
+++ b/financial_models/templates/Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1157B0D1-25F9-4BB8-88E8-B5F1917C14B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2B70C7-B7AB-774B-9C7F-69DEE4632D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -22,10 +22,21 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -955,18 +966,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1447,7 +1458,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="264">
@@ -1503,8 +1514,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1527,14 +1538,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1564,7 +1575,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1666,7 +1677,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1694,7 +1705,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1750,13 +1761,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1792,7 +1803,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1825,16 +1836,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1855,7 +1866,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1880,10 +1891,10 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1892,10 +1903,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1912,13 +1923,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1930,13 +1941,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1974,7 +1985,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1983,10 +1994,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2045,7 +2056,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2059,7 +2070,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2072,20 +2083,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -2266,7 +2277,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2328,7 +2339,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2600,7 +2611,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2630,7 +2641,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3442,20 +3453,20 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B4" s="141" t="s">
         <v>202</v>
       </c>
@@ -3470,7 +3481,7 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B5" s="141" t="s">
         <v>203</v>
       </c>
@@ -3483,7 +3494,7 @@
       </c>
       <c r="F5" s="229"/>
     </row>
-    <row r="6" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="141" t="s">
         <v>168</v>
       </c>
@@ -3495,7 +3506,7 @@
       </c>
       <c r="F6" s="229"/>
     </row>
-    <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3503,7 +3514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="140" t="s">
         <v>224</v>
       </c>
@@ -3511,7 +3522,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="140" t="s">
         <v>225</v>
       </c>
@@ -3519,7 +3530,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="140" t="s">
         <v>226</v>
       </c>
@@ -3527,7 +3538,7 @@
         <v>587107850</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="140" t="s">
         <v>227</v>
       </c>
@@ -3535,7 +3546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="224" t="s">
         <v>10</v>
       </c>
@@ -3543,7 +3554,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="224" t="s">
         <v>11</v>
       </c>
@@ -3551,7 +3562,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="224" t="s">
         <v>229</v>
       </c>
@@ -3559,7 +3570,7 @@
         <v>45381</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="224" t="s">
         <v>228</v>
       </c>
@@ -3567,7 +3578,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="231" t="s">
         <v>97</v>
       </c>
@@ -3576,7 +3587,7 @@
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B18" s="115" t="s">
         <v>137</v>
       </c>
@@ -3625,7 +3636,7 @@
         <v>41729</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B19" s="94" t="s">
         <v>12</v>
       </c>
@@ -3641,7 +3652,7 @@
       <c r="L19" s="151"/>
       <c r="M19" s="151"/>
     </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B20" s="97" t="s">
         <v>106</v>
       </c>
@@ -3657,7 +3668,7 @@
       <c r="L20" s="152"/>
       <c r="M20" s="152"/>
     </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
@@ -3673,7 +3684,7 @@
       <c r="L21" s="152"/>
       <c r="M21" s="152"/>
     </row>
-    <row r="22" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B22" s="97" t="s">
         <v>107</v>
       </c>
@@ -3689,7 +3700,7 @@
       <c r="L22" s="152"/>
       <c r="M22" s="152"/>
     </row>
-    <row r="23" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B23" s="97" t="s">
         <v>124</v>
       </c>
@@ -3705,7 +3716,7 @@
       <c r="L23" s="152"/>
       <c r="M23" s="152"/>
     </row>
-    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B24" s="99" t="s">
         <v>111</v>
       </c>
@@ -3721,7 +3732,7 @@
       <c r="L24" s="152"/>
       <c r="M24" s="152"/>
     </row>
-    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="97" t="s">
         <v>110</v>
       </c>
@@ -3737,7 +3748,7 @@
       <c r="L25" s="152"/>
       <c r="M25" s="152"/>
     </row>
-    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
@@ -3753,7 +3764,7 @@
       <c r="L26" s="152"/>
       <c r="M26" s="152"/>
     </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B27" s="97" t="s">
         <v>108</v>
       </c>
@@ -3769,7 +3780,7 @@
       <c r="L27" s="152"/>
       <c r="M27" s="152"/>
     </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="94" t="s">
         <v>15</v>
       </c>
@@ -3785,7 +3796,7 @@
       <c r="L28" s="152"/>
       <c r="M28" s="152"/>
     </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>117</v>
       </c>
@@ -3801,7 +3812,7 @@
       <c r="L29" s="152"/>
       <c r="M29" s="152"/>
     </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B30" s="94" t="s">
         <v>152</v>
       </c>
@@ -3817,7 +3828,7 @@
       <c r="L30" s="152"/>
       <c r="M30" s="152"/>
     </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="94" t="s">
         <v>16</v>
       </c>
@@ -3833,7 +3844,7 @@
       <c r="L31" s="152"/>
       <c r="M31" s="152"/>
     </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="94" t="s">
         <v>116</v>
       </c>
@@ -3849,7 +3860,7 @@
       <c r="L32" s="152"/>
       <c r="M32" s="152"/>
     </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="94" t="s">
         <v>17</v>
       </c>
@@ -3865,7 +3876,7 @@
       <c r="L33" s="152"/>
       <c r="M33" s="152"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B34" s="94" t="s">
         <v>18</v>
       </c>
@@ -3881,7 +3892,7 @@
       <c r="L34" s="152"/>
       <c r="M34" s="152"/>
     </row>
-    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="94" t="s">
         <v>141</v>
       </c>
@@ -3897,7 +3908,7 @@
       <c r="L35" s="152"/>
       <c r="M35" s="152"/>
     </row>
-    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="94" t="s">
         <v>142</v>
       </c>
@@ -3913,7 +3924,7 @@
       <c r="L36" s="152"/>
       <c r="M36" s="152"/>
     </row>
-    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="94" t="s">
         <v>140</v>
       </c>
@@ -3929,7 +3940,7 @@
       <c r="L37" s="152"/>
       <c r="M37" s="152"/>
     </row>
-    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="200" t="s">
         <v>33</v>
       </c>
@@ -3943,7 +3954,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
@@ -3953,7 +3964,7 @@
       </c>
       <c r="E40" s="112"/>
     </row>
-    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>139</v>
       </c>
@@ -3963,7 +3974,7 @@
       </c>
       <c r="E41" s="112"/>
     </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>117</v>
       </c>
@@ -3974,7 +3985,7 @@
       </c>
       <c r="E42" s="112"/>
     </row>
-    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
@@ -3984,7 +3995,7 @@
       </c>
       <c r="E43" s="112"/>
     </row>
-    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
@@ -3994,7 +4005,7 @@
       </c>
       <c r="E44" s="112"/>
     </row>
-    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>163</v>
       </c>
@@ -4005,7 +4016,7 @@
       </c>
       <c r="E45" s="112"/>
     </row>
-    <row r="46" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>118</v>
       </c>
@@ -4015,7 +4026,7 @@
       </c>
       <c r="E46" s="112"/>
     </row>
-    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
@@ -4026,7 +4037,7 @@
       </c>
       <c r="E47" s="112"/>
     </row>
-    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
@@ -4039,7 +4050,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>120</v>
       </c>
@@ -4051,7 +4062,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
@@ -4062,7 +4073,7 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="35" t="s">
         <v>51</v>
       </c>
@@ -4073,7 +4084,7 @@
       </c>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
@@ -4084,7 +4095,7 @@
       </c>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>63</v>
       </c>
@@ -4095,7 +4106,7 @@
       </c>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>65</v>
       </c>
@@ -4106,7 +4117,7 @@
       </c>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>164</v>
       </c>
@@ -4117,7 +4128,7 @@
       </c>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
@@ -4127,7 +4138,7 @@
       </c>
       <c r="E56" s="112"/>
     </row>
-    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
@@ -4139,7 +4150,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>72</v>
       </c>
@@ -4151,7 +4162,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>49</v>
       </c>
@@ -4164,7 +4175,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>119</v>
       </c>
@@ -4175,7 +4186,7 @@
       </c>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>73</v>
       </c>
@@ -4186,7 +4197,7 @@
       </c>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>74</v>
       </c>
@@ -4196,7 +4207,7 @@
       </c>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
         <v>75</v>
       </c>
@@ -4207,7 +4218,7 @@
       </c>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>76</v>
       </c>
@@ -4217,100 +4228,100 @@
       </c>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="2:3" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B65" s="200" t="s">
         <v>37</v>
       </c>
       <c r="C65" s="198"/>
     </row>
-    <row r="66" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C66" s="59"/>
     </row>
-    <row r="67" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C67" s="59"/>
     </row>
-    <row r="68" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="59"/>
     </row>
-    <row r="69" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B69" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C69" s="120"/>
     </row>
-    <row r="70" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B70" s="80" t="s">
         <v>16</v>
       </c>
       <c r="C70" s="83"/>
     </row>
-    <row r="71" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="59"/>
     </row>
-    <row r="72" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C72" s="59"/>
     </row>
-    <row r="73" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B74" s="86" t="s">
         <v>67</v>
       </c>
       <c r="C74" s="120"/>
     </row>
-    <row r="75" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B75" s="80" t="s">
         <v>85</v>
       </c>
       <c r="C75" s="83"/>
     </row>
-    <row r="76" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B76" s="73" t="s">
         <v>230</v>
       </c>
       <c r="C76" s="59"/>
     </row>
-    <row r="77" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B77" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C77" s="59"/>
     </row>
-    <row r="78" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B78" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="81" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B81" s="20"/>
     </row>
-    <row r="85" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B85" s="20"/>
     </row>
-    <row r="86" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B86" s="20"/>
     </row>
-    <row r="87" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B87" s="20"/>
     </row>
   </sheetData>
@@ -4359,23 +4370,23 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -4384,7 +4395,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4399,7 +4410,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>202</v>
       </c>
@@ -4419,7 +4430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>203</v>
       </c>
@@ -4439,7 +4450,7 @@
       <c r="H4" s="258"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>168</v>
       </c>
@@ -4460,7 +4471,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -4486,7 +4497,7 @@
       <c r="H6" s="251"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="86" t="s">
         <v>200</v>
       </c>
@@ -4510,8 +4521,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="139" t="s">
         <v>198</v>
       </c>
@@ -4519,7 +4530,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>181</v>
       </c>
@@ -4530,7 +4541,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="122" t="s">
         <v>185</v>
       </c>
@@ -4544,7 +4555,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="87" t="s">
         <v>135</v>
       </c>
@@ -4556,8 +4567,8 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>182</v>
       </c>
@@ -4568,7 +4579,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>193</v>
       </c>
@@ -4579,7 +4590,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="122" t="s">
         <v>194</v>
       </c>
@@ -4593,7 +4604,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="87" t="s">
         <v>187</v>
       </c>
@@ -4602,8 +4613,8 @@
       </c>
       <c r="D17" s="179"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="142" t="s">
         <v>190</v>
       </c>
@@ -4618,7 +4629,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="137" t="s">
         <v>174</v>
       </c>
@@ -4633,7 +4644,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="137" t="s">
         <v>262</v>
       </c>
@@ -4644,7 +4655,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="137" t="s">
         <v>175</v>
       </c>
@@ -4656,7 +4667,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="137" t="s">
         <v>261</v>
       </c>
@@ -4672,7 +4683,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="137" t="s">
         <v>176</v>
       </c>
@@ -4688,7 +4699,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="137" t="s">
         <v>199</v>
       </c>
@@ -4704,7 +4715,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="138" t="s">
         <v>178</v>
       </c>
@@ -4720,8 +4731,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
@@ -4741,7 +4752,7 @@
       </c>
       <c r="H28" s="248"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="87" t="s">
         <v>173</v>
       </c>
@@ -4764,22 +4775,22 @@
       </c>
       <c r="H29" s="249"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>232</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32"/>
       <c r="B32" s="200" t="s">
         <v>233</v>
       </c>
       <c r="C32" s="235"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>234</v>
@@ -4788,7 +4799,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
         <v>235</v>
@@ -4799,14 +4810,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35"/>
       <c r="B35" s="200" t="s">
         <v>236</v>
       </c>
       <c r="C35" s="235"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>252</v>
@@ -4815,7 +4826,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
         <v>253</v>
@@ -4824,14 +4835,14 @@
         <v>243</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38"/>
       <c r="B38" s="200" t="s">
         <v>237</v>
       </c>
       <c r="C38" s="235"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>238</v>
@@ -4840,7 +4851,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
         <v>244</v>
@@ -4849,19 +4860,19 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
         <v>239</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A43"/>
       <c r="B43" s="238" t="s">
         <v>240</v>
@@ -4870,886 +4881,886 @@
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -5821,13 +5832,13 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D34" sqref="D34"/>
+      <selection pane="topRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -5835,7 +5846,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -5843,7 +5854,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -5868,7 +5879,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
         <v>10</v>
@@ -5897,7 +5908,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
         <v>11</v>
@@ -5919,7 +5930,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
         <v>137</v>
@@ -5969,7 +5980,7 @@
         <v>41729</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>12</v>
@@ -6020,7 +6031,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>13</v>
@@ -6071,7 +6082,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>106</v>
@@ -6122,7 +6133,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>103</v>
@@ -6173,7 +6184,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>104</v>
@@ -6224,7 +6235,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
         <v>107</v>
@@ -6275,7 +6286,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
         <v>254</v>
@@ -6326,7 +6337,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="241" t="s">
         <v>255</v>
@@ -6377,7 +6388,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="241" t="s">
         <v>246</v>
@@ -6428,7 +6439,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="244" t="s">
         <v>256</v>
@@ -6479,7 +6490,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>110</v>
@@ -6530,7 +6541,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>124</v>
@@ -6581,7 +6592,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
         <v>99</v>
@@ -6632,7 +6643,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
         <v>105</v>
@@ -6683,7 +6694,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
         <v>248</v>
@@ -6734,7 +6745,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
         <v>108</v>
@@ -6785,17 +6796,17 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>112</v>
       </c>
       <c r="C22" s="163" t="e">
-        <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-MAX(MAX(C21,0)-MAX(C19,0),0))</f>
+        <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D22" s="163" t="str">
-        <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-MAX(MAX(D21,0)-MAX(D19,0),0))</f>
+        <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v/>
       </c>
       <c r="E22" s="163" t="str">
@@ -6836,7 +6847,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>113</v>
@@ -6887,7 +6898,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
         <v>114</v>
@@ -6938,7 +6949,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="247" t="s">
         <v>131</v>
@@ -6989,7 +7000,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
         <v>138</v>
@@ -7040,7 +7051,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>14</v>
@@ -7091,7 +7102,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>15</v>
@@ -7142,7 +7153,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>117</v>
@@ -7193,7 +7204,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>152</v>
@@ -7244,7 +7255,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>16</v>
@@ -7295,7 +7306,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>116</v>
@@ -7346,7 +7357,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>17</v>
@@ -7397,7 +7408,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>18</v>
@@ -7448,7 +7459,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>19</v>
@@ -7499,7 +7510,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>141</v>
@@ -7550,7 +7561,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>142</v>
@@ -7601,7 +7612,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>140</v>
@@ -7652,7 +7663,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>144</v>
@@ -7703,7 +7714,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>162</v>
@@ -7754,7 +7765,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>127</v>
@@ -7772,7 +7783,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>98</v>
@@ -7823,7 +7834,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>247</v>
@@ -7874,7 +7885,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>109</v>
@@ -7925,7 +7936,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>122</v>
@@ -7976,7 +7987,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>132</v>
@@ -8027,17 +8038,17 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>249</v>
       </c>
       <c r="C47" s="155" t="e">
-        <f>IF(C6="","",MAX(MAX(C21,0)-MAX(C19,0),0)/C6)</f>
+        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D47" s="155" t="str">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",MAX(MAX(D21,0)-MAX(D19,0),0)/D6)</f>
+        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v/>
       </c>
       <c r="E47" s="155" t="str">
@@ -8078,7 +8089,7 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>125</v>
@@ -8129,7 +8140,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
         <v>153</v>
@@ -8147,7 +8158,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>150</v>
@@ -8198,7 +8209,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>151</v>
@@ -8249,7 +8260,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
         <v>126</v>
@@ -8266,7 +8277,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>20</v>
@@ -8316,7 +8327,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>121</v>
@@ -8366,7 +8377,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>123</v>
@@ -8416,7 +8427,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>21</v>
@@ -8466,1263 +8477,1263 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDe